--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF2EC7D-6D63-4D2F-96CA-5071A194A728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B3B92-E90D-4D3F-98AB-CE40C0846126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2026" uniqueCount="1975">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1978">
   <si>
     <t>Int</t>
   </si>
@@ -10932,6 +10932,18 @@
   </si>
   <si>
     <t>UI_43</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>日常任务重置时间：</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily task reset time: </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_44</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11112,7 +11124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11271,6 +11283,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12038,8 +12053,8 @@
   <dimension ref="A1:AMJ1453"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D233" sqref="D233"/>
+      <pane ySplit="3" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -17133,7 +17148,18 @@
       <c r="L231" s="3"/>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A232" s="3"/>
+      <c r="A232" s="3">
+        <v>20227</v>
+      </c>
+      <c r="B232" s="54" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C232" s="55" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D232" s="55" t="s">
+        <v>1975</v>
+      </c>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689B3B92-E90D-4D3F-98AB-CE40C0846126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2320EAA9-C99A-447E-A179-43F7A5DFDDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2029" uniqueCount="1978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="2053">
   <si>
     <t>Int</t>
   </si>
@@ -10944,6 +10944,280 @@
   </si>
   <si>
     <t>UI_44</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Element_2</t>
+  </si>
+  <si>
+    <t>Element_3</t>
+  </si>
+  <si>
+    <t>Element_4</t>
+  </si>
+  <si>
+    <t>Element_5</t>
+  </si>
+  <si>
+    <t>Element_6</t>
+  </si>
+  <si>
+    <t>Sift_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>土</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target_2</t>
+  </si>
+  <si>
+    <t>单体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sift_2</t>
+  </si>
+  <si>
+    <t>Sift_3</t>
+  </si>
+  <si>
+    <t>Sift_4</t>
+  </si>
+  <si>
+    <t>Sift_5</t>
+  </si>
+  <si>
+    <t>Element</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>对策</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType_2</t>
+  </si>
+  <si>
+    <t>Strategy_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy_2</t>
+  </si>
+  <si>
+    <t>Strategy_3</t>
+  </si>
+  <si>
+    <t>Strategy_4</t>
+  </si>
+  <si>
+    <t>Strategy_5</t>
+  </si>
+  <si>
+    <t>Strategy_6</t>
+  </si>
+  <si>
+    <t>Strategy_7</t>
+  </si>
+  <si>
+    <t>Strategy_8</t>
+  </si>
+  <si>
+    <t>Warm-up</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>暖机</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anti-hidden</t>
+  </si>
+  <si>
+    <t>反隐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor Break</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun effect</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor Shred</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>削甲</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slow effect</t>
+  </si>
+  <si>
+    <t>减速</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Penetration</t>
+  </si>
+  <si>
+    <t>法穿</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Anti-Air</t>
+  </si>
+  <si>
+    <t>Multi-Hit</t>
+  </si>
+  <si>
+    <t>多段伤害</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Priority Air</t>
+  </si>
+  <si>
+    <t>优先对空</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strategy_9</t>
+  </si>
+  <si>
+    <t>Strategy_10</t>
+  </si>
+  <si>
+    <t>对空增伤</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11124,7 +11398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11286,6 +11560,9 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12050,11 +12327,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ1453"/>
+  <dimension ref="A1:AMJ1457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E244" sqref="E244"/>
+      <pane ySplit="3" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -17170,7 +17447,18 @@
       <c r="L232" s="3"/>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A233" s="3"/>
+      <c r="A233" s="3">
+        <v>20228</v>
+      </c>
+      <c r="B233" s="54" t="s">
+        <v>1984</v>
+      </c>
+      <c r="C233" s="55" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D233" s="55" t="s">
+        <v>1986</v>
+      </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
       <c r="G233" s="3"/>
@@ -17181,7 +17469,18 @@
       <c r="L233" s="3"/>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A234" s="3"/>
+      <c r="A234" s="3">
+        <v>20229</v>
+      </c>
+      <c r="B234" s="54" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C234" s="55" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D234" s="55" t="s">
+        <v>2011</v>
+      </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
       <c r="G234" s="3"/>
@@ -17192,7 +17491,18 @@
       <c r="L234" s="3"/>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A235" s="3"/>
+      <c r="A235" s="3">
+        <v>20230</v>
+      </c>
+      <c r="B235" s="54" t="s">
+        <v>2007</v>
+      </c>
+      <c r="C235" s="55" t="s">
+        <v>2012</v>
+      </c>
+      <c r="D235" s="55" t="s">
+        <v>2013</v>
+      </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
       <c r="G235" s="3"/>
@@ -17203,7 +17513,18 @@
       <c r="L235" s="3"/>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A236" s="3"/>
+      <c r="A236" s="3">
+        <v>20231</v>
+      </c>
+      <c r="B236" s="54" t="s">
+        <v>2008</v>
+      </c>
+      <c r="C236" s="55" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D236" s="55" t="s">
+        <v>2014</v>
+      </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
       <c r="G236" s="3"/>
@@ -17214,7 +17535,18 @@
       <c r="L236" s="3"/>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A237" s="3"/>
+      <c r="A237" s="3">
+        <v>20232</v>
+      </c>
+      <c r="B237" s="54" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C237" s="55" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D237" s="55" t="s">
+        <v>2015</v>
+      </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
       <c r="G237" s="3"/>
@@ -17225,7 +17557,18 @@
       <c r="L237" s="3"/>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A238" s="3"/>
+      <c r="A238" s="3">
+        <v>20233</v>
+      </c>
+      <c r="B238" s="54" t="s">
+        <v>1978</v>
+      </c>
+      <c r="C238" s="55" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D238" s="55" t="s">
+        <v>1987</v>
+      </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
       <c r="G238" s="3"/>
@@ -17236,8 +17579,18 @@
       <c r="L238" s="3"/>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A239" s="3"/>
-      <c r="D239" s="4"/>
+      <c r="A239" s="3">
+        <v>20234</v>
+      </c>
+      <c r="B239" s="54" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C239" s="55" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D239" s="55" t="s">
+        <v>1988</v>
+      </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
       <c r="G239" s="3"/>
@@ -17248,9 +17601,18 @@
       <c r="L239" s="3"/>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A240" s="3"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="4"/>
+      <c r="A240" s="3">
+        <v>20235</v>
+      </c>
+      <c r="B240" s="54" t="s">
+        <v>1980</v>
+      </c>
+      <c r="C240" s="55" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D240" s="55" t="s">
+        <v>1992</v>
+      </c>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
@@ -17261,9 +17623,18 @@
       <c r="L240" s="3"/>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A241" s="3"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="4"/>
+      <c r="A241" s="3">
+        <v>20236</v>
+      </c>
+      <c r="B241" s="54" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C241" s="55" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D241" s="55" t="s">
+        <v>1989</v>
+      </c>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -17274,9 +17645,18 @@
       <c r="L241" s="3"/>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A242" s="3"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="4"/>
+      <c r="A242" s="3">
+        <v>20237</v>
+      </c>
+      <c r="B242" s="54" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C242" s="55" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D242" s="55" t="s">
+        <v>1990</v>
+      </c>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
@@ -17287,9 +17667,18 @@
       <c r="L242" s="3"/>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A243" s="3"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="4"/>
+      <c r="A243" s="3">
+        <v>20238</v>
+      </c>
+      <c r="B243" s="54" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C243" s="55" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D243" s="52" t="s">
+        <v>1991</v>
+      </c>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
@@ -17300,9 +17689,18 @@
       <c r="L243" s="3"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A244" s="3"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="4"/>
+      <c r="A244" s="3">
+        <v>20239</v>
+      </c>
+      <c r="B244" s="54" t="s">
+        <v>1999</v>
+      </c>
+      <c r="C244" s="53" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D244" s="52" t="s">
+        <v>2003</v>
+      </c>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
@@ -17312,10 +17710,19 @@
       <c r="K244" s="3"/>
       <c r="L244" s="3"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A245" s="3"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="4"/>
+    <row r="245" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A245" s="3">
+        <v>20240</v>
+      </c>
+      <c r="B245" s="54" t="s">
+        <v>2002</v>
+      </c>
+      <c r="C245" s="53" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D245" s="52" t="s">
+        <v>2004</v>
+      </c>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
@@ -17326,9 +17733,18 @@
       <c r="L245" s="3"/>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A246" s="3"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="4"/>
+      <c r="A246" s="56">
+        <v>20241</v>
+      </c>
+      <c r="B246" s="54" t="s">
+        <v>2017</v>
+      </c>
+      <c r="C246" s="54" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D246" s="54" t="s">
+        <v>2020</v>
+      </c>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -17339,9 +17755,18 @@
       <c r="L246" s="3"/>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A247" s="3"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="4"/>
+      <c r="A247" s="56">
+        <v>20242</v>
+      </c>
+      <c r="B247" s="54" t="s">
+        <v>2022</v>
+      </c>
+      <c r="C247" s="54" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D247" s="54" t="s">
+        <v>2021</v>
+      </c>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
@@ -17352,9 +17777,18 @@
       <c r="L247" s="3"/>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A248" s="3"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="4"/>
+      <c r="A248" s="56">
+        <v>20243</v>
+      </c>
+      <c r="B248" s="54" t="s">
+        <v>2023</v>
+      </c>
+      <c r="C248" s="54" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D248" s="54" t="s">
+        <v>2032</v>
+      </c>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
@@ -17365,9 +17799,18 @@
       <c r="L248" s="3"/>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A249" s="3"/>
-      <c r="C249" s="12"/>
-      <c r="D249" s="4"/>
+      <c r="A249" s="56">
+        <v>20244</v>
+      </c>
+      <c r="B249" s="54" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C249" s="54" t="s">
+        <v>2033</v>
+      </c>
+      <c r="D249" s="54" t="s">
+        <v>2034</v>
+      </c>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -17378,9 +17821,18 @@
       <c r="L249" s="3"/>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A250" s="3"/>
-      <c r="C250" s="12"/>
-      <c r="D250" s="4"/>
+      <c r="A250" s="56">
+        <v>20245</v>
+      </c>
+      <c r="B250" s="54" t="s">
+        <v>2025</v>
+      </c>
+      <c r="C250" s="54" t="s">
+        <v>2035</v>
+      </c>
+      <c r="D250" s="54" t="s">
+        <v>2036</v>
+      </c>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -17391,9 +17843,18 @@
       <c r="L250" s="3"/>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A251" s="3"/>
-      <c r="C251" s="12"/>
-      <c r="D251" s="4"/>
+      <c r="A251" s="56">
+        <v>20246</v>
+      </c>
+      <c r="B251" s="55" t="s">
+        <v>2026</v>
+      </c>
+      <c r="C251" s="56" t="s">
+        <v>2037</v>
+      </c>
+      <c r="D251" s="56" t="s">
+        <v>2038</v>
+      </c>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -17404,9 +17865,18 @@
       <c r="L251" s="3"/>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A252" s="3"/>
-      <c r="C252" s="12"/>
-      <c r="D252" s="4"/>
+      <c r="A252" s="56">
+        <v>20247</v>
+      </c>
+      <c r="B252" s="55" t="s">
+        <v>2027</v>
+      </c>
+      <c r="C252" s="56" t="s">
+        <v>2039</v>
+      </c>
+      <c r="D252" s="56" t="s">
+        <v>2040</v>
+      </c>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
@@ -17417,9 +17887,18 @@
       <c r="L252" s="3"/>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A253" s="3"/>
-      <c r="C253" s="12"/>
-      <c r="D253" s="4"/>
+      <c r="A253" s="56">
+        <v>20248</v>
+      </c>
+      <c r="B253" s="55" t="s">
+        <v>2028</v>
+      </c>
+      <c r="C253" s="56" t="s">
+        <v>2041</v>
+      </c>
+      <c r="D253" s="56" t="s">
+        <v>2042</v>
+      </c>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
@@ -17430,9 +17909,18 @@
       <c r="L253" s="3"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A254" s="3"/>
-      <c r="C254" s="12"/>
-      <c r="D254" s="4"/>
+      <c r="A254" s="56">
+        <v>20249</v>
+      </c>
+      <c r="B254" s="55" t="s">
+        <v>2029</v>
+      </c>
+      <c r="C254" s="56" t="s">
+        <v>2043</v>
+      </c>
+      <c r="D254" s="56" t="s">
+        <v>2044</v>
+      </c>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -17443,9 +17931,18 @@
       <c r="L254" s="3"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A255" s="3"/>
-      <c r="C255" s="12"/>
-      <c r="D255" s="4"/>
+      <c r="A255" s="56">
+        <v>20250</v>
+      </c>
+      <c r="B255" s="55" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C255" s="56" t="s">
+        <v>2045</v>
+      </c>
+      <c r="D255" s="56" t="s">
+        <v>2052</v>
+      </c>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
@@ -17456,9 +17953,18 @@
       <c r="L255" s="3"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A256" s="3"/>
-      <c r="C256" s="12"/>
-      <c r="D256" s="4"/>
+      <c r="A256" s="56">
+        <v>20251</v>
+      </c>
+      <c r="B256" s="55" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C256" s="56" t="s">
+        <v>2046</v>
+      </c>
+      <c r="D256" s="56" t="s">
+        <v>2047</v>
+      </c>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -17469,9 +17975,18 @@
       <c r="L256" s="3"/>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A257" s="3"/>
-      <c r="C257" s="12"/>
-      <c r="D257" s="4"/>
+      <c r="A257" s="56">
+        <v>20252</v>
+      </c>
+      <c r="B257" s="55" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C257" s="56" t="s">
+        <v>2048</v>
+      </c>
+      <c r="D257" s="56" t="s">
+        <v>2049</v>
+      </c>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -17482,9 +17997,10 @@
       <c r="L257" s="3"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A258" s="3"/>
-      <c r="C258" s="12"/>
-      <c r="D258" s="4"/>
+      <c r="A258" s="56"/>
+      <c r="B258" s="56"/>
+      <c r="C258" s="56"/>
+      <c r="D258" s="56"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -17495,9 +18011,10 @@
       <c r="L258" s="3"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A259" s="3"/>
-      <c r="C259" s="12"/>
-      <c r="D259" s="4"/>
+      <c r="A259" s="56"/>
+      <c r="B259" s="56"/>
+      <c r="C259" s="56"/>
+      <c r="D259" s="56"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
@@ -17507,10 +18024,11 @@
       <c r="K259" s="3"/>
       <c r="L259" s="3"/>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A260" s="3"/>
-      <c r="C260" s="12"/>
-      <c r="D260" s="4"/>
+    <row r="260" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A260" s="56"/>
+      <c r="B260" s="56"/>
+      <c r="C260" s="56"/>
+      <c r="D260" s="56"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -17520,7 +18038,7 @@
       <c r="K260" s="3"/>
       <c r="L260" s="3"/>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="3"/>
       <c r="C261" s="12"/>
       <c r="D261" s="4"/>
@@ -17652,7 +18170,7 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A271" s="3"/>
-      <c r="C271" s="18"/>
+      <c r="C271" s="12"/>
       <c r="D271" s="4"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
@@ -17704,7 +18222,7 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A275" s="3"/>
-      <c r="C275" s="12"/>
+      <c r="C275" s="18"/>
       <c r="D275" s="4"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
@@ -17834,6 +18352,8 @@
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A285" s="3"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="4"/>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -17845,6 +18365,8 @@
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A286" s="3"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="4"/>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -17856,6 +18378,8 @@
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A287" s="3"/>
+      <c r="C287" s="12"/>
+      <c r="D287" s="4"/>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -17867,6 +18391,8 @@
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A288" s="3"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="4"/>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -17911,7 +18437,6 @@
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A292" s="3"/>
-      <c r="D292" s="4"/>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -17923,7 +18448,6 @@
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A293" s="3"/>
-      <c r="D293" s="4"/>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -17935,7 +18459,6 @@
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A294" s="3"/>
-      <c r="D294" s="4"/>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -17945,10 +18468,8 @@
       <c r="K294" s="3"/>
       <c r="L294" s="3"/>
     </row>
-    <row r="295" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A295" s="3"/>
-      <c r="C295" s="20"/>
-      <c r="D295" s="4"/>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -17958,35 +18479,54 @@
       <c r="K295" s="3"/>
       <c r="L295" s="3"/>
     </row>
-    <row r="296" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A296" s="3"/>
-      <c r="C296" s="20"/>
       <c r="D296" s="4"/>
-      <c r="E296" s="21"/>
+      <c r="E296" s="3"/>
       <c r="F296" s="3"/>
-    </row>
-    <row r="297" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G296" s="3"/>
+      <c r="H296" s="3"/>
+      <c r="I296" s="3"/>
+      <c r="J296" s="3"/>
+      <c r="K296" s="3"/>
+      <c r="L296" s="3"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A297" s="3"/>
-      <c r="C297" s="20"/>
       <c r="D297" s="4"/>
-      <c r="E297" s="21"/>
+      <c r="E297" s="3"/>
       <c r="F297" s="3"/>
-    </row>
-    <row r="298" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G297" s="3"/>
+      <c r="H297" s="3"/>
+      <c r="I297" s="3"/>
+      <c r="J297" s="3"/>
+      <c r="K297" s="3"/>
+      <c r="L297" s="3"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A298" s="3"/>
-      <c r="B298" s="22"/>
-      <c r="C298" s="20"/>
       <c r="D298" s="4"/>
-      <c r="E298" s="21"/>
+      <c r="E298" s="3"/>
       <c r="F298" s="3"/>
+      <c r="G298" s="3"/>
+      <c r="H298" s="3"/>
+      <c r="I298" s="3"/>
+      <c r="J298" s="3"/>
+      <c r="K298" s="3"/>
+      <c r="L298" s="3"/>
     </row>
     <row r="299" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3"/>
-      <c r="B299" s="22"/>
       <c r="C299" s="20"/>
       <c r="D299" s="4"/>
-      <c r="E299" s="21"/>
+      <c r="E299" s="3"/>
       <c r="F299" s="3"/>
+      <c r="G299" s="3"/>
+      <c r="H299" s="3"/>
+      <c r="I299" s="3"/>
+      <c r="J299" s="3"/>
+      <c r="K299" s="3"/>
+      <c r="L299" s="3"/>
     </row>
     <row r="300" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3"/>
@@ -18004,6 +18544,7 @@
     </row>
     <row r="302" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3"/>
+      <c r="B302" s="22"/>
       <c r="C302" s="20"/>
       <c r="D302" s="4"/>
       <c r="E302" s="21"/>
@@ -18011,6 +18552,7 @@
     </row>
     <row r="303" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3"/>
+      <c r="B303" s="22"/>
       <c r="C303" s="20"/>
       <c r="D303" s="4"/>
       <c r="E303" s="21"/>
@@ -18037,33 +18579,29 @@
       <c r="E306" s="21"/>
       <c r="F306" s="3"/>
     </row>
-    <row r="307" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3"/>
-      <c r="B307" s="1"/>
-      <c r="C307" s="5"/>
+      <c r="C307" s="20"/>
       <c r="D307" s="4"/>
       <c r="E307" s="21"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3"/>
-      <c r="B308" s="1"/>
-      <c r="C308" s="5"/>
+      <c r="C308" s="20"/>
       <c r="D308" s="4"/>
       <c r="E308" s="21"/>
       <c r="F308" s="3"/>
     </row>
-    <row r="309" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3"/>
-      <c r="B309" s="1"/>
-      <c r="C309" s="5"/>
+      <c r="C309" s="20"/>
       <c r="D309" s="4"/>
       <c r="E309" s="21"/>
       <c r="F309" s="3"/>
     </row>
     <row r="310" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3"/>
-      <c r="B310" s="1"/>
       <c r="C310" s="20"/>
       <c r="D310" s="4"/>
       <c r="E310" s="21"/>
@@ -18093,10 +18631,10 @@
       <c r="E313" s="21"/>
       <c r="F313" s="3"/>
     </row>
-    <row r="314" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3"/>
       <c r="B314" s="1"/>
-      <c r="C314" s="5"/>
+      <c r="C314" s="20"/>
       <c r="D314" s="4"/>
       <c r="E314" s="21"/>
       <c r="F314" s="3"/>
@@ -18133,26 +18671,26 @@
       <c r="E318" s="21"/>
       <c r="F318" s="3"/>
     </row>
-    <row r="319" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A319" s="3"/>
       <c r="B319" s="1"/>
-      <c r="C319" s="20"/>
+      <c r="C319" s="5"/>
       <c r="D319" s="4"/>
       <c r="E319" s="21"/>
       <c r="F319" s="3"/>
     </row>
-    <row r="320" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A320" s="3"/>
       <c r="B320" s="1"/>
-      <c r="C320" s="20"/>
+      <c r="C320" s="5"/>
       <c r="D320" s="4"/>
       <c r="E320" s="21"/>
       <c r="F320" s="3"/>
     </row>
-    <row r="321" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
       <c r="B321" s="1"/>
-      <c r="C321" s="20"/>
+      <c r="C321" s="5"/>
       <c r="D321" s="4"/>
       <c r="E321" s="21"/>
       <c r="F321" s="3"/>
@@ -18161,13 +18699,13 @@
       <c r="A322" s="3"/>
       <c r="B322" s="1"/>
       <c r="C322" s="5"/>
-      <c r="D322" s="20"/>
+      <c r="D322" s="4"/>
       <c r="E322" s="21"/>
       <c r="F322" s="3"/>
     </row>
     <row r="323" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="3"/>
-      <c r="B323" s="3"/>
+      <c r="B323" s="1"/>
       <c r="C323" s="20"/>
       <c r="D323" s="4"/>
       <c r="E323" s="21"/>
@@ -18186,23 +18724,23 @@
       <c r="B325" s="1"/>
       <c r="C325" s="20"/>
       <c r="D325" s="4"/>
-      <c r="E325" s="23"/>
+      <c r="E325" s="21"/>
       <c r="F325" s="3"/>
     </row>
-    <row r="326" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A326" s="3"/>
       <c r="B326" s="1"/>
-      <c r="C326" s="20"/>
-      <c r="D326" s="4"/>
-      <c r="E326" s="23"/>
+      <c r="C326" s="5"/>
+      <c r="D326" s="20"/>
+      <c r="E326" s="21"/>
       <c r="F326" s="3"/>
     </row>
     <row r="327" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" s="3"/>
-      <c r="B327" s="1"/>
+      <c r="B327" s="3"/>
       <c r="C327" s="20"/>
       <c r="D327" s="4"/>
-      <c r="E327" s="23"/>
+      <c r="E327" s="21"/>
       <c r="F327" s="3"/>
     </row>
     <row r="328" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -18210,7 +18748,7 @@
       <c r="B328" s="1"/>
       <c r="C328" s="20"/>
       <c r="D328" s="4"/>
-      <c r="E328" s="23"/>
+      <c r="E328" s="21"/>
       <c r="F328" s="3"/>
     </row>
     <row r="329" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -18265,7 +18803,7 @@
       <c r="A335" s="3"/>
       <c r="B335" s="1"/>
       <c r="C335" s="20"/>
-      <c r="D335" s="2"/>
+      <c r="D335" s="4"/>
       <c r="E335" s="23"/>
       <c r="F335" s="3"/>
     </row>
@@ -18273,7 +18811,7 @@
       <c r="A336" s="3"/>
       <c r="B336" s="1"/>
       <c r="C336" s="20"/>
-      <c r="D336" s="2"/>
+      <c r="D336" s="4"/>
       <c r="E336" s="23"/>
       <c r="F336" s="3"/>
     </row>
@@ -18281,35 +18819,39 @@
       <c r="A337" s="3"/>
       <c r="B337" s="1"/>
       <c r="C337" s="20"/>
-      <c r="D337" s="2"/>
+      <c r="D337" s="4"/>
       <c r="E337" s="23"/>
       <c r="F337" s="3"/>
     </row>
     <row r="338" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3"/>
+      <c r="B338" s="1"/>
       <c r="C338" s="20"/>
-      <c r="D338" s="20"/>
+      <c r="D338" s="4"/>
       <c r="E338" s="23"/>
       <c r="F338" s="3"/>
     </row>
     <row r="339" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="3"/>
+      <c r="B339" s="1"/>
       <c r="C339" s="20"/>
-      <c r="D339" s="10"/>
+      <c r="D339" s="2"/>
       <c r="E339" s="23"/>
       <c r="F339" s="3"/>
     </row>
     <row r="340" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="3"/>
+      <c r="B340" s="1"/>
       <c r="C340" s="20"/>
-      <c r="D340" s="20"/>
+      <c r="D340" s="2"/>
       <c r="E340" s="23"/>
       <c r="F340" s="3"/>
     </row>
     <row r="341" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A341" s="3"/>
+      <c r="B341" s="1"/>
       <c r="C341" s="20"/>
-      <c r="D341" s="20"/>
+      <c r="D341" s="2"/>
       <c r="E341" s="23"/>
       <c r="F341" s="3"/>
     </row>
@@ -18323,7 +18865,7 @@
     <row r="343" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A343" s="3"/>
       <c r="C343" s="20"/>
-      <c r="D343" s="20"/>
+      <c r="D343" s="10"/>
       <c r="E343" s="23"/>
       <c r="F343" s="3"/>
     </row>
@@ -18334,16 +18876,16 @@
       <c r="E344" s="23"/>
       <c r="F344" s="3"/>
     </row>
-    <row r="345" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A345" s="3"/>
-      <c r="C345" s="5"/>
+      <c r="C345" s="20"/>
       <c r="D345" s="20"/>
       <c r="E345" s="23"/>
       <c r="F345" s="3"/>
     </row>
-    <row r="346" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A346" s="3"/>
-      <c r="C346" s="5"/>
+      <c r="C346" s="20"/>
       <c r="D346" s="20"/>
       <c r="E346" s="23"/>
       <c r="F346" s="3"/>
@@ -18355,35 +18897,31 @@
       <c r="E347" s="23"/>
       <c r="F347" s="3"/>
     </row>
-    <row r="348" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A348" s="3"/>
-      <c r="B348" s="1"/>
       <c r="C348" s="20"/>
-      <c r="D348" s="24"/>
+      <c r="D348" s="20"/>
       <c r="E348" s="23"/>
       <c r="F348" s="3"/>
     </row>
-    <row r="349" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A349" s="3"/>
-      <c r="B349" s="1"/>
-      <c r="C349" s="20"/>
-      <c r="D349" s="24"/>
+      <c r="C349" s="5"/>
+      <c r="D349" s="20"/>
       <c r="E349" s="23"/>
       <c r="F349" s="3"/>
     </row>
-    <row r="350" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A350" s="3"/>
-      <c r="B350" s="1"/>
-      <c r="C350" s="20"/>
-      <c r="D350" s="24"/>
+      <c r="C350" s="5"/>
+      <c r="D350" s="20"/>
       <c r="E350" s="23"/>
       <c r="F350" s="3"/>
     </row>
-    <row r="351" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A351" s="3"/>
-      <c r="B351" s="1"/>
       <c r="C351" s="20"/>
-      <c r="D351" s="24"/>
+      <c r="D351" s="20"/>
       <c r="E351" s="23"/>
       <c r="F351" s="3"/>
     </row>
@@ -18422,7 +18960,7 @@
     <row r="356" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
       <c r="B356" s="1"/>
-      <c r="C356" s="24"/>
+      <c r="C356" s="20"/>
       <c r="D356" s="24"/>
       <c r="E356" s="23"/>
       <c r="F356" s="3"/>
@@ -18430,13 +18968,14 @@
     <row r="357" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
       <c r="B357" s="1"/>
-      <c r="C357" s="24"/>
+      <c r="C357" s="20"/>
       <c r="D357" s="24"/>
       <c r="E357" s="23"/>
       <c r="F357" s="3"/>
     </row>
     <row r="358" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
+      <c r="B358" s="1"/>
       <c r="C358" s="20"/>
       <c r="D358" s="24"/>
       <c r="E358" s="23"/>
@@ -18444,6 +18983,7 @@
     </row>
     <row r="359" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3"/>
+      <c r="B359" s="1"/>
       <c r="C359" s="20"/>
       <c r="D359" s="24"/>
       <c r="E359" s="23"/>
@@ -18452,40 +18992,38 @@
     <row r="360" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3"/>
       <c r="B360" s="1"/>
-      <c r="C360" s="20"/>
+      <c r="C360" s="24"/>
       <c r="D360" s="24"/>
       <c r="E360" s="23"/>
       <c r="F360" s="3"/>
     </row>
-    <row r="361" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3"/>
       <c r="B361" s="1"/>
-      <c r="C361" s="20"/>
-      <c r="D361" s="2"/>
+      <c r="C361" s="24"/>
+      <c r="D361" s="24"/>
       <c r="E361" s="23"/>
       <c r="F361" s="3"/>
     </row>
-    <row r="362" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3"/>
-      <c r="B362" s="1"/>
       <c r="C362" s="20"/>
-      <c r="D362" s="2"/>
+      <c r="D362" s="24"/>
       <c r="E362" s="23"/>
       <c r="F362" s="3"/>
     </row>
-    <row r="363" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
-      <c r="B363" s="1"/>
       <c r="C363" s="20"/>
-      <c r="D363" s="2"/>
+      <c r="D363" s="24"/>
       <c r="E363" s="23"/>
       <c r="F363" s="3"/>
     </row>
-    <row r="364" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3"/>
       <c r="B364" s="1"/>
       <c r="C364" s="20"/>
-      <c r="D364" s="2"/>
+      <c r="D364" s="24"/>
       <c r="E364" s="23"/>
       <c r="F364" s="3"/>
     </row>
@@ -18501,39 +19039,39 @@
       <c r="A366" s="3"/>
       <c r="B366" s="1"/>
       <c r="C366" s="20"/>
-      <c r="D366" s="4"/>
+      <c r="D366" s="2"/>
       <c r="E366" s="23"/>
       <c r="F366" s="3"/>
     </row>
     <row r="367" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" s="3"/>
-      <c r="B367" s="23"/>
+      <c r="B367" s="1"/>
       <c r="C367" s="20"/>
-      <c r="D367" s="4"/>
+      <c r="D367" s="2"/>
       <c r="E367" s="23"/>
       <c r="F367" s="3"/>
     </row>
     <row r="368" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="3"/>
-      <c r="B368" s="23"/>
+      <c r="B368" s="1"/>
       <c r="C368" s="20"/>
-      <c r="D368" s="4"/>
+      <c r="D368" s="2"/>
       <c r="E368" s="23"/>
       <c r="F368" s="3"/>
     </row>
     <row r="369" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A369" s="3"/>
-      <c r="B369" s="23"/>
+      <c r="B369" s="1"/>
       <c r="C369" s="20"/>
-      <c r="D369" s="25"/>
+      <c r="D369" s="2"/>
       <c r="E369" s="23"/>
       <c r="F369" s="3"/>
     </row>
     <row r="370" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A370" s="3"/>
-      <c r="B370" s="23"/>
+      <c r="B370" s="1"/>
       <c r="C370" s="20"/>
-      <c r="D370" s="25"/>
+      <c r="D370" s="4"/>
       <c r="E370" s="23"/>
       <c r="F370" s="3"/>
     </row>
@@ -18541,38 +19079,38 @@
       <c r="A371" s="3"/>
       <c r="B371" s="23"/>
       <c r="C371" s="20"/>
-      <c r="D371" s="25"/>
+      <c r="D371" s="4"/>
       <c r="E371" s="23"/>
       <c r="F371" s="3"/>
     </row>
-    <row r="372" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A372" s="3"/>
       <c r="B372" s="23"/>
-      <c r="C372" s="5"/>
-      <c r="D372" s="25"/>
+      <c r="C372" s="20"/>
+      <c r="D372" s="4"/>
       <c r="E372" s="23"/>
       <c r="F372" s="3"/>
     </row>
-    <row r="373" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A373" s="3"/>
       <c r="B373" s="23"/>
-      <c r="C373" s="26"/>
+      <c r="C373" s="20"/>
       <c r="D373" s="25"/>
       <c r="E373" s="23"/>
       <c r="F373" s="3"/>
     </row>
-    <row r="374" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A374" s="3"/>
       <c r="B374" s="23"/>
-      <c r="C374" s="26"/>
+      <c r="C374" s="20"/>
       <c r="D374" s="25"/>
       <c r="E374" s="23"/>
       <c r="F374" s="3"/>
     </row>
-    <row r="375" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="3"/>
       <c r="B375" s="23"/>
-      <c r="C375" s="5"/>
+      <c r="C375" s="20"/>
       <c r="D375" s="25"/>
       <c r="E375" s="23"/>
       <c r="F375" s="3"/>
@@ -18581,22 +19119,22 @@
       <c r="A376" s="3"/>
       <c r="B376" s="23"/>
       <c r="C376" s="5"/>
-      <c r="D376" s="20"/>
+      <c r="D376" s="25"/>
       <c r="E376" s="23"/>
       <c r="F376" s="3"/>
     </row>
     <row r="377" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A377" s="3"/>
       <c r="B377" s="23"/>
-      <c r="C377" s="5"/>
-      <c r="D377" s="20"/>
+      <c r="C377" s="26"/>
+      <c r="D377" s="25"/>
       <c r="E377" s="23"/>
       <c r="F377" s="3"/>
     </row>
     <row r="378" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
       <c r="B378" s="23"/>
-      <c r="C378" s="5"/>
+      <c r="C378" s="26"/>
       <c r="D378" s="25"/>
       <c r="E378" s="23"/>
       <c r="F378" s="3"/>
@@ -18613,7 +19151,7 @@
       <c r="A380" s="3"/>
       <c r="B380" s="23"/>
       <c r="C380" s="5"/>
-      <c r="D380" s="25"/>
+      <c r="D380" s="20"/>
       <c r="E380" s="23"/>
       <c r="F380" s="3"/>
     </row>
@@ -18621,7 +19159,7 @@
       <c r="A381" s="3"/>
       <c r="B381" s="23"/>
       <c r="C381" s="5"/>
-      <c r="D381" s="25"/>
+      <c r="D381" s="20"/>
       <c r="E381" s="23"/>
       <c r="F381" s="3"/>
     </row>
@@ -18645,7 +19183,7 @@
       <c r="A384" s="3"/>
       <c r="B384" s="23"/>
       <c r="C384" s="5"/>
-      <c r="D384" s="20"/>
+      <c r="D384" s="25"/>
       <c r="E384" s="23"/>
       <c r="F384" s="3"/>
     </row>
@@ -18685,14 +19223,14 @@
       <c r="A389" s="3"/>
       <c r="B389" s="23"/>
       <c r="C389" s="5"/>
-      <c r="D389" s="20"/>
+      <c r="D389" s="25"/>
       <c r="E389" s="23"/>
       <c r="F389" s="3"/>
     </row>
-    <row r="390" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A390" s="3"/>
       <c r="B390" s="23"/>
-      <c r="C390" s="20"/>
+      <c r="C390" s="5"/>
       <c r="D390" s="25"/>
       <c r="E390" s="23"/>
       <c r="F390" s="3"/>
@@ -18700,32 +19238,32 @@
     <row r="391" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A391" s="3"/>
       <c r="B391" s="23"/>
-      <c r="C391" s="20"/>
-      <c r="D391" s="27"/>
+      <c r="C391" s="5"/>
+      <c r="D391" s="25"/>
       <c r="E391" s="23"/>
       <c r="F391" s="3"/>
     </row>
     <row r="392" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A392" s="3"/>
       <c r="B392" s="23"/>
-      <c r="C392" s="20"/>
-      <c r="D392" s="27"/>
+      <c r="C392" s="5"/>
+      <c r="D392" s="20"/>
       <c r="E392" s="23"/>
       <c r="F392" s="3"/>
     </row>
     <row r="393" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A393" s="3"/>
       <c r="B393" s="23"/>
-      <c r="C393" s="20"/>
-      <c r="D393" s="27"/>
+      <c r="C393" s="5"/>
+      <c r="D393" s="20"/>
       <c r="E393" s="23"/>
       <c r="F393" s="3"/>
     </row>
-    <row r="394" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A394" s="3"/>
       <c r="B394" s="23"/>
       <c r="C394" s="20"/>
-      <c r="D394" s="27"/>
+      <c r="D394" s="25"/>
       <c r="E394" s="23"/>
       <c r="F394" s="3"/>
     </row>
@@ -18833,35 +19371,35 @@
       <c r="E407" s="23"/>
       <c r="F407" s="3"/>
     </row>
-    <row r="408" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A408" s="3"/>
       <c r="B408" s="23"/>
       <c r="C408" s="20"/>
-      <c r="D408" s="20"/>
+      <c r="D408" s="27"/>
       <c r="E408" s="23"/>
       <c r="F408" s="3"/>
     </row>
-    <row r="409" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A409" s="3"/>
       <c r="B409" s="23"/>
       <c r="C409" s="20"/>
-      <c r="D409" s="20"/>
+      <c r="D409" s="27"/>
       <c r="E409" s="23"/>
       <c r="F409" s="3"/>
     </row>
-    <row r="410" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A410" s="3"/>
       <c r="B410" s="23"/>
       <c r="C410" s="20"/>
-      <c r="D410" s="20"/>
+      <c r="D410" s="27"/>
       <c r="E410" s="23"/>
       <c r="F410" s="3"/>
     </row>
-    <row r="411" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A411" s="3"/>
       <c r="B411" s="23"/>
       <c r="C411" s="20"/>
-      <c r="D411" s="20"/>
+      <c r="D411" s="27"/>
       <c r="E411" s="23"/>
       <c r="F411" s="3"/>
     </row>
@@ -18881,35 +19419,35 @@
       <c r="E413" s="23"/>
       <c r="F413" s="3"/>
     </row>
-    <row r="414" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A414" s="3"/>
       <c r="B414" s="23"/>
       <c r="C414" s="20"/>
-      <c r="D414" s="27"/>
+      <c r="D414" s="20"/>
       <c r="E414" s="23"/>
       <c r="F414" s="3"/>
     </row>
-    <row r="415" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A415" s="3"/>
       <c r="B415" s="23"/>
       <c r="C415" s="20"/>
-      <c r="D415" s="27"/>
+      <c r="D415" s="20"/>
       <c r="E415" s="23"/>
       <c r="F415" s="3"/>
     </row>
-    <row r="416" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A416" s="3"/>
       <c r="B416" s="23"/>
-      <c r="C416" s="27"/>
-      <c r="D416" s="27"/>
+      <c r="C416" s="20"/>
+      <c r="D416" s="20"/>
       <c r="E416" s="23"/>
       <c r="F416" s="3"/>
     </row>
-    <row r="417" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A417" s="3"/>
       <c r="B417" s="23"/>
       <c r="C417" s="20"/>
-      <c r="D417" s="27"/>
+      <c r="D417" s="20"/>
       <c r="E417" s="23"/>
       <c r="F417" s="3"/>
     </row>
@@ -18921,42 +19459,42 @@
       <c r="E418" s="23"/>
       <c r="F418" s="3"/>
     </row>
-    <row r="419" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A419" s="3"/>
       <c r="B419" s="23"/>
       <c r="C419" s="20"/>
-      <c r="D419" s="4"/>
+      <c r="D419" s="27"/>
       <c r="E419" s="23"/>
       <c r="F419" s="3"/>
     </row>
-    <row r="420" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A420" s="3"/>
       <c r="B420" s="23"/>
-      <c r="C420" s="20"/>
-      <c r="D420" s="4"/>
+      <c r="C420" s="27"/>
+      <c r="D420" s="27"/>
       <c r="E420" s="23"/>
       <c r="F420" s="3"/>
     </row>
-    <row r="421" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A421" s="3"/>
       <c r="B421" s="23"/>
       <c r="C421" s="20"/>
-      <c r="D421" s="4"/>
+      <c r="D421" s="27"/>
       <c r="E421" s="23"/>
       <c r="F421" s="3"/>
     </row>
-    <row r="422" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A422" s="3"/>
       <c r="B422" s="23"/>
       <c r="C422" s="20"/>
-      <c r="D422" s="4"/>
+      <c r="D422" s="27"/>
       <c r="E422" s="23"/>
       <c r="F422" s="3"/>
     </row>
-    <row r="423" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A423" s="3"/>
       <c r="B423" s="23"/>
-      <c r="C423" s="5"/>
+      <c r="C423" s="20"/>
       <c r="D423" s="4"/>
       <c r="E423" s="23"/>
       <c r="F423" s="3"/>
@@ -18985,18 +19523,18 @@
       <c r="E426" s="23"/>
       <c r="F426" s="3"/>
     </row>
-    <row r="427" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A427" s="3"/>
       <c r="B427" s="23"/>
-      <c r="C427" s="20"/>
+      <c r="C427" s="5"/>
       <c r="D427" s="4"/>
       <c r="E427" s="23"/>
       <c r="F427" s="3"/>
     </row>
-    <row r="428" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A428" s="3"/>
       <c r="B428" s="23"/>
-      <c r="C428" s="5"/>
+      <c r="C428" s="20"/>
       <c r="D428" s="4"/>
       <c r="E428" s="23"/>
       <c r="F428" s="3"/>
@@ -19009,10 +19547,10 @@
       <c r="E429" s="23"/>
       <c r="F429" s="3"/>
     </row>
-    <row r="430" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A430" s="3"/>
       <c r="B430" s="23"/>
-      <c r="C430" s="5"/>
+      <c r="C430" s="20"/>
       <c r="D430" s="4"/>
       <c r="E430" s="23"/>
       <c r="F430" s="3"/>
@@ -19025,10 +19563,10 @@
       <c r="E431" s="23"/>
       <c r="F431" s="3"/>
     </row>
-    <row r="432" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A432" s="3"/>
       <c r="B432" s="23"/>
-      <c r="C432" s="20"/>
+      <c r="C432" s="5"/>
       <c r="D432" s="4"/>
       <c r="E432" s="23"/>
       <c r="F432" s="3"/>
@@ -19057,26 +19595,26 @@
       <c r="E435" s="23"/>
       <c r="F435" s="3"/>
     </row>
-    <row r="436" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A436" s="3"/>
       <c r="B436" s="23"/>
-      <c r="C436" s="5"/>
+      <c r="C436" s="20"/>
       <c r="D436" s="4"/>
       <c r="E436" s="23"/>
       <c r="F436" s="3"/>
     </row>
-    <row r="437" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A437" s="3"/>
       <c r="B437" s="23"/>
-      <c r="C437" s="5"/>
+      <c r="C437" s="20"/>
       <c r="D437" s="4"/>
       <c r="E437" s="23"/>
       <c r="F437" s="3"/>
     </row>
-    <row r="438" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A438" s="3"/>
       <c r="B438" s="23"/>
-      <c r="C438" s="20"/>
+      <c r="C438" s="5"/>
       <c r="D438" s="4"/>
       <c r="E438" s="23"/>
       <c r="F438" s="3"/>
@@ -19105,10 +19643,10 @@
       <c r="E441" s="23"/>
       <c r="F441" s="3"/>
     </row>
-    <row r="442" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A442" s="3"/>
       <c r="B442" s="23"/>
-      <c r="C442" s="5"/>
+      <c r="C442" s="20"/>
       <c r="D442" s="4"/>
       <c r="E442" s="23"/>
       <c r="F442" s="3"/>
@@ -19129,18 +19667,18 @@
       <c r="E444" s="23"/>
       <c r="F444" s="3"/>
     </row>
-    <row r="445" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A445" s="3"/>
       <c r="B445" s="23"/>
-      <c r="C445" s="20"/>
+      <c r="C445" s="5"/>
       <c r="D445" s="4"/>
       <c r="E445" s="23"/>
       <c r="F445" s="3"/>
     </row>
-    <row r="446" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A446" s="3"/>
       <c r="B446" s="23"/>
-      <c r="C446" s="20"/>
+      <c r="C446" s="5"/>
       <c r="D446" s="4"/>
       <c r="E446" s="23"/>
       <c r="F446" s="3"/>
@@ -19177,10 +19715,10 @@
       <c r="E450" s="23"/>
       <c r="F450" s="3"/>
     </row>
-    <row r="451" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A451" s="3"/>
       <c r="B451" s="23"/>
-      <c r="C451" s="5"/>
+      <c r="C451" s="20"/>
       <c r="D451" s="4"/>
       <c r="E451" s="23"/>
       <c r="F451" s="3"/>
@@ -19193,10 +19731,10 @@
       <c r="E452" s="23"/>
       <c r="F452" s="3"/>
     </row>
-    <row r="453" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A453" s="3"/>
       <c r="B453" s="23"/>
-      <c r="C453" s="5"/>
+      <c r="C453" s="20"/>
       <c r="D453" s="4"/>
       <c r="E453" s="23"/>
       <c r="F453" s="3"/>
@@ -19217,10 +19755,10 @@
       <c r="E455" s="23"/>
       <c r="F455" s="3"/>
     </row>
-    <row r="456" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A456" s="3"/>
       <c r="B456" s="23"/>
-      <c r="C456" s="20"/>
+      <c r="C456" s="5"/>
       <c r="D456" s="4"/>
       <c r="E456" s="23"/>
       <c r="F456" s="3"/>
@@ -19233,18 +19771,18 @@
       <c r="E457" s="23"/>
       <c r="F457" s="3"/>
     </row>
-    <row r="458" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A458" s="3"/>
       <c r="B458" s="23"/>
-      <c r="C458" s="5"/>
+      <c r="C458" s="20"/>
       <c r="D458" s="4"/>
       <c r="E458" s="23"/>
       <c r="F458" s="3"/>
     </row>
-    <row r="459" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A459" s="3"/>
       <c r="B459" s="23"/>
-      <c r="C459" s="20"/>
+      <c r="C459" s="5"/>
       <c r="D459" s="4"/>
       <c r="E459" s="23"/>
       <c r="F459" s="3"/>
@@ -19257,18 +19795,18 @@
       <c r="E460" s="23"/>
       <c r="F460" s="3"/>
     </row>
-    <row r="461" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A461" s="3"/>
       <c r="B461" s="23"/>
-      <c r="C461" s="20"/>
+      <c r="C461" s="5"/>
       <c r="D461" s="4"/>
       <c r="E461" s="23"/>
       <c r="F461" s="3"/>
     </row>
-    <row r="462" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A462" s="3"/>
       <c r="B462" s="23"/>
-      <c r="C462" s="20"/>
+      <c r="C462" s="5"/>
       <c r="D462" s="4"/>
       <c r="E462" s="23"/>
       <c r="F462" s="3"/>
@@ -19313,34 +19851,34 @@
       <c r="E467" s="23"/>
       <c r="F467" s="3"/>
     </row>
-    <row r="468" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A468" s="3"/>
       <c r="B468" s="23"/>
-      <c r="C468" s="5"/>
+      <c r="C468" s="20"/>
       <c r="D468" s="4"/>
       <c r="E468" s="23"/>
       <c r="F468" s="3"/>
     </row>
-    <row r="469" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A469" s="3"/>
       <c r="B469" s="23"/>
-      <c r="C469" s="5"/>
+      <c r="C469" s="20"/>
       <c r="D469" s="4"/>
       <c r="E469" s="23"/>
       <c r="F469" s="3"/>
     </row>
-    <row r="470" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A470" s="3"/>
       <c r="B470" s="23"/>
-      <c r="C470" s="5"/>
+      <c r="C470" s="20"/>
       <c r="D470" s="4"/>
       <c r="E470" s="23"/>
       <c r="F470" s="3"/>
     </row>
-    <row r="471" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A471" s="3"/>
       <c r="B471" s="23"/>
-      <c r="C471" s="5"/>
+      <c r="C471" s="20"/>
       <c r="D471" s="4"/>
       <c r="E471" s="23"/>
       <c r="F471" s="3"/>
@@ -19457,77 +19995,81 @@
       <c r="E485" s="23"/>
       <c r="F485" s="3"/>
     </row>
-    <row r="486" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A486" s="3"/>
       <c r="B486" s="23"/>
-      <c r="C486" s="20"/>
-      <c r="D486" s="28"/>
+      <c r="C486" s="5"/>
+      <c r="D486" s="4"/>
       <c r="E486" s="23"/>
       <c r="F486" s="3"/>
     </row>
-    <row r="487" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A487" s="3"/>
       <c r="B487" s="23"/>
-      <c r="C487" s="25"/>
-      <c r="D487" s="25"/>
+      <c r="C487" s="5"/>
+      <c r="D487" s="4"/>
       <c r="E487" s="23"/>
       <c r="F487" s="3"/>
     </row>
-    <row r="488" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A488" s="3"/>
       <c r="B488" s="23"/>
-      <c r="C488" s="25"/>
-      <c r="D488" s="25"/>
+      <c r="C488" s="5"/>
+      <c r="D488" s="4"/>
       <c r="E488" s="23"/>
       <c r="F488" s="3"/>
     </row>
-    <row r="489" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A489" s="3"/>
       <c r="B489" s="23"/>
-      <c r="C489" s="20"/>
-      <c r="D489" s="20"/>
+      <c r="C489" s="5"/>
+      <c r="D489" s="4"/>
       <c r="E489" s="23"/>
       <c r="F489" s="3"/>
     </row>
     <row r="490" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A490" s="3"/>
       <c r="B490" s="23"/>
       <c r="C490" s="20"/>
-      <c r="D490" s="25"/>
+      <c r="D490" s="28"/>
       <c r="E490" s="23"/>
       <c r="F490" s="3"/>
     </row>
     <row r="491" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A491" s="3"/>
       <c r="B491" s="23"/>
-      <c r="C491" s="20"/>
-      <c r="D491" s="20"/>
+      <c r="C491" s="25"/>
+      <c r="D491" s="25"/>
+      <c r="E491" s="23"/>
       <c r="F491" s="3"/>
     </row>
     <row r="492" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A492" s="3"/>
       <c r="B492" s="23"/>
-      <c r="C492" s="20"/>
+      <c r="C492" s="25"/>
       <c r="D492" s="25"/>
+      <c r="E492" s="23"/>
       <c r="F492" s="3"/>
     </row>
     <row r="493" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A493" s="3"/>
       <c r="B493" s="23"/>
       <c r="C493" s="20"/>
-      <c r="D493" s="25"/>
+      <c r="D493" s="20"/>
+      <c r="E493" s="23"/>
       <c r="F493" s="3"/>
     </row>
     <row r="494" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A494" s="3"/>
       <c r="B494" s="23"/>
       <c r="C494" s="20"/>
       <c r="D494" s="25"/>
+      <c r="E494" s="23"/>
       <c r="F494" s="3"/>
     </row>
     <row r="495" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A495" s="3"/>
       <c r="B495" s="23"/>
       <c r="C495" s="20"/>
-      <c r="D495" s="25"/>
+      <c r="D495" s="20"/>
       <c r="F495" s="3"/>
     </row>
     <row r="496" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -19745,31 +20287,31 @@
       <c r="B526" s="23"/>
       <c r="C526" s="20"/>
       <c r="D526" s="25"/>
-      <c r="E526" s="23"/>
       <c r="F526" s="3"/>
     </row>
     <row r="527" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A527" s="3"/>
       <c r="B527" s="23"/>
       <c r="C527" s="20"/>
       <c r="D527" s="25"/>
-      <c r="E527" s="23"/>
       <c r="F527" s="3"/>
     </row>
     <row r="528" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A528" s="3"/>
       <c r="B528" s="23"/>
       <c r="C528" s="20"/>
       <c r="D528" s="25"/>
-      <c r="E528" s="23"/>
       <c r="F528" s="3"/>
     </row>
     <row r="529" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A529" s="3"/>
       <c r="B529" s="23"/>
       <c r="C529" s="20"/>
       <c r="D529" s="25"/>
-      <c r="E529" s="23"/>
       <c r="F529" s="3"/>
     </row>
     <row r="530" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A530" s="3"/>
       <c r="B530" s="23"/>
       <c r="C530" s="20"/>
       <c r="D530" s="25"/>
@@ -19777,57 +20319,53 @@
       <c r="F530" s="3"/>
     </row>
     <row r="531" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A531" s="3"/>
       <c r="B531" s="23"/>
       <c r="C531" s="20"/>
-      <c r="D531" s="20"/>
+      <c r="D531" s="25"/>
       <c r="E531" s="23"/>
       <c r="F531" s="3"/>
     </row>
     <row r="532" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A532" s="3"/>
       <c r="B532" s="23"/>
       <c r="C532" s="20"/>
-      <c r="D532" s="20"/>
+      <c r="D532" s="25"/>
       <c r="E532" s="23"/>
       <c r="F532" s="3"/>
     </row>
     <row r="533" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A533" s="3"/>
       <c r="B533" s="23"/>
       <c r="C533" s="20"/>
-      <c r="D533" s="20"/>
+      <c r="D533" s="25"/>
       <c r="E533" s="23"/>
       <c r="F533" s="3"/>
     </row>
-    <row r="534" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A534" s="3"/>
+    <row r="534" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B534" s="23"/>
-      <c r="C534" s="5"/>
-      <c r="D534" s="20"/>
+      <c r="C534" s="20"/>
+      <c r="D534" s="25"/>
       <c r="E534" s="23"/>
       <c r="F534" s="3"/>
     </row>
-    <row r="535" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A535" s="3"/>
       <c r="B535" s="23"/>
-      <c r="C535" s="5"/>
+      <c r="C535" s="20"/>
       <c r="D535" s="20"/>
       <c r="E535" s="23"/>
       <c r="F535" s="3"/>
     </row>
-    <row r="536" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A536" s="3"/>
       <c r="B536" s="23"/>
-      <c r="C536" s="5"/>
+      <c r="C536" s="20"/>
       <c r="D536" s="20"/>
       <c r="E536" s="23"/>
       <c r="F536" s="3"/>
     </row>
-    <row r="537" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A537" s="3"/>
       <c r="B537" s="23"/>
-      <c r="C537" s="5"/>
+      <c r="C537" s="20"/>
       <c r="D537" s="20"/>
       <c r="E537" s="23"/>
       <c r="F537" s="3"/>
@@ -19840,34 +20378,34 @@
       <c r="E538" s="23"/>
       <c r="F538" s="3"/>
     </row>
-    <row r="539" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A539" s="3"/>
       <c r="B539" s="23"/>
-      <c r="C539" s="20"/>
+      <c r="C539" s="5"/>
       <c r="D539" s="20"/>
       <c r="E539" s="23"/>
       <c r="F539" s="3"/>
     </row>
-    <row r="540" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A540" s="3"/>
       <c r="B540" s="23"/>
-      <c r="C540" s="20"/>
+      <c r="C540" s="5"/>
       <c r="D540" s="20"/>
       <c r="E540" s="23"/>
       <c r="F540" s="3"/>
     </row>
-    <row r="541" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A541" s="3"/>
       <c r="B541" s="23"/>
-      <c r="C541" s="20"/>
+      <c r="C541" s="5"/>
       <c r="D541" s="20"/>
       <c r="E541" s="23"/>
       <c r="F541" s="3"/>
     </row>
-    <row r="542" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A542" s="3"/>
       <c r="B542" s="23"/>
-      <c r="C542" s="20"/>
+      <c r="C542" s="5"/>
       <c r="D542" s="20"/>
       <c r="E542" s="23"/>
       <c r="F542" s="3"/>
@@ -19884,7 +20422,7 @@
       <c r="A544" s="3"/>
       <c r="B544" s="23"/>
       <c r="C544" s="20"/>
-      <c r="D544" s="4"/>
+      <c r="D544" s="20"/>
       <c r="E544" s="23"/>
       <c r="F544" s="3"/>
     </row>
@@ -19916,7 +20454,7 @@
       <c r="A548" s="3"/>
       <c r="B548" s="23"/>
       <c r="C548" s="20"/>
-      <c r="D548" s="20"/>
+      <c r="D548" s="4"/>
       <c r="E548" s="23"/>
       <c r="F548" s="3"/>
     </row>
@@ -19956,7 +20494,7 @@
       <c r="A553" s="3"/>
       <c r="B553" s="23"/>
       <c r="C553" s="20"/>
-      <c r="D553" s="4"/>
+      <c r="D553" s="20"/>
       <c r="E553" s="23"/>
       <c r="F553" s="3"/>
     </row>
@@ -19988,7 +20526,7 @@
       <c r="A557" s="3"/>
       <c r="B557" s="23"/>
       <c r="C557" s="20"/>
-      <c r="D557" s="20"/>
+      <c r="D557" s="4"/>
       <c r="E557" s="23"/>
       <c r="F557" s="3"/>
     </row>
@@ -20004,39 +20542,39 @@
       <c r="A559" s="3"/>
       <c r="B559" s="23"/>
       <c r="C559" s="20"/>
-      <c r="D559" s="29"/>
-      <c r="E559" s="21"/>
+      <c r="D559" s="20"/>
+      <c r="E559" s="23"/>
       <c r="F559" s="3"/>
     </row>
     <row r="560" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A560" s="3"/>
       <c r="B560" s="23"/>
       <c r="C560" s="20"/>
-      <c r="D560" s="29"/>
-      <c r="E560" s="21"/>
+      <c r="D560" s="20"/>
+      <c r="E560" s="23"/>
       <c r="F560" s="3"/>
     </row>
     <row r="561" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A561" s="3"/>
       <c r="B561" s="23"/>
       <c r="C561" s="20"/>
-      <c r="D561" s="29"/>
-      <c r="E561" s="21"/>
+      <c r="D561" s="20"/>
+      <c r="E561" s="23"/>
       <c r="F561" s="3"/>
     </row>
-    <row r="562" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A562" s="3"/>
       <c r="B562" s="23"/>
-      <c r="C562" s="5"/>
-      <c r="D562" s="29"/>
-      <c r="E562" s="21"/>
+      <c r="C562" s="20"/>
+      <c r="D562" s="20"/>
+      <c r="E562" s="23"/>
       <c r="F562" s="3"/>
     </row>
-    <row r="563" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A563" s="3"/>
       <c r="B563" s="23"/>
-      <c r="C563" s="26"/>
-      <c r="D563" s="4"/>
+      <c r="C563" s="20"/>
+      <c r="D563" s="29"/>
       <c r="E563" s="21"/>
       <c r="F563" s="3"/>
     </row>
@@ -20044,29 +20582,33 @@
       <c r="A564" s="3"/>
       <c r="B564" s="23"/>
       <c r="C564" s="20"/>
-      <c r="D564" s="4"/>
+      <c r="D564" s="29"/>
       <c r="E564" s="21"/>
-    </row>
-    <row r="565" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F564" s="3"/>
+    </row>
+    <row r="565" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A565" s="3"/>
       <c r="B565" s="23"/>
-      <c r="C565" s="30"/>
-      <c r="D565" s="4"/>
+      <c r="C565" s="20"/>
+      <c r="D565" s="29"/>
       <c r="E565" s="21"/>
-    </row>
-    <row r="566" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F565" s="3"/>
+    </row>
+    <row r="566" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A566" s="3"/>
       <c r="B566" s="23"/>
-      <c r="C566" s="20"/>
-      <c r="D566" s="4"/>
+      <c r="C566" s="5"/>
+      <c r="D566" s="29"/>
       <c r="E566" s="21"/>
-    </row>
-    <row r="567" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F566" s="3"/>
+    </row>
+    <row r="567" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A567" s="3"/>
       <c r="B567" s="23"/>
-      <c r="C567" s="20"/>
+      <c r="C567" s="26"/>
       <c r="D567" s="4"/>
       <c r="E567" s="21"/>
+      <c r="F567" s="3"/>
     </row>
     <row r="568" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A568" s="3"/>
@@ -20075,10 +20617,10 @@
       <c r="D568" s="4"/>
       <c r="E568" s="21"/>
     </row>
-    <row r="569" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="3"/>
       <c r="B569" s="23"/>
-      <c r="C569" s="20"/>
+      <c r="C569" s="30"/>
       <c r="D569" s="4"/>
       <c r="E569" s="21"/>
     </row>
@@ -20096,11 +20638,11 @@
       <c r="D571" s="4"/>
       <c r="E571" s="21"/>
     </row>
-    <row r="572" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A572" s="3"/>
       <c r="B572" s="23"/>
-      <c r="C572" s="30"/>
-      <c r="D572" s="29"/>
+      <c r="C572" s="20"/>
+      <c r="D572" s="4"/>
       <c r="E572" s="21"/>
     </row>
     <row r="573" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -20124,11 +20666,11 @@
       <c r="D575" s="4"/>
       <c r="E575" s="21"/>
     </row>
-    <row r="576" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="3"/>
       <c r="B576" s="23"/>
-      <c r="C576" s="20"/>
-      <c r="D576" s="4"/>
+      <c r="C576" s="30"/>
+      <c r="D576" s="29"/>
       <c r="E576" s="21"/>
     </row>
     <row r="577" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -20152,10 +20694,10 @@
       <c r="D579" s="4"/>
       <c r="E579" s="21"/>
     </row>
-    <row r="580" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A580" s="3"/>
       <c r="B580" s="23"/>
-      <c r="C580" s="30"/>
+      <c r="C580" s="20"/>
       <c r="D580" s="4"/>
       <c r="E580" s="21"/>
     </row>
@@ -20180,10 +20722,10 @@
       <c r="D583" s="4"/>
       <c r="E583" s="21"/>
     </row>
-    <row r="584" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A584" s="3"/>
       <c r="B584" s="23"/>
-      <c r="C584" s="20"/>
+      <c r="C584" s="30"/>
       <c r="D584" s="4"/>
       <c r="E584" s="21"/>
     </row>
@@ -20201,10 +20743,10 @@
       <c r="D586" s="4"/>
       <c r="E586" s="21"/>
     </row>
-    <row r="587" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A587" s="3"/>
       <c r="B587" s="23"/>
-      <c r="C587" s="30"/>
+      <c r="C587" s="20"/>
       <c r="D587" s="4"/>
       <c r="E587" s="21"/>
     </row>
@@ -20229,10 +20771,10 @@
       <c r="D590" s="4"/>
       <c r="E590" s="21"/>
     </row>
-    <row r="591" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3"/>
       <c r="B591" s="23"/>
-      <c r="C591" s="20"/>
+      <c r="C591" s="30"/>
       <c r="D591" s="4"/>
       <c r="E591" s="21"/>
     </row>
@@ -20259,28 +20801,28 @@
     </row>
     <row r="595" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A595" s="3"/>
-      <c r="B595" s="21"/>
+      <c r="B595" s="23"/>
       <c r="C595" s="20"/>
       <c r="D595" s="4"/>
       <c r="E595" s="21"/>
     </row>
     <row r="596" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A596" s="3"/>
-      <c r="B596" s="21"/>
+      <c r="B596" s="23"/>
       <c r="C596" s="20"/>
       <c r="D596" s="4"/>
       <c r="E596" s="21"/>
     </row>
     <row r="597" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A597" s="3"/>
-      <c r="B597" s="21"/>
+      <c r="B597" s="23"/>
       <c r="C597" s="20"/>
       <c r="D597" s="4"/>
       <c r="E597" s="21"/>
     </row>
     <row r="598" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A598" s="3"/>
-      <c r="B598" s="21"/>
+      <c r="B598" s="23"/>
       <c r="C598" s="20"/>
       <c r="D598" s="4"/>
       <c r="E598" s="21"/>
@@ -20317,28 +20859,28 @@
       <c r="A603" s="3"/>
       <c r="B603" s="21"/>
       <c r="C603" s="20"/>
-      <c r="D603" s="8"/>
+      <c r="D603" s="4"/>
       <c r="E603" s="21"/>
     </row>
     <row r="604" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A604" s="3"/>
       <c r="B604" s="21"/>
       <c r="C604" s="20"/>
-      <c r="D604" s="8"/>
+      <c r="D604" s="4"/>
       <c r="E604" s="21"/>
     </row>
     <row r="605" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A605" s="3"/>
       <c r="B605" s="21"/>
       <c r="C605" s="20"/>
-      <c r="D605" s="8"/>
+      <c r="D605" s="4"/>
       <c r="E605" s="21"/>
     </row>
     <row r="606" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A606" s="3"/>
       <c r="B606" s="21"/>
       <c r="C606" s="20"/>
-      <c r="D606" s="8"/>
+      <c r="D606" s="4"/>
       <c r="E606" s="21"/>
     </row>
     <row r="607" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -20360,64 +20902,68 @@
       <c r="B609" s="21"/>
       <c r="C609" s="20"/>
       <c r="D609" s="8"/>
-      <c r="E609" s="23"/>
+      <c r="E609" s="21"/>
     </row>
     <row r="610" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A610" s="3"/>
       <c r="B610" s="21"/>
-      <c r="C610" s="2"/>
-      <c r="D610" s="4"/>
-      <c r="E610" s="23"/>
+      <c r="C610" s="20"/>
+      <c r="D610" s="8"/>
+      <c r="E610" s="21"/>
     </row>
     <row r="611" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A611" s="3"/>
       <c r="B611" s="21"/>
-      <c r="C611" s="2"/>
-      <c r="D611" s="4"/>
-      <c r="E611" s="23"/>
+      <c r="C611" s="20"/>
+      <c r="D611" s="8"/>
+      <c r="E611" s="21"/>
     </row>
     <row r="612" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A612" s="3"/>
       <c r="B612" s="21"/>
-      <c r="C612" s="2"/>
-      <c r="D612" s="4"/>
-      <c r="E612" s="23"/>
+      <c r="C612" s="20"/>
+      <c r="D612" s="8"/>
+      <c r="E612" s="21"/>
     </row>
     <row r="613" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A613" s="3"/>
       <c r="B613" s="21"/>
-      <c r="C613" s="2"/>
-      <c r="D613" s="4"/>
+      <c r="C613" s="20"/>
+      <c r="D613" s="8"/>
       <c r="E613" s="23"/>
     </row>
     <row r="614" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A614" s="3"/>
-      <c r="B614" s="23"/>
-      <c r="C614" s="20"/>
+      <c r="B614" s="21"/>
+      <c r="C614" s="2"/>
       <c r="D614" s="4"/>
-    </row>
-    <row r="615" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E614" s="23"/>
+    </row>
+    <row r="615" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A615" s="3"/>
-      <c r="B615" s="23"/>
-      <c r="C615" s="5"/>
+      <c r="B615" s="21"/>
+      <c r="C615" s="2"/>
       <c r="D615" s="4"/>
-    </row>
-    <row r="616" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E615" s="23"/>
+    </row>
+    <row r="616" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A616" s="3"/>
-      <c r="B616" s="23"/>
-      <c r="C616" s="5"/>
-      <c r="D616" s="2"/>
-    </row>
-    <row r="617" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B616" s="21"/>
+      <c r="C616" s="2"/>
+      <c r="D616" s="4"/>
+      <c r="E616" s="23"/>
+    </row>
+    <row r="617" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A617" s="3"/>
       <c r="B617" s="21"/>
-      <c r="C617" s="5"/>
-      <c r="D617" s="8"/>
+      <c r="C617" s="2"/>
+      <c r="D617" s="4"/>
+      <c r="E617" s="23"/>
     </row>
     <row r="618" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A618" s="3"/>
       <c r="B618" s="23"/>
-      <c r="C618" s="2"/>
+      <c r="C618" s="20"/>
       <c r="D618" s="4"/>
     </row>
     <row r="619" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -20425,56 +20971,52 @@
       <c r="B619" s="23"/>
       <c r="C619" s="5"/>
       <c r="D619" s="4"/>
-      <c r="E619" s="23"/>
     </row>
     <row r="620" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A620" s="3"/>
       <c r="B620" s="23"/>
       <c r="C620" s="5"/>
-      <c r="D620" s="30"/>
-      <c r="E620" s="23"/>
+      <c r="D620" s="2"/>
     </row>
     <row r="621" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A621" s="3"/>
-      <c r="B621" s="23"/>
+      <c r="B621" s="21"/>
       <c r="C621" s="5"/>
-      <c r="D621" s="30"/>
-      <c r="E621" s="23"/>
-    </row>
-    <row r="622" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D621" s="8"/>
+    </row>
+    <row r="622" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A622" s="3"/>
       <c r="B622" s="23"/>
-      <c r="C622" s="5"/>
-      <c r="D622" s="2"/>
-      <c r="E622" s="23"/>
+      <c r="C622" s="2"/>
+      <c r="D622" s="4"/>
     </row>
     <row r="623" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A623" s="3"/>
       <c r="B623" s="23"/>
       <c r="C623" s="5"/>
-      <c r="D623" s="2"/>
-      <c r="E623" s="21"/>
+      <c r="D623" s="4"/>
+      <c r="E623" s="23"/>
     </row>
     <row r="624" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A624" s="3"/>
       <c r="B624" s="23"/>
       <c r="C624" s="5"/>
-      <c r="D624" s="2"/>
-      <c r="E624" s="21"/>
+      <c r="D624" s="30"/>
+      <c r="E624" s="23"/>
     </row>
     <row r="625" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A625" s="3"/>
       <c r="B625" s="23"/>
       <c r="C625" s="5"/>
-      <c r="D625" s="2"/>
-      <c r="E625" s="21"/>
+      <c r="D625" s="30"/>
+      <c r="E625" s="23"/>
     </row>
     <row r="626" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A626" s="3"/>
       <c r="B626" s="23"/>
       <c r="C626" s="5"/>
       <c r="D626" s="2"/>
-      <c r="E626" s="21"/>
+      <c r="E626" s="23"/>
     </row>
     <row r="627" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A627" s="3"/>
@@ -20516,6 +21058,7 @@
       <c r="B632" s="23"/>
       <c r="C632" s="5"/>
       <c r="D632" s="2"/>
+      <c r="E632" s="21"/>
     </row>
     <row r="633" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A633" s="3"/>
@@ -20524,38 +21067,38 @@
       <c r="D633" s="2"/>
       <c r="E633" s="21"/>
     </row>
-    <row r="634" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A634" s="3"/>
       <c r="B634" s="23"/>
-      <c r="C634" s="24"/>
-      <c r="D634" s="4"/>
+      <c r="C634" s="5"/>
+      <c r="D634" s="2"/>
       <c r="E634" s="21"/>
     </row>
     <row r="635" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A635" s="3"/>
       <c r="B635" s="23"/>
       <c r="C635" s="5"/>
-      <c r="D635" s="30"/>
+      <c r="D635" s="2"/>
       <c r="E635" s="21"/>
     </row>
     <row r="636" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A636" s="3"/>
       <c r="B636" s="23"/>
       <c r="C636" s="5"/>
-      <c r="D636" s="30"/>
+      <c r="D636" s="2"/>
     </row>
     <row r="637" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A637" s="3"/>
       <c r="B637" s="23"/>
       <c r="C637" s="5"/>
-      <c r="D637" s="30"/>
+      <c r="D637" s="2"/>
       <c r="E637" s="21"/>
     </row>
-    <row r="638" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
       <c r="B638" s="23"/>
-      <c r="C638" s="5"/>
-      <c r="D638" s="30"/>
+      <c r="C638" s="24"/>
+      <c r="D638" s="4"/>
       <c r="E638" s="21"/>
     </row>
     <row r="639" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -20569,8 +21112,7 @@
       <c r="A640" s="3"/>
       <c r="B640" s="23"/>
       <c r="C640" s="5"/>
-      <c r="D640" s="4"/>
-      <c r="E640" s="21"/>
+      <c r="D640" s="30"/>
     </row>
     <row r="641" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A641" s="3"/>
@@ -20593,10 +21135,10 @@
       <c r="D643" s="30"/>
       <c r="E643" s="21"/>
     </row>
-    <row r="644" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A644" s="3"/>
       <c r="B644" s="23"/>
-      <c r="C644" s="30"/>
+      <c r="C644" s="5"/>
       <c r="D644" s="4"/>
       <c r="E644" s="21"/>
     </row>
@@ -20604,175 +21146,175 @@
       <c r="A645" s="3"/>
       <c r="B645" s="23"/>
       <c r="C645" s="5"/>
-      <c r="D645" s="31"/>
+      <c r="D645" s="30"/>
       <c r="E645" s="21"/>
     </row>
     <row r="646" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A646" s="3"/>
       <c r="B646" s="23"/>
       <c r="C646" s="5"/>
-      <c r="D646" s="31"/>
+      <c r="D646" s="30"/>
       <c r="E646" s="21"/>
     </row>
     <row r="647" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A647" s="3"/>
       <c r="B647" s="23"/>
       <c r="C647" s="5"/>
-      <c r="D647" s="31"/>
+      <c r="D647" s="30"/>
       <c r="E647" s="21"/>
     </row>
-    <row r="648" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3"/>
       <c r="B648" s="23"/>
-      <c r="C648" s="5"/>
-      <c r="D648" s="31"/>
+      <c r="C648" s="30"/>
+      <c r="D648" s="4"/>
       <c r="E648" s="21"/>
     </row>
-    <row r="649" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A649" s="3"/>
       <c r="B649" s="23"/>
-      <c r="C649" s="20"/>
-      <c r="D649" s="20"/>
+      <c r="C649" s="5"/>
+      <c r="D649" s="31"/>
       <c r="E649" s="21"/>
     </row>
-    <row r="650" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A650" s="3"/>
       <c r="B650" s="23"/>
-      <c r="C650" s="30"/>
-      <c r="D650" s="4"/>
+      <c r="C650" s="5"/>
+      <c r="D650" s="31"/>
       <c r="E650" s="21"/>
     </row>
-    <row r="651" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A651" s="3"/>
       <c r="B651" s="23"/>
-      <c r="C651" s="30"/>
-      <c r="D651" s="4"/>
+      <c r="C651" s="5"/>
+      <c r="D651" s="31"/>
       <c r="E651" s="21"/>
     </row>
     <row r="652" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A652" s="3"/>
       <c r="B652" s="23"/>
       <c r="C652" s="5"/>
-      <c r="D652" s="32"/>
+      <c r="D652" s="31"/>
       <c r="E652" s="21"/>
     </row>
-    <row r="653" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A653" s="3"/>
       <c r="B653" s="23"/>
-      <c r="C653" s="30"/>
-      <c r="D653" s="4"/>
+      <c r="C653" s="20"/>
+      <c r="D653" s="20"/>
       <c r="E653" s="21"/>
     </row>
-    <row r="654" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3"/>
       <c r="B654" s="23"/>
-      <c r="C654" s="26"/>
-      <c r="D654" s="31"/>
+      <c r="C654" s="30"/>
+      <c r="D654" s="4"/>
       <c r="E654" s="21"/>
     </row>
-    <row r="655" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3"/>
       <c r="B655" s="23"/>
-      <c r="C655" s="26"/>
-      <c r="D655" s="31"/>
+      <c r="C655" s="30"/>
+      <c r="D655" s="4"/>
       <c r="E655" s="21"/>
     </row>
     <row r="656" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A656" s="3"/>
       <c r="B656" s="23"/>
-      <c r="C656" s="26"/>
-      <c r="D656" s="31"/>
+      <c r="C656" s="5"/>
+      <c r="D656" s="32"/>
       <c r="E656" s="21"/>
     </row>
-    <row r="657" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="3"/>
       <c r="B657" s="23"/>
-      <c r="C657" s="26"/>
-      <c r="D657" s="31"/>
+      <c r="C657" s="30"/>
+      <c r="D657" s="4"/>
       <c r="E657" s="21"/>
     </row>
-    <row r="658" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A658" s="3"/>
       <c r="B658" s="23"/>
-      <c r="C658" s="30"/>
-      <c r="D658" s="30"/>
+      <c r="C658" s="26"/>
+      <c r="D658" s="31"/>
       <c r="E658" s="21"/>
     </row>
-    <row r="659" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A659" s="3"/>
       <c r="B659" s="23"/>
-      <c r="C659" s="30"/>
-      <c r="D659" s="30"/>
+      <c r="C659" s="26"/>
+      <c r="D659" s="31"/>
       <c r="E659" s="21"/>
     </row>
     <row r="660" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A660" s="3"/>
       <c r="B660" s="23"/>
       <c r="C660" s="26"/>
-      <c r="D660" s="30"/>
+      <c r="D660" s="31"/>
       <c r="E660" s="21"/>
     </row>
     <row r="661" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A661" s="3"/>
       <c r="B661" s="23"/>
       <c r="C661" s="26"/>
-      <c r="D661" s="30"/>
+      <c r="D661" s="31"/>
       <c r="E661" s="21"/>
     </row>
-    <row r="662" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="3"/>
       <c r="B662" s="23"/>
-      <c r="C662" s="26"/>
-      <c r="D662" s="10"/>
+      <c r="C662" s="30"/>
+      <c r="D662" s="30"/>
       <c r="E662" s="21"/>
     </row>
-    <row r="663" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A663" s="3"/>
       <c r="B663" s="23"/>
-      <c r="C663" s="26"/>
-      <c r="D663" s="4"/>
+      <c r="C663" s="30"/>
+      <c r="D663" s="30"/>
       <c r="E663" s="21"/>
     </row>
     <row r="664" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A664" s="3"/>
       <c r="B664" s="23"/>
       <c r="C664" s="26"/>
-      <c r="D664" s="4"/>
+      <c r="D664" s="30"/>
       <c r="E664" s="21"/>
     </row>
-    <row r="665" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A665" s="3"/>
       <c r="B665" s="23"/>
-      <c r="C665" s="30"/>
-      <c r="D665" s="4"/>
+      <c r="C665" s="26"/>
+      <c r="D665" s="30"/>
       <c r="E665" s="21"/>
     </row>
-    <row r="666" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A666" s="3"/>
       <c r="B666" s="23"/>
-      <c r="C666" s="30"/>
-      <c r="D666" s="30"/>
+      <c r="C666" s="26"/>
+      <c r="D666" s="10"/>
       <c r="E666" s="21"/>
     </row>
-    <row r="667" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A667" s="3"/>
       <c r="B667" s="23"/>
-      <c r="C667" s="30"/>
-      <c r="D667" s="30"/>
+      <c r="C667" s="26"/>
+      <c r="D667" s="4"/>
       <c r="E667" s="21"/>
     </row>
-    <row r="668" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A668" s="3"/>
       <c r="B668" s="23"/>
-      <c r="C668" s="30"/>
-      <c r="D668" s="30"/>
+      <c r="C668" s="26"/>
+      <c r="D668" s="4"/>
       <c r="E668" s="21"/>
     </row>
-    <row r="669" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A669" s="3"/>
       <c r="B669" s="23"/>
-      <c r="C669" s="25"/>
-      <c r="D669" s="25"/>
+      <c r="C669" s="30"/>
+      <c r="D669" s="4"/>
       <c r="E669" s="21"/>
     </row>
     <row r="670" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -20796,11 +21338,11 @@
       <c r="D672" s="30"/>
       <c r="E672" s="21"/>
     </row>
-    <row r="673" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A673" s="3"/>
       <c r="B673" s="23"/>
-      <c r="C673" s="30"/>
-      <c r="D673" s="30"/>
+      <c r="C673" s="25"/>
+      <c r="D673" s="25"/>
       <c r="E673" s="21"/>
     </row>
     <row r="674" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -20814,7 +21356,7 @@
       <c r="A675" s="3"/>
       <c r="B675" s="23"/>
       <c r="C675" s="30"/>
-      <c r="D675" s="4"/>
+      <c r="D675" s="30"/>
       <c r="E675" s="21"/>
     </row>
     <row r="676" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -20845,53 +21387,53 @@
       <c r="D679" s="4"/>
       <c r="E679" s="21"/>
     </row>
-    <row r="680" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="3"/>
       <c r="B680" s="23"/>
-      <c r="C680" s="7"/>
-      <c r="D680" s="7"/>
+      <c r="C680" s="30"/>
+      <c r="D680" s="30"/>
       <c r="E680" s="21"/>
     </row>
-    <row r="681" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="3"/>
       <c r="B681" s="23"/>
-      <c r="C681" s="7"/>
-      <c r="D681" s="7"/>
+      <c r="C681" s="30"/>
+      <c r="D681" s="30"/>
       <c r="E681" s="21"/>
     </row>
-    <row r="682" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A682" s="3"/>
       <c r="B682" s="23"/>
-      <c r="C682" s="7"/>
-      <c r="D682" s="7"/>
+      <c r="C682" s="30"/>
+      <c r="D682" s="30"/>
       <c r="E682" s="21"/>
     </row>
-    <row r="683" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A683" s="3"/>
       <c r="B683" s="23"/>
-      <c r="C683" s="29"/>
-      <c r="D683" s="29"/>
+      <c r="C683" s="30"/>
+      <c r="D683" s="4"/>
       <c r="E683" s="21"/>
     </row>
     <row r="684" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A684" s="3"/>
       <c r="B684" s="23"/>
-      <c r="C684" s="29"/>
-      <c r="D684" s="29"/>
+      <c r="C684" s="7"/>
+      <c r="D684" s="7"/>
       <c r="E684" s="21"/>
     </row>
     <row r="685" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A685" s="3"/>
       <c r="B685" s="23"/>
-      <c r="C685" s="29"/>
-      <c r="D685" s="29"/>
+      <c r="C685" s="7"/>
+      <c r="D685" s="7"/>
       <c r="E685" s="21"/>
     </row>
     <row r="686" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A686" s="3"/>
       <c r="B686" s="23"/>
-      <c r="C686" s="29"/>
-      <c r="D686" s="29"/>
+      <c r="C686" s="7"/>
+      <c r="D686" s="7"/>
       <c r="E686" s="21"/>
     </row>
     <row r="687" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -20922,45 +21464,45 @@
       <c r="D690" s="29"/>
       <c r="E690" s="21"/>
     </row>
-    <row r="691" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A691" s="3"/>
       <c r="B691" s="23"/>
-      <c r="C691" s="30"/>
-      <c r="D691" s="30"/>
+      <c r="C691" s="29"/>
+      <c r="D691" s="29"/>
       <c r="E691" s="21"/>
     </row>
-    <row r="692" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A692" s="3"/>
       <c r="B692" s="23"/>
-      <c r="C692" s="30"/>
+      <c r="C692" s="29"/>
       <c r="D692" s="29"/>
       <c r="E692" s="21"/>
     </row>
-    <row r="693" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A693" s="3"/>
       <c r="B693" s="23"/>
-      <c r="C693" s="5"/>
+      <c r="C693" s="29"/>
       <c r="D693" s="29"/>
       <c r="E693" s="21"/>
     </row>
-    <row r="694" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A694" s="3"/>
       <c r="B694" s="23"/>
-      <c r="C694" s="5"/>
+      <c r="C694" s="29"/>
       <c r="D694" s="29"/>
       <c r="E694" s="21"/>
     </row>
-    <row r="695" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A695" s="3"/>
       <c r="B695" s="23"/>
-      <c r="C695" s="5"/>
-      <c r="D695" s="29"/>
+      <c r="C695" s="30"/>
+      <c r="D695" s="30"/>
       <c r="E695" s="21"/>
     </row>
-    <row r="696" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A696" s="3"/>
       <c r="B696" s="23"/>
-      <c r="C696" s="5"/>
+      <c r="C696" s="30"/>
       <c r="D696" s="29"/>
       <c r="E696" s="21"/>
     </row>
@@ -20968,57 +21510,57 @@
       <c r="A697" s="3"/>
       <c r="B697" s="23"/>
       <c r="C697" s="5"/>
-      <c r="D697" s="4"/>
-      <c r="E697" s="23"/>
+      <c r="D697" s="29"/>
+      <c r="E697" s="21"/>
     </row>
     <row r="698" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A698" s="3"/>
       <c r="B698" s="23"/>
       <c r="C698" s="5"/>
-      <c r="D698" s="4"/>
-      <c r="E698" s="23"/>
-    </row>
-    <row r="699" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D698" s="29"/>
+      <c r="E698" s="21"/>
+    </row>
+    <row r="699" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A699" s="3"/>
       <c r="B699" s="23"/>
-      <c r="C699" s="4"/>
-      <c r="D699" s="4"/>
-      <c r="E699" s="23"/>
+      <c r="C699" s="5"/>
+      <c r="D699" s="29"/>
+      <c r="E699" s="21"/>
     </row>
     <row r="700" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A700" s="3"/>
       <c r="B700" s="23"/>
-      <c r="C700" s="26"/>
-      <c r="D700" s="4"/>
-      <c r="E700" s="23"/>
+      <c r="C700" s="5"/>
+      <c r="D700" s="29"/>
+      <c r="E700" s="21"/>
     </row>
     <row r="701" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A701" s="3"/>
       <c r="B701" s="23"/>
-      <c r="C701" s="26"/>
-      <c r="D701" s="29"/>
-      <c r="E701" s="21"/>
+      <c r="C701" s="5"/>
+      <c r="D701" s="4"/>
+      <c r="E701" s="23"/>
     </row>
     <row r="702" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A702" s="3"/>
       <c r="B702" s="23"/>
-      <c r="C702" s="26"/>
+      <c r="C702" s="5"/>
       <c r="D702" s="4"/>
-      <c r="E702" s="21"/>
-    </row>
-    <row r="703" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E702" s="23"/>
+    </row>
+    <row r="703" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A703" s="3"/>
       <c r="B703" s="23"/>
-      <c r="C703" s="26"/>
+      <c r="C703" s="4"/>
       <c r="D703" s="4"/>
-      <c r="E703" s="21"/>
+      <c r="E703" s="23"/>
     </row>
     <row r="704" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A704" s="3"/>
       <c r="B704" s="23"/>
       <c r="C704" s="26"/>
-      <c r="D704" s="29"/>
-      <c r="E704" s="21"/>
+      <c r="D704" s="4"/>
+      <c r="E704" s="23"/>
     </row>
     <row r="705" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A705" s="3"/>
@@ -21031,14 +21573,14 @@
       <c r="A706" s="3"/>
       <c r="B706" s="23"/>
       <c r="C706" s="26"/>
-      <c r="D706" s="29"/>
+      <c r="D706" s="4"/>
       <c r="E706" s="21"/>
     </row>
     <row r="707" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A707" s="3"/>
       <c r="B707" s="23"/>
       <c r="C707" s="26"/>
-      <c r="D707" s="29"/>
+      <c r="D707" s="4"/>
       <c r="E707" s="21"/>
     </row>
     <row r="708" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -21052,74 +21594,74 @@
       <c r="A709" s="3"/>
       <c r="B709" s="23"/>
       <c r="C709" s="26"/>
-      <c r="D709" s="8"/>
+      <c r="D709" s="29"/>
       <c r="E709" s="21"/>
     </row>
     <row r="710" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A710" s="3"/>
       <c r="B710" s="23"/>
       <c r="C710" s="26"/>
-      <c r="D710" s="8"/>
+      <c r="D710" s="29"/>
       <c r="E710" s="21"/>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A711" s="3"/>
-    </row>
-    <row r="712" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B711" s="23"/>
+      <c r="C711" s="26"/>
+      <c r="D711" s="29"/>
+      <c r="E711" s="21"/>
+    </row>
+    <row r="712" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A712" s="3"/>
       <c r="B712" s="23"/>
-      <c r="C712" s="8"/>
-      <c r="D712" s="8"/>
+      <c r="C712" s="26"/>
+      <c r="D712" s="29"/>
       <c r="E712" s="21"/>
     </row>
-    <row r="713" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A713" s="3"/>
       <c r="B713" s="23"/>
-      <c r="C713" s="8"/>
+      <c r="C713" s="26"/>
       <c r="D713" s="8"/>
       <c r="E713" s="21"/>
     </row>
-    <row r="714" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A714" s="3"/>
       <c r="B714" s="23"/>
-      <c r="C714" s="8"/>
+      <c r="C714" s="26"/>
       <c r="D714" s="8"/>
       <c r="E714" s="21"/>
     </row>
-    <row r="715" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715" s="3"/>
-      <c r="B715" s="23"/>
-      <c r="C715" s="5"/>
-      <c r="D715" s="8"/>
-      <c r="E715" s="21"/>
-    </row>
-    <row r="716" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="716" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A716" s="3"/>
       <c r="B716" s="23"/>
-      <c r="C716" s="5"/>
+      <c r="C716" s="8"/>
       <c r="D716" s="8"/>
-      <c r="E716" s="23"/>
-    </row>
-    <row r="717" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E716" s="21"/>
+    </row>
+    <row r="717" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A717" s="3"/>
       <c r="B717" s="23"/>
-      <c r="C717" s="5"/>
+      <c r="C717" s="8"/>
       <c r="D717" s="8"/>
-      <c r="E717" s="23"/>
-    </row>
-    <row r="718" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="E717" s="21"/>
+    </row>
+    <row r="718" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A718" s="3"/>
       <c r="B718" s="23"/>
-      <c r="C718" s="5"/>
+      <c r="C718" s="8"/>
       <c r="D718" s="8"/>
-      <c r="E718" s="23"/>
+      <c r="E718" s="21"/>
     </row>
     <row r="719" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A719" s="3"/>
       <c r="B719" s="23"/>
       <c r="C719" s="5"/>
       <c r="D719" s="8"/>
-      <c r="E719" s="23"/>
+      <c r="E719" s="21"/>
     </row>
     <row r="720" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A720" s="3"/>
@@ -21135,39 +21677,39 @@
       <c r="D721" s="8"/>
       <c r="E721" s="23"/>
     </row>
-    <row r="722" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A722" s="3"/>
       <c r="B722" s="23"/>
-      <c r="C722" s="8"/>
+      <c r="C722" s="5"/>
       <c r="D722" s="8"/>
       <c r="E722" s="23"/>
     </row>
-    <row r="723" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A723" s="3"/>
       <c r="B723" s="23"/>
       <c r="C723" s="5"/>
-      <c r="D723" s="10"/>
+      <c r="D723" s="8"/>
       <c r="E723" s="23"/>
     </row>
-    <row r="724" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A724" s="3"/>
       <c r="B724" s="23"/>
       <c r="C724" s="5"/>
-      <c r="D724" s="10"/>
+      <c r="D724" s="8"/>
       <c r="E724" s="23"/>
     </row>
-    <row r="725" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A725" s="3"/>
       <c r="B725" s="23"/>
       <c r="C725" s="5"/>
-      <c r="D725" s="10"/>
+      <c r="D725" s="8"/>
       <c r="E725" s="23"/>
     </row>
-    <row r="726" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A726" s="3"/>
       <c r="B726" s="23"/>
-      <c r="C726" s="5"/>
-      <c r="D726" s="10"/>
+      <c r="C726" s="8"/>
+      <c r="D726" s="8"/>
       <c r="E726" s="23"/>
     </row>
     <row r="727" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -21184,39 +21726,39 @@
       <c r="D728" s="10"/>
       <c r="E728" s="23"/>
     </row>
-    <row r="729" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A729" s="3"/>
       <c r="B729" s="23"/>
-      <c r="C729" s="4"/>
-      <c r="D729" s="4"/>
+      <c r="C729" s="5"/>
+      <c r="D729" s="10"/>
       <c r="E729" s="23"/>
     </row>
-    <row r="730" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A730" s="3"/>
       <c r="B730" s="23"/>
       <c r="C730" s="5"/>
-      <c r="D730" s="16"/>
+      <c r="D730" s="10"/>
       <c r="E730" s="23"/>
     </row>
-    <row r="731" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A731" s="3"/>
       <c r="B731" s="23"/>
       <c r="C731" s="5"/>
-      <c r="D731" s="16"/>
+      <c r="D731" s="10"/>
       <c r="E731" s="23"/>
     </row>
-    <row r="732" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" s="19" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A732" s="3"/>
       <c r="B732" s="23"/>
       <c r="C732" s="5"/>
-      <c r="D732" s="16"/>
+      <c r="D732" s="10"/>
       <c r="E732" s="23"/>
     </row>
-    <row r="733" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A733" s="3"/>
       <c r="B733" s="23"/>
-      <c r="C733" s="5"/>
-      <c r="D733" s="16"/>
+      <c r="C733" s="4"/>
+      <c r="D733" s="4"/>
       <c r="E733" s="23"/>
     </row>
     <row r="734" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -21226,65 +21768,73 @@
       <c r="D734" s="16"/>
       <c r="E734" s="23"/>
     </row>
-    <row r="735" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A735" s="3"/>
       <c r="B735" s="23"/>
-      <c r="C735" s="8"/>
-      <c r="D735" s="8"/>
-      <c r="E735" s="21"/>
-    </row>
-    <row r="736" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C735" s="5"/>
+      <c r="D735" s="16"/>
+      <c r="E735" s="23"/>
+    </row>
+    <row r="736" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A736" s="3"/>
       <c r="B736" s="23"/>
-      <c r="C736" s="8"/>
-      <c r="D736" s="8"/>
+      <c r="C736" s="5"/>
+      <c r="D736" s="16"/>
       <c r="E736" s="23"/>
     </row>
-    <row r="737" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A737" s="3"/>
       <c r="B737" s="23"/>
-      <c r="C737" s="8"/>
-      <c r="D737" s="8"/>
+      <c r="C737" s="5"/>
+      <c r="D737" s="16"/>
       <c r="E737" s="23"/>
     </row>
-    <row r="738" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:5" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A738" s="3"/>
       <c r="B738" s="23"/>
-      <c r="C738" s="8"/>
-      <c r="D738" s="8"/>
+      <c r="C738" s="5"/>
+      <c r="D738" s="16"/>
       <c r="E738" s="23"/>
     </row>
     <row r="739" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A739" s="3"/>
+      <c r="B739" s="23"/>
       <c r="C739" s="8"/>
       <c r="D739" s="8"/>
-      <c r="E739" s="23"/>
+      <c r="E739" s="21"/>
     </row>
     <row r="740" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A740" s="3"/>
+      <c r="B740" s="23"/>
       <c r="C740" s="8"/>
       <c r="D740" s="8"/>
       <c r="E740" s="23"/>
     </row>
     <row r="741" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A741" s="3"/>
-      <c r="C741" s="4"/>
-      <c r="D741" s="20"/>
+      <c r="B741" s="23"/>
+      <c r="C741" s="8"/>
+      <c r="D741" s="8"/>
+      <c r="E741" s="23"/>
     </row>
     <row r="742" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A742" s="3"/>
-      <c r="C742" s="4"/>
-      <c r="D742" s="20"/>
+      <c r="B742" s="23"/>
+      <c r="C742" s="8"/>
+      <c r="D742" s="8"/>
+      <c r="E742" s="23"/>
     </row>
     <row r="743" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A743" s="3"/>
-      <c r="C743" s="4"/>
-      <c r="D743" s="20"/>
+      <c r="C743" s="8"/>
+      <c r="D743" s="8"/>
+      <c r="E743" s="23"/>
     </row>
     <row r="744" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A744" s="3"/>
-      <c r="C744" s="4"/>
-      <c r="D744" s="20"/>
+      <c r="C744" s="8"/>
+      <c r="D744" s="8"/>
+      <c r="E744" s="23"/>
     </row>
     <row r="745" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A745" s="3"/>
@@ -21299,22 +21849,22 @@
     <row r="747" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A747" s="3"/>
       <c r="C747" s="4"/>
-      <c r="D747" s="33"/>
+      <c r="D747" s="20"/>
     </row>
     <row r="748" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A748" s="3"/>
       <c r="C748" s="4"/>
-      <c r="D748" s="33"/>
+      <c r="D748" s="20"/>
     </row>
     <row r="749" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A749" s="3"/>
       <c r="C749" s="4"/>
-      <c r="D749" s="33"/>
+      <c r="D749" s="20"/>
     </row>
     <row r="750" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A750" s="3"/>
       <c r="C750" s="4"/>
-      <c r="D750" s="33"/>
+      <c r="D750" s="20"/>
     </row>
     <row r="751" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A751" s="3"/>
@@ -21363,22 +21913,22 @@
     </row>
     <row r="760" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A760" s="3"/>
-      <c r="C760" s="20"/>
+      <c r="C760" s="4"/>
       <c r="D760" s="33"/>
     </row>
     <row r="761" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A761" s="3"/>
-      <c r="C761" s="20"/>
+      <c r="C761" s="4"/>
       <c r="D761" s="33"/>
     </row>
     <row r="762" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A762" s="3"/>
-      <c r="C762" s="20"/>
+      <c r="C762" s="4"/>
       <c r="D762" s="33"/>
     </row>
     <row r="763" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A763" s="3"/>
-      <c r="C763" s="20"/>
+      <c r="C763" s="4"/>
       <c r="D763" s="33"/>
     </row>
     <row r="764" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -21419,7 +21969,7 @@
     <row r="771" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A771" s="3"/>
       <c r="C771" s="20"/>
-      <c r="D771" s="20"/>
+      <c r="D771" s="33"/>
     </row>
     <row r="772" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A772" s="3"/>
@@ -21429,68 +21979,60 @@
     <row r="773" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A773" s="3"/>
       <c r="C773" s="20"/>
-      <c r="D773" s="20"/>
+      <c r="D773" s="33"/>
     </row>
     <row r="774" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A774" s="3"/>
       <c r="C774" s="20"/>
-      <c r="D774" s="20"/>
-    </row>
-    <row r="775" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D774" s="33"/>
+    </row>
+    <row r="775" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A775" s="3"/>
-      <c r="B775" s="23"/>
-      <c r="C775" s="30"/>
-      <c r="D775" s="29"/>
-      <c r="E775" s="21"/>
-    </row>
-    <row r="776" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C775" s="20"/>
+      <c r="D775" s="20"/>
+    </row>
+    <row r="776" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A776" s="3"/>
-      <c r="B776" s="23"/>
-      <c r="C776" s="30"/>
-      <c r="D776" s="29"/>
-      <c r="E776" s="21"/>
-    </row>
-    <row r="777" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C776" s="20"/>
+      <c r="D776" s="33"/>
+    </row>
+    <row r="777" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A777" s="3"/>
-      <c r="B777" s="23"/>
-      <c r="C777" s="30"/>
-      <c r="D777" s="29"/>
-      <c r="E777" s="21"/>
-    </row>
-    <row r="778" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C777" s="20"/>
+      <c r="D777" s="20"/>
+    </row>
+    <row r="778" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A778" s="3"/>
-      <c r="B778" s="23"/>
-      <c r="C778" s="30"/>
-      <c r="D778" s="29"/>
-      <c r="E778" s="21"/>
-    </row>
-    <row r="779" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C778" s="20"/>
+      <c r="D778" s="20"/>
+    </row>
+    <row r="779" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A779" s="3"/>
-      <c r="B779" s="21"/>
-      <c r="C779" s="29"/>
+      <c r="B779" s="23"/>
+      <c r="C779" s="30"/>
       <c r="D779" s="29"/>
-      <c r="E779" s="23"/>
-    </row>
-    <row r="780" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E779" s="21"/>
+    </row>
+    <row r="780" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A780" s="3"/>
-      <c r="B780" s="21"/>
-      <c r="C780" s="29"/>
+      <c r="B780" s="23"/>
+      <c r="C780" s="30"/>
       <c r="D780" s="29"/>
-      <c r="E780" s="23"/>
-    </row>
-    <row r="781" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E780" s="21"/>
+    </row>
+    <row r="781" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A781" s="3"/>
-      <c r="B781" s="21"/>
-      <c r="C781" s="29"/>
+      <c r="B781" s="23"/>
+      <c r="C781" s="30"/>
       <c r="D781" s="29"/>
-      <c r="E781" s="23"/>
-    </row>
-    <row r="782" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E781" s="21"/>
+    </row>
+    <row r="782" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A782" s="3"/>
-      <c r="B782" s="21"/>
-      <c r="C782" s="29"/>
+      <c r="B782" s="23"/>
+      <c r="C782" s="30"/>
       <c r="D782" s="29"/>
-      <c r="E782" s="23"/>
+      <c r="E782" s="21"/>
     </row>
     <row r="783" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A783" s="3"/>
@@ -21513,52 +22055,52 @@
       <c r="D785" s="29"/>
       <c r="E785" s="23"/>
     </row>
-    <row r="786" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A786" s="3"/>
       <c r="B786" s="21"/>
       <c r="C786" s="29"/>
-      <c r="D786" s="24"/>
-      <c r="E786" s="34"/>
-    </row>
-    <row r="787" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D786" s="29"/>
+      <c r="E786" s="23"/>
+    </row>
+    <row r="787" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A787" s="3"/>
       <c r="B787" s="21"/>
       <c r="C787" s="29"/>
-      <c r="D787" s="24"/>
-      <c r="E787" s="34"/>
+      <c r="D787" s="29"/>
+      <c r="E787" s="23"/>
     </row>
     <row r="788" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A788" s="3"/>
-      <c r="B788" s="23"/>
+      <c r="B788" s="21"/>
       <c r="C788" s="29"/>
-      <c r="D788" s="4"/>
+      <c r="D788" s="29"/>
       <c r="E788" s="23"/>
     </row>
     <row r="789" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A789" s="3"/>
-      <c r="B789" s="23"/>
-      <c r="C789" s="4"/>
-      <c r="D789" s="4"/>
+      <c r="B789" s="21"/>
+      <c r="C789" s="29"/>
+      <c r="D789" s="29"/>
       <c r="E789" s="23"/>
     </row>
-    <row r="790" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A790" s="3"/>
-      <c r="B790" s="23"/>
-      <c r="C790" s="4"/>
-      <c r="D790" s="4"/>
-      <c r="E790" s="23"/>
-    </row>
-    <row r="791" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B790" s="21"/>
+      <c r="C790" s="29"/>
+      <c r="D790" s="24"/>
+      <c r="E790" s="34"/>
+    </row>
+    <row r="791" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A791" s="3"/>
-      <c r="B791" s="23"/>
+      <c r="B791" s="21"/>
       <c r="C791" s="29"/>
-      <c r="D791" s="4"/>
-      <c r="E791" s="23"/>
+      <c r="D791" s="24"/>
+      <c r="E791" s="34"/>
     </row>
     <row r="792" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A792" s="3"/>
       <c r="B792" s="23"/>
-      <c r="C792" s="4"/>
+      <c r="C792" s="29"/>
       <c r="D792" s="4"/>
       <c r="E792" s="23"/>
     </row>
@@ -21572,7 +22114,7 @@
     <row r="794" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A794" s="3"/>
       <c r="B794" s="23"/>
-      <c r="C794" s="29"/>
+      <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="23"/>
     </row>
@@ -21590,31 +22132,31 @@
       <c r="D796" s="4"/>
       <c r="E796" s="23"/>
     </row>
-    <row r="797" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A797" s="3"/>
       <c r="B797" s="23"/>
-      <c r="C797" s="24"/>
+      <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="23"/>
     </row>
-    <row r="798" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A798" s="3"/>
       <c r="B798" s="23"/>
-      <c r="C798" s="24"/>
+      <c r="C798" s="29"/>
       <c r="D798" s="4"/>
       <c r="E798" s="23"/>
     </row>
-    <row r="799" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A799" s="3"/>
       <c r="B799" s="23"/>
-      <c r="C799" s="24"/>
+      <c r="C799" s="29"/>
       <c r="D799" s="4"/>
       <c r="E799" s="23"/>
     </row>
-    <row r="800" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A800" s="3"/>
       <c r="B800" s="23"/>
-      <c r="C800" s="24"/>
+      <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="23"/>
     </row>
@@ -21653,60 +22195,60 @@
       <c r="D805" s="4"/>
       <c r="E805" s="23"/>
     </row>
-    <row r="806" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A806" s="3"/>
-      <c r="B806" s="4"/>
-      <c r="C806" s="4"/>
+      <c r="B806" s="23"/>
+      <c r="C806" s="24"/>
       <c r="D806" s="4"/>
-      <c r="E806" s="4"/>
-    </row>
-    <row r="807" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E806" s="23"/>
+    </row>
+    <row r="807" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A807" s="3"/>
-      <c r="B807" s="4"/>
-      <c r="C807" s="4"/>
+      <c r="B807" s="23"/>
+      <c r="C807" s="24"/>
       <c r="D807" s="4"/>
-      <c r="E807" s="4"/>
-    </row>
-    <row r="808" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E807" s="23"/>
+    </row>
+    <row r="808" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A808" s="3"/>
-      <c r="C808" s="4"/>
-      <c r="D808" s="20"/>
+      <c r="B808" s="23"/>
+      <c r="C808" s="24"/>
+      <c r="D808" s="4"/>
       <c r="E808" s="23"/>
     </row>
     <row r="809" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A809" s="3"/>
       <c r="B809" s="23"/>
-      <c r="C809" s="30"/>
+      <c r="C809" s="24"/>
       <c r="D809" s="4"/>
       <c r="E809" s="23"/>
     </row>
-    <row r="810" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A810" s="3"/>
-      <c r="B810" s="23"/>
-      <c r="C810" s="30"/>
-      <c r="D810" s="29"/>
-      <c r="E810" s="21"/>
-    </row>
-    <row r="811" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B810" s="4"/>
+      <c r="C810" s="4"/>
+      <c r="D810" s="4"/>
+      <c r="E810" s="4"/>
+    </row>
+    <row r="811" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A811" s="3"/>
-      <c r="B811" s="23"/>
-      <c r="C811" s="30"/>
-      <c r="D811" s="29"/>
-      <c r="E811" s="21"/>
-    </row>
-    <row r="812" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B811" s="4"/>
+      <c r="C811" s="4"/>
+      <c r="D811" s="4"/>
+      <c r="E811" s="4"/>
+    </row>
+    <row r="812" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A812" s="3"/>
-      <c r="B812" s="23"/>
-      <c r="C812" s="30"/>
-      <c r="D812" s="4"/>
-      <c r="E812" s="21"/>
+      <c r="C812" s="4"/>
+      <c r="D812" s="20"/>
+      <c r="E812" s="23"/>
     </row>
     <row r="813" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A813" s="3"/>
       <c r="B813" s="23"/>
       <c r="C813" s="30"/>
-      <c r="D813" s="29"/>
-      <c r="E813" s="21"/>
+      <c r="D813" s="4"/>
+      <c r="E813" s="23"/>
     </row>
     <row r="814" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A814" s="3"/>
@@ -21726,7 +22268,7 @@
       <c r="A816" s="3"/>
       <c r="B816" s="23"/>
       <c r="C816" s="30"/>
-      <c r="D816" s="29"/>
+      <c r="D816" s="4"/>
       <c r="E816" s="21"/>
     </row>
     <row r="817" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -21782,62 +22324,62 @@
       <c r="A824" s="3"/>
       <c r="B824" s="23"/>
       <c r="C824" s="30"/>
-      <c r="D824" s="4"/>
+      <c r="D824" s="29"/>
       <c r="E824" s="21"/>
     </row>
-    <row r="825" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A825" s="3"/>
       <c r="B825" s="23"/>
-      <c r="C825" s="29"/>
+      <c r="C825" s="30"/>
       <c r="D825" s="29"/>
       <c r="E825" s="21"/>
     </row>
-    <row r="826" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A826" s="3"/>
       <c r="B826" s="23"/>
-      <c r="C826" s="29"/>
+      <c r="C826" s="30"/>
       <c r="D826" s="29"/>
       <c r="E826" s="21"/>
     </row>
-    <row r="827" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="3"/>
       <c r="B827" s="23"/>
-      <c r="C827" s="29"/>
+      <c r="C827" s="30"/>
       <c r="D827" s="29"/>
       <c r="E827" s="21"/>
     </row>
-    <row r="828" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A828" s="3"/>
       <c r="B828" s="23"/>
-      <c r="C828" s="29"/>
-      <c r="D828" s="29"/>
+      <c r="C828" s="30"/>
+      <c r="D828" s="4"/>
       <c r="E828" s="21"/>
     </row>
-    <row r="829" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A829" s="3"/>
       <c r="B829" s="23"/>
-      <c r="C829" s="30"/>
+      <c r="C829" s="29"/>
       <c r="D829" s="29"/>
       <c r="E829" s="21"/>
     </row>
-    <row r="830" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A830" s="3"/>
       <c r="B830" s="23"/>
-      <c r="C830" s="30"/>
+      <c r="C830" s="29"/>
       <c r="D830" s="29"/>
       <c r="E830" s="21"/>
     </row>
-    <row r="831" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A831" s="3"/>
       <c r="B831" s="23"/>
-      <c r="C831" s="30"/>
+      <c r="C831" s="29"/>
       <c r="D831" s="29"/>
       <c r="E831" s="21"/>
     </row>
-    <row r="832" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A832" s="3"/>
       <c r="B832" s="23"/>
-      <c r="C832" s="30"/>
+      <c r="C832" s="29"/>
       <c r="D832" s="29"/>
       <c r="E832" s="21"/>
     </row>
@@ -21871,31 +22413,31 @@
     </row>
     <row r="837" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A837" s="3"/>
-      <c r="B837" s="35"/>
-      <c r="C837" s="36"/>
-      <c r="D837" s="37"/>
-      <c r="E837" s="35"/>
+      <c r="B837" s="23"/>
+      <c r="C837" s="30"/>
+      <c r="D837" s="29"/>
+      <c r="E837" s="21"/>
     </row>
     <row r="838" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A838" s="3"/>
-      <c r="B838" s="35"/>
-      <c r="C838" s="36"/>
-      <c r="D838" s="37"/>
-      <c r="E838" s="35"/>
+      <c r="B838" s="23"/>
+      <c r="C838" s="30"/>
+      <c r="D838" s="29"/>
+      <c r="E838" s="21"/>
     </row>
     <row r="839" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A839" s="3"/>
-      <c r="B839" s="35"/>
-      <c r="C839" s="36"/>
-      <c r="D839" s="37"/>
-      <c r="E839" s="35"/>
+      <c r="B839" s="23"/>
+      <c r="C839" s="30"/>
+      <c r="D839" s="29"/>
+      <c r="E839" s="21"/>
     </row>
     <row r="840" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A840" s="3"/>
-      <c r="B840" s="35"/>
-      <c r="C840" s="36"/>
-      <c r="D840" s="37"/>
-      <c r="E840" s="35"/>
+      <c r="B840" s="23"/>
+      <c r="C840" s="30"/>
+      <c r="D840" s="29"/>
+      <c r="E840" s="21"/>
     </row>
     <row r="841" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A841" s="3"/>
@@ -21918,54 +22460,54 @@
       <c r="D843" s="37"/>
       <c r="E843" s="35"/>
     </row>
-    <row r="844" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A844" s="3"/>
       <c r="B844" s="35"/>
-      <c r="C844" s="37"/>
+      <c r="C844" s="36"/>
       <c r="D844" s="37"/>
       <c r="E844" s="35"/>
     </row>
-    <row r="845" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A845" s="3"/>
       <c r="B845" s="35"/>
-      <c r="C845" s="37"/>
+      <c r="C845" s="36"/>
       <c r="D845" s="37"/>
       <c r="E845" s="35"/>
     </row>
-    <row r="846" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A846" s="3"/>
       <c r="B846" s="35"/>
-      <c r="C846" s="37"/>
+      <c r="C846" s="36"/>
       <c r="D846" s="37"/>
       <c r="E846" s="35"/>
     </row>
-    <row r="847" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A847" s="3"/>
-      <c r="B847" s="23"/>
-      <c r="C847" s="4"/>
-      <c r="D847" s="4"/>
-      <c r="E847" s="23"/>
+      <c r="B847" s="35"/>
+      <c r="C847" s="36"/>
+      <c r="D847" s="37"/>
+      <c r="E847" s="35"/>
     </row>
     <row r="848" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A848" s="3"/>
-      <c r="B848" s="23"/>
-      <c r="C848" s="4"/>
-      <c r="D848" s="4"/>
-      <c r="E848" s="23"/>
+      <c r="B848" s="35"/>
+      <c r="C848" s="37"/>
+      <c r="D848" s="37"/>
+      <c r="E848" s="35"/>
     </row>
     <row r="849" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A849" s="3"/>
-      <c r="B849" s="23"/>
-      <c r="C849" s="4"/>
-      <c r="D849" s="4"/>
-      <c r="E849" s="23"/>
+      <c r="B849" s="35"/>
+      <c r="C849" s="37"/>
+      <c r="D849" s="37"/>
+      <c r="E849" s="35"/>
     </row>
     <row r="850" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A850" s="3"/>
-      <c r="B850" s="23"/>
-      <c r="C850" s="4"/>
-      <c r="D850" s="4"/>
-      <c r="E850" s="23"/>
+      <c r="B850" s="35"/>
+      <c r="C850" s="37"/>
+      <c r="D850" s="37"/>
+      <c r="E850" s="35"/>
     </row>
     <row r="851" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A851" s="3"/>
@@ -22028,6 +22570,7 @@
       <c r="B859" s="23"/>
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
+      <c r="E859" s="23"/>
     </row>
     <row r="860" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A860" s="3"/>
@@ -22055,7 +22598,6 @@
       <c r="B863" s="23"/>
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
-      <c r="E863" s="23"/>
     </row>
     <row r="864" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A864" s="3"/>
@@ -22076,6 +22618,7 @@
       <c r="B866" s="23"/>
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
+      <c r="E866" s="23"/>
     </row>
     <row r="867" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A867" s="3"/>
@@ -22103,7 +22646,6 @@
       <c r="B870" s="23"/>
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
-      <c r="E870" s="23"/>
     </row>
     <row r="871" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A871" s="3"/>
@@ -22138,18 +22680,21 @@
       <c r="B875" s="23"/>
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
+      <c r="E875" s="23"/>
     </row>
     <row r="876" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A876" s="3"/>
       <c r="B876" s="23"/>
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
+      <c r="E876" s="23"/>
     </row>
     <row r="877" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A877" s="3"/>
       <c r="B877" s="23"/>
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
+      <c r="E877" s="23"/>
     </row>
     <row r="878" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A878" s="3"/>
@@ -22163,21 +22708,18 @@
       <c r="B879" s="23"/>
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
-      <c r="E879" s="23"/>
     </row>
     <row r="880" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A880" s="3"/>
       <c r="B880" s="23"/>
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
-      <c r="E880" s="23"/>
     </row>
     <row r="881" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A881" s="3"/>
       <c r="B881" s="23"/>
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
-      <c r="E881" s="23"/>
     </row>
     <row r="882" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A882" s="3"/>
@@ -22228,10 +22770,10 @@
       <c r="D888" s="4"/>
       <c r="E888" s="23"/>
     </row>
-    <row r="889" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A889" s="3"/>
       <c r="B889" s="23"/>
-      <c r="C889" s="30"/>
+      <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="23"/>
     </row>
@@ -22252,26 +22794,29 @@
     <row r="892" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A892" s="3"/>
       <c r="B892" s="23"/>
-      <c r="C892" s="29"/>
+      <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="23"/>
     </row>
-    <row r="893" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="893" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A893" s="3"/>
-      <c r="C893" s="29"/>
-      <c r="D893" s="20"/>
+      <c r="B893" s="23"/>
+      <c r="C893" s="30"/>
+      <c r="D893" s="4"/>
       <c r="E893" s="23"/>
     </row>
     <row r="894" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A894" s="3"/>
-      <c r="C894" s="29"/>
-      <c r="D894" s="20"/>
+      <c r="B894" s="23"/>
+      <c r="C894" s="4"/>
+      <c r="D894" s="4"/>
       <c r="E894" s="23"/>
     </row>
     <row r="895" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A895" s="3"/>
-      <c r="C895" s="29"/>
-      <c r="D895" s="20"/>
+      <c r="B895" s="23"/>
+      <c r="C895" s="4"/>
+      <c r="D895" s="4"/>
       <c r="E895" s="23"/>
     </row>
     <row r="896" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -22283,23 +22828,20 @@
     </row>
     <row r="897" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A897" s="3"/>
-      <c r="B897" s="23"/>
       <c r="C897" s="29"/>
-      <c r="D897" s="4"/>
+      <c r="D897" s="20"/>
       <c r="E897" s="23"/>
     </row>
     <row r="898" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A898" s="3"/>
-      <c r="B898" s="23"/>
       <c r="C898" s="29"/>
-      <c r="D898" s="4"/>
+      <c r="D898" s="20"/>
       <c r="E898" s="23"/>
     </row>
     <row r="899" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A899" s="3"/>
-      <c r="B899" s="23"/>
-      <c r="C899" s="4"/>
-      <c r="D899" s="4"/>
+      <c r="C899" s="29"/>
+      <c r="D899" s="20"/>
       <c r="E899" s="23"/>
     </row>
     <row r="900" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -22326,7 +22868,7 @@
     <row r="903" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A903" s="3"/>
       <c r="B903" s="23"/>
-      <c r="C903" s="29"/>
+      <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="23"/>
     </row>
@@ -22533,31 +23075,31 @@
       <c r="D932" s="4"/>
       <c r="E932" s="23"/>
     </row>
-    <row r="933" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A933" s="3"/>
       <c r="B933" s="23"/>
-      <c r="C933" s="24"/>
+      <c r="C933" s="29"/>
       <c r="D933" s="4"/>
       <c r="E933" s="23"/>
     </row>
-    <row r="934" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A934" s="3"/>
       <c r="B934" s="23"/>
-      <c r="C934" s="24"/>
+      <c r="C934" s="29"/>
       <c r="D934" s="4"/>
       <c r="E934" s="23"/>
     </row>
-    <row r="935" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A935" s="3"/>
       <c r="B935" s="23"/>
-      <c r="C935" s="24"/>
+      <c r="C935" s="29"/>
       <c r="D935" s="4"/>
       <c r="E935" s="23"/>
     </row>
-    <row r="936" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A936" s="3"/>
       <c r="B936" s="23"/>
-      <c r="C936" s="24"/>
+      <c r="C936" s="29"/>
       <c r="D936" s="4"/>
       <c r="E936" s="23"/>
     </row>
@@ -22582,19 +23124,19 @@
       <c r="D939" s="4"/>
       <c r="E939" s="23"/>
     </row>
-    <row r="940" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A940" s="3"/>
-      <c r="B940" s="4"/>
-      <c r="C940" s="4"/>
+      <c r="B940" s="23"/>
+      <c r="C940" s="24"/>
       <c r="D940" s="4"/>
-      <c r="E940" s="4"/>
-    </row>
-    <row r="941" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E940" s="23"/>
+    </row>
+    <row r="941" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A941" s="3"/>
       <c r="B941" s="23"/>
-      <c r="C941" s="4"/>
-      <c r="D941" s="20"/>
-      <c r="E941" s="4"/>
+      <c r="C941" s="24"/>
+      <c r="D941" s="4"/>
+      <c r="E941" s="23"/>
     </row>
     <row r="942" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A942" s="3"/>
@@ -22606,151 +23148,151 @@
     <row r="943" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A943" s="3"/>
       <c r="B943" s="23"/>
-      <c r="C943" s="30"/>
-      <c r="D943" s="29"/>
+      <c r="C943" s="24"/>
+      <c r="D943" s="4"/>
       <c r="E943" s="23"/>
     </row>
-    <row r="944" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A944" s="3"/>
-      <c r="B944" s="23"/>
-      <c r="C944" s="30"/>
-      <c r="D944" s="29"/>
-      <c r="E944" s="23"/>
-    </row>
-    <row r="945" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B944" s="4"/>
+      <c r="C944" s="4"/>
+      <c r="D944" s="4"/>
+      <c r="E944" s="4"/>
+    </row>
+    <row r="945" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A945" s="3"/>
-      <c r="B945" s="21"/>
-      <c r="C945" s="30"/>
-      <c r="D945" s="29"/>
-      <c r="E945" s="21"/>
+      <c r="B945" s="23"/>
+      <c r="C945" s="4"/>
+      <c r="D945" s="20"/>
+      <c r="E945" s="4"/>
     </row>
     <row r="946" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A946" s="3"/>
-      <c r="B946" s="21"/>
-      <c r="C946" s="30"/>
-      <c r="D946" s="29"/>
-      <c r="E946" s="21"/>
+      <c r="B946" s="23"/>
+      <c r="C946" s="24"/>
+      <c r="D946" s="4"/>
+      <c r="E946" s="23"/>
     </row>
     <row r="947" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A947" s="3"/>
       <c r="B947" s="23"/>
-      <c r="C947" s="36"/>
-      <c r="D947" s="4"/>
-      <c r="E947" s="35"/>
+      <c r="C947" s="30"/>
+      <c r="D947" s="29"/>
+      <c r="E947" s="23"/>
     </row>
     <row r="948" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A948" s="3"/>
       <c r="B948" s="23"/>
-      <c r="C948" s="24"/>
-      <c r="D948" s="4"/>
+      <c r="C948" s="30"/>
+      <c r="D948" s="29"/>
       <c r="E948" s="23"/>
     </row>
     <row r="949" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A949" s="3"/>
-      <c r="B949" s="23"/>
-      <c r="C949" s="24"/>
-      <c r="D949" s="4"/>
-      <c r="E949" s="23"/>
+      <c r="B949" s="21"/>
+      <c r="C949" s="30"/>
+      <c r="D949" s="29"/>
+      <c r="E949" s="21"/>
     </row>
     <row r="950" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A950" s="3"/>
-      <c r="B950" s="23"/>
-      <c r="C950" s="24"/>
-      <c r="D950" s="4"/>
-      <c r="E950" s="23"/>
+      <c r="B950" s="21"/>
+      <c r="C950" s="30"/>
+      <c r="D950" s="29"/>
+      <c r="E950" s="21"/>
     </row>
     <row r="951" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A951" s="3"/>
       <c r="B951" s="23"/>
-      <c r="C951" s="24"/>
+      <c r="C951" s="36"/>
       <c r="D951" s="4"/>
-      <c r="E951" s="23"/>
+      <c r="E951" s="35"/>
     </row>
     <row r="952" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A952" s="3"/>
-      <c r="C952" s="30"/>
-      <c r="D952" s="20"/>
+      <c r="B952" s="23"/>
+      <c r="C952" s="24"/>
+      <c r="D952" s="4"/>
       <c r="E952" s="23"/>
     </row>
     <row r="953" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A953" s="3"/>
-      <c r="C953" s="30"/>
-      <c r="D953" s="20"/>
+      <c r="B953" s="23"/>
+      <c r="C953" s="24"/>
+      <c r="D953" s="4"/>
       <c r="E953" s="23"/>
     </row>
     <row r="954" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A954" s="3"/>
-      <c r="C954" s="30"/>
-      <c r="D954" s="20"/>
+      <c r="B954" s="23"/>
+      <c r="C954" s="24"/>
+      <c r="D954" s="4"/>
       <c r="E954" s="23"/>
     </row>
     <row r="955" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A955" s="3"/>
-      <c r="C955" s="30"/>
-      <c r="D955" s="20"/>
+      <c r="B955" s="23"/>
+      <c r="C955" s="24"/>
+      <c r="D955" s="4"/>
       <c r="E955" s="23"/>
     </row>
     <row r="956" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A956" s="3"/>
-      <c r="B956" s="35"/>
-      <c r="C956" s="36"/>
-      <c r="D956" s="37"/>
-      <c r="E956" s="35"/>
+      <c r="C956" s="30"/>
+      <c r="D956" s="20"/>
+      <c r="E956" s="23"/>
     </row>
     <row r="957" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A957" s="3"/>
-      <c r="B957" s="35"/>
-      <c r="C957" s="36"/>
-      <c r="D957" s="37"/>
-      <c r="E957" s="35"/>
+      <c r="C957" s="30"/>
+      <c r="D957" s="20"/>
+      <c r="E957" s="23"/>
     </row>
     <row r="958" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A958" s="3"/>
-      <c r="B958" s="35"/>
-      <c r="C958" s="36"/>
-      <c r="D958" s="37"/>
-      <c r="E958" s="35"/>
+      <c r="C958" s="30"/>
+      <c r="D958" s="20"/>
+      <c r="E958" s="23"/>
     </row>
     <row r="959" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A959" s="3"/>
-      <c r="B959" s="35"/>
-      <c r="C959" s="36"/>
-      <c r="D959" s="37"/>
-      <c r="E959" s="35"/>
-    </row>
-    <row r="960" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C959" s="30"/>
+      <c r="D959" s="20"/>
+      <c r="E959" s="23"/>
+    </row>
+    <row r="960" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A960" s="3"/>
-      <c r="B960" s="23"/>
-      <c r="C960" s="4"/>
-      <c r="D960" s="4"/>
-      <c r="E960" s="23"/>
-    </row>
-    <row r="961" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B960" s="35"/>
+      <c r="C960" s="36"/>
+      <c r="D960" s="37"/>
+      <c r="E960" s="35"/>
+    </row>
+    <row r="961" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A961" s="3"/>
-      <c r="B961" s="23"/>
-      <c r="C961" s="4"/>
-      <c r="D961" s="4"/>
-      <c r="E961" s="23"/>
-    </row>
-    <row r="962" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B961" s="35"/>
+      <c r="C961" s="36"/>
+      <c r="D961" s="37"/>
+      <c r="E961" s="35"/>
+    </row>
+    <row r="962" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A962" s="3"/>
-      <c r="B962" s="23"/>
-      <c r="C962" s="4"/>
-      <c r="D962" s="4"/>
-      <c r="E962" s="23"/>
-    </row>
-    <row r="963" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B962" s="35"/>
+      <c r="C962" s="36"/>
+      <c r="D962" s="37"/>
+      <c r="E962" s="35"/>
+    </row>
+    <row r="963" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A963" s="3"/>
-      <c r="B963" s="23"/>
-      <c r="C963" s="4"/>
-      <c r="D963" s="4"/>
-      <c r="E963" s="23"/>
-    </row>
-    <row r="964" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B963" s="35"/>
+      <c r="C963" s="36"/>
+      <c r="D963" s="37"/>
+      <c r="E963" s="35"/>
+    </row>
+    <row r="964" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A964" s="3"/>
       <c r="B964" s="23"/>
-      <c r="C964" s="30"/>
-      <c r="D964" s="20"/>
+      <c r="C964" s="4"/>
+      <c r="D964" s="4"/>
       <c r="E964" s="23"/>
     </row>
     <row r="965" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -22758,24 +23300,28 @@
       <c r="B965" s="23"/>
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
+      <c r="E965" s="23"/>
     </row>
     <row r="966" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A966" s="3"/>
       <c r="B966" s="23"/>
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
+      <c r="E966" s="23"/>
     </row>
     <row r="967" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A967" s="3"/>
       <c r="B967" s="23"/>
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
-    </row>
-    <row r="968" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E967" s="23"/>
+    </row>
+    <row r="968" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A968" s="3"/>
       <c r="B968" s="23"/>
-      <c r="C968" s="4"/>
-      <c r="D968" s="4"/>
+      <c r="C968" s="30"/>
+      <c r="D968" s="20"/>
+      <c r="E968" s="23"/>
     </row>
     <row r="969" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A969" s="3"/>
@@ -22802,40 +23348,40 @@
       <c r="D972" s="4"/>
     </row>
     <row r="973" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A973" s="38"/>
-      <c r="B973" s="39"/>
+      <c r="A973" s="3"/>
+      <c r="B973" s="23"/>
       <c r="C973" s="4"/>
-      <c r="D973" s="40"/>
+      <c r="D973" s="4"/>
     </row>
     <row r="974" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A974" s="38"/>
-      <c r="B974" s="39"/>
+      <c r="A974" s="3"/>
+      <c r="B974" s="23"/>
       <c r="C974" s="4"/>
-      <c r="D974" s="40"/>
+      <c r="D974" s="4"/>
     </row>
     <row r="975" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A975" s="3"/>
       <c r="B975" s="23"/>
-      <c r="C975" s="20"/>
+      <c r="C975" s="4"/>
       <c r="D975" s="4"/>
     </row>
     <row r="976" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A976" s="3"/>
       <c r="B976" s="23"/>
-      <c r="C976" s="20"/>
+      <c r="C976" s="4"/>
       <c r="D976" s="4"/>
     </row>
     <row r="977" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A977" s="3"/>
-      <c r="B977" s="23"/>
-      <c r="C977" s="20"/>
-      <c r="D977" s="4"/>
+      <c r="A977" s="38"/>
+      <c r="B977" s="39"/>
+      <c r="C977" s="4"/>
+      <c r="D977" s="40"/>
     </row>
     <row r="978" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A978" s="3"/>
-      <c r="B978" s="23"/>
-      <c r="C978" s="20"/>
-      <c r="D978" s="4"/>
+      <c r="A978" s="38"/>
+      <c r="B978" s="39"/>
+      <c r="C978" s="4"/>
+      <c r="D978" s="40"/>
     </row>
     <row r="979" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A979" s="3"/>
@@ -22853,43 +23399,43 @@
       <c r="A981" s="3"/>
       <c r="B981" s="23"/>
       <c r="C981" s="20"/>
-      <c r="D981" s="20"/>
+      <c r="D981" s="4"/>
     </row>
     <row r="982" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A982" s="3"/>
       <c r="B982" s="23"/>
-      <c r="C982" s="4"/>
-      <c r="D982" s="20"/>
+      <c r="C982" s="20"/>
+      <c r="D982" s="4"/>
     </row>
     <row r="983" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A983" s="3"/>
       <c r="B983" s="23"/>
-      <c r="C983" s="4"/>
-      <c r="D983" s="20"/>
+      <c r="C983" s="20"/>
+      <c r="D983" s="4"/>
     </row>
     <row r="984" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A984" s="3"/>
-      <c r="C984" s="4"/>
-      <c r="D984" s="20"/>
-      <c r="E984" s="23"/>
+      <c r="B984" s="23"/>
+      <c r="C984" s="20"/>
+      <c r="D984" s="4"/>
     </row>
     <row r="985" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A985" s="3"/>
-      <c r="C985" s="4"/>
+      <c r="B985" s="23"/>
+      <c r="C985" s="20"/>
       <c r="D985" s="20"/>
-      <c r="E985" s="23"/>
     </row>
     <row r="986" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A986" s="3"/>
+      <c r="B986" s="23"/>
       <c r="C986" s="4"/>
       <c r="D986" s="20"/>
-      <c r="E986" s="23"/>
     </row>
     <row r="987" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A987" s="3"/>
+      <c r="B987" s="23"/>
       <c r="C987" s="4"/>
       <c r="D987" s="20"/>
-      <c r="E987" s="23"/>
     </row>
     <row r="988" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A988" s="3"/>
@@ -22906,94 +23452,98 @@
     <row r="990" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A990" s="3"/>
       <c r="C990" s="4"/>
-      <c r="D990" s="41"/>
+      <c r="D990" s="20"/>
+      <c r="E990" s="23"/>
     </row>
     <row r="991" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A991" s="3"/>
       <c r="C991" s="4"/>
-      <c r="D991" s="41"/>
+      <c r="D991" s="20"/>
+      <c r="E991" s="23"/>
     </row>
     <row r="992" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A992" s="3"/>
       <c r="C992" s="4"/>
       <c r="D992" s="20"/>
-    </row>
-    <row r="993" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E992" s="23"/>
+    </row>
+    <row r="993" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A993" s="3"/>
       <c r="C993" s="4"/>
       <c r="D993" s="20"/>
-    </row>
-    <row r="994" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E993" s="23"/>
+    </row>
+    <row r="994" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A994" s="3"/>
       <c r="C994" s="4"/>
-      <c r="D994" s="20"/>
-    </row>
-    <row r="995" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D994" s="41"/>
+    </row>
+    <row r="995" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A995" s="3"/>
       <c r="C995" s="4"/>
-      <c r="D995" s="20"/>
-    </row>
-    <row r="996" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D995" s="41"/>
+    </row>
+    <row r="996" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A996" s="3"/>
       <c r="C996" s="4"/>
       <c r="D996" s="20"/>
     </row>
-    <row r="997" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="997" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A997" s="3"/>
       <c r="C997" s="4"/>
       <c r="D997" s="20"/>
     </row>
-    <row r="998" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="998" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A998" s="3"/>
       <c r="C998" s="4"/>
       <c r="D998" s="20"/>
     </row>
-    <row r="999" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="999" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A999" s="3"/>
       <c r="C999" s="4"/>
       <c r="D999" s="20"/>
     </row>
-    <row r="1000" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1000" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="3"/>
       <c r="C1000" s="4"/>
       <c r="D1000" s="20"/>
     </row>
-    <row r="1001" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1001" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="3"/>
       <c r="C1001" s="4"/>
       <c r="D1001" s="20"/>
     </row>
-    <row r="1002" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1002" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1002" s="3"/>
       <c r="C1002" s="4"/>
       <c r="D1002" s="20"/>
     </row>
-    <row r="1003" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1003" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1003" s="3"/>
       <c r="C1003" s="4"/>
       <c r="D1003" s="20"/>
     </row>
-    <row r="1004" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1004" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1004" s="3"/>
       <c r="C1004" s="4"/>
       <c r="D1004" s="20"/>
     </row>
-    <row r="1005" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1005" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1005" s="3"/>
       <c r="C1005" s="4"/>
       <c r="D1005" s="20"/>
     </row>
-    <row r="1006" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1006" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1006" s="3"/>
       <c r="C1006" s="4"/>
       <c r="D1006" s="20"/>
     </row>
-    <row r="1007" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1007" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1007" s="3"/>
       <c r="C1007" s="4"/>
       <c r="D1007" s="20"/>
     </row>
-    <row r="1008" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1008" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1008" s="3"/>
       <c r="C1008" s="4"/>
       <c r="D1008" s="20"/>
@@ -23006,12 +23556,12 @@
     <row r="1010" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1010" s="3"/>
       <c r="C1010" s="4"/>
-      <c r="D1010" s="41"/>
+      <c r="D1010" s="20"/>
     </row>
     <row r="1011" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1011" s="3"/>
       <c r="C1011" s="4"/>
-      <c r="D1011" s="41"/>
+      <c r="D1011" s="20"/>
     </row>
     <row r="1012" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1012" s="3"/>
@@ -23026,12 +23576,12 @@
     <row r="1014" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1014" s="3"/>
       <c r="C1014" s="4"/>
-      <c r="D1014" s="20"/>
+      <c r="D1014" s="41"/>
     </row>
     <row r="1015" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1015" s="3"/>
       <c r="C1015" s="4"/>
-      <c r="D1015" s="20"/>
+      <c r="D1015" s="41"/>
     </row>
     <row r="1016" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1016" s="3"/>
@@ -23120,69 +23670,65 @@
     </row>
     <row r="1033" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1033" s="3"/>
-      <c r="B1033" s="23"/>
-      <c r="C1033" s="20"/>
+      <c r="C1033" s="4"/>
       <c r="D1033" s="20"/>
     </row>
     <row r="1034" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1034" s="3"/>
-      <c r="B1034" s="23"/>
-      <c r="C1034" s="20"/>
+      <c r="C1034" s="4"/>
       <c r="D1034" s="20"/>
     </row>
     <row r="1035" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1035" s="3"/>
-      <c r="B1035" s="23"/>
-      <c r="C1035" s="20"/>
+      <c r="C1035" s="4"/>
       <c r="D1035" s="20"/>
     </row>
     <row r="1036" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1036" s="3"/>
-      <c r="B1036" s="23"/>
-      <c r="C1036" s="20"/>
+      <c r="C1036" s="4"/>
       <c r="D1036" s="20"/>
     </row>
     <row r="1037" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1037" s="3"/>
       <c r="B1037" s="23"/>
       <c r="C1037" s="20"/>
-      <c r="D1037" s="4"/>
+      <c r="D1037" s="20"/>
     </row>
     <row r="1038" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1038" s="3"/>
       <c r="B1038" s="23"/>
       <c r="C1038" s="20"/>
-      <c r="D1038" s="4"/>
+      <c r="D1038" s="20"/>
     </row>
     <row r="1039" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1039" s="3"/>
       <c r="B1039" s="23"/>
       <c r="C1039" s="20"/>
-      <c r="D1039" s="4"/>
+      <c r="D1039" s="20"/>
     </row>
     <row r="1040" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1040" s="3"/>
       <c r="B1040" s="23"/>
       <c r="C1040" s="20"/>
-      <c r="D1040" s="4"/>
+      <c r="D1040" s="20"/>
     </row>
     <row r="1041" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1041" s="3"/>
-      <c r="C1041" s="4"/>
-      <c r="D1041" s="20"/>
-      <c r="E1041" s="23"/>
+      <c r="B1041" s="23"/>
+      <c r="C1041" s="20"/>
+      <c r="D1041" s="4"/>
     </row>
     <row r="1042" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1042" s="3"/>
       <c r="B1042" s="23"/>
       <c r="C1042" s="20"/>
-      <c r="D1042" s="20"/>
+      <c r="D1042" s="4"/>
     </row>
     <row r="1043" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1043" s="3"/>
       <c r="B1043" s="23"/>
-      <c r="C1043" s="4"/>
-      <c r="D1043" s="20"/>
+      <c r="C1043" s="20"/>
+      <c r="D1043" s="4"/>
     </row>
     <row r="1044" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1044" s="3"/>
@@ -23192,36 +23738,40 @@
     </row>
     <row r="1045" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1045" s="3"/>
-      <c r="B1045" s="23"/>
-      <c r="C1045" s="20"/>
-      <c r="D1045" s="4"/>
+      <c r="C1045" s="4"/>
+      <c r="D1045" s="20"/>
+      <c r="E1045" s="23"/>
     </row>
     <row r="1046" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1046" s="38"/>
-      <c r="B1046" s="42"/>
-      <c r="C1046" s="40"/>
-      <c r="D1046" s="43"/>
-      <c r="E1046" s="42"/>
+      <c r="A1046" s="3"/>
+      <c r="B1046" s="23"/>
+      <c r="C1046" s="20"/>
+      <c r="D1046" s="20"/>
     </row>
     <row r="1047" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1047" s="3"/>
-      <c r="C1047" s="20"/>
+      <c r="B1047" s="23"/>
+      <c r="C1047" s="4"/>
       <c r="D1047" s="20"/>
     </row>
     <row r="1048" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1048" s="3"/>
+      <c r="B1048" s="23"/>
       <c r="C1048" s="20"/>
-      <c r="D1048" s="20"/>
+      <c r="D1048" s="4"/>
     </row>
     <row r="1049" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1049" s="3"/>
+      <c r="B1049" s="23"/>
       <c r="C1049" s="20"/>
-      <c r="D1049" s="29"/>
+      <c r="D1049" s="4"/>
     </row>
     <row r="1050" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1050" s="3"/>
-      <c r="C1050" s="20"/>
-      <c r="D1050" s="29"/>
+      <c r="A1050" s="38"/>
+      <c r="B1050" s="42"/>
+      <c r="C1050" s="40"/>
+      <c r="D1050" s="43"/>
+      <c r="E1050" s="42"/>
     </row>
     <row r="1051" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1051" s="3"/>
@@ -23231,18 +23781,17 @@
     <row r="1052" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1052" s="3"/>
       <c r="C1052" s="20"/>
-      <c r="D1052" s="44"/>
+      <c r="D1052" s="20"/>
     </row>
     <row r="1053" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1053" s="3"/>
       <c r="C1053" s="20"/>
-      <c r="D1053" s="44"/>
+      <c r="D1053" s="29"/>
     </row>
     <row r="1054" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1054" s="3"/>
-      <c r="C1054" s="4"/>
-      <c r="D1054" s="20"/>
-      <c r="E1054" s="23"/>
+      <c r="C1054" s="20"/>
+      <c r="D1054" s="29"/>
     </row>
     <row r="1055" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1055" s="3"/>
@@ -23252,84 +23801,85 @@
     <row r="1056" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1056" s="3"/>
       <c r="C1056" s="20"/>
-      <c r="D1056" s="20"/>
-    </row>
-    <row r="1057" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D1056" s="44"/>
+    </row>
+    <row r="1057" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1057" s="3"/>
       <c r="C1057" s="20"/>
-      <c r="D1057" s="20"/>
-    </row>
-    <row r="1058" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D1057" s="44"/>
+    </row>
+    <row r="1058" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1058" s="3"/>
-      <c r="C1058" s="20"/>
+      <c r="C1058" s="4"/>
       <c r="D1058" s="20"/>
-    </row>
-    <row r="1059" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E1058" s="23"/>
+    </row>
+    <row r="1059" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1059" s="3"/>
       <c r="C1059" s="20"/>
       <c r="D1059" s="20"/>
     </row>
-    <row r="1060" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1060" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1060" s="3"/>
       <c r="C1060" s="20"/>
       <c r="D1060" s="20"/>
     </row>
-    <row r="1061" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1061" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1061" s="3"/>
       <c r="C1061" s="20"/>
       <c r="D1061" s="20"/>
     </row>
-    <row r="1062" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1062" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1062" s="3"/>
       <c r="C1062" s="20"/>
       <c r="D1062" s="20"/>
     </row>
-    <row r="1063" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1063" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1063" s="3"/>
       <c r="C1063" s="20"/>
       <c r="D1063" s="20"/>
     </row>
-    <row r="1064" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1064" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1064" s="3"/>
       <c r="C1064" s="20"/>
       <c r="D1064" s="20"/>
     </row>
-    <row r="1065" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1065" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1065" s="3"/>
       <c r="C1065" s="20"/>
       <c r="D1065" s="20"/>
     </row>
-    <row r="1066" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1066" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1066" s="3"/>
       <c r="C1066" s="20"/>
       <c r="D1066" s="20"/>
     </row>
-    <row r="1067" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1067" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1067" s="3"/>
-      <c r="C1067" s="45"/>
+      <c r="C1067" s="20"/>
       <c r="D1067" s="20"/>
     </row>
-    <row r="1068" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1068" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1068" s="3"/>
       <c r="C1068" s="20"/>
       <c r="D1068" s="20"/>
     </row>
-    <row r="1069" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1069" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1069" s="3"/>
       <c r="C1069" s="20"/>
       <c r="D1069" s="20"/>
     </row>
-    <row r="1070" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1070" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1070" s="3"/>
       <c r="C1070" s="20"/>
       <c r="D1070" s="20"/>
     </row>
-    <row r="1071" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1071" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1071" s="3"/>
-      <c r="C1071" s="20"/>
+      <c r="C1071" s="45"/>
       <c r="D1071" s="20"/>
     </row>
-    <row r="1072" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1072" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1072" s="3"/>
       <c r="C1072" s="20"/>
       <c r="D1072" s="20"/>
@@ -23446,59 +23996,59 @@
     </row>
     <row r="1095" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1095" s="3"/>
-      <c r="B1095" s="23"/>
       <c r="C1095" s="20"/>
       <c r="D1095" s="20"/>
     </row>
     <row r="1096" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1096" s="3"/>
-      <c r="B1096" s="23"/>
       <c r="C1096" s="20"/>
       <c r="D1096" s="20"/>
     </row>
     <row r="1097" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1097" s="3"/>
-      <c r="B1097" s="23"/>
       <c r="C1097" s="20"/>
       <c r="D1097" s="20"/>
     </row>
     <row r="1098" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1098" s="3"/>
-      <c r="B1098" s="23"/>
       <c r="C1098" s="20"/>
-      <c r="D1098" s="4"/>
+      <c r="D1098" s="20"/>
     </row>
     <row r="1099" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1099" s="3"/>
       <c r="B1099" s="23"/>
       <c r="C1099" s="20"/>
-      <c r="D1099" s="4"/>
+      <c r="D1099" s="20"/>
     </row>
     <row r="1100" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1100" s="3"/>
       <c r="B1100" s="23"/>
       <c r="C1100" s="20"/>
-      <c r="D1100" s="4"/>
+      <c r="D1100" s="20"/>
     </row>
     <row r="1101" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1101" s="3"/>
+      <c r="B1101" s="23"/>
       <c r="C1101" s="20"/>
       <c r="D1101" s="20"/>
     </row>
     <row r="1102" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1102" s="3"/>
+      <c r="B1102" s="23"/>
       <c r="C1102" s="20"/>
-      <c r="D1102" s="20"/>
+      <c r="D1102" s="4"/>
     </row>
     <row r="1103" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1103" s="3"/>
+      <c r="B1103" s="23"/>
       <c r="C1103" s="20"/>
-      <c r="D1103" s="20"/>
+      <c r="D1103" s="4"/>
     </row>
     <row r="1104" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1104" s="3"/>
+      <c r="B1104" s="23"/>
       <c r="C1104" s="20"/>
-      <c r="D1104" s="20"/>
+      <c r="D1104" s="4"/>
     </row>
     <row r="1105" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1105" s="3"/>
@@ -23512,22 +24062,22 @@
     </row>
     <row r="1107" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1107" s="3"/>
-      <c r="C1107" s="4"/>
+      <c r="C1107" s="20"/>
       <c r="D1107" s="20"/>
     </row>
     <row r="1108" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1108" s="3"/>
-      <c r="C1108" s="4"/>
+      <c r="C1108" s="20"/>
       <c r="D1108" s="20"/>
     </row>
     <row r="1109" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1109" s="3"/>
-      <c r="C1109" s="4"/>
+      <c r="C1109" s="20"/>
       <c r="D1109" s="20"/>
     </row>
     <row r="1110" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1110" s="3"/>
-      <c r="C1110" s="4"/>
+      <c r="C1110" s="20"/>
       <c r="D1110" s="20"/>
     </row>
     <row r="1111" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -23554,7 +24104,6 @@
       <c r="A1115" s="3"/>
       <c r="C1115" s="4"/>
       <c r="D1115" s="20"/>
-      <c r="E1115" s="23"/>
     </row>
     <row r="1116" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1116" s="3"/>
@@ -23575,6 +24124,7 @@
       <c r="A1119" s="3"/>
       <c r="C1119" s="4"/>
       <c r="D1119" s="20"/>
+      <c r="E1119" s="23"/>
     </row>
     <row r="1120" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1120" s="3"/>
@@ -23653,25 +24203,21 @@
     </row>
     <row r="1135" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1135" s="3"/>
-      <c r="B1135" s="46"/>
       <c r="C1135" s="4"/>
       <c r="D1135" s="20"/>
     </row>
     <row r="1136" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1136" s="3"/>
-      <c r="B1136" s="46"/>
       <c r="C1136" s="4"/>
       <c r="D1136" s="20"/>
     </row>
     <row r="1137" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1137" s="3"/>
-      <c r="B1137" s="46"/>
       <c r="C1137" s="4"/>
       <c r="D1137" s="20"/>
     </row>
     <row r="1138" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1138" s="3"/>
-      <c r="B1138" s="46"/>
       <c r="C1138" s="4"/>
       <c r="D1138" s="20"/>
     </row>
@@ -23759,175 +24305,179 @@
       <c r="C1152" s="4"/>
       <c r="D1152" s="20"/>
     </row>
-    <row r="1153" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1153" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1153" s="3"/>
       <c r="B1153" s="46"/>
       <c r="C1153" s="4"/>
       <c r="D1153" s="20"/>
     </row>
-    <row r="1154" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1154" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1154" s="3"/>
       <c r="B1154" s="46"/>
       <c r="C1154" s="4"/>
       <c r="D1154" s="20"/>
     </row>
-    <row r="1155" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1155" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1155" s="3"/>
       <c r="B1155" s="46"/>
       <c r="C1155" s="4"/>
       <c r="D1155" s="20"/>
     </row>
-    <row r="1156" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1156" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1156" s="3"/>
       <c r="B1156" s="46"/>
       <c r="C1156" s="4"/>
       <c r="D1156" s="20"/>
     </row>
-    <row r="1157" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1157" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1157" s="3"/>
       <c r="B1157" s="46"/>
       <c r="C1157" s="4"/>
       <c r="D1157" s="20"/>
     </row>
-    <row r="1158" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1158" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1158" s="3"/>
       <c r="B1158" s="46"/>
       <c r="C1158" s="4"/>
       <c r="D1158" s="20"/>
     </row>
-    <row r="1159" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1159" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1159" s="3"/>
       <c r="B1159" s="46"/>
       <c r="C1159" s="4"/>
       <c r="D1159" s="20"/>
     </row>
-    <row r="1160" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1160" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1160" s="3"/>
       <c r="B1160" s="46"/>
-      <c r="C1160" s="20"/>
+      <c r="C1160" s="4"/>
       <c r="D1160" s="20"/>
     </row>
-    <row r="1161" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1161" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1161" s="3"/>
       <c r="B1161" s="46"/>
-      <c r="C1161" s="20"/>
+      <c r="C1161" s="4"/>
       <c r="D1161" s="20"/>
     </row>
-    <row r="1162" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1162" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1162" s="3"/>
       <c r="B1162" s="46"/>
-      <c r="C1162" s="20"/>
+      <c r="C1162" s="4"/>
       <c r="D1162" s="20"/>
     </row>
-    <row r="1163" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1163" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1163" s="3"/>
       <c r="B1163" s="46"/>
-      <c r="C1163" s="20"/>
+      <c r="C1163" s="4"/>
       <c r="D1163" s="20"/>
     </row>
-    <row r="1164" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1164" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1164" s="3"/>
       <c r="B1164" s="46"/>
       <c r="C1164" s="20"/>
       <c r="D1164" s="20"/>
     </row>
-    <row r="1165" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1165" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1165" s="3"/>
+      <c r="B1165" s="46"/>
       <c r="C1165" s="20"/>
       <c r="D1165" s="20"/>
     </row>
-    <row r="1166" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1166" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1166" s="3"/>
+      <c r="B1166" s="46"/>
       <c r="C1166" s="20"/>
-      <c r="D1166" s="24"/>
-    </row>
-    <row r="1167" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1166" s="20"/>
+    </row>
+    <row r="1167" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1167" s="3"/>
-      <c r="C1167" s="30"/>
+      <c r="B1167" s="46"/>
+      <c r="C1167" s="20"/>
       <c r="D1167" s="20"/>
-      <c r="E1167" s="23"/>
-    </row>
-    <row r="1168" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="1168" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1168" s="3"/>
+      <c r="B1168" s="46"/>
       <c r="C1168" s="20"/>
       <c r="D1168" s="20"/>
     </row>
-    <row r="1169" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1169" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1169" s="3"/>
       <c r="C1169" s="20"/>
       <c r="D1169" s="20"/>
     </row>
-    <row r="1170" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1170" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1170" s="3"/>
-      <c r="C1170" s="4"/>
-      <c r="D1170" s="47"/>
-    </row>
-    <row r="1171" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1170" s="20"/>
+      <c r="D1170" s="24"/>
+    </row>
+    <row r="1171" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1171" s="3"/>
-      <c r="C1171" s="4"/>
-      <c r="D1171" s="47"/>
-    </row>
-    <row r="1172" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1171" s="30"/>
+      <c r="D1171" s="20"/>
+      <c r="E1171" s="23"/>
+    </row>
+    <row r="1172" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1172" s="3"/>
-      <c r="C1172" s="4"/>
-      <c r="D1172" s="47"/>
-    </row>
-    <row r="1173" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1172" s="20"/>
+      <c r="D1172" s="20"/>
+    </row>
+    <row r="1173" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1173" s="3"/>
-      <c r="C1173" s="4"/>
-      <c r="D1173" s="47"/>
-    </row>
-    <row r="1174" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1173" s="20"/>
+      <c r="D1173" s="20"/>
+    </row>
+    <row r="1174" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1174" s="3"/>
       <c r="C1174" s="4"/>
       <c r="D1174" s="47"/>
     </row>
-    <row r="1175" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1175" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1175" s="3"/>
       <c r="C1175" s="4"/>
       <c r="D1175" s="47"/>
     </row>
-    <row r="1176" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1176" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1176" s="3"/>
       <c r="C1176" s="4"/>
       <c r="D1176" s="47"/>
     </row>
-    <row r="1177" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1177" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1177" s="3"/>
       <c r="C1177" s="4"/>
       <c r="D1177" s="47"/>
     </row>
-    <row r="1178" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1178" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1178" s="3"/>
       <c r="C1178" s="4"/>
       <c r="D1178" s="47"/>
     </row>
-    <row r="1179" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1179" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1179" s="3"/>
       <c r="C1179" s="4"/>
       <c r="D1179" s="47"/>
     </row>
-    <row r="1180" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1180" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1180" s="3"/>
       <c r="C1180" s="4"/>
       <c r="D1180" s="47"/>
     </row>
-    <row r="1181" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1181" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1181" s="3"/>
       <c r="C1181" s="4"/>
       <c r="D1181" s="47"/>
     </row>
-    <row r="1182" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1182" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1182" s="3"/>
       <c r="C1182" s="4"/>
       <c r="D1182" s="47"/>
     </row>
-    <row r="1183" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1183" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1183" s="3"/>
       <c r="C1183" s="4"/>
       <c r="D1183" s="47"/>
     </row>
-    <row r="1184" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1184" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1184" s="3"/>
       <c r="C1184" s="4"/>
       <c r="D1184" s="47"/>
@@ -24079,23 +24629,23 @@
     </row>
     <row r="1214" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1214" s="3"/>
-      <c r="C1214" s="20"/>
-      <c r="D1214" s="33"/>
+      <c r="C1214" s="4"/>
+      <c r="D1214" s="47"/>
     </row>
     <row r="1215" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1215" s="3"/>
-      <c r="C1215" s="20"/>
-      <c r="D1215" s="33"/>
+      <c r="C1215" s="4"/>
+      <c r="D1215" s="47"/>
     </row>
     <row r="1216" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1216" s="3"/>
-      <c r="C1216" s="20"/>
-      <c r="D1216" s="33"/>
+      <c r="C1216" s="4"/>
+      <c r="D1216" s="47"/>
     </row>
     <row r="1217" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1217" s="3"/>
-      <c r="C1217" s="20"/>
-      <c r="D1217" s="33"/>
+      <c r="C1217" s="4"/>
+      <c r="D1217" s="47"/>
     </row>
     <row r="1218" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1218" s="3"/>
@@ -24432,10 +24982,26 @@
       <c r="C1284" s="20"/>
       <c r="D1284" s="33"/>
     </row>
-    <row r="1438" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1439" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1440" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="1441" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1285" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1285" s="3"/>
+      <c r="C1285" s="20"/>
+      <c r="D1285" s="33"/>
+    </row>
+    <row r="1286" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1286" s="3"/>
+      <c r="C1286" s="20"/>
+      <c r="D1286" s="33"/>
+    </row>
+    <row r="1287" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1287" s="3"/>
+      <c r="C1287" s="20"/>
+      <c r="D1287" s="33"/>
+    </row>
+    <row r="1288" spans="1:4" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1288" s="3"/>
+      <c r="C1288" s="20"/>
+      <c r="D1288" s="33"/>
+    </row>
     <row r="1442" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1443" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1444" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -24448,120 +25014,124 @@
     <row r="1451" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1452" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1453" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1454" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1455" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1456" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1457" ht="18.95" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A491">
+  <conditionalFormatting sqref="A495">
     <cfRule type="duplicateValues" dxfId="37" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A492">
+  <conditionalFormatting sqref="A496">
     <cfRule type="duplicateValues" dxfId="36" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A493">
+  <conditionalFormatting sqref="A497">
     <cfRule type="duplicateValues" dxfId="35" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A494">
+  <conditionalFormatting sqref="A498">
     <cfRule type="duplicateValues" dxfId="34" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A495">
+  <conditionalFormatting sqref="A499">
     <cfRule type="duplicateValues" dxfId="33" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A496">
+  <conditionalFormatting sqref="A500">
     <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A497">
+  <conditionalFormatting sqref="A501">
     <cfRule type="duplicateValues" dxfId="31" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A498">
+  <conditionalFormatting sqref="A502">
     <cfRule type="duplicateValues" dxfId="30" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A499">
+  <conditionalFormatting sqref="A503">
     <cfRule type="duplicateValues" dxfId="29" priority="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A500">
+  <conditionalFormatting sqref="A504">
     <cfRule type="duplicateValues" dxfId="28" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A501">
+  <conditionalFormatting sqref="A505">
     <cfRule type="duplicateValues" dxfId="27" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A502">
+  <conditionalFormatting sqref="A506">
     <cfRule type="duplicateValues" dxfId="26" priority="13"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A503">
+  <conditionalFormatting sqref="A507">
     <cfRule type="duplicateValues" dxfId="25" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A504">
+  <conditionalFormatting sqref="A508">
     <cfRule type="duplicateValues" dxfId="24" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A505">
+  <conditionalFormatting sqref="A509">
     <cfRule type="duplicateValues" dxfId="23" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A506">
+  <conditionalFormatting sqref="A510">
     <cfRule type="duplicateValues" dxfId="22" priority="17"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A507">
+  <conditionalFormatting sqref="A511">
     <cfRule type="duplicateValues" dxfId="21" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A508">
+  <conditionalFormatting sqref="A512">
     <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A509">
+  <conditionalFormatting sqref="A513">
     <cfRule type="duplicateValues" dxfId="19" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A510">
+  <conditionalFormatting sqref="A514">
     <cfRule type="duplicateValues" dxfId="18" priority="21"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A511">
+  <conditionalFormatting sqref="A515">
     <cfRule type="duplicateValues" dxfId="17" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A512">
+  <conditionalFormatting sqref="A516">
     <cfRule type="duplicateValues" dxfId="16" priority="23"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A513">
+  <conditionalFormatting sqref="A517">
     <cfRule type="duplicateValues" dxfId="15" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A514">
+  <conditionalFormatting sqref="A518">
     <cfRule type="duplicateValues" dxfId="14" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A515">
+  <conditionalFormatting sqref="A519">
     <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A516">
+  <conditionalFormatting sqref="A520">
     <cfRule type="duplicateValues" dxfId="12" priority="27"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A517">
+  <conditionalFormatting sqref="A521">
     <cfRule type="duplicateValues" dxfId="11" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A518">
+  <conditionalFormatting sqref="A522">
     <cfRule type="duplicateValues" dxfId="10" priority="29"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A519">
+  <conditionalFormatting sqref="A523">
     <cfRule type="duplicateValues" dxfId="9" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A520">
+  <conditionalFormatting sqref="A524">
     <cfRule type="duplicateValues" dxfId="8" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A521">
+  <conditionalFormatting sqref="A525">
     <cfRule type="duplicateValues" dxfId="7" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A522">
+  <conditionalFormatting sqref="A526">
     <cfRule type="duplicateValues" dxfId="6" priority="33"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A523">
+  <conditionalFormatting sqref="A527">
     <cfRule type="duplicateValues" dxfId="5" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A524">
+  <conditionalFormatting sqref="A528">
     <cfRule type="duplicateValues" dxfId="4" priority="35"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A525">
+  <conditionalFormatting sqref="A529">
     <cfRule type="duplicateValues" dxfId="3" priority="36"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A526">
+  <conditionalFormatting sqref="A530">
     <cfRule type="duplicateValues" dxfId="2" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A531:A661 A665:A1048576 A527:A529 A1:A490">
+  <conditionalFormatting sqref="A535:A665 A669:A1048576 A531:A533 A1:A245 A261:A494">
     <cfRule type="duplicateValues" dxfId="1" priority="39"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A662:A664">
+  <conditionalFormatting sqref="A666:A668">
     <cfRule type="duplicateValues" dxfId="0" priority="38"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2320EAA9-C99A-447E-A179-43F7A5DFDDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F61F131-9901-4E53-8C07-DE7AE952E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2104" uniqueCount="2053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="2059">
   <si>
     <t>Int</t>
   </si>
@@ -11218,6 +11218,30 @@
   </si>
   <si>
     <t>对空增伤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType_3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageType_4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Energy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buff</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>能量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>增益</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12331,7 +12355,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E249" sqref="E249"/>
+      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -17997,10 +18021,18 @@
       <c r="L257" s="3"/>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A258" s="56"/>
-      <c r="B258" s="56"/>
-      <c r="C258" s="56"/>
-      <c r="D258" s="56"/>
+      <c r="A258" s="56">
+        <v>20253</v>
+      </c>
+      <c r="B258" s="54" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C258" s="54" t="s">
+        <v>2055</v>
+      </c>
+      <c r="D258" s="54" t="s">
+        <v>2057</v>
+      </c>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
@@ -18011,10 +18043,18 @@
       <c r="L258" s="3"/>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A259" s="56"/>
-      <c r="B259" s="56"/>
-      <c r="C259" s="56"/>
-      <c r="D259" s="56"/>
+      <c r="A259" s="56">
+        <v>20254</v>
+      </c>
+      <c r="B259" s="54" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C259" s="54" t="s">
+        <v>2056</v>
+      </c>
+      <c r="D259" s="54" t="s">
+        <v>2058</v>
+      </c>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F61F131-9901-4E53-8C07-DE7AE952E913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D27E88-D914-49A8-A034-4A13095867A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2110" uniqueCount="2059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2224" uniqueCount="2173">
   <si>
     <t>Int</t>
   </si>
@@ -2219,6 +2219,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>冷却</t>
@@ -2235,6 +2236,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>秒</t>
@@ -2251,6 +2253,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>还需要</t>
@@ -2267,6 +2270,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（</t>
@@ -2283,6 +2287,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -2353,6 +2358,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>恭喜解锁了</t>
@@ -2369,6 +2375,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>的</t>
@@ -2385,6 +2392,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，快去尝试吧</t>
@@ -2437,6 +2445,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">进化 </t>
@@ -2482,6 +2491,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">等级 </t>
@@ -2545,6 +2555,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>宠物</t>
@@ -2561,6 +2572,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>升级为</t>
@@ -2630,6 +2642,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>是否确认出售</t>
@@ -2646,6 +2659,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>，获得</t>
@@ -2662,6 +2676,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>宝石？</t>
@@ -2695,6 +2710,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>经验</t>
@@ -2963,6 +2979,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>冥王行星</t>
@@ -2979,6 +2996,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -2995,6 +3013,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>幸运猫猫</t>
@@ -3011,6 +3030,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3027,6 +3047,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>黑暗团子</t>
@@ -3043,6 +3064,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3059,6 +3081,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>愤怒熔岩</t>
@@ -3075,6 +3098,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3091,6 +3115,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>粉红多肉</t>
@@ -3107,6 +3132,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3123,6 +3149,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>开裂岩浆</t>
@@ -3139,6 +3166,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3155,6 +3183,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>翡翠水晶</t>
@@ -3171,6 +3200,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3187,6 +3217,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蜂蜜熔岩</t>
@@ -3203,6 +3234,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3219,6 +3251,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>混沌荧光</t>
@@ -3235,6 +3268,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3251,6 +3285,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>极寒水晶</t>
@@ -3267,6 +3302,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3283,6 +3319,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>混土行星</t>
@@ -3299,6 +3336,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3315,6 +3353,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>独角兽</t>
@@ -3331,6 +3370,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3347,6 +3387,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>机械长角</t>
@@ -3363,6 +3404,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3379,6 +3421,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>独眼异形</t>
@@ -3395,6 +3438,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3411,6 +3455,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>飞马荧光</t>
@@ -3427,6 +3472,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3443,6 +3489,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>灯笼鱼龙</t>
@@ -3459,6 +3506,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3475,6 +3523,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>盗贼猫咪</t>
@@ -3491,6 +3540,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3507,6 +3557,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>白色飞鼠</t>
@@ -3523,6 +3574,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3539,6 +3591,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝色泡泡</t>
@@ -3555,6 +3608,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3571,6 +3625,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>十万伏特</t>
@@ -3587,6 +3642,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3603,6 +3659,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>棕色团子</t>
@@ -3619,6 +3676,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3635,6 +3693,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绿色精灵</t>
@@ -3651,6 +3710,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3667,6 +3727,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>粉色愤怒</t>
@@ -3683,6 +3744,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3699,6 +3761,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>眩晕土豆</t>
@@ -3715,6 +3778,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3731,6 +3795,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝绿独角</t>
@@ -3747,6 +3812,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3763,6 +3829,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>白蓝双角</t>
@@ -3779,6 +3846,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3795,6 +3863,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>植物行星</t>
@@ -3811,6 +3880,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -3845,6 +3915,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>坚持深蹲</t>
@@ -3861,6 +3932,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">次 </t>
@@ -3877,6 +3949,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次数</t>
@@ -3937,6 +4010,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>点击按钮开始踢击</t>
@@ -3961,6 +4035,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>漂亮，快去踢</t>
@@ -3977,6 +4052,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">次木桩吧 </t>
@@ -3993,6 +4069,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">踢木桩 </t>
@@ -4071,6 +4148,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>转生</t>
@@ -4087,6 +4165,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次</t>
@@ -4106,6 +4185,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>每次转生耗费所有力量，耐力和</t>
@@ -4122,6 +4202,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>速度</t>
@@ -4164,6 +4245,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>！</t>
@@ -4177,6 +4259,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">成长倍率 </t>
@@ -4201,6 +4284,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">下一次转生力量为 </t>
@@ -4371,6 +4455,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>被选中参赛</t>
@@ -4404,6 +4489,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>宝石</t>
@@ -4800,6 +4886,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次重生</t>
@@ -4816,6 +4903,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>你需要</t>
@@ -4832,6 +4920,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次重生才能进行传送！</t>
@@ -4848,6 +4937,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>前往</t>
@@ -5097,6 +5187,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火焰鹦鹉</t>
@@ -5113,6 +5204,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5129,6 +5221,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火锅金鱼</t>
@@ -5145,6 +5238,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5161,6 +5255,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>喷火章鱼</t>
@@ -5177,6 +5272,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5193,6 +5289,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>焦炭南瓜</t>
@@ -5209,6 +5306,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5225,6 +5323,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火热番茄</t>
@@ -5241,6 +5340,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5257,6 +5357,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>烈焰犬宝</t>
@@ -5273,6 +5374,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5289,6 +5391,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>炼狱魔王</t>
@@ -5305,6 +5408,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5321,6 +5425,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>熔岩熊猫</t>
@@ -5337,6 +5442,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5353,6 +5459,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>炎爆小鸡</t>
@@ -5369,6 +5476,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5385,6 +5493,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙漠南瓜</t>
@@ -5401,6 +5510,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5417,6 +5527,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>荒漠捕手</t>
@@ -5433,6 +5544,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5449,6 +5561,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙漠甘茄</t>
@@ -5465,6 +5578,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5481,6 +5595,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>吞天蟒</t>
@@ -5497,6 +5612,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5513,6 +5629,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙海肥鱼</t>
@@ -5529,6 +5646,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5545,6 +5663,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>大黑鲨</t>
@@ -5561,6 +5680,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5577,6 +5697,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>狗身狗面像</t>
@@ -5593,6 +5714,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5609,6 +5731,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>金墨章鱼</t>
@@ -5625,6 +5748,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5641,6 +5765,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙暴仙灵</t>
@@ -5657,6 +5782,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5673,6 +5799,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>急急国王</t>
@@ -5689,6 +5816,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化</t>
@@ -5705,6 +5833,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>冥王行星</t>
@@ -5721,6 +5850,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5737,6 +5867,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>幸运猫猫</t>
@@ -5753,6 +5884,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5769,6 +5901,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>黑暗团子</t>
@@ -5785,6 +5918,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5801,6 +5935,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>愤怒熔岩</t>
@@ -5817,6 +5952,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5833,6 +5969,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>粉红多肉</t>
@@ -5849,6 +5986,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5865,6 +6003,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>开裂岩浆</t>
@@ -5881,6 +6020,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5897,6 +6037,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>翡翠水晶</t>
@@ -5913,6 +6054,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5929,6 +6071,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蜂蜜熔岩</t>
@@ -5945,6 +6088,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5961,6 +6105,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>混沌荧光</t>
@@ -5977,6 +6122,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -5993,6 +6139,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>极寒水晶</t>
@@ -6009,6 +6156,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6025,6 +6173,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>混土行星</t>
@@ -6041,6 +6190,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6057,6 +6207,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>独角兽</t>
@@ -6073,6 +6224,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6089,6 +6241,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>机械长角</t>
@@ -6105,6 +6258,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6121,6 +6275,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>独眼异形</t>
@@ -6137,6 +6292,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6153,6 +6309,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>飞马荧光</t>
@@ -6169,6 +6326,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6185,6 +6343,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>灯笼鱼龙</t>
@@ -6201,6 +6360,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6217,6 +6377,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>盗贼猫咪</t>
@@ -6233,6 +6394,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6249,6 +6411,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>白色飞鼠</t>
@@ -6265,6 +6428,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6281,6 +6445,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝色泡泡</t>
@@ -6297,6 +6462,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6313,6 +6479,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>十万伏特</t>
@@ -6329,6 +6496,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6345,6 +6513,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>棕色团子</t>
@@ -6361,6 +6530,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6377,6 +6547,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绿色精灵</t>
@@ -6393,6 +6564,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6409,6 +6581,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>粉色愤怒</t>
@@ -6425,6 +6598,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6441,6 +6615,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>眩晕土豆</t>
@@ -6457,6 +6632,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6473,6 +6649,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝绿独角</t>
@@ -6489,6 +6666,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6505,6 +6683,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>白蓝双角</t>
@@ -6521,6 +6700,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6537,6 +6717,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>植物行星</t>
@@ -6553,6 +6734,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6569,6 +6751,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火焰鹦鹉</t>
@@ -6585,6 +6768,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6601,6 +6785,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火锅金鱼</t>
@@ -6617,6 +6802,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6633,6 +6819,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>喷火章鱼</t>
@@ -6649,6 +6836,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6665,6 +6853,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>焦炭南瓜</t>
@@ -6681,6 +6870,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6697,6 +6887,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火热番茄</t>
@@ -6713,6 +6904,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6729,6 +6921,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>烈焰犬宝</t>
@@ -6745,6 +6938,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6761,6 +6955,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>炼狱魔王</t>
@@ -6777,6 +6972,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6793,6 +6989,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>熔岩熊猫</t>
@@ -6809,6 +7006,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6825,6 +7023,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>炎爆小鸡</t>
@@ -6841,6 +7040,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6857,6 +7057,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙漠南瓜</t>
@@ -6873,6 +7074,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6889,6 +7091,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>荒漠捕手</t>
@@ -6905,6 +7108,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6921,6 +7125,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙漠甘茄</t>
@@ -6937,6 +7142,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6953,6 +7159,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>吞天蟒</t>
@@ -6969,6 +7176,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -6985,6 +7193,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙海肥鱼</t>
@@ -7001,6 +7210,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -7017,6 +7227,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>大黑鲨</t>
@@ -7033,6 +7244,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -7049,6 +7261,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>狗身狗面像</t>
@@ -7065,6 +7278,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -7081,6 +7295,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>金墨章鱼</t>
@@ -7097,6 +7312,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -7113,6 +7329,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙暴仙灵</t>
@@ -7129,6 +7346,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化</t>
@@ -7145,6 +7363,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>冥王行星</t>
@@ -7161,6 +7380,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7177,6 +7397,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>幸运猫猫</t>
@@ -7193,6 +7414,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7209,6 +7431,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>黑暗团子</t>
@@ -7225,6 +7448,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7241,6 +7465,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>愤怒熔岩</t>
@@ -7257,6 +7482,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7273,6 +7499,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>粉红多肉</t>
@@ -7289,6 +7516,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7305,6 +7533,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>开裂岩浆</t>
@@ -7321,6 +7550,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7337,6 +7567,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>翡翠水晶</t>
@@ -7353,6 +7584,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7369,6 +7601,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蜂蜜熔岩</t>
@@ -7385,6 +7618,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7401,6 +7635,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>混沌荧光</t>
@@ -7417,6 +7652,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7433,6 +7669,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>极寒水晶</t>
@@ -7449,6 +7686,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7465,6 +7703,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>混土行星</t>
@@ -7481,6 +7720,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7497,6 +7737,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>独角兽</t>
@@ -7513,6 +7754,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7529,6 +7771,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>机械长角</t>
@@ -7545,6 +7788,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7561,6 +7805,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>独眼异形</t>
@@ -7577,6 +7822,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7593,6 +7839,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>飞马荧光</t>
@@ -7609,6 +7856,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7625,6 +7873,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>灯笼鱼龙</t>
@@ -7641,6 +7890,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7657,6 +7907,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>盗贼猫咪</t>
@@ -7673,6 +7924,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7689,6 +7941,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>白色飞鼠</t>
@@ -7705,6 +7958,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7721,6 +7975,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝色泡泡</t>
@@ -7737,6 +7992,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7753,6 +8009,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>十万伏特</t>
@@ -7769,6 +8026,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7785,6 +8043,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>棕色团子</t>
@@ -7801,6 +8060,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7817,6 +8077,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>绿色精灵</t>
@@ -7833,6 +8094,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7849,6 +8111,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>粉色愤怒</t>
@@ -7865,6 +8128,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7881,6 +8145,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>眩晕土豆</t>
@@ -7897,6 +8162,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7913,6 +8179,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>蓝绿独角</t>
@@ -7929,6 +8196,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7945,6 +8213,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>白蓝双角</t>
@@ -7961,6 +8230,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -7977,6 +8247,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>植物行星</t>
@@ -7993,6 +8264,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8009,6 +8281,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火焰鹦鹉</t>
@@ -8025,6 +8298,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8041,6 +8315,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火锅金鱼</t>
@@ -8057,6 +8332,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8073,6 +8349,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>喷火章鱼</t>
@@ -8089,6 +8366,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8105,6 +8383,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>焦炭南瓜</t>
@@ -8121,6 +8400,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8137,6 +8417,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>火热番茄</t>
@@ -8153,6 +8434,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8169,6 +8451,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>烈焰犬宝</t>
@@ -8185,6 +8468,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8201,6 +8485,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>炼狱魔王</t>
@@ -8217,6 +8502,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8233,6 +8519,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>熔岩熊猫</t>
@@ -8249,6 +8536,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8265,6 +8553,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>炎爆小鸡</t>
@@ -8281,6 +8570,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8297,6 +8587,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙漠南瓜</t>
@@ -8313,6 +8604,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8329,6 +8621,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>荒漠捕手</t>
@@ -8345,6 +8638,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8361,6 +8655,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙漠甘茄</t>
@@ -8377,6 +8672,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8393,6 +8689,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>吞天蟒</t>
@@ -8409,6 +8706,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8425,6 +8723,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙海肥鱼</t>
@@ -8441,6 +8740,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8457,6 +8757,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>大黑鲨</t>
@@ -8473,6 +8774,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8489,6 +8791,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>狗身狗面像</t>
@@ -8505,6 +8808,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8521,6 +8825,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>金墨章鱼</t>
@@ -8537,6 +8842,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8553,6 +8859,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>沙暴仙灵</t>
@@ -8569,6 +8876,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>究极进化</t>
@@ -8585,6 +8893,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>转生</t>
@@ -8601,6 +8910,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次后获得</t>
@@ -8617,6 +8927,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>当前转生次数</t>
@@ -8633,6 +8944,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次</t>
@@ -8897,6 +9209,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>黑铁之心Ⅰ</t>
@@ -8929,6 +9242,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>黑铁之心Ⅱ</t>
@@ -8961,6 +9275,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>黑铁之心Ⅲ</t>
@@ -8993,6 +9308,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>黑铁之心Ⅳ</t>
@@ -9025,6 +9341,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>倔强青铜Ⅰ</t>
@@ -9057,6 +9374,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>倔强青铜Ⅱ</t>
@@ -9089,6 +9407,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>倔强青铜Ⅲ</t>
@@ -9121,6 +9440,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>倔强青铜Ⅳ</t>
@@ -9153,6 +9473,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>守卫白银Ⅰ</t>
@@ -9185,6 +9506,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>守卫白银Ⅱ</t>
@@ -9217,6 +9539,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>守卫白银Ⅲ</t>
@@ -9249,6 +9572,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>守卫白银Ⅳ</t>
@@ -9281,6 +9605,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>荣耀黄金Ⅰ</t>
@@ -9313,6 +9638,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>荣耀黄金Ⅱ</t>
@@ -9345,6 +9671,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>荣耀黄金Ⅲ</t>
@@ -9377,6 +9704,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>荣耀黄金Ⅳ</t>
@@ -9409,6 +9737,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>尊贵铂金Ⅰ</t>
@@ -9441,6 +9770,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>尊贵铂金Ⅱ</t>
@@ -9473,6 +9803,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>尊贵铂金Ⅲ</t>
@@ -9505,6 +9836,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>尊贵铂金Ⅳ</t>
@@ -9537,6 +9869,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>永恒钻石Ⅰ</t>
@@ -9569,6 +9902,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>永恒钻石Ⅱ</t>
@@ -9601,6 +9935,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>永恒钻石Ⅲ</t>
@@ -9633,6 +9968,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>永恒钻石Ⅳ</t>
@@ -9665,6 +10001,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>至尊星耀Ⅰ</t>
@@ -9697,6 +10034,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>至尊星耀Ⅱ</t>
@@ -9729,6 +10067,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>至尊星耀Ⅲ</t>
@@ -9761,6 +10100,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>至尊星耀Ⅳ</t>
@@ -9793,6 +10133,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最强王者Ⅰ</t>
@@ -9825,6 +10166,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最强王者Ⅱ</t>
@@ -9857,6 +10199,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最强王者Ⅲ</t>
@@ -9889,6 +10232,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最强王者Ⅳ</t>
@@ -9921,6 +10265,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最强</t>
@@ -9937,6 +10282,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>所向披靡</t>
@@ -9969,6 +10315,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最强</t>
@@ -9985,6 +10332,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>一骑当千</t>
@@ -10017,6 +10365,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>最强</t>
@@ -10033,6 +10382,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>无敌传说</t>
@@ -10102,6 +10452,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>可算是整出来了！（头发都要掉光了</t>
@@ -10118,6 +10469,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">）
@@ -10136,6 +10488,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">全新转生岛屿已上线，快将新宠物们带回家吧！
@@ -10153,6 +10506,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">新增了排行榜，大佬力量一目了然！
@@ -10170,6 +10524,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>新增</t>
@@ -10186,6 +10541,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">优胜称号，看看谁才是真正的战神！
@@ -10204,6 +10560,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>转生力量值、耐力值消耗降低为</t>
@@ -10221,6 +10578,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">地图扩大，增加了部分障碍物！
@@ -10239,6 +10597,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">称号是按累积获得的力量值来计算的哟
@@ -10256,6 +10615,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>界面</t>
@@ -10272,6 +10632,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">也在持续优化中，大家也可以提提意见呐
@@ -10289,6 +10650,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>师徒系统已经在路上啦，嘻嘻嘻</t>
@@ -10387,6 +10749,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>次内必出金色宠物</t>
@@ -10412,6 +10775,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超级加速</t>
@@ -10428,6 +10792,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>能力获取效率提升至</t>
@@ -10470,6 +10835,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>力量达到</t>
@@ -10486,6 +10852,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>开启</t>
@@ -10502,6 +10869,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超级加速</t>
@@ -10526,6 +10894,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>进化要求</t>
@@ -10542,6 +10911,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>只相同</t>
@@ -10714,6 +11084,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>力量</t>
@@ -10730,6 +11101,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>时解锁该系统</t>
@@ -10755,6 +11127,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>钻石</t>
@@ -10779,6 +11152,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>传说级</t>
@@ -10795,6 +11169,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>神宠</t>
@@ -10811,6 +11186,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>传说级</t>
@@ -10827,6 +11203,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>超进化神宠</t>
@@ -10843,6 +11220,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>钻石</t>
@@ -10867,6 +11245,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>钻石</t>
@@ -10891,6 +11270,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>钻石</t>
@@ -11242,6 +11622,388 @@
   </si>
   <si>
     <t>增益</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_name_13</t>
+  </si>
+  <si>
+    <t>Tower_name_14</t>
+  </si>
+  <si>
+    <t>Tower_name_15</t>
+  </si>
+  <si>
+    <t>Tower_name_16</t>
+  </si>
+  <si>
+    <t>Tower_name_17</t>
+  </si>
+  <si>
+    <t>Tower_name_18</t>
+  </si>
+  <si>
+    <t>Tower_name_19</t>
+  </si>
+  <si>
+    <t>Tower_name_20</t>
+  </si>
+  <si>
+    <t>Tower_name_21</t>
+  </si>
+  <si>
+    <t>Tower_name_22</t>
+  </si>
+  <si>
+    <t>Tower_name_23</t>
+  </si>
+  <si>
+    <t>Tower_name_24</t>
+  </si>
+  <si>
+    <t>Tower_name_25</t>
+  </si>
+  <si>
+    <t>Tower_name_26</t>
+  </si>
+  <si>
+    <t>Tower_name_27</t>
+  </si>
+  <si>
+    <t>Tower_name_28</t>
+  </si>
+  <si>
+    <t>Tower_name_29</t>
+  </si>
+  <si>
+    <t>Tower_name_30</t>
+  </si>
+  <si>
+    <t>Tower_name_31</t>
+  </si>
+  <si>
+    <t>Tower_name_32</t>
+  </si>
+  <si>
+    <t>Tower_name_33</t>
+  </si>
+  <si>
+    <t>Tower_name_34</t>
+  </si>
+  <si>
+    <t>Tower_name_35</t>
+  </si>
+  <si>
+    <t>Tower_name_36</t>
+  </si>
+  <si>
+    <t>Tower_name_37</t>
+  </si>
+  <si>
+    <t>Tower_name_38</t>
+  </si>
+  <si>
+    <t>Tower_name_39</t>
+  </si>
+  <si>
+    <t>Tower_name_40</t>
+  </si>
+  <si>
+    <t>Tower_name_41</t>
+  </si>
+  <si>
+    <t>Tower_name_42</t>
+  </si>
+  <si>
+    <t>Tower_name_43</t>
+  </si>
+  <si>
+    <t>Tower_name_44</t>
+  </si>
+  <si>
+    <t>Tower_name_45</t>
+  </si>
+  <si>
+    <t>Tower_name_46</t>
+  </si>
+  <si>
+    <t>Tower_name_47</t>
+  </si>
+  <si>
+    <t>Tower_name_48</t>
+  </si>
+  <si>
+    <t>Tower_name_49</t>
+  </si>
+  <si>
+    <t>Tower_name_50</t>
+  </si>
+  <si>
+    <t>光龙娘4</t>
+  </si>
+  <si>
+    <t>光龙娘3</t>
+  </si>
+  <si>
+    <t>光龙娘6</t>
+  </si>
+  <si>
+    <t>暖机光龙娘5</t>
+  </si>
+  <si>
+    <t>光龙娘7</t>
+  </si>
+  <si>
+    <t>暗龙娘2</t>
+  </si>
+  <si>
+    <t>暗龙娘1</t>
+  </si>
+  <si>
+    <t>暗龙娘3</t>
+  </si>
+  <si>
+    <t>暗龙娘4</t>
+  </si>
+  <si>
+    <t>暗龙娘5</t>
+  </si>
+  <si>
+    <t>暗龙娘6</t>
+  </si>
+  <si>
+    <t>暗龙娘7</t>
+  </si>
+  <si>
+    <t>水龙娘1</t>
+  </si>
+  <si>
+    <t>水龙娘2</t>
+  </si>
+  <si>
+    <t>水龙娘3</t>
+  </si>
+  <si>
+    <t>水龙娘4</t>
+  </si>
+  <si>
+    <t>水龙娘5</t>
+  </si>
+  <si>
+    <t>火龙娘1</t>
+  </si>
+  <si>
+    <t>火龙娘2</t>
+  </si>
+  <si>
+    <t>火龙娘3</t>
+  </si>
+  <si>
+    <t>火龙娘4</t>
+  </si>
+  <si>
+    <t>火龙娘5</t>
+  </si>
+  <si>
+    <t>木龙娘1</t>
+  </si>
+  <si>
+    <t>木龙娘5</t>
+  </si>
+  <si>
+    <t>木龙娘6</t>
+  </si>
+  <si>
+    <t>土龙娘1</t>
+  </si>
+  <si>
+    <t>土龙娘2</t>
+  </si>
+  <si>
+    <t>土龙娘3</t>
+  </si>
+  <si>
+    <t>土龙娘4</t>
+  </si>
+  <si>
+    <t>土龙娘5</t>
+  </si>
+  <si>
+    <t>土龙娘6</t>
+  </si>
+  <si>
+    <t>光龙少1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>光龙少2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>水龙少6</t>
+  </si>
+  <si>
+    <t>火龙少6</t>
+  </si>
+  <si>
+    <t>木龙少2</t>
+  </si>
+  <si>
+    <t>木龙少3</t>
+  </si>
+  <si>
+    <t>木龙少4</t>
+  </si>
+  <si>
+    <t>Light Dragon 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Dragon 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Dragon 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Dragon 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Dragon 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warm-up light dragon 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Light Dragon 7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Dragon 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Dragon 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Dragon 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Dragon 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Dragon 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Dragon 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dark Dragon 7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Dragon 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Dragon 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Dragon 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Dragon 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Dragon 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Dragon 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Dragon 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Dragon 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Dragon 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Dragon 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fire Dragon 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water Dragon 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Dragon 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Dragon 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Dragon 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Dragon 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Dragon 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood Dragon 6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Dragon 1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Dragon 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Dragon 3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Dragon 4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Dragon 5</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earth Dragon 6</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -11259,29 +12021,34 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -11301,54 +12068,63 @@
       <sz val="9"/>
       <color rgb="FF1D2129"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF1F2329"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF374151"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF374151"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF121212"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFBBFBC"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFF54A45"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -11359,6 +12135,7 @@
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -11422,7 +12199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -11586,6 +12363,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -12354,8 +13134,8 @@
   <dimension ref="A1:AMJ1457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A224" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E251" sqref="E251"/>
+      <pane ySplit="3" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C289" sqref="C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -18065,10 +18845,18 @@
       <c r="L259" s="3"/>
     </row>
     <row r="260" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="56"/>
-      <c r="B260" s="56"/>
-      <c r="C260" s="56"/>
-      <c r="D260" s="56"/>
+      <c r="A260" s="56">
+        <v>20255</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C260" s="57" t="s">
+        <v>2135</v>
+      </c>
+      <c r="D260" s="57" t="s">
+        <v>2128</v>
+      </c>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
@@ -18079,9 +18867,18 @@
       <c r="L260" s="3"/>
     </row>
     <row r="261" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A261" s="3"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="4"/>
+      <c r="A261" s="56">
+        <v>20256</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C261" s="53" t="s">
+        <v>2136</v>
+      </c>
+      <c r="D261" s="4" t="s">
+        <v>2097</v>
+      </c>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
@@ -18092,9 +18889,18 @@
       <c r="L261" s="3"/>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A262" s="3"/>
-      <c r="C262" s="12"/>
-      <c r="D262" s="4"/>
+      <c r="A262" s="56">
+        <v>20257</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C262" s="53" t="s">
+        <v>2137</v>
+      </c>
+      <c r="D262" s="4" t="s">
+        <v>2098</v>
+      </c>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
@@ -18105,9 +18911,18 @@
       <c r="L262" s="3"/>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A263" s="3"/>
-      <c r="C263" s="12"/>
-      <c r="D263" s="4"/>
+      <c r="A263" s="56">
+        <v>20258</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C263" s="53" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D263" s="4" t="s">
+        <v>2129</v>
+      </c>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
@@ -18118,9 +18933,18 @@
       <c r="L263" s="3"/>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A264" s="3"/>
-      <c r="C264" s="12"/>
-      <c r="D264" s="4"/>
+      <c r="A264" s="56">
+        <v>20259</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C264" s="53" t="s">
+        <v>2139</v>
+      </c>
+      <c r="D264" s="4" t="s">
+        <v>2099</v>
+      </c>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
@@ -18131,9 +18955,18 @@
       <c r="L264" s="3"/>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A265" s="3"/>
-      <c r="C265" s="12"/>
-      <c r="D265" s="4"/>
+      <c r="A265" s="56">
+        <v>20260</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C265" s="53" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D265" s="4" t="s">
+        <v>2100</v>
+      </c>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
@@ -18144,9 +18977,18 @@
       <c r="L265" s="3"/>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A266" s="3"/>
-      <c r="C266" s="12"/>
-      <c r="D266" s="4"/>
+      <c r="A266" s="56">
+        <v>20261</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C266" s="53" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D266" s="4" t="s">
+        <v>2101</v>
+      </c>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
@@ -18157,9 +18999,18 @@
       <c r="L266" s="3"/>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A267" s="3"/>
-      <c r="C267" s="12"/>
-      <c r="D267" s="4"/>
+      <c r="A267" s="56">
+        <v>20262</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C267" s="53" t="s">
+        <v>2142</v>
+      </c>
+      <c r="D267" s="4" t="s">
+        <v>2102</v>
+      </c>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
@@ -18170,9 +19021,18 @@
       <c r="L267" s="3"/>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A268" s="3"/>
-      <c r="C268" s="12"/>
-      <c r="D268" s="4"/>
+      <c r="A268" s="56">
+        <v>20263</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C268" s="53" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D268" s="4" t="s">
+        <v>2103</v>
+      </c>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
@@ -18183,9 +19043,18 @@
       <c r="L268" s="3"/>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A269" s="3"/>
-      <c r="C269" s="12"/>
-      <c r="D269" s="4"/>
+      <c r="A269" s="56">
+        <v>20264</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C269" s="53" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D269" s="4" t="s">
+        <v>2104</v>
+      </c>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
@@ -18196,9 +19065,18 @@
       <c r="L269" s="3"/>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A270" s="3"/>
-      <c r="C270" s="12"/>
-      <c r="D270" s="4"/>
+      <c r="A270" s="56">
+        <v>20265</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C270" s="53" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D270" s="4" t="s">
+        <v>2105</v>
+      </c>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
       <c r="G270" s="3"/>
@@ -18209,9 +19087,18 @@
       <c r="L270" s="3"/>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A271" s="3"/>
-      <c r="C271" s="12"/>
-      <c r="D271" s="4"/>
+      <c r="A271" s="56">
+        <v>20266</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C271" s="53" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D271" s="4" t="s">
+        <v>2106</v>
+      </c>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
       <c r="G271" s="3"/>
@@ -18222,9 +19109,18 @@
       <c r="L271" s="3"/>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A272" s="3"/>
-      <c r="C272" s="12"/>
-      <c r="D272" s="4"/>
+      <c r="A272" s="56">
+        <v>20267</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C272" s="53" t="s">
+        <v>2147</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>2107</v>
+      </c>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
       <c r="G272" s="3"/>
@@ -18235,9 +19131,18 @@
       <c r="L272" s="3"/>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A273" s="3"/>
-      <c r="C273" s="12"/>
-      <c r="D273" s="4"/>
+      <c r="A273" s="56">
+        <v>20268</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C273" s="53" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>2108</v>
+      </c>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
       <c r="G273" s="3"/>
@@ -18248,9 +19153,18 @@
       <c r="L273" s="3"/>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A274" s="3"/>
-      <c r="C274" s="12"/>
-      <c r="D274" s="4"/>
+      <c r="A274" s="56">
+        <v>20269</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C274" s="53" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D274" s="4" t="s">
+        <v>2109</v>
+      </c>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
       <c r="G274" s="3"/>
@@ -18261,9 +19175,18 @@
       <c r="L274" s="3"/>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A275" s="3"/>
-      <c r="C275" s="18"/>
-      <c r="D275" s="4"/>
+      <c r="A275" s="56">
+        <v>20270</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C275" s="18" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>2110</v>
+      </c>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -18274,9 +19197,18 @@
       <c r="L275" s="3"/>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A276" s="3"/>
-      <c r="C276" s="12"/>
-      <c r="D276" s="4"/>
+      <c r="A276" s="56">
+        <v>20271</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C276" s="53" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D276" s="4" t="s">
+        <v>2111</v>
+      </c>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
       <c r="G276" s="3"/>
@@ -18287,9 +19219,18 @@
       <c r="L276" s="3"/>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A277" s="3"/>
-      <c r="C277" s="12"/>
-      <c r="D277" s="4"/>
+      <c r="A277" s="56">
+        <v>20272</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C277" s="53" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>2112</v>
+      </c>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
       <c r="G277" s="3"/>
@@ -18300,9 +19241,18 @@
       <c r="L277" s="3"/>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A278" s="3"/>
-      <c r="C278" s="12"/>
-      <c r="D278" s="4"/>
+      <c r="A278" s="56">
+        <v>20273</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C278" s="53" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>2113</v>
+      </c>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
       <c r="G278" s="3"/>
@@ -18313,9 +19263,18 @@
       <c r="L278" s="3"/>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A279" s="3"/>
-      <c r="C279" s="12"/>
-      <c r="D279" s="4"/>
+      <c r="A279" s="56">
+        <v>20274</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C279" s="53" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D279" s="4" t="s">
+        <v>2130</v>
+      </c>
       <c r="E279" s="3"/>
       <c r="F279" s="3"/>
       <c r="G279" s="3"/>
@@ -18326,9 +19285,18 @@
       <c r="L279" s="3"/>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A280" s="3"/>
-      <c r="C280" s="12"/>
-      <c r="D280" s="4"/>
+      <c r="A280" s="56">
+        <v>20275</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C280" s="53" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>2114</v>
+      </c>
       <c r="E280" s="3"/>
       <c r="F280" s="3"/>
       <c r="G280" s="3"/>
@@ -18339,9 +19307,18 @@
       <c r="L280" s="3"/>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A281" s="3"/>
-      <c r="C281" s="12"/>
-      <c r="D281" s="4"/>
+      <c r="A281" s="56">
+        <v>20276</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C281" s="53" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D281" s="4" t="s">
+        <v>2115</v>
+      </c>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
       <c r="G281" s="3"/>
@@ -18352,9 +19329,18 @@
       <c r="L281" s="3"/>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A282" s="3"/>
-      <c r="C282" s="12"/>
-      <c r="D282" s="4"/>
+      <c r="A282" s="56">
+        <v>20277</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C282" s="53" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D282" s="4" t="s">
+        <v>2116</v>
+      </c>
       <c r="E282" s="3"/>
       <c r="F282" s="3"/>
       <c r="G282" s="3"/>
@@ -18365,9 +19351,18 @@
       <c r="L282" s="3"/>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A283" s="3"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="4"/>
+      <c r="A283" s="56">
+        <v>20278</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C283" s="53" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>2117</v>
+      </c>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
@@ -18378,9 +19373,18 @@
       <c r="L283" s="3"/>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A284" s="3"/>
-      <c r="C284" s="12"/>
-      <c r="D284" s="4"/>
+      <c r="A284" s="56">
+        <v>20279</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C284" s="53" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>2118</v>
+      </c>
       <c r="E284" s="3"/>
       <c r="F284" s="3"/>
       <c r="G284" s="3"/>
@@ -18391,9 +19395,18 @@
       <c r="L284" s="3"/>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A285" s="3"/>
-      <c r="C285" s="12"/>
-      <c r="D285" s="4"/>
+      <c r="A285" s="56">
+        <v>20280</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C285" s="53" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D285" s="4" t="s">
+        <v>2131</v>
+      </c>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
       <c r="G285" s="3"/>
@@ -18404,9 +19417,18 @@
       <c r="L285" s="3"/>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A286" s="3"/>
-      <c r="C286" s="12"/>
-      <c r="D286" s="4"/>
+      <c r="A286" s="56">
+        <v>20281</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C286" s="53" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>2119</v>
+      </c>
       <c r="E286" s="3"/>
       <c r="F286" s="3"/>
       <c r="G286" s="3"/>
@@ -18417,9 +19439,18 @@
       <c r="L286" s="3"/>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A287" s="3"/>
-      <c r="C287" s="12"/>
-      <c r="D287" s="4"/>
+      <c r="A287" s="56">
+        <v>20282</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C287" s="53" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D287" s="4" t="s">
+        <v>2132</v>
+      </c>
       <c r="E287" s="3"/>
       <c r="F287" s="3"/>
       <c r="G287" s="3"/>
@@ -18430,9 +19461,18 @@
       <c r="L287" s="3"/>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A288" s="3"/>
-      <c r="C288" s="12"/>
-      <c r="D288" s="4"/>
+      <c r="A288" s="56">
+        <v>20283</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C288" s="53" t="s">
+        <v>2163</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>2133</v>
+      </c>
       <c r="E288" s="3"/>
       <c r="F288" s="3"/>
       <c r="G288" s="3"/>
@@ -18443,7 +19483,18 @@
       <c r="L288" s="3"/>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A289" s="3"/>
+      <c r="A289" s="56">
+        <v>20284</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>2134</v>
+      </c>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
       <c r="G289" s="3"/>
@@ -18454,7 +19505,18 @@
       <c r="L289" s="3"/>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A290" s="3"/>
+      <c r="A290" s="56">
+        <v>20285</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>2120</v>
+      </c>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
       <c r="G290" s="3"/>
@@ -18465,7 +19527,18 @@
       <c r="L290" s="3"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A291" s="3"/>
+      <c r="A291" s="56">
+        <v>20286</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>2121</v>
+      </c>
       <c r="E291" s="3"/>
       <c r="F291" s="3"/>
       <c r="G291" s="3"/>
@@ -18476,7 +19549,18 @@
       <c r="L291" s="3"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A292" s="3"/>
+      <c r="A292" s="56">
+        <v>20287</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>2122</v>
+      </c>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
       <c r="G292" s="3"/>
@@ -18487,7 +19571,18 @@
       <c r="L292" s="3"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A293" s="3"/>
+      <c r="A293" s="56">
+        <v>20288</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>2168</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>2123</v>
+      </c>
       <c r="E293" s="3"/>
       <c r="F293" s="3"/>
       <c r="G293" s="3"/>
@@ -18498,7 +19593,18 @@
       <c r="L293" s="3"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A294" s="3"/>
+      <c r="A294" s="56">
+        <v>20289</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>2169</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>2124</v>
+      </c>
       <c r="E294" s="3"/>
       <c r="F294" s="3"/>
       <c r="G294" s="3"/>
@@ -18509,7 +19615,18 @@
       <c r="L294" s="3"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A295" s="3"/>
+      <c r="A295" s="56">
+        <v>20290</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>2125</v>
+      </c>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
       <c r="G295" s="3"/>
@@ -18520,8 +19637,18 @@
       <c r="L295" s="3"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A296" s="3"/>
-      <c r="D296" s="4"/>
+      <c r="A296" s="56">
+        <v>20291</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>2171</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>2126</v>
+      </c>
       <c r="E296" s="3"/>
       <c r="F296" s="3"/>
       <c r="G296" s="3"/>
@@ -18532,8 +19659,18 @@
       <c r="L296" s="3"/>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A297" s="3"/>
-      <c r="D297" s="4"/>
+      <c r="A297" s="56">
+        <v>20292</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>2172</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>2127</v>
+      </c>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
       <c r="G297" s="3"/>
@@ -25168,7 +26305,7 @@
   <conditionalFormatting sqref="A530">
     <cfRule type="duplicateValues" dxfId="2" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A535:A665 A669:A1048576 A531:A533 A1:A245 A261:A494">
+  <conditionalFormatting sqref="A535:A665 A669:A1048576 A531:A533 A1:A245 A298:A494">
     <cfRule type="duplicateValues" dxfId="1" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A666:A668">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A13640A-8644-4D9F-B99B-3FF9A11BEEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE43D0EC-6F9C-4B73-8795-B6F274FFDC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="2203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="2287">
   <si>
     <t>Int</t>
   </si>
@@ -12110,6 +12110,267 @@
   </si>
   <si>
     <t>The unit ignores monsters {0} magic resistance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentTree_Name_1</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_2</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_3</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_4</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_5</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_6</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_7</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_8</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_9</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_10</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_11</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_12</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_13</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_14</t>
+  </si>
+  <si>
+    <t>TalentTree_Name_15</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_1</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_2</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_3</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_4</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_5</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_6</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_7</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_8</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_9</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_10</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_11</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_12</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_13</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_14</t>
+  </si>
+  <si>
+    <t>TalentTree_Desc_15</t>
+  </si>
+  <si>
+    <t>物理伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>魔法伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>基地耐久提高{0}</t>
+  </si>
+  <si>
+    <t>攻击速度提高{0}%</t>
+  </si>
+  <si>
+    <t>每个波次获得{0}能量</t>
+  </si>
+  <si>
+    <t>能量单位产出能量效率提高{0}%</t>
+  </si>
+  <si>
+    <t>光属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>水属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>土属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>基地每个波次恢复{0}耐久</t>
+  </si>
+  <si>
+    <t>暗属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>火属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>木属性伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>敌方入场5秒内减速{0}%</t>
+  </si>
+  <si>
+    <t>敌方受到伤害提高{0}%</t>
+  </si>
+  <si>
+    <t>{0}% increased Physical Damage</t>
+  </si>
+  <si>
+    <t>{0}% increased magic damage</t>
+  </si>
+  <si>
+    <t>Base durability improvement{0}</t>
+  </si>
+  <si>
+    <t>{0}% increased attack speed</t>
+  </si>
+  <si>
+    <t>Each wave gains {0} energy</t>
+  </si>
+  <si>
+    <t>{0}% increase in energy efficiency per unit of output</t>
+  </si>
+  <si>
+    <t>{0}% increased Light Damage</t>
+  </si>
+  <si>
+    <t>{0}% increased Water Damage</t>
+  </si>
+  <si>
+    <t>{0}% increased Earth Damage</t>
+  </si>
+  <si>
+    <t>Each wave of the base recovers {0} durability</t>
+  </si>
+  <si>
+    <t>{0}% increased Dark Damage</t>
+  </si>
+  <si>
+    <t>{0}% increased Fire Damage</t>
+  </si>
+  <si>
+    <t>{0}% increased Wood Damage</t>
+  </si>
+  <si>
+    <t>Slows enemies by {0}% for 5 seconds</t>
+  </si>
+  <si>
+    <t>{0}% increased damage taken by enemies</t>
+  </si>
+  <si>
+    <t>物理基础</t>
+  </si>
+  <si>
+    <t>魔法学识</t>
+  </si>
+  <si>
+    <t>基地耐久</t>
+  </si>
+  <si>
+    <t>攻速增强</t>
+  </si>
+  <si>
+    <t>天降能量</t>
+  </si>
+  <si>
+    <t>矿机升级</t>
+  </si>
+  <si>
+    <t>光元素增伤</t>
+  </si>
+  <si>
+    <t>水元素增伤</t>
+  </si>
+  <si>
+    <t>土元素增伤</t>
+  </si>
+  <si>
+    <t>耐久恢复</t>
+  </si>
+  <si>
+    <t>暗元素增伤</t>
+  </si>
+  <si>
+    <t>火元素增伤</t>
+  </si>
+  <si>
+    <t>木元素增伤</t>
+  </si>
+  <si>
+    <t>敌方减速</t>
+  </si>
+  <si>
+    <t>慧光</t>
+  </si>
+  <si>
+    <t>Physical Attack+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magic Attack+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP Limit+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Speed ​​​​Boost+</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get energy each round</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mining upgrades</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restore HP per round</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy slowdown</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bright light</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -12305,7 +12566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -12469,6 +12730,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -13237,13 +13501,13 @@
   <dimension ref="A1:AMJ1457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F287" sqref="F287"/>
+      <pane ySplit="3" topLeftCell="A301" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F331" sqref="F331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="56" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="56.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="48.875" style="2" customWidth="1"/>
@@ -19955,242 +20219,425 @@
       <c r="E307" s="21"/>
       <c r="F307" s="3"/>
     </row>
-    <row r="308" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A308" s="3"/>
-      <c r="C308" s="20"/>
-      <c r="D308" s="4"/>
-      <c r="E308" s="21"/>
-      <c r="F308" s="3"/>
-    </row>
-    <row r="309" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="3"/>
-      <c r="C309" s="20"/>
-      <c r="D309" s="4"/>
-      <c r="E309" s="21"/>
-      <c r="F309" s="3"/>
-    </row>
-    <row r="310" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A310" s="3"/>
-      <c r="C310" s="20"/>
-      <c r="D310" s="4"/>
-      <c r="E310" s="21"/>
-      <c r="F310" s="3"/>
-    </row>
-    <row r="311" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A311" s="3"/>
-      <c r="B311" s="1"/>
-      <c r="C311" s="5"/>
-      <c r="D311" s="4"/>
-      <c r="E311" s="21"/>
-      <c r="F311" s="3"/>
-    </row>
-    <row r="312" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A312" s="3"/>
-      <c r="B312" s="1"/>
-      <c r="C312" s="5"/>
-      <c r="D312" s="4"/>
-      <c r="E312" s="21"/>
-      <c r="F312" s="3"/>
-    </row>
-    <row r="313" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A313" s="3"/>
-      <c r="B313" s="1"/>
-      <c r="C313" s="5"/>
-      <c r="D313" s="4"/>
-      <c r="E313" s="21"/>
-      <c r="F313" s="3"/>
-    </row>
-    <row r="314" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A314" s="3"/>
-      <c r="B314" s="1"/>
-      <c r="C314" s="20"/>
-      <c r="D314" s="4"/>
-      <c r="E314" s="21"/>
-      <c r="F314" s="3"/>
-    </row>
-    <row r="315" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A315" s="3"/>
-      <c r="B315" s="1"/>
-      <c r="C315" s="5"/>
-      <c r="D315" s="4"/>
-      <c r="E315" s="21"/>
-      <c r="F315" s="3"/>
-    </row>
-    <row r="316" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A316" s="3"/>
-      <c r="B316" s="1"/>
-      <c r="C316" s="5"/>
-      <c r="D316" s="4"/>
-      <c r="E316" s="21"/>
-      <c r="F316" s="3"/>
-    </row>
-    <row r="317" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A317" s="3"/>
-      <c r="B317" s="1"/>
-      <c r="C317" s="5"/>
-      <c r="D317" s="4"/>
-      <c r="E317" s="21"/>
-      <c r="F317" s="3"/>
-    </row>
-    <row r="318" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A318" s="3"/>
-      <c r="B318" s="1"/>
-      <c r="C318" s="5"/>
-      <c r="D318" s="4"/>
-      <c r="E318" s="21"/>
-      <c r="F318" s="3"/>
-    </row>
-    <row r="319" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A319" s="3"/>
-      <c r="B319" s="1"/>
-      <c r="C319" s="5"/>
-      <c r="D319" s="4"/>
-      <c r="E319" s="21"/>
-      <c r="F319" s="3"/>
-    </row>
-    <row r="320" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A320" s="3"/>
-      <c r="B320" s="1"/>
-      <c r="C320" s="5"/>
-      <c r="D320" s="4"/>
-      <c r="E320" s="21"/>
-      <c r="F320" s="3"/>
-    </row>
-    <row r="321" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A321" s="3"/>
-      <c r="B321" s="1"/>
-      <c r="C321" s="5"/>
-      <c r="D321" s="4"/>
-      <c r="E321" s="21"/>
-      <c r="F321" s="3"/>
-    </row>
-    <row r="322" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A322" s="3"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="5"/>
-      <c r="D322" s="4"/>
-      <c r="E322" s="21"/>
-      <c r="F322" s="3"/>
-    </row>
-    <row r="323" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="3"/>
-      <c r="B323" s="1"/>
-      <c r="C323" s="20"/>
-      <c r="D323" s="4"/>
-      <c r="E323" s="21"/>
-      <c r="F323" s="3"/>
-    </row>
-    <row r="324" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="3"/>
-      <c r="B324" s="1"/>
-      <c r="C324" s="20"/>
-      <c r="D324" s="4"/>
-      <c r="E324" s="21"/>
-      <c r="F324" s="3"/>
-    </row>
-    <row r="325" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A325" s="3"/>
-      <c r="B325" s="1"/>
-      <c r="C325" s="20"/>
-      <c r="D325" s="4"/>
-      <c r="E325" s="21"/>
-      <c r="F325" s="3"/>
-    </row>
-    <row r="326" spans="1:6" s="19" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A326" s="3"/>
-      <c r="B326" s="1"/>
-      <c r="C326" s="5"/>
-      <c r="D326" s="20"/>
-      <c r="E326" s="21"/>
-      <c r="F326" s="3"/>
-    </row>
-    <row r="327" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="3"/>
-      <c r="B327" s="3"/>
-      <c r="C327" s="20"/>
-      <c r="D327" s="4"/>
-      <c r="E327" s="21"/>
-      <c r="F327" s="3"/>
-    </row>
-    <row r="328" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A328" s="3"/>
-      <c r="B328" s="1"/>
-      <c r="C328" s="20"/>
-      <c r="D328" s="4"/>
-      <c r="E328" s="21"/>
-      <c r="F328" s="3"/>
-    </row>
-    <row r="329" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A329" s="3"/>
-      <c r="B329" s="1"/>
-      <c r="C329" s="20"/>
-      <c r="D329" s="4"/>
-      <c r="E329" s="22"/>
-      <c r="F329" s="3"/>
-    </row>
-    <row r="330" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A330" s="3"/>
-      <c r="B330" s="1"/>
-      <c r="C330" s="20"/>
-      <c r="D330" s="4"/>
-      <c r="E330" s="22"/>
-      <c r="F330" s="3"/>
-    </row>
-    <row r="331" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A331" s="3"/>
-      <c r="B331" s="1"/>
-      <c r="C331" s="20"/>
-      <c r="D331" s="4"/>
-      <c r="E331" s="22"/>
-      <c r="F331" s="3"/>
-    </row>
-    <row r="332" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A332" s="3"/>
-      <c r="B332" s="1"/>
-      <c r="C332" s="20"/>
-      <c r="D332" s="4"/>
-      <c r="E332" s="22"/>
-      <c r="F332" s="3"/>
-    </row>
-    <row r="333" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A333" s="3"/>
-      <c r="B333" s="1"/>
-      <c r="C333" s="20"/>
-      <c r="D333" s="4"/>
-      <c r="E333" s="22"/>
-      <c r="F333" s="3"/>
-    </row>
-    <row r="334" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="3"/>
-      <c r="B334" s="1"/>
-      <c r="C334" s="20"/>
-      <c r="D334" s="4"/>
-      <c r="E334" s="22"/>
-      <c r="F334" s="3"/>
-    </row>
-    <row r="335" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A335" s="3"/>
-      <c r="B335" s="1"/>
-      <c r="C335" s="20"/>
-      <c r="D335" s="4"/>
-      <c r="E335" s="22"/>
-      <c r="F335" s="3"/>
-    </row>
-    <row r="336" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="3"/>
-      <c r="B336" s="1"/>
-      <c r="C336" s="20"/>
-      <c r="D336" s="4"/>
-      <c r="E336" s="22"/>
-      <c r="F336" s="3"/>
-    </row>
-    <row r="337" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="3"/>
-      <c r="B337" s="1"/>
-      <c r="C337" s="20"/>
-      <c r="D337" s="4"/>
-      <c r="E337" s="22"/>
-      <c r="F337" s="3"/>
+    <row r="308" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A308" s="56">
+        <v>20303</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>2203</v>
+      </c>
+      <c r="C308" s="56" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D308" s="56" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A309" s="56">
+        <v>20304</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C309" s="56" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D309" s="56" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A310" s="56">
+        <v>20305</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C310" s="56" t="s">
+        <v>2280</v>
+      </c>
+      <c r="D310" s="56" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A311" s="56">
+        <v>20306</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>2206</v>
+      </c>
+      <c r="C311" s="56" t="s">
+        <v>2281</v>
+      </c>
+      <c r="D311" s="56" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A312" s="56">
+        <v>20307</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C312" s="56" t="s">
+        <v>2282</v>
+      </c>
+      <c r="D312" s="56" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A313" s="56">
+        <v>20308</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>2208</v>
+      </c>
+      <c r="C313" s="56" t="s">
+        <v>2283</v>
+      </c>
+      <c r="D313" s="56" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A314" s="56">
+        <v>20309</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>2209</v>
+      </c>
+      <c r="C314" s="56" t="s">
+        <v>1993</v>
+      </c>
+      <c r="D314" s="56" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A315" s="56">
+        <v>20310</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C315" s="56" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D315" s="56" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A316" s="56">
+        <v>20311</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C316" s="56" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D316" s="56" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A317" s="56">
+        <v>20312</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C317" s="56" t="s">
+        <v>2284</v>
+      </c>
+      <c r="D317" s="56" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A318" s="56">
+        <v>20313</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C318" s="56" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D318" s="56" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A319" s="56">
+        <v>20314</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>2214</v>
+      </c>
+      <c r="C319" s="56" t="s">
+        <v>1995</v>
+      </c>
+      <c r="D319" s="56" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A320" s="56">
+        <v>20315</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C320" s="56" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D320" s="56" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A321" s="56">
+        <v>20316</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C321" s="56" t="s">
+        <v>2285</v>
+      </c>
+      <c r="D321" s="56" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A322" s="56">
+        <v>20317</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>2217</v>
+      </c>
+      <c r="C322" s="56" t="s">
+        <v>2286</v>
+      </c>
+      <c r="D322" s="56" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A323" s="56">
+        <v>20318</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>2218</v>
+      </c>
+      <c r="C323" s="56" t="s">
+        <v>2248</v>
+      </c>
+      <c r="D323" s="56" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A324" s="56">
+        <v>20319</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C324" s="56" t="s">
+        <v>2249</v>
+      </c>
+      <c r="D324" s="56" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A325" s="56">
+        <v>20320</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>2220</v>
+      </c>
+      <c r="C325" s="56" t="s">
+        <v>2250</v>
+      </c>
+      <c r="D325" s="56" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A326" s="56">
+        <v>20321</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>2221</v>
+      </c>
+      <c r="C326" s="56" t="s">
+        <v>2251</v>
+      </c>
+      <c r="D326" s="56" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A327" s="56">
+        <v>20322</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C327" s="56" t="s">
+        <v>2252</v>
+      </c>
+      <c r="D327" s="56" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A328" s="56">
+        <v>20323</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>2223</v>
+      </c>
+      <c r="C328" s="56" t="s">
+        <v>2253</v>
+      </c>
+      <c r="D328" s="56" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A329" s="56">
+        <v>20324</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>2224</v>
+      </c>
+      <c r="C329" s="56" t="s">
+        <v>2254</v>
+      </c>
+      <c r="D329" s="56" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A330" s="56">
+        <v>20325</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C330" s="56" t="s">
+        <v>2255</v>
+      </c>
+      <c r="D330" s="56" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A331" s="56">
+        <v>20326</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C331" s="56" t="s">
+        <v>2256</v>
+      </c>
+      <c r="D331" s="56" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A332" s="56">
+        <v>20327</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="C332" s="56" t="s">
+        <v>2257</v>
+      </c>
+      <c r="D332" s="56" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A333" s="56">
+        <v>20328</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>2228</v>
+      </c>
+      <c r="C333" s="56" t="s">
+        <v>2258</v>
+      </c>
+      <c r="D333" s="56" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A334" s="56">
+        <v>20329</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>2229</v>
+      </c>
+      <c r="C334" s="56" t="s">
+        <v>2259</v>
+      </c>
+      <c r="D334" s="56" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A335" s="56">
+        <v>20330</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C335" s="56" t="s">
+        <v>2260</v>
+      </c>
+      <c r="D335" s="56" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A336" s="56">
+        <v>20331</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="C336" s="56" t="s">
+        <v>2261</v>
+      </c>
+      <c r="D336" s="56" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
+      <c r="A337" s="56">
+        <v>20332</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>2232</v>
+      </c>
+      <c r="C337" s="56" t="s">
+        <v>2262</v>
+      </c>
+      <c r="D337" s="56" t="s">
+        <v>2247</v>
+      </c>
     </row>
     <row r="338" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="3"/>
@@ -21421,6 +21868,7 @@
       <c r="F492" s="3"/>
     </row>
     <row r="493" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A493" s="57"/>
       <c r="B493" s="22"/>
       <c r="C493" s="20"/>
       <c r="D493" s="20"/>
@@ -21428,6 +21876,7 @@
       <c r="F493" s="3"/>
     </row>
     <row r="494" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A494" s="57"/>
       <c r="B494" s="22"/>
       <c r="C494" s="20"/>
       <c r="D494" s="24"/>
@@ -21688,6 +22137,7 @@
       <c r="F530" s="3"/>
     </row>
     <row r="531" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A531" s="57"/>
       <c r="B531" s="22"/>
       <c r="C531" s="20"/>
       <c r="D531" s="24"/>
@@ -21695,6 +22145,7 @@
       <c r="F531" s="3"/>
     </row>
     <row r="532" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A532" s="57"/>
       <c r="B532" s="22"/>
       <c r="C532" s="20"/>
       <c r="D532" s="24"/>
@@ -21702,6 +22153,7 @@
       <c r="F532" s="3"/>
     </row>
     <row r="533" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A533" s="57"/>
       <c r="B533" s="22"/>
       <c r="C533" s="20"/>
       <c r="D533" s="24"/>
@@ -21709,6 +22161,7 @@
       <c r="F533" s="3"/>
     </row>
     <row r="534" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A534" s="57"/>
       <c r="B534" s="22"/>
       <c r="C534" s="20"/>
       <c r="D534" s="24"/>
@@ -26497,7 +26950,7 @@
   <conditionalFormatting sqref="A530">
     <cfRule type="duplicateValues" dxfId="2" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A535:A665 A669:A1048576 A531:A533 A1:A245 A308:A494">
+  <conditionalFormatting sqref="A535:A665 A669:A1048576 A531:A533 A1:A245 A338:A494">
     <cfRule type="duplicateValues" dxfId="1" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A666:A668">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -13007,7 +13007,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13737,9 +13737,9 @@
   <dimension ref="A1:L1442"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D349" activeCellId="0" sqref="D349"/>
+      <selection pane="bottomLeft" activeCell="B367" activeCellId="0" sqref="B367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FFEF53-D097-4E4B-9DFA-EFB5ED159870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EDE81F-3660-46C9-B7F5-B87AC06E69F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="2458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="2467">
   <si>
     <t>Int</t>
   </si>
@@ -13021,6 +13021,40 @@
   </si>
   <si>
     <t>攻速增强2</t>
+  </si>
+  <si>
+    <t>Tower_attackTags_11</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tower_attackTags_12</t>
+  </si>
+  <si>
+    <t>Tower_attackTags_13</t>
+  </si>
+  <si>
+    <t>属性：</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署消耗：</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级：</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment cost: </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Attribute: </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Grade: </t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -13210,7 +13244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13346,6 +13380,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13992,8 +14029,8 @@
   <dimension ref="A1:AMJ1457"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A317" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D334" sqref="D334"/>
+      <pane ySplit="3" topLeftCell="A393" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D413" sqref="D413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -22731,26 +22768,50 @@
       <c r="F437" s="4"/>
     </row>
     <row r="438" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A438" s="4"/>
-      <c r="B438" s="2"/>
-      <c r="C438" s="6"/>
-      <c r="D438" s="5"/>
+      <c r="A438" s="1">
+        <v>20433</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>2458</v>
+      </c>
+      <c r="C438" s="5" t="s">
+        <v>2465</v>
+      </c>
+      <c r="D438" s="6" t="s">
+        <v>2461</v>
+      </c>
       <c r="E438" s="2"/>
       <c r="F438" s="4"/>
     </row>
     <row r="439" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A439" s="4"/>
-      <c r="B439" s="2"/>
-      <c r="C439" s="24"/>
-      <c r="D439" s="5"/>
+      <c r="A439" s="1">
+        <v>20434</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>2459</v>
+      </c>
+      <c r="C439" s="5" t="s">
+        <v>2464</v>
+      </c>
+      <c r="D439" s="48" t="s">
+        <v>2462</v>
+      </c>
       <c r="E439" s="2"/>
       <c r="F439" s="4"/>
     </row>
     <row r="440" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A440" s="4"/>
-      <c r="B440" s="2"/>
-      <c r="C440" s="6"/>
-      <c r="D440" s="5"/>
+      <c r="A440" s="1">
+        <v>20435</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>2460</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D440" s="6" t="s">
+        <v>2463</v>
+      </c>
       <c r="E440" s="2"/>
       <c r="F440" s="4"/>
     </row>
@@ -22765,7 +22826,6 @@
     <row r="442" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A442" s="4"/>
       <c r="B442" s="2"/>
-      <c r="C442" s="24"/>
       <c r="D442" s="5"/>
       <c r="E442" s="2"/>
       <c r="F442" s="4"/>
@@ -22773,15 +22833,13 @@
     <row r="443" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A443" s="4"/>
       <c r="B443" s="2"/>
-      <c r="C443" s="24"/>
       <c r="D443" s="5"/>
       <c r="E443" s="2"/>
       <c r="F443" s="4"/>
     </row>
-    <row r="444" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A444" s="4"/>
       <c r="B444" s="2"/>
-      <c r="C444" s="6"/>
       <c r="D444" s="5"/>
       <c r="E444" s="2"/>
       <c r="F444" s="4"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7D06F3-8B8C-4E16-A6A9-5BDEB75880B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C921ECB3-912E-4D10-8374-9D765B56A86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2665" uniqueCount="2556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="2592">
   <si>
     <t>Int</t>
   </si>
@@ -12936,9 +12936,6 @@
     <t>元素被克制时的伤害减免减少{0}%</t>
   </si>
   <si>
-    <t>在无尽模式下，物理伤害提高{0}%</t>
-  </si>
-  <si>
     <t>在无尽模式下，魔法伤害提高{0}%</t>
   </si>
   <si>
@@ -13378,6 +13375,140 @@
   </si>
   <si>
     <t>收起</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Select_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_Select_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐属性</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方技能</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkill_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkill_3</t>
+  </si>
+  <si>
+    <t>MonsterSkill_4</t>
+  </si>
+  <si>
+    <t>MonsterSkill_5</t>
+  </si>
+  <si>
+    <t>MonsterSkillDesc_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkillDesc_2</t>
+  </si>
+  <si>
+    <t>MonsterSkillDesc_3</t>
+  </si>
+  <si>
+    <t>MonsterSkillDesc_4</t>
+  </si>
+  <si>
+    <t>MonsterSkillDesc_5</t>
+  </si>
+  <si>
+    <t>复仇</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>复原力</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴化</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">隐身 </t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>在无尽模式下，物理伤害提高{0}%</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有该技能的单位生命值归0时，在当前所处位置召唤{0}数量的{1}单位</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>具有该技能的单位，每秒会回复{0}的生命值</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位生命值低于一半时，会获得{0}%的移动速度提升</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位只能被具有“反隐”标签的单位攻击</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>该单位只能被具有“对空增伤”、“优先对空”标签的单位攻击</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resilience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth </t>
+  </si>
+  <si>
+    <t>When the health of a unit with this skill reaches 0, summon {0} number of {1} units at its current location</t>
+  </si>
+  <si>
+    <t>Units with this ability regenerate {0} of health per second</t>
+  </si>
+  <si>
+    <t>When the unit drops below half health, it gains a {0}% movement speed increase</t>
+  </si>
+  <si>
+    <t>This unit can only be attacked by units with the "Anti-Stealth" tag</t>
+  </si>
+  <si>
+    <t>This unit can only be attacked by units with the tags "Air Damage Increase" or "Air Priority Target".</t>
+  </si>
+  <si>
+    <t>Recommended element</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy skills</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revenge</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Berserk</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flight</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonsterSkill_2</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -14359,8 +14490,8 @@
   <dimension ref="A1:AMJ1454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A418" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E449" sqref="E449"/>
+      <pane ySplit="3" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E457" sqref="E457"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -16312,7 +16443,7 @@
         <v>20084</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="C89" s="7" t="s">
         <v>258</v>
@@ -17038,7 +17169,7 @@
         <v>20117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>339</v>
@@ -21155,10 +21286,10 @@
         <v>923</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="314" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
@@ -21214,7 +21345,7 @@
         <v>931</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="318" spans="1:6" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
@@ -21281,7 +21412,7 @@
         <v>941</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>942</v>
@@ -21505,7 +21636,7 @@
         <v>988</v>
       </c>
       <c r="C338" s="23" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="D338" s="23" t="s">
         <v>989</v>
@@ -21521,7 +21652,7 @@
         <v>990</v>
       </c>
       <c r="C339" s="23" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="D339" s="23" t="s">
         <v>991</v>
@@ -21537,7 +21668,7 @@
         <v>992</v>
       </c>
       <c r="C340" s="23" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="D340" s="23" t="s">
         <v>993</v>
@@ -21553,7 +21684,7 @@
         <v>994</v>
       </c>
       <c r="C341" s="23" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="D341" s="23" t="s">
         <v>995</v>
@@ -21569,7 +21700,7 @@
         <v>996</v>
       </c>
       <c r="C342" s="23" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="D342" s="23" t="s">
         <v>997</v>
@@ -21585,7 +21716,7 @@
         <v>998</v>
       </c>
       <c r="C343" s="23" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="D343" s="23" t="s">
         <v>999</v>
@@ -21601,7 +21732,7 @@
         <v>1000</v>
       </c>
       <c r="C344" s="23" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="D344" s="23" t="s">
         <v>1001</v>
@@ -21617,7 +21748,7 @@
         <v>1002</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="D345" s="23" t="s">
         <v>1003</v>
@@ -21633,7 +21764,7 @@
         <v>1004</v>
       </c>
       <c r="C346" s="23" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="D346" s="23" t="s">
         <v>1005</v>
@@ -21649,7 +21780,7 @@
         <v>1006</v>
       </c>
       <c r="C347" s="23" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="D347" s="23" t="s">
         <v>1007</v>
@@ -21665,7 +21796,7 @@
         <v>1008</v>
       </c>
       <c r="C348" s="23" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="D348" s="23" t="s">
         <v>1009</v>
@@ -21681,7 +21812,7 @@
         <v>1010</v>
       </c>
       <c r="C349" s="23" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="D349" s="23" t="s">
         <v>1011</v>
@@ -21697,7 +21828,7 @@
         <v>1012</v>
       </c>
       <c r="C350" s="23" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="D350" s="23" t="s">
         <v>1013</v>
@@ -21713,7 +21844,7 @@
         <v>1014</v>
       </c>
       <c r="C351" s="23" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="D351" s="23" t="s">
         <v>1015</v>
@@ -21729,7 +21860,7 @@
         <v>1016</v>
       </c>
       <c r="C352" s="23" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="D352" s="23" t="s">
         <v>1017</v>
@@ -21745,7 +21876,7 @@
         <v>1018</v>
       </c>
       <c r="C353" s="23" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="D353" s="23" t="s">
         <v>1019</v>
@@ -21761,7 +21892,7 @@
         <v>1020</v>
       </c>
       <c r="C354" s="23" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="D354" s="23" t="s">
         <v>1021</v>
@@ -21777,7 +21908,7 @@
         <v>1022</v>
       </c>
       <c r="C355" s="23" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="D355" s="23" t="s">
         <v>1023</v>
@@ -21793,7 +21924,7 @@
         <v>1024</v>
       </c>
       <c r="C356" s="23" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="D356" s="23" t="s">
         <v>1025</v>
@@ -21809,7 +21940,7 @@
         <v>1026</v>
       </c>
       <c r="C357" s="23" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="D357" s="23" t="s">
         <v>1027</v>
@@ -21825,7 +21956,7 @@
         <v>1028</v>
       </c>
       <c r="C358" s="23" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="D358" s="23" t="s">
         <v>1029</v>
@@ -21841,7 +21972,7 @@
         <v>1030</v>
       </c>
       <c r="C359" s="23" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="D359" s="23" t="s">
         <v>1031</v>
@@ -21857,7 +21988,7 @@
         <v>1032</v>
       </c>
       <c r="C360" s="23" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="D360" s="23" t="s">
         <v>1033</v>
@@ -21873,7 +22004,7 @@
         <v>1034</v>
       </c>
       <c r="C361" s="23" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="D361" s="23" t="s">
         <v>1035</v>
@@ -21889,7 +22020,7 @@
         <v>1036</v>
       </c>
       <c r="C362" s="23" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="D362" s="23" t="s">
         <v>1037</v>
@@ -21905,7 +22036,7 @@
         <v>1038</v>
       </c>
       <c r="C363" s="23" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="D363" s="23" t="s">
         <v>1039</v>
@@ -21921,7 +22052,7 @@
         <v>1040</v>
       </c>
       <c r="C364" s="23" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="D364" s="23" t="s">
         <v>1041</v>
@@ -21937,7 +22068,7 @@
         <v>1042</v>
       </c>
       <c r="C365" s="23" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="D365" s="23" t="s">
         <v>1043</v>
@@ -21953,7 +22084,7 @@
         <v>1044</v>
       </c>
       <c r="C366" s="23" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="D366" s="23" t="s">
         <v>1045</v>
@@ -21969,7 +22100,7 @@
         <v>1046</v>
       </c>
       <c r="C367" s="23" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="D367" s="23" t="s">
         <v>1047</v>
@@ -21985,7 +22116,7 @@
         <v>1048</v>
       </c>
       <c r="C368" s="23" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="D368" s="23" t="s">
         <v>1049</v>
@@ -22001,7 +22132,7 @@
         <v>1050</v>
       </c>
       <c r="C369" s="23" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="D369" s="23" t="s">
         <v>1051</v>
@@ -22017,7 +22148,7 @@
         <v>2342</v>
       </c>
       <c r="C370" s="27" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
       <c r="D370" s="27" t="s">
         <v>2410</v>
@@ -22033,7 +22164,7 @@
         <v>2343</v>
       </c>
       <c r="C371" s="27" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="D371" s="27" t="s">
         <v>2411</v>
@@ -22049,7 +22180,7 @@
         <v>2344</v>
       </c>
       <c r="C372" s="27" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="D372" s="27" t="s">
         <v>2412</v>
@@ -22065,7 +22196,7 @@
         <v>2345</v>
       </c>
       <c r="C373" s="27" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="D373" s="27" t="s">
         <v>2413</v>
@@ -22081,7 +22212,7 @@
         <v>2346</v>
       </c>
       <c r="C374" s="27" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="D374" s="27" t="s">
         <v>2414</v>
@@ -22097,7 +22228,7 @@
         <v>2347</v>
       </c>
       <c r="C375" s="27" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="D375" s="27" t="s">
         <v>2415</v>
@@ -22113,7 +22244,7 @@
         <v>2348</v>
       </c>
       <c r="C376" s="46" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="D376" s="46" t="s">
         <v>2416</v>
@@ -22129,7 +22260,7 @@
         <v>2349</v>
       </c>
       <c r="C377" s="46" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
       <c r="D377" s="46" t="s">
         <v>2417</v>
@@ -22145,10 +22276,10 @@
         <v>2350</v>
       </c>
       <c r="C378" s="46" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D378" s="46" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="E378" s="2"/>
       <c r="F378" s="4"/>
@@ -22161,7 +22292,7 @@
         <v>2351</v>
       </c>
       <c r="C379" s="46" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
       <c r="D379" s="46" t="s">
         <v>2418</v>
@@ -22177,7 +22308,7 @@
         <v>2352</v>
       </c>
       <c r="C380" s="46" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="D380" s="46" t="s">
         <v>2419</v>
@@ -22193,10 +22324,10 @@
         <v>2353</v>
       </c>
       <c r="C381" s="46" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D381" s="46" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="E381" s="2"/>
       <c r="F381" s="4"/>
@@ -22209,10 +22340,10 @@
         <v>2354</v>
       </c>
       <c r="C382" s="46" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="D382" s="46" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
       <c r="E382" s="2"/>
       <c r="F382" s="4"/>
@@ -22225,10 +22356,10 @@
         <v>2355</v>
       </c>
       <c r="C383" s="46" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="D383" s="46" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
       <c r="E383" s="2"/>
       <c r="F383" s="4"/>
@@ -22241,10 +22372,10 @@
         <v>2356</v>
       </c>
       <c r="C384" s="46" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D384" s="46" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="E384" s="2"/>
       <c r="F384" s="4"/>
@@ -22257,10 +22388,10 @@
         <v>2357</v>
       </c>
       <c r="C385" s="46" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
       <c r="D385" s="46" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
       <c r="E385" s="2"/>
       <c r="F385" s="4"/>
@@ -22273,10 +22404,10 @@
         <v>2358</v>
       </c>
       <c r="C386" s="46" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="D386" s="46" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="E386" s="2"/>
       <c r="F386" s="4"/>
@@ -22289,10 +22420,10 @@
         <v>2359</v>
       </c>
       <c r="C387" s="46" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
       <c r="D387" s="46" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="E387" s="2"/>
       <c r="F387" s="4"/>
@@ -22305,10 +22436,10 @@
         <v>2360</v>
       </c>
       <c r="C388" s="46" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
       <c r="D388" s="46" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="E388" s="2"/>
       <c r="F388" s="4"/>
@@ -22321,10 +22452,10 @@
         <v>2361</v>
       </c>
       <c r="C389" s="46" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D389" s="46" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="E389" s="2"/>
       <c r="F389" s="4"/>
@@ -22337,10 +22468,10 @@
         <v>2362</v>
       </c>
       <c r="C390" s="46" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D390" s="46" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E390" s="2"/>
       <c r="F390" s="4"/>
@@ -22353,10 +22484,10 @@
         <v>2363</v>
       </c>
       <c r="C391" s="46" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D391" s="46" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E391" s="2"/>
       <c r="F391" s="4"/>
@@ -22369,10 +22500,10 @@
         <v>2364</v>
       </c>
       <c r="C392" s="46" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="D392" s="46" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="E392" s="2"/>
       <c r="F392" s="4"/>
@@ -22385,10 +22516,10 @@
         <v>2365</v>
       </c>
       <c r="C393" s="46" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D393" s="46" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
       <c r="E393" s="2"/>
       <c r="F393" s="4"/>
@@ -22401,10 +22532,10 @@
         <v>2366</v>
       </c>
       <c r="C394" s="49" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D394" s="49" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
       <c r="E394" s="2"/>
       <c r="F394" s="4"/>
@@ -22417,10 +22548,10 @@
         <v>2367</v>
       </c>
       <c r="C395" s="49" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D395" s="49" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
       <c r="E395" s="2"/>
       <c r="F395" s="4"/>
@@ -22433,10 +22564,10 @@
         <v>2368</v>
       </c>
       <c r="C396" s="49" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D396" s="49" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
       <c r="E396" s="2"/>
       <c r="F396" s="4"/>
@@ -22449,10 +22580,10 @@
         <v>2369</v>
       </c>
       <c r="C397" s="49" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="D397" s="49" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
       <c r="E397" s="2"/>
       <c r="F397" s="4"/>
@@ -22465,10 +22596,10 @@
         <v>2370</v>
       </c>
       <c r="C398" s="49" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="D398" s="49" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
       <c r="E398" s="2"/>
       <c r="F398" s="4"/>
@@ -22481,10 +22612,10 @@
         <v>2371</v>
       </c>
       <c r="C399" s="49" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D399" s="49" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="E399" s="2"/>
       <c r="F399" s="4"/>
@@ -22497,10 +22628,10 @@
         <v>2372</v>
       </c>
       <c r="C400" s="49" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="D400" s="49" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="E400" s="2"/>
       <c r="F400" s="4"/>
@@ -22513,7 +22644,7 @@
         <v>2373</v>
       </c>
       <c r="C401" s="27" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="D401" s="27" t="s">
         <v>726</v>
@@ -22529,7 +22660,7 @@
         <v>2374</v>
       </c>
       <c r="C402" s="27" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="D402" s="27" t="s">
         <v>729</v>
@@ -22545,7 +22676,7 @@
         <v>2375</v>
       </c>
       <c r="C403" s="27" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="D403" s="27" t="s">
         <v>2420</v>
@@ -22561,7 +22692,7 @@
         <v>2376</v>
       </c>
       <c r="C404" s="27" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D404" s="27" t="s">
         <v>2421</v>
@@ -22577,7 +22708,7 @@
         <v>2377</v>
       </c>
       <c r="C405" s="27" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D405" s="27" t="s">
         <v>2422</v>
@@ -22593,7 +22724,7 @@
         <v>2378</v>
       </c>
       <c r="C406" s="27" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D406" s="27" t="s">
         <v>2423</v>
@@ -22609,7 +22740,7 @@
         <v>2379</v>
       </c>
       <c r="C407" s="27" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D407" s="27" t="s">
         <v>2424</v>
@@ -22625,7 +22756,7 @@
         <v>2380</v>
       </c>
       <c r="C408" s="27" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D408" s="27" t="s">
         <v>2425</v>
@@ -22641,7 +22772,7 @@
         <v>2381</v>
       </c>
       <c r="C409" s="27" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D409" s="27" t="s">
         <v>2426</v>
@@ -22657,7 +22788,7 @@
         <v>2382</v>
       </c>
       <c r="C410" s="27" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="D410" s="27" t="s">
         <v>2427</v>
@@ -22673,7 +22804,7 @@
         <v>2383</v>
       </c>
       <c r="C411" s="27" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="D411" s="27" t="s">
         <v>2428</v>
@@ -22945,7 +23076,7 @@
         <v>2400</v>
       </c>
       <c r="C428" s="27" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="D428" s="27" t="s">
         <v>2421</v>
@@ -22961,7 +23092,7 @@
         <v>2401</v>
       </c>
       <c r="C429" s="27" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="D429" s="27" t="s">
         <v>2422</v>
@@ -22977,7 +23108,7 @@
         <v>2402</v>
       </c>
       <c r="C430" s="27" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
       <c r="D430" s="27" t="s">
         <v>2423</v>
@@ -22993,7 +23124,7 @@
         <v>2403</v>
       </c>
       <c r="C431" s="27" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
       <c r="D431" s="27" t="s">
         <v>2424</v>
@@ -23009,7 +23140,7 @@
         <v>2404</v>
       </c>
       <c r="C432" s="46" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
       <c r="D432" s="46" t="s">
         <v>2425</v>
@@ -23025,7 +23156,7 @@
         <v>2405</v>
       </c>
       <c r="C433" s="27" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="D433" s="27" t="s">
         <v>2426</v>
@@ -23057,10 +23188,10 @@
         <v>2407</v>
       </c>
       <c r="C435" s="27" t="s">
-        <v>2498</v>
-      </c>
-      <c r="D435" s="27" t="s">
-        <v>2429</v>
+        <v>2497</v>
+      </c>
+      <c r="D435" s="49" t="s">
+        <v>2573</v>
       </c>
       <c r="E435" s="2"/>
       <c r="F435" s="4"/>
@@ -23073,10 +23204,10 @@
         <v>2408</v>
       </c>
       <c r="C436" s="27" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="D436" s="27" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E436" s="2"/>
       <c r="F436" s="4"/>
@@ -23089,10 +23220,10 @@
         <v>2409</v>
       </c>
       <c r="C437" s="27" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
       <c r="D437" s="27" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E437" s="2"/>
       <c r="F437" s="4"/>
@@ -23102,13 +23233,13 @@
         <v>20433</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="D438" s="6" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E438" s="2"/>
       <c r="F438" s="4"/>
@@ -23118,13 +23249,13 @@
         <v>20434</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="D439" s="48" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E439" s="2"/>
       <c r="F439" s="4"/>
@@ -23134,13 +23265,13 @@
         <v>20435</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="D440" s="6" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E440" s="2"/>
       <c r="F440" s="4"/>
@@ -23150,13 +23281,13 @@
         <v>20436</v>
       </c>
       <c r="B441" s="2" t="s">
+        <v>2441</v>
+      </c>
+      <c r="C441" s="6" t="s">
         <v>2442</v>
       </c>
-      <c r="C441" s="6" t="s">
+      <c r="D441" s="5" t="s">
         <v>2443</v>
-      </c>
-      <c r="D441" s="5" t="s">
-        <v>2444</v>
       </c>
       <c r="E441" s="2"/>
       <c r="F441" s="4"/>
@@ -23166,13 +23297,13 @@
         <v>20437</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="C442" s="50" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
       <c r="D442" s="5" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="E442" s="2"/>
       <c r="F442" s="4"/>
@@ -23182,13 +23313,13 @@
         <v>20438</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="C443" s="50" t="s">
+        <v>2553</v>
+      </c>
+      <c r="D443" s="5" t="s">
         <v>2554</v>
-      </c>
-      <c r="D443" s="5" t="s">
-        <v>2555</v>
       </c>
       <c r="E443" s="2"/>
       <c r="F443" s="4"/>
@@ -23198,110 +23329,206 @@
         <v>20439</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="C444" s="48" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="D444" s="5" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
       <c r="E444" s="2"/>
       <c r="F444" s="4"/>
     </row>
     <row r="445" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A445" s="4"/>
-      <c r="B445" s="2"/>
-      <c r="C445" s="6"/>
-      <c r="D445" s="5"/>
+      <c r="A445" s="1">
+        <v>20440</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C445" s="6" t="s">
+        <v>2586</v>
+      </c>
+      <c r="D445" s="5" t="s">
+        <v>2557</v>
+      </c>
       <c r="E445" s="2"/>
       <c r="F445" s="4"/>
     </row>
     <row r="446" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A446" s="4"/>
-      <c r="B446" s="2"/>
-      <c r="C446" s="24"/>
-      <c r="D446" s="5"/>
+      <c r="A446" s="1">
+        <v>20441</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C446" s="48" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D446" s="5" t="s">
+        <v>2558</v>
+      </c>
       <c r="E446" s="2"/>
       <c r="F446" s="4"/>
     </row>
     <row r="447" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A447" s="4"/>
-      <c r="B447" s="2"/>
-      <c r="C447" s="24"/>
-      <c r="D447" s="5"/>
+      <c r="A447" s="1">
+        <v>20442</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>2559</v>
+      </c>
+      <c r="C447" s="48" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D447" s="5" t="s">
+        <v>2568</v>
+      </c>
       <c r="E447" s="2"/>
       <c r="F447" s="4"/>
     </row>
     <row r="448" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A448" s="4"/>
-      <c r="B448" s="2"/>
-      <c r="C448" s="24"/>
-      <c r="D448" s="5"/>
+      <c r="A448" s="1">
+        <v>20443</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>2591</v>
+      </c>
+      <c r="C448" s="24" t="s">
+        <v>2579</v>
+      </c>
+      <c r="D448" s="5" t="s">
+        <v>2569</v>
+      </c>
       <c r="E448" s="2"/>
       <c r="F448" s="4"/>
     </row>
     <row r="449" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A449" s="4"/>
-      <c r="B449" s="2"/>
-      <c r="C449" s="6"/>
-      <c r="D449" s="5"/>
+      <c r="A449" s="1">
+        <v>20444</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>2560</v>
+      </c>
+      <c r="C449" s="6" t="s">
+        <v>2589</v>
+      </c>
+      <c r="D449" s="5" t="s">
+        <v>2570</v>
+      </c>
       <c r="E449" s="2"/>
       <c r="F449" s="4"/>
     </row>
     <row r="450" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A450" s="4"/>
-      <c r="B450" s="2"/>
-      <c r="C450" s="24"/>
-      <c r="D450" s="5"/>
+      <c r="A450" s="1">
+        <v>20445</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>2561</v>
+      </c>
+      <c r="C450" s="24" t="s">
+        <v>2580</v>
+      </c>
+      <c r="D450" s="5" t="s">
+        <v>2571</v>
+      </c>
       <c r="E450" s="2"/>
       <c r="F450" s="4"/>
     </row>
     <row r="451" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A451" s="4"/>
-      <c r="B451" s="2"/>
-      <c r="C451" s="24"/>
-      <c r="D451" s="5"/>
+      <c r="A451" s="1">
+        <v>20446</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>2562</v>
+      </c>
+      <c r="C451" s="48" t="s">
+        <v>2590</v>
+      </c>
+      <c r="D451" s="5" t="s">
+        <v>2572</v>
+      </c>
       <c r="E451" s="2"/>
       <c r="F451" s="4"/>
     </row>
-    <row r="452" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A452" s="4"/>
-      <c r="B452" s="2"/>
-      <c r="C452" s="6"/>
-      <c r="D452" s="5"/>
+    <row r="452" spans="1:6" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>20447</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>2563</v>
+      </c>
+      <c r="C452" s="6" t="s">
+        <v>2581</v>
+      </c>
+      <c r="D452" s="5" t="s">
+        <v>2574</v>
+      </c>
       <c r="E452" s="2"/>
       <c r="F452" s="4"/>
     </row>
     <row r="453" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A453" s="4"/>
-      <c r="B453" s="2"/>
-      <c r="C453" s="6"/>
-      <c r="D453" s="5"/>
+      <c r="A453" s="1">
+        <v>20448</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>2564</v>
+      </c>
+      <c r="C453" s="6" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D453" s="5" t="s">
+        <v>2575</v>
+      </c>
       <c r="E453" s="2"/>
       <c r="F453" s="4"/>
     </row>
     <row r="454" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A454" s="4"/>
-      <c r="B454" s="2"/>
-      <c r="C454" s="6"/>
-      <c r="D454" s="5"/>
+      <c r="A454" s="1">
+        <v>20449</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>2565</v>
+      </c>
+      <c r="C454" s="6" t="s">
+        <v>2583</v>
+      </c>
+      <c r="D454" s="5" t="s">
+        <v>2576</v>
+      </c>
       <c r="E454" s="2"/>
       <c r="F454" s="4"/>
     </row>
     <row r="455" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A455" s="4"/>
-      <c r="B455" s="2"/>
-      <c r="C455" s="24"/>
-      <c r="D455" s="5"/>
+      <c r="A455" s="1">
+        <v>20450</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>2566</v>
+      </c>
+      <c r="C455" s="24" t="s">
+        <v>2584</v>
+      </c>
+      <c r="D455" s="5" t="s">
+        <v>2577</v>
+      </c>
       <c r="E455" s="2"/>
       <c r="F455" s="4"/>
     </row>
-    <row r="456" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A456" s="4"/>
-      <c r="B456" s="2"/>
-      <c r="C456" s="6"/>
-      <c r="D456" s="5"/>
+    <row r="456" spans="1:6" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>20451</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C456" s="6" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D456" s="5" t="s">
+        <v>2578</v>
+      </c>
       <c r="E456" s="2"/>
       <c r="F456" s="4"/>
     </row>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C921ECB3-912E-4D10-8374-9D765B56A86E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330CFFDF-A25E-404C-B40B-4D6885F44765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2701" uniqueCount="2592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2707" uniqueCount="2598">
   <si>
     <t>Int</t>
   </si>
@@ -13509,6 +13509,30 @@
   </si>
   <si>
     <t>MonsterSkill_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>High</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Setting_2</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -14490,8 +14514,8 @@
   <dimension ref="A1:AMJ1454"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E457" sqref="E457"/>
+      <pane ySplit="3" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D453" sqref="D453"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -23533,18 +23557,34 @@
       <c r="F456" s="4"/>
     </row>
     <row r="457" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A457" s="4"/>
-      <c r="B457" s="2"/>
-      <c r="C457" s="24"/>
-      <c r="D457" s="5"/>
+      <c r="A457" s="1">
+        <v>20452</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C457" s="48" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D457" s="5" t="s">
+        <v>2595</v>
+      </c>
       <c r="E457" s="2"/>
       <c r="F457" s="4"/>
     </row>
     <row r="458" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A458" s="4"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="6"/>
-      <c r="D458" s="5"/>
+      <c r="A458" s="1">
+        <v>20453</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C458" s="6" t="s">
+        <v>2594</v>
+      </c>
+      <c r="D458" s="5" t="s">
+        <v>2596</v>
+      </c>
       <c r="E458" s="2"/>
       <c r="F458" s="4"/>
     </row>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8835A03F-8178-4EBC-9B2B-6D63D2AA328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD7C03-DE47-4FE7-950A-351339EA098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2705" uniqueCount="2594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="2600">
   <si>
     <t>Int</t>
   </si>
@@ -13457,6 +13457,30 @@
   </si>
   <si>
     <t>Deep Cavern - Hard</t>
+  </si>
+  <si>
+    <t>Bless_UI_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>*龙娘祝福来自于 Dragonverse 主世界通过“蓝色飞贼”抓取的龙娘</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blessing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>*The Modragon's blessing comes from the Modragon captured by the "Blue Snitch" in the DragonverseNeo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bless_UI_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -14422,10 +14446,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomLeft" activeCell="E458" sqref="E458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -23485,23 +23509,39 @@
       <c r="F457" s="4"/>
     </row>
     <row r="458" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A458" s="4"/>
-      <c r="B458" s="2"/>
-      <c r="C458" s="29"/>
-      <c r="D458" s="5"/>
+      <c r="A458" s="1">
+        <v>20453</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C458" s="27" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D458" s="5" t="s">
+        <v>2595</v>
+      </c>
       <c r="E458" s="2"/>
       <c r="F458" s="4"/>
     </row>
-    <row r="459" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A459" s="4"/>
-      <c r="B459" s="2"/>
-      <c r="C459" s="29"/>
-      <c r="D459" s="5"/>
+    <row r="459" spans="1:6" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="A459" s="1">
+        <v>20454</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C459" s="27" t="s">
+        <v>2598</v>
+      </c>
+      <c r="D459" s="5" t="s">
+        <v>2596</v>
+      </c>
       <c r="E459" s="2"/>
       <c r="F459" s="4"/>
     </row>
     <row r="460" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A460" s="4"/>
+      <c r="A460" s="1"/>
       <c r="B460" s="2"/>
       <c r="C460" s="29"/>
       <c r="D460" s="5"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD7C03-DE47-4FE7-950A-351339EA098B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648573C9-A9C0-424E-8552-4BB98BF81B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2711" uniqueCount="2600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2729" uniqueCount="2618">
   <si>
     <t>Int</t>
   </si>
@@ -13480,6 +13480,78 @@
   </si>
   <si>
     <t>Bless_UI_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_stageName_16</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ancient Tribe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>远古部落</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lost Ruins</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>失落遗迹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scorching Desert</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>炽热荒漠</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mystic Mines</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘境矿山</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deep Cavern</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽深矿洞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无尽之境</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endless Realm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_stageName_17</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_stageName_18</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_stageName_19</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_stageName_20</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage_stageName_21</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -14447,9 +14519,9 @@
   <dimension ref="A1:AMJ1452"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A441" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E458" sqref="E458"/>
+      <selection pane="bottomLeft" activeCell="E465" sqref="E465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -23541,57 +23613,105 @@
       <c r="F459" s="4"/>
     </row>
     <row r="460" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A460" s="1"/>
-      <c r="B460" s="2"/>
-      <c r="C460" s="29"/>
-      <c r="D460" s="5"/>
+      <c r="A460" s="1">
+        <v>20455</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>2600</v>
+      </c>
+      <c r="C460" s="50" t="s">
+        <v>2601</v>
+      </c>
+      <c r="D460" s="12" t="s">
+        <v>2602</v>
+      </c>
       <c r="E460" s="2"/>
       <c r="F460" s="4"/>
     </row>
     <row r="461" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A461" s="4"/>
-      <c r="B461" s="2"/>
-      <c r="C461" s="29"/>
-      <c r="D461" s="5"/>
+      <c r="A461" s="1">
+        <v>20456</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>2613</v>
+      </c>
+      <c r="C461" s="50" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D461" s="12" t="s">
+        <v>2604</v>
+      </c>
       <c r="E461" s="2"/>
       <c r="F461" s="4"/>
     </row>
     <row r="462" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A462" s="4"/>
-      <c r="B462" s="2"/>
-      <c r="C462" s="29"/>
-      <c r="D462" s="5"/>
+      <c r="A462" s="1">
+        <v>20457</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C462" s="50" t="s">
+        <v>2605</v>
+      </c>
+      <c r="D462" s="12" t="s">
+        <v>2606</v>
+      </c>
       <c r="E462" s="2"/>
       <c r="F462" s="4"/>
     </row>
     <row r="463" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A463" s="4"/>
-      <c r="B463" s="2"/>
-      <c r="C463" s="29"/>
-      <c r="D463" s="5"/>
+      <c r="A463" s="1">
+        <v>20458</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C463" s="50" t="s">
+        <v>2607</v>
+      </c>
+      <c r="D463" s="12" t="s">
+        <v>2608</v>
+      </c>
       <c r="E463" s="2"/>
       <c r="F463" s="4"/>
     </row>
     <row r="464" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A464" s="4"/>
-      <c r="B464" s="2"/>
-      <c r="C464" s="29"/>
-      <c r="D464" s="5"/>
+      <c r="A464" s="1">
+        <v>20459</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C464" s="50" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D464" s="12" t="s">
+        <v>2610</v>
+      </c>
       <c r="E464" s="2"/>
       <c r="F464" s="4"/>
     </row>
-    <row r="465" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A465" s="4"/>
-      <c r="B465" s="2"/>
-      <c r="C465" s="29"/>
-      <c r="D465" s="5"/>
+    <row r="465" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>20460</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C465" s="6" t="s">
+        <v>2612</v>
+      </c>
+      <c r="D465" s="5" t="s">
+        <v>2611</v>
+      </c>
       <c r="E465" s="2"/>
       <c r="F465" s="4"/>
     </row>
-    <row r="466" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A466" s="4"/>
       <c r="B466" s="2"/>
-      <c r="C466" s="29"/>
+      <c r="C466" s="6"/>
       <c r="D466" s="5"/>
       <c r="E466" s="2"/>
       <c r="F466" s="4"/>
@@ -23660,83 +23780,83 @@
       <c r="E474" s="2"/>
       <c r="F474" s="4"/>
     </row>
-    <row r="475" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A475" s="4"/>
       <c r="B475" s="2"/>
-      <c r="C475" s="6"/>
-      <c r="D475" s="5"/>
+      <c r="C475" s="29"/>
+      <c r="D475" s="30"/>
       <c r="E475" s="2"/>
       <c r="F475" s="4"/>
     </row>
-    <row r="476" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A476" s="4"/>
       <c r="B476" s="2"/>
-      <c r="C476" s="6"/>
-      <c r="D476" s="5"/>
+      <c r="C476" s="31"/>
+      <c r="D476" s="31"/>
       <c r="E476" s="2"/>
       <c r="F476" s="4"/>
     </row>
-    <row r="477" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A477" s="4"/>
       <c r="B477" s="2"/>
-      <c r="C477" s="6"/>
-      <c r="D477" s="5"/>
+      <c r="C477" s="31"/>
+      <c r="D477" s="31"/>
       <c r="E477" s="2"/>
       <c r="F477" s="4"/>
     </row>
-    <row r="478" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A478" s="4"/>
       <c r="B478" s="2"/>
-      <c r="C478" s="6"/>
-      <c r="D478" s="5"/>
+      <c r="C478" s="29"/>
+      <c r="D478" s="29"/>
       <c r="E478" s="2"/>
       <c r="F478" s="4"/>
     </row>
-    <row r="479" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A479" s="4"/>
       <c r="B479" s="2"/>
-      <c r="C479" s="6"/>
-      <c r="D479" s="5"/>
+      <c r="C479" s="29"/>
+      <c r="D479" s="31"/>
       <c r="E479" s="2"/>
       <c r="F479" s="4"/>
     </row>
-    <row r="480" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A480" s="4"/>
       <c r="B480" s="2"/>
-      <c r="C480" s="6"/>
-      <c r="D480" s="5"/>
+      <c r="C480" s="29"/>
+      <c r="D480" s="29"/>
       <c r="E480" s="2"/>
       <c r="F480" s="4"/>
     </row>
-    <row r="481" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A481" s="4"/>
       <c r="B481" s="2"/>
-      <c r="C481" s="6"/>
-      <c r="D481" s="5"/>
+      <c r="C481" s="29"/>
+      <c r="D481" s="31"/>
       <c r="E481" s="2"/>
       <c r="F481" s="4"/>
     </row>
-    <row r="482" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A482" s="4"/>
       <c r="B482" s="2"/>
-      <c r="C482" s="6"/>
-      <c r="D482" s="5"/>
+      <c r="C482" s="29"/>
+      <c r="D482" s="31"/>
       <c r="E482" s="2"/>
       <c r="F482" s="4"/>
     </row>
-    <row r="483" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A483" s="4"/>
       <c r="B483" s="2"/>
-      <c r="C483" s="6"/>
-      <c r="D483" s="5"/>
+      <c r="C483" s="29"/>
+      <c r="D483" s="31"/>
       <c r="E483" s="2"/>
       <c r="F483" s="4"/>
     </row>
-    <row r="484" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A484" s="4"/>
       <c r="B484" s="2"/>
-      <c r="C484" s="6"/>
-      <c r="D484" s="5"/>
+      <c r="C484" s="29"/>
+      <c r="D484" s="31"/>
       <c r="E484" s="2"/>
       <c r="F484" s="4"/>
     </row>
@@ -23744,14 +23864,14 @@
       <c r="A485" s="4"/>
       <c r="B485" s="2"/>
       <c r="C485" s="29"/>
-      <c r="D485" s="30"/>
+      <c r="D485" s="31"/>
       <c r="E485" s="2"/>
       <c r="F485" s="4"/>
     </row>
     <row r="486" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A486" s="4"/>
       <c r="B486" s="2"/>
-      <c r="C486" s="31"/>
+      <c r="C486" s="29"/>
       <c r="D486" s="31"/>
       <c r="E486" s="2"/>
       <c r="F486" s="4"/>
@@ -23759,7 +23879,7 @@
     <row r="487" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A487" s="4"/>
       <c r="B487" s="2"/>
-      <c r="C487" s="31"/>
+      <c r="C487" s="29"/>
       <c r="D487" s="31"/>
       <c r="E487" s="2"/>
       <c r="F487" s="4"/>
@@ -23768,7 +23888,7 @@
       <c r="A488" s="23"/>
       <c r="B488" s="2"/>
       <c r="C488" s="29"/>
-      <c r="D488" s="29"/>
+      <c r="D488" s="31"/>
       <c r="E488" s="2"/>
       <c r="F488" s="4"/>
     </row>
@@ -23784,7 +23904,7 @@
       <c r="A490" s="1"/>
       <c r="B490" s="2"/>
       <c r="C490" s="29"/>
-      <c r="D490" s="29"/>
+      <c r="D490" s="31"/>
       <c r="F490" s="4"/>
     </row>
     <row r="491" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -23994,58 +24114,58 @@
       <c r="A520" s="1"/>
       <c r="B520" s="2"/>
       <c r="C520" s="29"/>
-      <c r="D520" s="31"/>
+      <c r="D520" s="29"/>
       <c r="F520" s="4"/>
     </row>
     <row r="521" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
       <c r="C521" s="29"/>
-      <c r="D521" s="31"/>
+      <c r="D521" s="29"/>
       <c r="F521" s="4"/>
     </row>
     <row r="522" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A522" s="1"/>
       <c r="B522" s="2"/>
       <c r="C522" s="29"/>
-      <c r="D522" s="31"/>
+      <c r="D522" s="29"/>
       <c r="F522" s="4"/>
     </row>
-    <row r="523" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A523" s="1"/>
       <c r="B523" s="2"/>
-      <c r="C523" s="29"/>
-      <c r="D523" s="31"/>
+      <c r="C523" s="6"/>
+      <c r="D523" s="29"/>
       <c r="F523" s="4"/>
     </row>
-    <row r="524" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A524" s="1"/>
       <c r="B524" s="2"/>
-      <c r="C524" s="29"/>
-      <c r="D524" s="31"/>
+      <c r="C524" s="6"/>
+      <c r="D524" s="29"/>
       <c r="F524" s="4"/>
     </row>
-    <row r="525" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A525" s="1"/>
       <c r="B525" s="2"/>
-      <c r="C525" s="29"/>
-      <c r="D525" s="31"/>
+      <c r="C525" s="6"/>
+      <c r="D525" s="29"/>
       <c r="E525" s="2"/>
       <c r="F525" s="4"/>
     </row>
-    <row r="526" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A526" s="23"/>
       <c r="B526" s="2"/>
-      <c r="C526" s="29"/>
-      <c r="D526" s="31"/>
+      <c r="C526" s="6"/>
+      <c r="D526" s="29"/>
       <c r="E526" s="2"/>
       <c r="F526" s="4"/>
     </row>
-    <row r="527" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A527" s="23"/>
       <c r="B527" s="2"/>
-      <c r="C527" s="29"/>
-      <c r="D527" s="31"/>
+      <c r="C527" s="6"/>
+      <c r="D527" s="29"/>
       <c r="E527" s="2"/>
       <c r="F527" s="4"/>
     </row>
@@ -24053,7 +24173,7 @@
       <c r="A528" s="23"/>
       <c r="B528" s="2"/>
       <c r="C528" s="29"/>
-      <c r="D528" s="31"/>
+      <c r="D528" s="29"/>
       <c r="E528" s="2"/>
       <c r="F528" s="4"/>
     </row>
@@ -24061,7 +24181,7 @@
       <c r="A529" s="23"/>
       <c r="B529" s="2"/>
       <c r="C529" s="29"/>
-      <c r="D529" s="31"/>
+      <c r="D529" s="29"/>
       <c r="E529" s="2"/>
       <c r="F529" s="4"/>
     </row>
@@ -24089,42 +24209,42 @@
       <c r="E532" s="2"/>
       <c r="F532" s="4"/>
     </row>
-    <row r="533" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A533" s="4"/>
       <c r="B533" s="2"/>
-      <c r="C533" s="6"/>
-      <c r="D533" s="29"/>
+      <c r="C533" s="29"/>
+      <c r="D533" s="5"/>
       <c r="E533" s="2"/>
       <c r="F533" s="4"/>
     </row>
-    <row r="534" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A534" s="4"/>
       <c r="B534" s="2"/>
-      <c r="C534" s="6"/>
+      <c r="C534" s="29"/>
       <c r="D534" s="29"/>
       <c r="E534" s="2"/>
       <c r="F534" s="4"/>
     </row>
-    <row r="535" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A535" s="4"/>
       <c r="B535" s="2"/>
-      <c r="C535" s="6"/>
+      <c r="C535" s="29"/>
       <c r="D535" s="29"/>
       <c r="E535" s="2"/>
       <c r="F535" s="4"/>
     </row>
-    <row r="536" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A536" s="4"/>
       <c r="B536" s="2"/>
-      <c r="C536" s="6"/>
+      <c r="C536" s="29"/>
       <c r="D536" s="29"/>
       <c r="E536" s="2"/>
       <c r="F536" s="4"/>
     </row>
-    <row r="537" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A537" s="4"/>
       <c r="B537" s="2"/>
-      <c r="C537" s="6"/>
+      <c r="C537" s="29"/>
       <c r="D537" s="29"/>
       <c r="E537" s="2"/>
       <c r="F537" s="4"/>
@@ -24165,7 +24285,7 @@
       <c r="A542" s="4"/>
       <c r="B542" s="2"/>
       <c r="C542" s="29"/>
-      <c r="D542" s="29"/>
+      <c r="D542" s="5"/>
       <c r="E542" s="2"/>
       <c r="F542" s="4"/>
     </row>
@@ -24173,7 +24293,7 @@
       <c r="A543" s="4"/>
       <c r="B543" s="2"/>
       <c r="C543" s="29"/>
-      <c r="D543" s="5"/>
+      <c r="D543" s="29"/>
       <c r="E543" s="2"/>
       <c r="F543" s="4"/>
     </row>
@@ -24213,7 +24333,7 @@
       <c r="A548" s="4"/>
       <c r="B548" s="2"/>
       <c r="C548" s="29"/>
-      <c r="D548" s="29"/>
+      <c r="D548" s="32"/>
       <c r="E548" s="2"/>
       <c r="F548" s="4"/>
     </row>
@@ -24221,7 +24341,7 @@
       <c r="A549" s="4"/>
       <c r="B549" s="2"/>
       <c r="C549" s="29"/>
-      <c r="D549" s="29"/>
+      <c r="D549" s="32"/>
       <c r="E549" s="2"/>
       <c r="F549" s="4"/>
     </row>
@@ -24229,22 +24349,22 @@
       <c r="A550" s="4"/>
       <c r="B550" s="2"/>
       <c r="C550" s="29"/>
-      <c r="D550" s="29"/>
+      <c r="D550" s="32"/>
       <c r="E550" s="2"/>
       <c r="F550" s="4"/>
     </row>
-    <row r="551" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A551" s="4"/>
       <c r="B551" s="2"/>
-      <c r="C551" s="29"/>
-      <c r="D551" s="29"/>
+      <c r="C551" s="6"/>
+      <c r="D551" s="32"/>
       <c r="E551" s="2"/>
       <c r="F551" s="4"/>
     </row>
-    <row r="552" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A552" s="4"/>
       <c r="B552" s="2"/>
-      <c r="C552" s="29"/>
+      <c r="C552" s="6"/>
       <c r="D552" s="5"/>
       <c r="E552" s="2"/>
       <c r="F552" s="4"/>
@@ -24253,15 +24373,15 @@
       <c r="A553" s="4"/>
       <c r="B553" s="2"/>
       <c r="C553" s="29"/>
-      <c r="D553" s="29"/>
+      <c r="D553" s="5"/>
       <c r="E553" s="2"/>
       <c r="F553" s="4"/>
     </row>
-    <row r="554" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A554" s="4"/>
       <c r="B554" s="2"/>
-      <c r="C554" s="29"/>
-      <c r="D554" s="29"/>
+      <c r="C554" s="33"/>
+      <c r="D554" s="5"/>
       <c r="E554" s="2"/>
       <c r="F554" s="4"/>
     </row>
@@ -24269,7 +24389,7 @@
       <c r="A555" s="4"/>
       <c r="B555" s="2"/>
       <c r="C555" s="29"/>
-      <c r="D555" s="29"/>
+      <c r="D555" s="5"/>
       <c r="E555" s="2"/>
       <c r="F555" s="4"/>
     </row>
@@ -24277,7 +24397,7 @@
       <c r="A556" s="4"/>
       <c r="B556" s="2"/>
       <c r="C556" s="29"/>
-      <c r="D556" s="29"/>
+      <c r="D556" s="5"/>
       <c r="E556" s="2"/>
       <c r="F556" s="4"/>
     </row>
@@ -24285,7 +24405,7 @@
       <c r="A557" s="4"/>
       <c r="B557" s="2"/>
       <c r="C557" s="29"/>
-      <c r="D557" s="29"/>
+      <c r="D557" s="5"/>
       <c r="E557" s="2"/>
       <c r="F557" s="4"/>
     </row>
@@ -24293,7 +24413,7 @@
       <c r="A558" s="4"/>
       <c r="B558" s="2"/>
       <c r="C558" s="29"/>
-      <c r="D558" s="32"/>
+      <c r="D558" s="5"/>
       <c r="E558" s="21"/>
       <c r="F558" s="4"/>
     </row>
@@ -24301,7 +24421,7 @@
       <c r="A559" s="4"/>
       <c r="B559" s="2"/>
       <c r="C559" s="29"/>
-      <c r="D559" s="32"/>
+      <c r="D559" s="5"/>
       <c r="E559" s="21"/>
       <c r="F559" s="4"/>
     </row>
@@ -24309,22 +24429,22 @@
       <c r="A560" s="4"/>
       <c r="B560" s="2"/>
       <c r="C560" s="29"/>
-      <c r="D560" s="32"/>
+      <c r="D560" s="5"/>
       <c r="E560" s="21"/>
       <c r="F560" s="4"/>
     </row>
-    <row r="561" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A561" s="4"/>
       <c r="B561" s="2"/>
-      <c r="C561" s="6"/>
+      <c r="C561" s="33"/>
       <c r="D561" s="32"/>
       <c r="E561" s="21"/>
       <c r="F561" s="4"/>
     </row>
-    <row r="562" spans="1:6" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A562" s="4"/>
       <c r="B562" s="2"/>
-      <c r="C562" s="6"/>
+      <c r="C562" s="29"/>
       <c r="D562" s="5"/>
       <c r="E562" s="21"/>
       <c r="F562" s="4"/>
@@ -24336,10 +24456,10 @@
       <c r="D563" s="5"/>
       <c r="E563" s="21"/>
     </row>
-    <row r="564" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A564" s="4"/>
       <c r="B564" s="2"/>
-      <c r="C564" s="33"/>
+      <c r="C564" s="29"/>
       <c r="D564" s="5"/>
       <c r="E564" s="21"/>
     </row>
@@ -24371,10 +24491,10 @@
       <c r="D568" s="5"/>
       <c r="E568" s="21"/>
     </row>
-    <row r="569" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A569" s="4"/>
       <c r="B569" s="2"/>
-      <c r="C569" s="29"/>
+      <c r="C569" s="33"/>
       <c r="D569" s="5"/>
       <c r="E569" s="21"/>
     </row>
@@ -24385,11 +24505,11 @@
       <c r="D570" s="5"/>
       <c r="E570" s="21"/>
     </row>
-    <row r="571" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A571" s="4"/>
       <c r="B571" s="2"/>
-      <c r="C571" s="33"/>
-      <c r="D571" s="32"/>
+      <c r="C571" s="29"/>
+      <c r="D571" s="5"/>
       <c r="E571" s="21"/>
     </row>
     <row r="572" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -24420,10 +24540,10 @@
       <c r="D575" s="5"/>
       <c r="E575" s="21"/>
     </row>
-    <row r="576" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A576" s="4"/>
       <c r="B576" s="2"/>
-      <c r="C576" s="29"/>
+      <c r="C576" s="33"/>
       <c r="D576" s="5"/>
       <c r="E576" s="21"/>
     </row>
@@ -24441,10 +24561,10 @@
       <c r="D578" s="5"/>
       <c r="E578" s="21"/>
     </row>
-    <row r="579" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A579" s="4"/>
       <c r="B579" s="2"/>
-      <c r="C579" s="33"/>
+      <c r="C579" s="29"/>
       <c r="D579" s="5"/>
       <c r="E579" s="21"/>
     </row>
@@ -24490,10 +24610,10 @@
       <c r="D585" s="5"/>
       <c r="E585" s="21"/>
     </row>
-    <row r="586" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A586" s="4"/>
       <c r="B586" s="2"/>
-      <c r="C586" s="33"/>
+      <c r="C586" s="29"/>
       <c r="D586" s="5"/>
       <c r="E586" s="21"/>
     </row>
@@ -24536,160 +24656,160 @@
       <c r="A592" s="4"/>
       <c r="B592" s="2"/>
       <c r="C592" s="29"/>
-      <c r="D592" s="5"/>
+      <c r="D592" s="9"/>
       <c r="E592" s="21"/>
     </row>
     <row r="593" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A593" s="4"/>
       <c r="B593" s="2"/>
       <c r="C593" s="29"/>
-      <c r="D593" s="5"/>
+      <c r="D593" s="9"/>
       <c r="E593" s="21"/>
     </row>
     <row r="594" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A594" s="4"/>
       <c r="B594" s="21"/>
       <c r="C594" s="29"/>
-      <c r="D594" s="5"/>
+      <c r="D594" s="9"/>
       <c r="E594" s="21"/>
     </row>
     <row r="595" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A595" s="4"/>
       <c r="B595" s="21"/>
       <c r="C595" s="29"/>
-      <c r="D595" s="5"/>
+      <c r="D595" s="9"/>
       <c r="E595" s="21"/>
     </row>
     <row r="596" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A596" s="4"/>
       <c r="B596" s="21"/>
       <c r="C596" s="29"/>
-      <c r="D596" s="5"/>
+      <c r="D596" s="9"/>
       <c r="E596" s="21"/>
     </row>
     <row r="597" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A597" s="4"/>
       <c r="B597" s="21"/>
       <c r="C597" s="29"/>
-      <c r="D597" s="5"/>
+      <c r="D597" s="9"/>
       <c r="E597" s="21"/>
     </row>
     <row r="598" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A598" s="4"/>
       <c r="B598" s="21"/>
       <c r="C598" s="29"/>
-      <c r="D598" s="5"/>
+      <c r="D598" s="9"/>
       <c r="E598" s="21"/>
     </row>
     <row r="599" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A599" s="4"/>
       <c r="B599" s="21"/>
-      <c r="C599" s="29"/>
+      <c r="C599" s="3"/>
       <c r="D599" s="5"/>
       <c r="E599" s="21"/>
     </row>
     <row r="600" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A600" s="4"/>
       <c r="B600" s="21"/>
-      <c r="C600" s="29"/>
+      <c r="C600" s="3"/>
       <c r="D600" s="5"/>
       <c r="E600" s="21"/>
     </row>
     <row r="601" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A601" s="4"/>
       <c r="B601" s="21"/>
-      <c r="C601" s="29"/>
+      <c r="C601" s="3"/>
       <c r="D601" s="5"/>
       <c r="E601" s="21"/>
     </row>
     <row r="602" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A602" s="4"/>
       <c r="B602" s="21"/>
-      <c r="C602" s="29"/>
-      <c r="D602" s="9"/>
+      <c r="C602" s="3"/>
+      <c r="D602" s="5"/>
       <c r="E602" s="21"/>
     </row>
     <row r="603" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A603" s="4"/>
       <c r="B603" s="21"/>
       <c r="C603" s="29"/>
-      <c r="D603" s="9"/>
+      <c r="D603" s="5"/>
       <c r="E603" s="21"/>
     </row>
-    <row r="604" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A604" s="4"/>
       <c r="B604" s="21"/>
-      <c r="C604" s="29"/>
-      <c r="D604" s="9"/>
+      <c r="C604" s="6"/>
+      <c r="D604" s="5"/>
       <c r="E604" s="21"/>
     </row>
-    <row r="605" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A605" s="4"/>
       <c r="B605" s="21"/>
-      <c r="C605" s="29"/>
-      <c r="D605" s="9"/>
+      <c r="C605" s="6"/>
+      <c r="D605" s="3"/>
       <c r="E605" s="21"/>
     </row>
-    <row r="606" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A606" s="4"/>
       <c r="B606" s="21"/>
-      <c r="C606" s="29"/>
+      <c r="C606" s="6"/>
       <c r="D606" s="9"/>
       <c r="E606" s="21"/>
     </row>
     <row r="607" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A607" s="4"/>
       <c r="B607" s="21"/>
-      <c r="C607" s="29"/>
-      <c r="D607" s="9"/>
+      <c r="C607" s="3"/>
+      <c r="D607" s="5"/>
       <c r="E607" s="21"/>
     </row>
-    <row r="608" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A608" s="4"/>
       <c r="B608" s="21"/>
-      <c r="C608" s="29"/>
-      <c r="D608" s="9"/>
+      <c r="C608" s="6"/>
+      <c r="D608" s="5"/>
       <c r="E608" s="2"/>
     </row>
-    <row r="609" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A609" s="4"/>
       <c r="B609" s="21"/>
-      <c r="C609" s="3"/>
-      <c r="D609" s="5"/>
+      <c r="C609" s="6"/>
+      <c r="D609" s="33"/>
       <c r="E609" s="2"/>
     </row>
-    <row r="610" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A610" s="4"/>
       <c r="B610" s="21"/>
-      <c r="C610" s="3"/>
-      <c r="D610" s="5"/>
+      <c r="C610" s="6"/>
+      <c r="D610" s="33"/>
       <c r="E610" s="2"/>
     </row>
-    <row r="611" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A611" s="4"/>
       <c r="B611" s="21"/>
-      <c r="C611" s="3"/>
-      <c r="D611" s="5"/>
+      <c r="C611" s="6"/>
+      <c r="D611" s="3"/>
       <c r="E611" s="2"/>
     </row>
-    <row r="612" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A612" s="4"/>
       <c r="B612" s="21"/>
-      <c r="C612" s="3"/>
-      <c r="D612" s="5"/>
+      <c r="C612" s="6"/>
+      <c r="D612" s="3"/>
       <c r="E612" s="2"/>
     </row>
-    <row r="613" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A613" s="4"/>
       <c r="B613" s="2"/>
-      <c r="C613" s="29"/>
-      <c r="D613" s="5"/>
+      <c r="C613" s="6"/>
+      <c r="D613" s="3"/>
     </row>
     <row r="614" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A614" s="4"/>
       <c r="B614" s="2"/>
       <c r="C614" s="6"/>
-      <c r="D614" s="5"/>
+      <c r="D614" s="3"/>
     </row>
     <row r="615" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A615" s="4"/>
@@ -24701,33 +24821,33 @@
       <c r="A616" s="4"/>
       <c r="B616" s="21"/>
       <c r="C616" s="6"/>
-      <c r="D616" s="9"/>
-    </row>
-    <row r="617" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D616" s="3"/>
+    </row>
+    <row r="617" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A617" s="4"/>
       <c r="B617" s="2"/>
-      <c r="C617" s="3"/>
-      <c r="D617" s="5"/>
+      <c r="C617" s="6"/>
+      <c r="D617" s="3"/>
     </row>
     <row r="618" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A618" s="4"/>
       <c r="B618" s="2"/>
       <c r="C618" s="6"/>
-      <c r="D618" s="5"/>
+      <c r="D618" s="3"/>
       <c r="E618" s="2"/>
     </row>
     <row r="619" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A619" s="4"/>
       <c r="B619" s="2"/>
       <c r="C619" s="6"/>
-      <c r="D619" s="33"/>
+      <c r="D619" s="3"/>
       <c r="E619" s="2"/>
     </row>
     <row r="620" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A620" s="4"/>
       <c r="B620" s="2"/>
       <c r="C620" s="6"/>
-      <c r="D620" s="33"/>
+      <c r="D620" s="3"/>
       <c r="E620" s="2"/>
     </row>
     <row r="621" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -24744,79 +24864,79 @@
       <c r="D622" s="3"/>
       <c r="E622" s="21"/>
     </row>
-    <row r="623" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A623" s="4"/>
       <c r="B623" s="2"/>
-      <c r="C623" s="6"/>
-      <c r="D623" s="3"/>
+      <c r="C623" s="34"/>
+      <c r="D623" s="5"/>
       <c r="E623" s="21"/>
     </row>
     <row r="624" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A624" s="4"/>
       <c r="B624" s="2"/>
       <c r="C624" s="6"/>
-      <c r="D624" s="3"/>
+      <c r="D624" s="33"/>
       <c r="E624" s="21"/>
     </row>
     <row r="625" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A625" s="4"/>
       <c r="B625" s="2"/>
       <c r="C625" s="6"/>
-      <c r="D625" s="3"/>
+      <c r="D625" s="33"/>
       <c r="E625" s="21"/>
     </row>
     <row r="626" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A626" s="4"/>
       <c r="B626" s="2"/>
       <c r="C626" s="6"/>
-      <c r="D626" s="3"/>
+      <c r="D626" s="33"/>
       <c r="E626" s="21"/>
     </row>
     <row r="627" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A627" s="4"/>
       <c r="B627" s="2"/>
       <c r="C627" s="6"/>
-      <c r="D627" s="3"/>
+      <c r="D627" s="33"/>
       <c r="E627" s="21"/>
     </row>
     <row r="628" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A628" s="4"/>
       <c r="B628" s="2"/>
       <c r="C628" s="6"/>
-      <c r="D628" s="3"/>
+      <c r="D628" s="33"/>
       <c r="E628" s="21"/>
     </row>
     <row r="629" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A629" s="4"/>
       <c r="B629" s="2"/>
       <c r="C629" s="6"/>
-      <c r="D629" s="3"/>
+      <c r="D629" s="5"/>
       <c r="E629" s="21"/>
     </row>
     <row r="630" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A630" s="4"/>
       <c r="B630" s="2"/>
       <c r="C630" s="6"/>
-      <c r="D630" s="3"/>
+      <c r="D630" s="33"/>
       <c r="E630" s="21"/>
     </row>
     <row r="631" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A631" s="4"/>
       <c r="B631" s="2"/>
       <c r="C631" s="6"/>
-      <c r="D631" s="3"/>
+      <c r="D631" s="33"/>
     </row>
     <row r="632" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A632" s="4"/>
       <c r="B632" s="2"/>
       <c r="C632" s="6"/>
-      <c r="D632" s="3"/>
+      <c r="D632" s="33"/>
       <c r="E632" s="21"/>
     </row>
     <row r="633" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4"/>
       <c r="B633" s="2"/>
-      <c r="C633" s="34"/>
+      <c r="C633" s="33"/>
       <c r="D633" s="5"/>
       <c r="E633" s="21"/>
     </row>
@@ -24824,69 +24944,69 @@
       <c r="A634" s="4"/>
       <c r="B634" s="2"/>
       <c r="C634" s="6"/>
-      <c r="D634" s="33"/>
+      <c r="D634" s="35"/>
       <c r="E634" s="21"/>
     </row>
     <row r="635" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A635" s="4"/>
       <c r="B635" s="2"/>
       <c r="C635" s="6"/>
-      <c r="D635" s="33"/>
+      <c r="D635" s="35"/>
     </row>
     <row r="636" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A636" s="4"/>
       <c r="B636" s="2"/>
       <c r="C636" s="6"/>
-      <c r="D636" s="33"/>
+      <c r="D636" s="35"/>
       <c r="E636" s="21"/>
     </row>
     <row r="637" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A637" s="4"/>
       <c r="B637" s="2"/>
       <c r="C637" s="6"/>
-      <c r="D637" s="33"/>
+      <c r="D637" s="35"/>
       <c r="E637" s="21"/>
     </row>
-    <row r="638" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A638" s="4"/>
       <c r="B638" s="2"/>
-      <c r="C638" s="6"/>
-      <c r="D638" s="33"/>
+      <c r="C638" s="29"/>
+      <c r="D638" s="29"/>
       <c r="E638" s="21"/>
     </row>
-    <row r="639" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A639" s="4"/>
       <c r="B639" s="2"/>
-      <c r="C639" s="6"/>
+      <c r="C639" s="33"/>
       <c r="D639" s="5"/>
       <c r="E639" s="21"/>
     </row>
-    <row r="640" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A640" s="4"/>
       <c r="B640" s="2"/>
-      <c r="C640" s="6"/>
-      <c r="D640" s="33"/>
+      <c r="C640" s="33"/>
+      <c r="D640" s="5"/>
       <c r="E640" s="21"/>
     </row>
     <row r="641" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A641" s="4"/>
       <c r="B641" s="2"/>
       <c r="C641" s="6"/>
-      <c r="D641" s="33"/>
+      <c r="D641" s="35"/>
       <c r="E641" s="21"/>
     </row>
-    <row r="642" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A642" s="4"/>
       <c r="B642" s="2"/>
-      <c r="C642" s="6"/>
-      <c r="D642" s="33"/>
+      <c r="C642" s="33"/>
+      <c r="D642" s="5"/>
       <c r="E642" s="21"/>
     </row>
-    <row r="643" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A643" s="4"/>
       <c r="B643" s="2"/>
-      <c r="C643" s="33"/>
-      <c r="D643" s="5"/>
+      <c r="C643" s="6"/>
+      <c r="D643" s="35"/>
       <c r="E643" s="21"/>
     </row>
     <row r="644" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -24910,45 +25030,45 @@
       <c r="D646" s="35"/>
       <c r="E646" s="21"/>
     </row>
-    <row r="647" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A647" s="4"/>
       <c r="B647" s="2"/>
-      <c r="C647" s="6"/>
-      <c r="D647" s="35"/>
+      <c r="C647" s="33"/>
+      <c r="D647" s="33"/>
       <c r="E647" s="21"/>
     </row>
-    <row r="648" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A648" s="4"/>
       <c r="B648" s="2"/>
-      <c r="C648" s="29"/>
-      <c r="D648" s="29"/>
+      <c r="C648" s="33"/>
+      <c r="D648" s="33"/>
       <c r="E648" s="21"/>
     </row>
-    <row r="649" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A649" s="4"/>
       <c r="B649" s="2"/>
-      <c r="C649" s="33"/>
-      <c r="D649" s="5"/>
+      <c r="C649" s="6"/>
+      <c r="D649" s="33"/>
       <c r="E649" s="21"/>
     </row>
-    <row r="650" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A650" s="4"/>
       <c r="B650" s="2"/>
-      <c r="C650" s="33"/>
-      <c r="D650" s="5"/>
+      <c r="C650" s="6"/>
+      <c r="D650" s="33"/>
       <c r="E650" s="21"/>
     </row>
-    <row r="651" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A651" s="4"/>
       <c r="B651" s="2"/>
       <c r="C651" s="6"/>
-      <c r="D651" s="35"/>
+      <c r="D651" s="11"/>
       <c r="E651" s="21"/>
     </row>
-    <row r="652" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A652" s="4"/>
       <c r="B652" s="2"/>
-      <c r="C652" s="33"/>
+      <c r="C652" s="6"/>
       <c r="D652" s="5"/>
       <c r="E652" s="21"/>
     </row>
@@ -24956,28 +25076,28 @@
       <c r="A653" s="4"/>
       <c r="B653" s="2"/>
       <c r="C653" s="6"/>
-      <c r="D653" s="35"/>
+      <c r="D653" s="5"/>
       <c r="E653" s="21"/>
     </row>
-    <row r="654" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A654" s="4"/>
       <c r="B654" s="2"/>
-      <c r="C654" s="6"/>
-      <c r="D654" s="35"/>
+      <c r="C654" s="33"/>
+      <c r="D654" s="5"/>
       <c r="E654" s="21"/>
     </row>
-    <row r="655" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4"/>
       <c r="B655" s="2"/>
-      <c r="C655" s="6"/>
-      <c r="D655" s="35"/>
+      <c r="C655" s="33"/>
+      <c r="D655" s="33"/>
       <c r="E655" s="21"/>
     </row>
-    <row r="656" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4"/>
       <c r="B656" s="2"/>
-      <c r="C656" s="6"/>
-      <c r="D656" s="35"/>
+      <c r="C656" s="33"/>
+      <c r="D656" s="33"/>
       <c r="E656" s="21"/>
     </row>
     <row r="657" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -24987,46 +25107,46 @@
       <c r="D657" s="33"/>
       <c r="E657" s="21"/>
     </row>
-    <row r="658" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A658" s="4"/>
       <c r="B658" s="2"/>
-      <c r="C658" s="33"/>
-      <c r="D658" s="33"/>
+      <c r="C658" s="31"/>
+      <c r="D658" s="31"/>
       <c r="E658" s="21"/>
     </row>
-    <row r="659" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A659" s="4"/>
       <c r="B659" s="2"/>
-      <c r="C659" s="6"/>
+      <c r="C659" s="33"/>
       <c r="D659" s="33"/>
       <c r="E659" s="21"/>
     </row>
-    <row r="660" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A660" s="4"/>
       <c r="B660" s="2"/>
-      <c r="C660" s="6"/>
+      <c r="C660" s="33"/>
       <c r="D660" s="33"/>
       <c r="E660" s="21"/>
     </row>
-    <row r="661" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1"/>
       <c r="B661" s="2"/>
-      <c r="C661" s="6"/>
-      <c r="D661" s="11"/>
+      <c r="C661" s="33"/>
+      <c r="D661" s="33"/>
       <c r="E661" s="21"/>
     </row>
-    <row r="662" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1"/>
       <c r="B662" s="2"/>
-      <c r="C662" s="6"/>
-      <c r="D662" s="5"/>
+      <c r="C662" s="33"/>
+      <c r="D662" s="33"/>
       <c r="E662" s="21"/>
     </row>
-    <row r="663" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1"/>
       <c r="B663" s="2"/>
-      <c r="C663" s="6"/>
-      <c r="D663" s="5"/>
+      <c r="C663" s="33"/>
+      <c r="D663" s="33"/>
       <c r="E663" s="21"/>
     </row>
     <row r="664" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -25057,179 +25177,179 @@
       <c r="D667" s="33"/>
       <c r="E667" s="21"/>
     </row>
-    <row r="668" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A668" s="4"/>
       <c r="B668" s="2"/>
-      <c r="C668" s="31"/>
-      <c r="D668" s="31"/>
+      <c r="C668" s="33"/>
+      <c r="D668" s="5"/>
       <c r="E668" s="21"/>
     </row>
-    <row r="669" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A669" s="4"/>
       <c r="B669" s="2"/>
-      <c r="C669" s="33"/>
-      <c r="D669" s="33"/>
+      <c r="C669" s="8"/>
+      <c r="D669" s="8"/>
       <c r="E669" s="21"/>
     </row>
-    <row r="670" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A670" s="4"/>
       <c r="B670" s="2"/>
-      <c r="C670" s="33"/>
-      <c r="D670" s="33"/>
+      <c r="C670" s="8"/>
+      <c r="D670" s="8"/>
       <c r="E670" s="21"/>
     </row>
-    <row r="671" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A671" s="4"/>
       <c r="B671" s="2"/>
-      <c r="C671" s="33"/>
-      <c r="D671" s="33"/>
+      <c r="C671" s="8"/>
+      <c r="D671" s="8"/>
       <c r="E671" s="21"/>
     </row>
-    <row r="672" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A672" s="4"/>
       <c r="B672" s="2"/>
-      <c r="C672" s="33"/>
-      <c r="D672" s="33"/>
+      <c r="C672" s="32"/>
+      <c r="D672" s="32"/>
       <c r="E672" s="21"/>
     </row>
-    <row r="673" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A673" s="4"/>
       <c r="B673" s="2"/>
-      <c r="C673" s="33"/>
-      <c r="D673" s="33"/>
+      <c r="C673" s="32"/>
+      <c r="D673" s="32"/>
       <c r="E673" s="21"/>
     </row>
-    <row r="674" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A674" s="4"/>
       <c r="B674" s="2"/>
-      <c r="C674" s="33"/>
-      <c r="D674" s="5"/>
+      <c r="C674" s="32"/>
+      <c r="D674" s="32"/>
       <c r="E674" s="21"/>
     </row>
-    <row r="675" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A675" s="4"/>
       <c r="B675" s="2"/>
-      <c r="C675" s="33"/>
-      <c r="D675" s="33"/>
+      <c r="C675" s="32"/>
+      <c r="D675" s="32"/>
       <c r="E675" s="21"/>
     </row>
-    <row r="676" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A676" s="4"/>
       <c r="B676" s="2"/>
-      <c r="C676" s="33"/>
-      <c r="D676" s="33"/>
+      <c r="C676" s="32"/>
+      <c r="D676" s="32"/>
       <c r="E676" s="21"/>
     </row>
-    <row r="677" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A677" s="4"/>
       <c r="B677" s="2"/>
-      <c r="C677" s="33"/>
-      <c r="D677" s="33"/>
+      <c r="C677" s="32"/>
+      <c r="D677" s="32"/>
       <c r="E677" s="21"/>
     </row>
-    <row r="678" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A678" s="4"/>
       <c r="B678" s="2"/>
-      <c r="C678" s="33"/>
-      <c r="D678" s="5"/>
+      <c r="C678" s="32"/>
+      <c r="D678" s="32"/>
       <c r="E678" s="21"/>
     </row>
     <row r="679" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A679" s="4"/>
       <c r="B679" s="2"/>
-      <c r="C679" s="8"/>
-      <c r="D679" s="8"/>
+      <c r="C679" s="32"/>
+      <c r="D679" s="32"/>
       <c r="E679" s="21"/>
     </row>
-    <row r="680" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A680" s="4"/>
       <c r="B680" s="2"/>
-      <c r="C680" s="8"/>
-      <c r="D680" s="8"/>
+      <c r="C680" s="33"/>
+      <c r="D680" s="33"/>
       <c r="E680" s="21"/>
     </row>
-    <row r="681" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A681" s="4"/>
       <c r="B681" s="2"/>
-      <c r="C681" s="8"/>
-      <c r="D681" s="8"/>
+      <c r="C681" s="33"/>
+      <c r="D681" s="32"/>
       <c r="E681" s="21"/>
     </row>
-    <row r="682" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A682" s="4"/>
       <c r="B682" s="2"/>
-      <c r="C682" s="32"/>
+      <c r="C682" s="6"/>
       <c r="D682" s="32"/>
       <c r="E682" s="21"/>
     </row>
-    <row r="683" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A683" s="4"/>
       <c r="B683" s="2"/>
-      <c r="C683" s="32"/>
+      <c r="C683" s="6"/>
       <c r="D683" s="32"/>
       <c r="E683" s="21"/>
     </row>
-    <row r="684" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A684" s="4"/>
       <c r="B684" s="2"/>
-      <c r="C684" s="32"/>
+      <c r="C684" s="6"/>
       <c r="D684" s="32"/>
       <c r="E684" s="21"/>
     </row>
-    <row r="685" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A685" s="4"/>
       <c r="B685" s="2"/>
-      <c r="C685" s="32"/>
+      <c r="C685" s="6"/>
       <c r="D685" s="32"/>
       <c r="E685" s="21"/>
     </row>
-    <row r="686" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A686" s="4"/>
       <c r="B686" s="2"/>
-      <c r="C686" s="32"/>
-      <c r="D686" s="32"/>
+      <c r="C686" s="6"/>
+      <c r="D686" s="5"/>
       <c r="E686" s="21"/>
     </row>
-    <row r="687" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A687" s="4"/>
       <c r="B687" s="2"/>
-      <c r="C687" s="32"/>
-      <c r="D687" s="32"/>
+      <c r="C687" s="6"/>
+      <c r="D687" s="5"/>
       <c r="E687" s="21"/>
     </row>
     <row r="688" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A688" s="4"/>
       <c r="B688" s="2"/>
-      <c r="C688" s="32"/>
-      <c r="D688" s="32"/>
+      <c r="C688" s="5"/>
+      <c r="D688" s="5"/>
       <c r="E688" s="21"/>
     </row>
-    <row r="689" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A689" s="4"/>
       <c r="B689" s="2"/>
-      <c r="C689" s="32"/>
-      <c r="D689" s="32"/>
+      <c r="C689" s="6"/>
+      <c r="D689" s="5"/>
       <c r="E689" s="21"/>
     </row>
-    <row r="690" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A690" s="4"/>
       <c r="B690" s="2"/>
-      <c r="C690" s="33"/>
-      <c r="D690" s="33"/>
+      <c r="C690" s="6"/>
+      <c r="D690" s="32"/>
       <c r="E690" s="21"/>
     </row>
-    <row r="691" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A691" s="4"/>
       <c r="B691" s="2"/>
-      <c r="C691" s="33"/>
-      <c r="D691" s="32"/>
+      <c r="C691" s="6"/>
+      <c r="D691" s="5"/>
       <c r="E691" s="21"/>
     </row>
     <row r="692" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A692" s="4"/>
       <c r="B692" s="2"/>
       <c r="C692" s="6"/>
-      <c r="D692" s="32"/>
+      <c r="D692" s="5"/>
       <c r="E692" s="21"/>
     </row>
     <row r="693" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -25257,84 +25377,84 @@
       <c r="A696" s="4"/>
       <c r="B696" s="2"/>
       <c r="C696" s="6"/>
-      <c r="D696" s="5"/>
+      <c r="D696" s="32"/>
       <c r="E696" s="2"/>
     </row>
     <row r="697" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A697" s="4"/>
       <c r="B697" s="2"/>
       <c r="C697" s="6"/>
-      <c r="D697" s="5"/>
+      <c r="D697" s="32"/>
       <c r="E697" s="2"/>
     </row>
-    <row r="698" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A698" s="4"/>
       <c r="B698" s="2"/>
-      <c r="C698" s="5"/>
-      <c r="D698" s="5"/>
+      <c r="C698" s="6"/>
+      <c r="D698" s="9"/>
       <c r="E698" s="2"/>
     </row>
     <row r="699" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A699" s="4"/>
       <c r="B699" s="2"/>
       <c r="C699" s="6"/>
-      <c r="D699" s="5"/>
+      <c r="D699" s="9"/>
       <c r="E699" s="2"/>
     </row>
-    <row r="700" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A700" s="4"/>
       <c r="B700" s="2"/>
-      <c r="C700" s="6"/>
-      <c r="D700" s="32"/>
+      <c r="C700" s="3"/>
+      <c r="D700" s="3"/>
       <c r="E700" s="21"/>
     </row>
-    <row r="701" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A701" s="4"/>
       <c r="B701" s="2"/>
-      <c r="C701" s="6"/>
-      <c r="D701" s="5"/>
+      <c r="C701" s="9"/>
+      <c r="D701" s="9"/>
       <c r="E701" s="21"/>
     </row>
-    <row r="702" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A702" s="4"/>
       <c r="B702" s="2"/>
-      <c r="C702" s="6"/>
-      <c r="D702" s="5"/>
+      <c r="C702" s="9"/>
+      <c r="D702" s="9"/>
       <c r="E702" s="21"/>
     </row>
-    <row r="703" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A703" s="4"/>
       <c r="B703" s="2"/>
-      <c r="C703" s="6"/>
-      <c r="D703" s="32"/>
+      <c r="C703" s="9"/>
+      <c r="D703" s="9"/>
       <c r="E703" s="21"/>
     </row>
     <row r="704" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A704" s="4"/>
       <c r="B704" s="2"/>
       <c r="C704" s="6"/>
-      <c r="D704" s="32"/>
+      <c r="D704" s="9"/>
       <c r="E704" s="21"/>
     </row>
     <row r="705" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A705" s="4"/>
       <c r="B705" s="2"/>
       <c r="C705" s="6"/>
-      <c r="D705" s="32"/>
+      <c r="D705" s="9"/>
       <c r="E705" s="21"/>
     </row>
     <row r="706" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A706" s="4"/>
       <c r="B706" s="2"/>
       <c r="C706" s="6"/>
-      <c r="D706" s="32"/>
+      <c r="D706" s="9"/>
       <c r="E706" s="21"/>
     </row>
     <row r="707" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A707" s="4"/>
       <c r="B707" s="2"/>
       <c r="C707" s="6"/>
-      <c r="D707" s="32"/>
+      <c r="D707" s="9"/>
       <c r="E707" s="21"/>
     </row>
     <row r="708" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
@@ -25351,8 +25471,10 @@
       <c r="D709" s="9"/>
       <c r="E709" s="21"/>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="A710" s="4"/>
+      <c r="C710" s="6"/>
+      <c r="D710" s="9"/>
     </row>
     <row r="711" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A711" s="4"/>
@@ -25361,229 +25483,229 @@
       <c r="D711" s="9"/>
       <c r="E711" s="21"/>
     </row>
-    <row r="712" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A712" s="4"/>
       <c r="B712" s="2"/>
-      <c r="C712" s="9"/>
-      <c r="D712" s="9"/>
+      <c r="C712" s="6"/>
+      <c r="D712" s="11"/>
       <c r="E712" s="21"/>
     </row>
-    <row r="713" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A713" s="4"/>
       <c r="B713" s="2"/>
-      <c r="C713" s="9"/>
-      <c r="D713" s="9"/>
+      <c r="C713" s="6"/>
+      <c r="D713" s="11"/>
       <c r="E713" s="21"/>
     </row>
-    <row r="714" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A714" s="4"/>
       <c r="B714" s="2"/>
       <c r="C714" s="6"/>
-      <c r="D714" s="9"/>
+      <c r="D714" s="11"/>
       <c r="E714" s="21"/>
     </row>
-    <row r="715" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A715" s="4"/>
       <c r="B715" s="2"/>
       <c r="C715" s="6"/>
-      <c r="D715" s="9"/>
+      <c r="D715" s="11"/>
       <c r="E715" s="2"/>
     </row>
-    <row r="716" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A716" s="4"/>
       <c r="B716" s="2"/>
       <c r="C716" s="6"/>
-      <c r="D716" s="9"/>
+      <c r="D716" s="11"/>
       <c r="E716" s="2"/>
     </row>
-    <row r="717" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A717" s="4"/>
       <c r="B717" s="2"/>
       <c r="C717" s="6"/>
-      <c r="D717" s="9"/>
+      <c r="D717" s="11"/>
       <c r="E717" s="2"/>
     </row>
-    <row r="718" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A718" s="4"/>
       <c r="B718" s="2"/>
-      <c r="C718" s="6"/>
-      <c r="D718" s="9"/>
+      <c r="C718" s="5"/>
+      <c r="D718" s="5"/>
       <c r="E718" s="2"/>
     </row>
     <row r="719" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A719" s="4"/>
       <c r="B719" s="2"/>
       <c r="C719" s="6"/>
-      <c r="D719" s="9"/>
+      <c r="D719" s="16"/>
       <c r="E719" s="2"/>
     </row>
     <row r="720" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A720" s="4"/>
       <c r="B720" s="2"/>
       <c r="C720" s="6"/>
-      <c r="D720" s="9"/>
+      <c r="D720" s="16"/>
       <c r="E720" s="2"/>
     </row>
-    <row r="721" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A721" s="4"/>
       <c r="B721" s="2"/>
-      <c r="C721" s="9"/>
-      <c r="D721" s="9"/>
+      <c r="C721" s="6"/>
+      <c r="D721" s="16"/>
       <c r="E721" s="2"/>
     </row>
-    <row r="722" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A722" s="4"/>
       <c r="B722" s="2"/>
       <c r="C722" s="6"/>
-      <c r="D722" s="11"/>
+      <c r="D722" s="16"/>
       <c r="E722" s="2"/>
     </row>
-    <row r="723" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A723" s="4"/>
       <c r="B723" s="2"/>
       <c r="C723" s="6"/>
-      <c r="D723" s="11"/>
+      <c r="D723" s="16"/>
       <c r="E723" s="2"/>
     </row>
-    <row r="724" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A724" s="4"/>
       <c r="B724" s="2"/>
-      <c r="C724" s="6"/>
-      <c r="D724" s="11"/>
+      <c r="C724" s="9"/>
+      <c r="D724" s="9"/>
       <c r="E724" s="2"/>
     </row>
-    <row r="725" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A725" s="4"/>
       <c r="B725" s="2"/>
-      <c r="C725" s="6"/>
-      <c r="D725" s="11"/>
+      <c r="C725" s="9"/>
+      <c r="D725" s="9"/>
       <c r="E725" s="2"/>
     </row>
-    <row r="726" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A726" s="4"/>
       <c r="B726" s="2"/>
-      <c r="C726" s="6"/>
-      <c r="D726" s="11"/>
+      <c r="C726" s="9"/>
+      <c r="D726" s="9"/>
       <c r="E726" s="2"/>
     </row>
-    <row r="727" spans="1:5" s="20" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A727" s="4"/>
       <c r="B727" s="2"/>
-      <c r="C727" s="6"/>
-      <c r="D727" s="11"/>
+      <c r="C727" s="9"/>
+      <c r="D727" s="9"/>
       <c r="E727" s="2"/>
     </row>
     <row r="728" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A728" s="4"/>
       <c r="B728" s="2"/>
-      <c r="C728" s="5"/>
-      <c r="D728" s="5"/>
+      <c r="C728" s="9"/>
+      <c r="D728" s="9"/>
       <c r="E728" s="2"/>
     </row>
-    <row r="729" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A729" s="4"/>
       <c r="B729" s="2"/>
-      <c r="C729" s="6"/>
-      <c r="D729" s="16"/>
+      <c r="C729" s="9"/>
+      <c r="D729" s="9"/>
       <c r="E729" s="2"/>
     </row>
-    <row r="730" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A730" s="4"/>
       <c r="B730" s="2"/>
-      <c r="C730" s="6"/>
-      <c r="D730" s="16"/>
+      <c r="C730" s="5"/>
+      <c r="D730" s="29"/>
       <c r="E730" s="2"/>
     </row>
-    <row r="731" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A731" s="4"/>
       <c r="B731" s="2"/>
-      <c r="C731" s="6"/>
-      <c r="D731" s="16"/>
+      <c r="C731" s="5"/>
+      <c r="D731" s="29"/>
       <c r="E731" s="2"/>
     </row>
-    <row r="732" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A732" s="4"/>
       <c r="B732" s="2"/>
-      <c r="C732" s="6"/>
-      <c r="D732" s="16"/>
+      <c r="C732" s="5"/>
+      <c r="D732" s="29"/>
       <c r="E732" s="2"/>
     </row>
-    <row r="733" spans="1:5" s="20" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A733" s="4"/>
       <c r="B733" s="2"/>
-      <c r="C733" s="6"/>
-      <c r="D733" s="16"/>
+      <c r="C733" s="5"/>
+      <c r="D733" s="29"/>
       <c r="E733" s="2"/>
     </row>
     <row r="734" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A734" s="4"/>
       <c r="B734" s="2"/>
-      <c r="C734" s="9"/>
-      <c r="D734" s="9"/>
+      <c r="C734" s="5"/>
+      <c r="D734" s="29"/>
       <c r="E734" s="21"/>
     </row>
     <row r="735" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A735" s="4"/>
       <c r="B735" s="2"/>
-      <c r="C735" s="9"/>
-      <c r="D735" s="9"/>
+      <c r="C735" s="5"/>
+      <c r="D735" s="29"/>
       <c r="E735" s="2"/>
     </row>
     <row r="736" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A736" s="4"/>
       <c r="B736" s="2"/>
-      <c r="C736" s="9"/>
-      <c r="D736" s="9"/>
+      <c r="C736" s="5"/>
+      <c r="D736" s="36"/>
       <c r="E736" s="2"/>
     </row>
     <row r="737" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A737" s="4"/>
       <c r="B737" s="2"/>
-      <c r="C737" s="9"/>
-      <c r="D737" s="9"/>
+      <c r="C737" s="5"/>
+      <c r="D737" s="36"/>
       <c r="E737" s="2"/>
     </row>
     <row r="738" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A738" s="4"/>
-      <c r="C738" s="9"/>
-      <c r="D738" s="9"/>
+      <c r="C738" s="5"/>
+      <c r="D738" s="36"/>
       <c r="E738" s="2"/>
     </row>
     <row r="739" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A739" s="4"/>
-      <c r="C739" s="9"/>
-      <c r="D739" s="9"/>
+      <c r="C739" s="5"/>
+      <c r="D739" s="36"/>
       <c r="E739" s="2"/>
     </row>
     <row r="740" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A740" s="4"/>
       <c r="C740" s="5"/>
-      <c r="D740" s="29"/>
+      <c r="D740" s="36"/>
     </row>
     <row r="741" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A741" s="4"/>
       <c r="C741" s="5"/>
-      <c r="D741" s="29"/>
+      <c r="D741" s="36"/>
     </row>
     <row r="742" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A742" s="4"/>
       <c r="C742" s="5"/>
-      <c r="D742" s="29"/>
+      <c r="D742" s="36"/>
     </row>
     <row r="743" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A743" s="4"/>
       <c r="C743" s="5"/>
-      <c r="D743" s="29"/>
+      <c r="D743" s="36"/>
     </row>
     <row r="744" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A744" s="4"/>
       <c r="C744" s="5"/>
-      <c r="D744" s="29"/>
+      <c r="D744" s="36"/>
     </row>
     <row r="745" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A745" s="4"/>
       <c r="C745" s="5"/>
-      <c r="D745" s="29"/>
+      <c r="D745" s="36"/>
     </row>
     <row r="746" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A746" s="4"/>
@@ -25602,52 +25724,52 @@
     </row>
     <row r="749" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A749" s="4"/>
-      <c r="C749" s="5"/>
+      <c r="C749" s="29"/>
       <c r="D749" s="36"/>
     </row>
     <row r="750" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A750" s="4"/>
-      <c r="C750" s="5"/>
+      <c r="C750" s="29"/>
       <c r="D750" s="36"/>
     </row>
     <row r="751" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A751" s="4"/>
-      <c r="C751" s="5"/>
+      <c r="C751" s="29"/>
       <c r="D751" s="36"/>
     </row>
     <row r="752" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A752" s="4"/>
-      <c r="C752" s="5"/>
+      <c r="C752" s="29"/>
       <c r="D752" s="36"/>
     </row>
     <row r="753" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A753" s="4"/>
-      <c r="C753" s="5"/>
+      <c r="C753" s="29"/>
       <c r="D753" s="36"/>
     </row>
     <row r="754" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A754" s="4"/>
-      <c r="C754" s="5"/>
+      <c r="C754" s="29"/>
       <c r="D754" s="36"/>
     </row>
     <row r="755" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A755" s="4"/>
-      <c r="C755" s="5"/>
+      <c r="C755" s="29"/>
       <c r="D755" s="36"/>
     </row>
     <row r="756" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A756" s="4"/>
-      <c r="C756" s="5"/>
+      <c r="C756" s="29"/>
       <c r="D756" s="36"/>
     </row>
     <row r="757" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A757" s="4"/>
-      <c r="C757" s="5"/>
+      <c r="C757" s="29"/>
       <c r="D757" s="36"/>
     </row>
     <row r="758" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A758" s="4"/>
-      <c r="C758" s="5"/>
+      <c r="C758" s="29"/>
       <c r="D758" s="36"/>
     </row>
     <row r="759" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -25658,7 +25780,7 @@
     <row r="760" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A760" s="4"/>
       <c r="C760" s="29"/>
-      <c r="D760" s="36"/>
+      <c r="D760" s="29"/>
     </row>
     <row r="761" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A761" s="4"/>
@@ -25668,207 +25790,207 @@
     <row r="762" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A762" s="4"/>
       <c r="C762" s="29"/>
-      <c r="D762" s="36"/>
+      <c r="D762" s="29"/>
     </row>
     <row r="763" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A763" s="4"/>
       <c r="C763" s="29"/>
-      <c r="D763" s="36"/>
-    </row>
-    <row r="764" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D763" s="29"/>
+    </row>
+    <row r="764" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A764" s="4"/>
-      <c r="C764" s="29"/>
-      <c r="D764" s="36"/>
-    </row>
-    <row r="765" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C764" s="33"/>
+      <c r="D764" s="32"/>
+    </row>
+    <row r="765" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A765" s="4"/>
-      <c r="C765" s="29"/>
-      <c r="D765" s="36"/>
-    </row>
-    <row r="766" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C765" s="33"/>
+      <c r="D765" s="32"/>
+    </row>
+    <row r="766" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A766" s="4"/>
-      <c r="C766" s="29"/>
-      <c r="D766" s="36"/>
-    </row>
-    <row r="767" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C766" s="33"/>
+      <c r="D766" s="32"/>
+    </row>
+    <row r="767" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A767" s="4"/>
-      <c r="C767" s="29"/>
-      <c r="D767" s="36"/>
+      <c r="C767" s="33"/>
+      <c r="D767" s="32"/>
     </row>
     <row r="768" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A768" s="4"/>
-      <c r="C768" s="29"/>
-      <c r="D768" s="36"/>
+      <c r="C768" s="32"/>
+      <c r="D768" s="32"/>
     </row>
     <row r="769" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A769" s="4"/>
-      <c r="C769" s="29"/>
-      <c r="D769" s="36"/>
+      <c r="C769" s="32"/>
+      <c r="D769" s="32"/>
     </row>
     <row r="770" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A770" s="4"/>
-      <c r="C770" s="29"/>
-      <c r="D770" s="29"/>
+      <c r="C770" s="32"/>
+      <c r="D770" s="32"/>
     </row>
     <row r="771" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A771" s="4"/>
-      <c r="C771" s="29"/>
-      <c r="D771" s="36"/>
+      <c r="C771" s="32"/>
+      <c r="D771" s="32"/>
     </row>
     <row r="772" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A772" s="4"/>
-      <c r="C772" s="29"/>
-      <c r="D772" s="29"/>
+      <c r="C772" s="32"/>
+      <c r="D772" s="32"/>
     </row>
     <row r="773" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A773" s="4"/>
-      <c r="C773" s="29"/>
-      <c r="D773" s="29"/>
-    </row>
-    <row r="774" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C773" s="32"/>
+      <c r="D773" s="32"/>
+    </row>
+    <row r="774" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A774" s="4"/>
       <c r="B774" s="2"/>
-      <c r="C774" s="33"/>
+      <c r="C774" s="32"/>
       <c r="D774" s="32"/>
       <c r="E774" s="21"/>
     </row>
     <row r="775" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A775" s="4"/>
       <c r="B775" s="2"/>
-      <c r="C775" s="33"/>
-      <c r="D775" s="32"/>
+      <c r="C775" s="32"/>
+      <c r="D775" s="34"/>
       <c r="E775" s="21"/>
     </row>
     <row r="776" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A776" s="4"/>
       <c r="B776" s="2"/>
-      <c r="C776" s="33"/>
-      <c r="D776" s="32"/>
+      <c r="C776" s="32"/>
+      <c r="D776" s="34"/>
       <c r="E776" s="21"/>
     </row>
-    <row r="777" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A777" s="4"/>
       <c r="B777" s="2"/>
-      <c r="C777" s="33"/>
-      <c r="D777" s="32"/>
+      <c r="C777" s="32"/>
+      <c r="D777" s="5"/>
       <c r="E777" s="21"/>
     </row>
     <row r="778" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A778" s="4"/>
       <c r="B778" s="21"/>
-      <c r="C778" s="32"/>
-      <c r="D778" s="32"/>
+      <c r="C778" s="5"/>
+      <c r="D778" s="5"/>
       <c r="E778" s="2"/>
     </row>
     <row r="779" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A779" s="4"/>
       <c r="B779" s="21"/>
-      <c r="C779" s="32"/>
-      <c r="D779" s="32"/>
+      <c r="C779" s="5"/>
+      <c r="D779" s="5"/>
       <c r="E779" s="2"/>
     </row>
     <row r="780" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A780" s="4"/>
       <c r="B780" s="21"/>
       <c r="C780" s="32"/>
-      <c r="D780" s="32"/>
+      <c r="D780" s="5"/>
       <c r="E780" s="2"/>
     </row>
     <row r="781" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A781" s="4"/>
       <c r="B781" s="21"/>
-      <c r="C781" s="32"/>
-      <c r="D781" s="32"/>
+      <c r="C781" s="5"/>
+      <c r="D781" s="5"/>
       <c r="E781" s="2"/>
     </row>
     <row r="782" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A782" s="4"/>
       <c r="B782" s="21"/>
-      <c r="C782" s="32"/>
-      <c r="D782" s="32"/>
+      <c r="C782" s="5"/>
+      <c r="D782" s="5"/>
       <c r="E782" s="2"/>
     </row>
     <row r="783" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A783" s="4"/>
       <c r="B783" s="21"/>
       <c r="C783" s="32"/>
-      <c r="D783" s="32"/>
+      <c r="D783" s="5"/>
       <c r="E783" s="2"/>
     </row>
     <row r="784" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A784" s="4"/>
       <c r="B784" s="21"/>
       <c r="C784" s="32"/>
-      <c r="D784" s="32"/>
+      <c r="D784" s="5"/>
       <c r="E784" s="2"/>
     </row>
     <row r="785" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A785" s="4"/>
       <c r="B785" s="21"/>
-      <c r="C785" s="32"/>
-      <c r="D785" s="34"/>
+      <c r="C785" s="5"/>
+      <c r="D785" s="5"/>
       <c r="E785" s="37"/>
     </row>
     <row r="786" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A786" s="4"/>
       <c r="B786" s="21"/>
-      <c r="C786" s="32"/>
-      <c r="D786" s="34"/>
+      <c r="C786" s="34"/>
+      <c r="D786" s="5"/>
       <c r="E786" s="37"/>
     </row>
-    <row r="787" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A787" s="4"/>
       <c r="B787" s="2"/>
-      <c r="C787" s="32"/>
+      <c r="C787" s="34"/>
       <c r="D787" s="5"/>
       <c r="E787" s="2"/>
     </row>
-    <row r="788" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A788" s="4"/>
       <c r="B788" s="2"/>
-      <c r="C788" s="5"/>
+      <c r="C788" s="34"/>
       <c r="D788" s="5"/>
       <c r="E788" s="2"/>
     </row>
-    <row r="789" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A789" s="4"/>
       <c r="B789" s="2"/>
-      <c r="C789" s="5"/>
+      <c r="C789" s="34"/>
       <c r="D789" s="5"/>
       <c r="E789" s="2"/>
     </row>
-    <row r="790" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A790" s="4"/>
       <c r="B790" s="2"/>
-      <c r="C790" s="32"/>
+      <c r="C790" s="34"/>
       <c r="D790" s="5"/>
       <c r="E790" s="2"/>
     </row>
-    <row r="791" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4"/>
       <c r="B791" s="2"/>
-      <c r="C791" s="5"/>
+      <c r="C791" s="34"/>
       <c r="D791" s="5"/>
       <c r="E791" s="2"/>
     </row>
-    <row r="792" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A792" s="4"/>
       <c r="B792" s="2"/>
-      <c r="C792" s="5"/>
+      <c r="C792" s="34"/>
       <c r="D792" s="5"/>
       <c r="E792" s="2"/>
     </row>
-    <row r="793" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A793" s="4"/>
       <c r="B793" s="2"/>
-      <c r="C793" s="32"/>
+      <c r="C793" s="34"/>
       <c r="D793" s="5"/>
       <c r="E793" s="2"/>
     </row>
-    <row r="794" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A794" s="4"/>
       <c r="B794" s="2"/>
-      <c r="C794" s="32"/>
+      <c r="C794" s="34"/>
       <c r="D794" s="5"/>
       <c r="E794" s="2"/>
     </row>
@@ -25879,94 +26001,94 @@
       <c r="D795" s="5"/>
       <c r="E795" s="2"/>
     </row>
-    <row r="796" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A796" s="4"/>
       <c r="B796" s="2"/>
-      <c r="C796" s="34"/>
+      <c r="C796" s="5"/>
       <c r="D796" s="5"/>
       <c r="E796" s="2"/>
     </row>
-    <row r="797" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A797" s="4"/>
       <c r="B797" s="2"/>
-      <c r="C797" s="34"/>
-      <c r="D797" s="5"/>
+      <c r="C797" s="5"/>
+      <c r="D797" s="29"/>
       <c r="E797" s="2"/>
     </row>
     <row r="798" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A798" s="4"/>
       <c r="B798" s="2"/>
-      <c r="C798" s="34"/>
+      <c r="C798" s="33"/>
       <c r="D798" s="5"/>
       <c r="E798" s="2"/>
     </row>
     <row r="799" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A799" s="4"/>
       <c r="B799" s="2"/>
-      <c r="C799" s="34"/>
-      <c r="D799" s="5"/>
+      <c r="C799" s="33"/>
+      <c r="D799" s="32"/>
       <c r="E799" s="2"/>
     </row>
     <row r="800" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A800" s="4"/>
       <c r="B800" s="2"/>
-      <c r="C800" s="34"/>
-      <c r="D800" s="5"/>
+      <c r="C800" s="33"/>
+      <c r="D800" s="32"/>
       <c r="E800" s="2"/>
     </row>
     <row r="801" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A801" s="4"/>
       <c r="B801" s="2"/>
-      <c r="C801" s="34"/>
+      <c r="C801" s="33"/>
       <c r="D801" s="5"/>
       <c r="E801" s="2"/>
     </row>
     <row r="802" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A802" s="4"/>
       <c r="B802" s="2"/>
-      <c r="C802" s="34"/>
-      <c r="D802" s="5"/>
+      <c r="C802" s="33"/>
+      <c r="D802" s="32"/>
       <c r="E802" s="2"/>
     </row>
     <row r="803" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A803" s="4"/>
       <c r="B803" s="2"/>
-      <c r="C803" s="34"/>
-      <c r="D803" s="5"/>
+      <c r="C803" s="33"/>
+      <c r="D803" s="32"/>
       <c r="E803" s="2"/>
     </row>
     <row r="804" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A804" s="4"/>
       <c r="B804" s="2"/>
-      <c r="C804" s="34"/>
-      <c r="D804" s="5"/>
+      <c r="C804" s="33"/>
+      <c r="D804" s="32"/>
       <c r="E804" s="2"/>
     </row>
-    <row r="805" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A805" s="4"/>
       <c r="B805" s="5"/>
-      <c r="C805" s="5"/>
-      <c r="D805" s="5"/>
+      <c r="C805" s="33"/>
+      <c r="D805" s="32"/>
       <c r="E805" s="5"/>
     </row>
-    <row r="806" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4"/>
       <c r="B806" s="5"/>
-      <c r="C806" s="5"/>
-      <c r="D806" s="5"/>
+      <c r="C806" s="33"/>
+      <c r="D806" s="32"/>
       <c r="E806" s="5"/>
     </row>
-    <row r="807" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A807" s="4"/>
-      <c r="C807" s="5"/>
-      <c r="D807" s="29"/>
+      <c r="C807" s="33"/>
+      <c r="D807" s="32"/>
       <c r="E807" s="2"/>
     </row>
     <row r="808" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A808" s="4"/>
       <c r="B808" s="2"/>
       <c r="C808" s="33"/>
-      <c r="D808" s="5"/>
+      <c r="D808" s="32"/>
       <c r="E808" s="2"/>
     </row>
     <row r="809" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -25987,7 +26109,7 @@
       <c r="A811" s="4"/>
       <c r="B811" s="2"/>
       <c r="C811" s="33"/>
-      <c r="D811" s="5"/>
+      <c r="D811" s="32"/>
       <c r="E811" s="21"/>
     </row>
     <row r="812" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -26001,34 +26123,34 @@
       <c r="A813" s="4"/>
       <c r="B813" s="2"/>
       <c r="C813" s="33"/>
-      <c r="D813" s="32"/>
+      <c r="D813" s="5"/>
       <c r="E813" s="21"/>
     </row>
-    <row r="814" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A814" s="4"/>
       <c r="B814" s="2"/>
-      <c r="C814" s="33"/>
+      <c r="C814" s="32"/>
       <c r="D814" s="32"/>
       <c r="E814" s="21"/>
     </row>
-    <row r="815" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A815" s="4"/>
       <c r="B815" s="2"/>
-      <c r="C815" s="33"/>
+      <c r="C815" s="32"/>
       <c r="D815" s="32"/>
       <c r="E815" s="21"/>
     </row>
-    <row r="816" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A816" s="4"/>
       <c r="B816" s="2"/>
-      <c r="C816" s="33"/>
+      <c r="C816" s="32"/>
       <c r="D816" s="32"/>
       <c r="E816" s="21"/>
     </row>
-    <row r="817" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A817" s="4"/>
       <c r="B817" s="2"/>
-      <c r="C817" s="33"/>
+      <c r="C817" s="32"/>
       <c r="D817" s="32"/>
       <c r="E817" s="21"/>
     </row>
@@ -26071,161 +26193,161 @@
       <c r="A823" s="4"/>
       <c r="B823" s="2"/>
       <c r="C823" s="33"/>
-      <c r="D823" s="5"/>
+      <c r="D823" s="32"/>
       <c r="E823" s="21"/>
     </row>
-    <row r="824" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A824" s="4"/>
       <c r="B824" s="2"/>
-      <c r="C824" s="32"/>
+      <c r="C824" s="33"/>
       <c r="D824" s="32"/>
       <c r="E824" s="21"/>
     </row>
-    <row r="825" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A825" s="4"/>
       <c r="B825" s="2"/>
-      <c r="C825" s="32"/>
+      <c r="C825" s="33"/>
       <c r="D825" s="32"/>
       <c r="E825" s="21"/>
     </row>
-    <row r="826" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A826" s="4"/>
       <c r="B826" s="2"/>
-      <c r="C826" s="32"/>
-      <c r="D826" s="32"/>
+      <c r="C826" s="39"/>
+      <c r="D826" s="40"/>
       <c r="E826" s="21"/>
     </row>
-    <row r="827" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A827" s="4"/>
       <c r="B827" s="2"/>
-      <c r="C827" s="32"/>
-      <c r="D827" s="32"/>
+      <c r="C827" s="39"/>
+      <c r="D827" s="40"/>
       <c r="E827" s="21"/>
     </row>
     <row r="828" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A828" s="4"/>
       <c r="B828" s="2"/>
-      <c r="C828" s="33"/>
-      <c r="D828" s="32"/>
+      <c r="C828" s="39"/>
+      <c r="D828" s="40"/>
       <c r="E828" s="21"/>
     </row>
     <row r="829" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A829" s="4"/>
       <c r="B829" s="2"/>
-      <c r="C829" s="33"/>
-      <c r="D829" s="32"/>
+      <c r="C829" s="39"/>
+      <c r="D829" s="40"/>
       <c r="E829" s="21"/>
     </row>
     <row r="830" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A830" s="4"/>
       <c r="B830" s="2"/>
-      <c r="C830" s="33"/>
-      <c r="D830" s="32"/>
+      <c r="C830" s="39"/>
+      <c r="D830" s="40"/>
       <c r="E830" s="21"/>
     </row>
     <row r="831" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A831" s="4"/>
       <c r="B831" s="2"/>
-      <c r="C831" s="33"/>
-      <c r="D831" s="32"/>
+      <c r="C831" s="39"/>
+      <c r="D831" s="40"/>
       <c r="E831" s="21"/>
     </row>
     <row r="832" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A832" s="4"/>
       <c r="B832" s="2"/>
-      <c r="C832" s="33"/>
-      <c r="D832" s="32"/>
+      <c r="C832" s="39"/>
+      <c r="D832" s="40"/>
       <c r="E832" s="21"/>
     </row>
-    <row r="833" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A833" s="4"/>
       <c r="B833" s="2"/>
-      <c r="C833" s="33"/>
-      <c r="D833" s="32"/>
+      <c r="C833" s="40"/>
+      <c r="D833" s="40"/>
       <c r="E833" s="21"/>
     </row>
-    <row r="834" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A834" s="4"/>
       <c r="B834" s="2"/>
-      <c r="C834" s="33"/>
-      <c r="D834" s="32"/>
+      <c r="C834" s="40"/>
+      <c r="D834" s="40"/>
       <c r="E834" s="21"/>
     </row>
-    <row r="835" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A835" s="4"/>
       <c r="B835" s="2"/>
-      <c r="C835" s="33"/>
-      <c r="D835" s="32"/>
+      <c r="C835" s="40"/>
+      <c r="D835" s="40"/>
       <c r="E835" s="21"/>
     </row>
-    <row r="836" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A836" s="4"/>
       <c r="B836" s="38"/>
-      <c r="C836" s="39"/>
-      <c r="D836" s="40"/>
+      <c r="C836" s="5"/>
+      <c r="D836" s="5"/>
       <c r="E836" s="38"/>
     </row>
-    <row r="837" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A837" s="4"/>
       <c r="B837" s="38"/>
-      <c r="C837" s="39"/>
-      <c r="D837" s="40"/>
+      <c r="C837" s="5"/>
+      <c r="D837" s="5"/>
       <c r="E837" s="38"/>
     </row>
-    <row r="838" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A838" s="4"/>
       <c r="B838" s="38"/>
-      <c r="C838" s="39"/>
-      <c r="D838" s="40"/>
+      <c r="C838" s="5"/>
+      <c r="D838" s="5"/>
       <c r="E838" s="38"/>
     </row>
-    <row r="839" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A839" s="4"/>
       <c r="B839" s="38"/>
-      <c r="C839" s="39"/>
-      <c r="D839" s="40"/>
+      <c r="C839" s="5"/>
+      <c r="D839" s="5"/>
       <c r="E839" s="38"/>
     </row>
-    <row r="840" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A840" s="4"/>
       <c r="B840" s="38"/>
-      <c r="C840" s="39"/>
-      <c r="D840" s="40"/>
+      <c r="C840" s="5"/>
+      <c r="D840" s="5"/>
       <c r="E840" s="38"/>
     </row>
-    <row r="841" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A841" s="4"/>
       <c r="B841" s="38"/>
-      <c r="C841" s="39"/>
-      <c r="D841" s="40"/>
+      <c r="C841" s="5"/>
+      <c r="D841" s="5"/>
       <c r="E841" s="38"/>
     </row>
-    <row r="842" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A842" s="4"/>
       <c r="B842" s="38"/>
-      <c r="C842" s="39"/>
-      <c r="D842" s="40"/>
+      <c r="C842" s="5"/>
+      <c r="D842" s="5"/>
       <c r="E842" s="38"/>
     </row>
     <row r="843" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A843" s="4"/>
       <c r="B843" s="38"/>
-      <c r="C843" s="40"/>
-      <c r="D843" s="40"/>
+      <c r="C843" s="5"/>
+      <c r="D843" s="5"/>
       <c r="E843" s="38"/>
     </row>
     <row r="844" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A844" s="4"/>
       <c r="B844" s="38"/>
-      <c r="C844" s="40"/>
-      <c r="D844" s="40"/>
+      <c r="C844" s="5"/>
+      <c r="D844" s="5"/>
       <c r="E844" s="38"/>
     </row>
     <row r="845" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A845" s="4"/>
       <c r="B845" s="38"/>
-      <c r="C845" s="40"/>
-      <c r="D845" s="40"/>
+      <c r="C845" s="5"/>
+      <c r="D845" s="5"/>
       <c r="E845" s="38"/>
     </row>
     <row r="846" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -26447,10 +26569,10 @@
       <c r="D877" s="5"/>
       <c r="E877" s="2"/>
     </row>
-    <row r="878" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="878" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A878" s="4"/>
       <c r="B878" s="2"/>
-      <c r="C878" s="5"/>
+      <c r="C878" s="33"/>
       <c r="D878" s="5"/>
       <c r="E878" s="2"/>
     </row>
@@ -26471,70 +26593,70 @@
     <row r="881" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A881" s="4"/>
       <c r="B881" s="2"/>
-      <c r="C881" s="5"/>
+      <c r="C881" s="32"/>
       <c r="D881" s="5"/>
       <c r="E881" s="2"/>
     </row>
     <row r="882" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A882" s="4"/>
       <c r="B882" s="2"/>
-      <c r="C882" s="5"/>
-      <c r="D882" s="5"/>
+      <c r="C882" s="32"/>
+      <c r="D882" s="29"/>
       <c r="E882" s="2"/>
     </row>
     <row r="883" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A883" s="4"/>
       <c r="B883" s="2"/>
-      <c r="C883" s="5"/>
-      <c r="D883" s="5"/>
+      <c r="C883" s="32"/>
+      <c r="D883" s="29"/>
       <c r="E883" s="2"/>
     </row>
     <row r="884" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A884" s="4"/>
       <c r="B884" s="2"/>
-      <c r="C884" s="5"/>
-      <c r="D884" s="5"/>
+      <c r="C884" s="32"/>
+      <c r="D884" s="29"/>
       <c r="E884" s="2"/>
     </row>
     <row r="885" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A885" s="4"/>
       <c r="B885" s="2"/>
-      <c r="C885" s="5"/>
+      <c r="C885" s="32"/>
       <c r="D885" s="5"/>
       <c r="E885" s="2"/>
     </row>
     <row r="886" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A886" s="4"/>
       <c r="B886" s="2"/>
-      <c r="C886" s="5"/>
+      <c r="C886" s="32"/>
       <c r="D886" s="5"/>
       <c r="E886" s="2"/>
     </row>
     <row r="887" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A887" s="4"/>
       <c r="B887" s="2"/>
-      <c r="C887" s="5"/>
+      <c r="C887" s="32"/>
       <c r="D887" s="5"/>
       <c r="E887" s="2"/>
     </row>
-    <row r="888" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A888" s="4"/>
       <c r="B888" s="2"/>
-      <c r="C888" s="33"/>
+      <c r="C888" s="5"/>
       <c r="D888" s="5"/>
       <c r="E888" s="2"/>
     </row>
     <row r="889" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A889" s="4"/>
       <c r="B889" s="2"/>
-      <c r="C889" s="5"/>
+      <c r="C889" s="32"/>
       <c r="D889" s="5"/>
       <c r="E889" s="2"/>
     </row>
     <row r="890" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A890" s="4"/>
       <c r="B890" s="2"/>
-      <c r="C890" s="5"/>
+      <c r="C890" s="32"/>
       <c r="D890" s="5"/>
       <c r="E890" s="2"/>
     </row>
@@ -26548,19 +26670,19 @@
     <row r="892" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A892" s="4"/>
       <c r="C892" s="32"/>
-      <c r="D892" s="29"/>
+      <c r="D892" s="5"/>
       <c r="E892" s="2"/>
     </row>
     <row r="893" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A893" s="4"/>
       <c r="C893" s="32"/>
-      <c r="D893" s="29"/>
+      <c r="D893" s="5"/>
       <c r="E893" s="2"/>
     </row>
     <row r="894" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A894" s="4"/>
       <c r="C894" s="32"/>
-      <c r="D894" s="29"/>
+      <c r="D894" s="5"/>
       <c r="E894" s="2"/>
     </row>
     <row r="895" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -26587,7 +26709,7 @@
     <row r="898" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A898" s="4"/>
       <c r="B898" s="2"/>
-      <c r="C898" s="5"/>
+      <c r="C898" s="32"/>
       <c r="D898" s="5"/>
       <c r="E898" s="2"/>
     </row>
@@ -26752,108 +26874,108 @@
       <c r="D921" s="5"/>
       <c r="E921" s="2"/>
     </row>
-    <row r="922" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="922" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A922" s="4"/>
       <c r="B922" s="2"/>
-      <c r="C922" s="32"/>
+      <c r="C922" s="34"/>
       <c r="D922" s="5"/>
       <c r="E922" s="2"/>
     </row>
-    <row r="923" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="923" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A923" s="4"/>
       <c r="B923" s="2"/>
-      <c r="C923" s="32"/>
+      <c r="C923" s="34"/>
       <c r="D923" s="5"/>
       <c r="E923" s="2"/>
     </row>
-    <row r="924" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="924" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A924" s="4"/>
       <c r="B924" s="2"/>
-      <c r="C924" s="32"/>
+      <c r="C924" s="34"/>
       <c r="D924" s="5"/>
       <c r="E924" s="2"/>
     </row>
-    <row r="925" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="925" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A925" s="4"/>
       <c r="B925" s="2"/>
-      <c r="C925" s="32"/>
+      <c r="C925" s="34"/>
       <c r="D925" s="5"/>
       <c r="E925" s="2"/>
     </row>
-    <row r="926" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="926" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A926" s="4"/>
       <c r="B926" s="2"/>
-      <c r="C926" s="32"/>
+      <c r="C926" s="34"/>
       <c r="D926" s="5"/>
       <c r="E926" s="2"/>
     </row>
-    <row r="927" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="927" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A927" s="4"/>
       <c r="B927" s="2"/>
-      <c r="C927" s="32"/>
+      <c r="C927" s="34"/>
       <c r="D927" s="5"/>
       <c r="E927" s="2"/>
     </row>
-    <row r="928" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="928" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A928" s="4"/>
       <c r="B928" s="2"/>
-      <c r="C928" s="32"/>
+      <c r="C928" s="34"/>
       <c r="D928" s="5"/>
       <c r="E928" s="2"/>
     </row>
     <row r="929" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A929" s="4"/>
       <c r="B929" s="2"/>
-      <c r="C929" s="32"/>
+      <c r="C929" s="5"/>
       <c r="D929" s="5"/>
       <c r="E929" s="2"/>
     </row>
     <row r="930" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A930" s="4"/>
       <c r="B930" s="2"/>
-      <c r="C930" s="32"/>
-      <c r="D930" s="5"/>
+      <c r="C930" s="5"/>
+      <c r="D930" s="29"/>
       <c r="E930" s="2"/>
     </row>
-    <row r="931" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="931" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A931" s="4"/>
       <c r="B931" s="2"/>
-      <c r="C931" s="32"/>
+      <c r="C931" s="34"/>
       <c r="D931" s="5"/>
       <c r="E931" s="2"/>
     </row>
     <row r="932" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A932" s="4"/>
       <c r="B932" s="2"/>
-      <c r="C932" s="34"/>
-      <c r="D932" s="5"/>
+      <c r="C932" s="33"/>
+      <c r="D932" s="32"/>
       <c r="E932" s="2"/>
     </row>
     <row r="933" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A933" s="4"/>
       <c r="B933" s="2"/>
-      <c r="C933" s="34"/>
-      <c r="D933" s="5"/>
+      <c r="C933" s="33"/>
+      <c r="D933" s="32"/>
       <c r="E933" s="2"/>
     </row>
     <row r="934" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A934" s="4"/>
       <c r="B934" s="2"/>
-      <c r="C934" s="34"/>
-      <c r="D934" s="5"/>
+      <c r="C934" s="33"/>
+      <c r="D934" s="32"/>
       <c r="E934" s="2"/>
     </row>
     <row r="935" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A935" s="4"/>
       <c r="B935" s="2"/>
-      <c r="C935" s="34"/>
-      <c r="D935" s="5"/>
+      <c r="C935" s="33"/>
+      <c r="D935" s="32"/>
       <c r="E935" s="2"/>
     </row>
     <row r="936" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A936" s="4"/>
       <c r="B936" s="2"/>
-      <c r="C936" s="34"/>
+      <c r="C936" s="39"/>
       <c r="D936" s="5"/>
       <c r="E936" s="2"/>
     </row>
@@ -26871,100 +26993,100 @@
       <c r="D938" s="5"/>
       <c r="E938" s="2"/>
     </row>
-    <row r="939" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="939" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A939" s="4"/>
       <c r="B939" s="5"/>
-      <c r="C939" s="5"/>
+      <c r="C939" s="34"/>
       <c r="D939" s="5"/>
       <c r="E939" s="5"/>
     </row>
-    <row r="940" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="940" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A940" s="4"/>
       <c r="B940" s="2"/>
-      <c r="C940" s="5"/>
-      <c r="D940" s="29"/>
+      <c r="C940" s="34"/>
+      <c r="D940" s="5"/>
       <c r="E940" s="5"/>
     </row>
     <row r="941" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A941" s="4"/>
       <c r="B941" s="2"/>
-      <c r="C941" s="34"/>
-      <c r="D941" s="5"/>
+      <c r="C941" s="33"/>
+      <c r="D941" s="29"/>
       <c r="E941" s="2"/>
     </row>
     <row r="942" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A942" s="4"/>
       <c r="B942" s="2"/>
       <c r="C942" s="33"/>
-      <c r="D942" s="32"/>
+      <c r="D942" s="29"/>
       <c r="E942" s="2"/>
     </row>
     <row r="943" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A943" s="4"/>
       <c r="B943" s="2"/>
       <c r="C943" s="33"/>
-      <c r="D943" s="32"/>
+      <c r="D943" s="29"/>
       <c r="E943" s="2"/>
     </row>
     <row r="944" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A944" s="4"/>
       <c r="B944" s="21"/>
       <c r="C944" s="33"/>
-      <c r="D944" s="32"/>
+      <c r="D944" s="29"/>
       <c r="E944" s="21"/>
     </row>
     <row r="945" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A945" s="4"/>
       <c r="B945" s="21"/>
-      <c r="C945" s="33"/>
-      <c r="D945" s="32"/>
+      <c r="C945" s="39"/>
+      <c r="D945" s="40"/>
       <c r="E945" s="21"/>
     </row>
     <row r="946" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A946" s="4"/>
       <c r="B946" s="2"/>
       <c r="C946" s="39"/>
-      <c r="D946" s="5"/>
+      <c r="D946" s="40"/>
       <c r="E946" s="38"/>
     </row>
     <row r="947" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A947" s="4"/>
       <c r="B947" s="2"/>
-      <c r="C947" s="34"/>
-      <c r="D947" s="5"/>
+      <c r="C947" s="39"/>
+      <c r="D947" s="40"/>
       <c r="E947" s="2"/>
     </row>
     <row r="948" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A948" s="4"/>
       <c r="B948" s="2"/>
-      <c r="C948" s="34"/>
-      <c r="D948" s="5"/>
+      <c r="C948" s="39"/>
+      <c r="D948" s="40"/>
       <c r="E948" s="2"/>
     </row>
-    <row r="949" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A949" s="4"/>
       <c r="B949" s="2"/>
-      <c r="C949" s="34"/>
+      <c r="C949" s="5"/>
       <c r="D949" s="5"/>
       <c r="E949" s="2"/>
     </row>
-    <row r="950" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A950" s="4"/>
       <c r="B950" s="2"/>
-      <c r="C950" s="34"/>
+      <c r="C950" s="5"/>
       <c r="D950" s="5"/>
       <c r="E950" s="2"/>
     </row>
-    <row r="951" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A951" s="4"/>
-      <c r="C951" s="33"/>
-      <c r="D951" s="29"/>
+      <c r="C951" s="5"/>
+      <c r="D951" s="5"/>
       <c r="E951" s="2"/>
     </row>
-    <row r="952" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A952" s="4"/>
-      <c r="C952" s="33"/>
-      <c r="D952" s="29"/>
+      <c r="C952" s="5"/>
+      <c r="D952" s="5"/>
       <c r="E952" s="2"/>
     </row>
     <row r="953" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -26973,38 +27095,38 @@
       <c r="D953" s="29"/>
       <c r="E953" s="2"/>
     </row>
-    <row r="954" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A954" s="4"/>
-      <c r="C954" s="33"/>
-      <c r="D954" s="29"/>
+      <c r="C954" s="5"/>
+      <c r="D954" s="5"/>
       <c r="E954" s="2"/>
     </row>
-    <row r="955" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A955" s="4"/>
       <c r="B955" s="38"/>
-      <c r="C955" s="39"/>
-      <c r="D955" s="40"/>
+      <c r="C955" s="5"/>
+      <c r="D955" s="5"/>
       <c r="E955" s="38"/>
     </row>
-    <row r="956" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A956" s="4"/>
       <c r="B956" s="38"/>
-      <c r="C956" s="39"/>
-      <c r="D956" s="40"/>
+      <c r="C956" s="5"/>
+      <c r="D956" s="5"/>
       <c r="E956" s="38"/>
     </row>
-    <row r="957" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A957" s="4"/>
       <c r="B957" s="38"/>
-      <c r="C957" s="39"/>
-      <c r="D957" s="40"/>
+      <c r="C957" s="5"/>
+      <c r="D957" s="5"/>
       <c r="E957" s="38"/>
     </row>
-    <row r="958" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A958" s="4"/>
       <c r="B958" s="38"/>
-      <c r="C958" s="39"/>
-      <c r="D958" s="40"/>
+      <c r="C958" s="5"/>
+      <c r="D958" s="5"/>
       <c r="E958" s="38"/>
     </row>
     <row r="959" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -27032,117 +27154,117 @@
       <c r="A962" s="4"/>
       <c r="B962" s="2"/>
       <c r="C962" s="5"/>
-      <c r="D962" s="5"/>
+      <c r="D962" s="43"/>
       <c r="E962" s="2"/>
     </row>
-    <row r="963" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A963" s="4"/>
       <c r="B963" s="2"/>
-      <c r="C963" s="33"/>
-      <c r="D963" s="29"/>
+      <c r="C963" s="5"/>
+      <c r="D963" s="43"/>
       <c r="E963" s="2"/>
     </row>
     <row r="964" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A964" s="4"/>
       <c r="B964" s="2"/>
-      <c r="C964" s="5"/>
+      <c r="C964" s="29"/>
       <c r="D964" s="5"/>
     </row>
     <row r="965" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A965" s="4"/>
       <c r="B965" s="2"/>
-      <c r="C965" s="5"/>
+      <c r="C965" s="29"/>
       <c r="D965" s="5"/>
     </row>
     <row r="966" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A966" s="4"/>
       <c r="B966" s="2"/>
-      <c r="C966" s="5"/>
+      <c r="C966" s="29"/>
       <c r="D966" s="5"/>
     </row>
     <row r="967" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A967" s="4"/>
       <c r="B967" s="2"/>
-      <c r="C967" s="5"/>
+      <c r="C967" s="29"/>
       <c r="D967" s="5"/>
     </row>
     <row r="968" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A968" s="4"/>
       <c r="B968" s="2"/>
-      <c r="C968" s="5"/>
+      <c r="C968" s="29"/>
       <c r="D968" s="5"/>
     </row>
     <row r="969" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A969" s="4"/>
       <c r="B969" s="2"/>
-      <c r="C969" s="5"/>
+      <c r="C969" s="29"/>
       <c r="D969" s="5"/>
     </row>
     <row r="970" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A970" s="4"/>
       <c r="B970" s="2"/>
-      <c r="C970" s="5"/>
-      <c r="D970" s="5"/>
+      <c r="C970" s="29"/>
+      <c r="D970" s="29"/>
     </row>
     <row r="971" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A971" s="4"/>
       <c r="B971" s="2"/>
       <c r="C971" s="5"/>
-      <c r="D971" s="5"/>
+      <c r="D971" s="29"/>
     </row>
     <row r="972" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A972" s="41"/>
       <c r="B972" s="42"/>
       <c r="C972" s="5"/>
-      <c r="D972" s="43"/>
+      <c r="D972" s="29"/>
     </row>
     <row r="973" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A973" s="41"/>
       <c r="B973" s="42"/>
       <c r="C973" s="5"/>
-      <c r="D973" s="43"/>
+      <c r="D973" s="29"/>
     </row>
     <row r="974" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A974" s="4"/>
       <c r="B974" s="2"/>
-      <c r="C974" s="29"/>
-      <c r="D974" s="5"/>
+      <c r="C974" s="5"/>
+      <c r="D974" s="29"/>
     </row>
     <row r="975" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A975" s="4"/>
       <c r="B975" s="2"/>
-      <c r="C975" s="29"/>
-      <c r="D975" s="5"/>
+      <c r="C975" s="5"/>
+      <c r="D975" s="29"/>
     </row>
     <row r="976" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A976" s="4"/>
       <c r="B976" s="2"/>
-      <c r="C976" s="29"/>
-      <c r="D976" s="5"/>
+      <c r="C976" s="5"/>
+      <c r="D976" s="29"/>
     </row>
     <row r="977" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A977" s="4"/>
       <c r="B977" s="2"/>
-      <c r="C977" s="29"/>
-      <c r="D977" s="5"/>
+      <c r="C977" s="5"/>
+      <c r="D977" s="29"/>
     </row>
     <row r="978" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A978" s="4"/>
       <c r="B978" s="2"/>
-      <c r="C978" s="29"/>
-      <c r="D978" s="5"/>
+      <c r="C978" s="5"/>
+      <c r="D978" s="29"/>
     </row>
     <row r="979" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A979" s="4"/>
       <c r="B979" s="2"/>
-      <c r="C979" s="29"/>
-      <c r="D979" s="5"/>
+      <c r="C979" s="5"/>
+      <c r="D979" s="44"/>
     </row>
     <row r="980" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A980" s="4"/>
       <c r="B980" s="2"/>
-      <c r="C980" s="29"/>
-      <c r="D980" s="29"/>
+      <c r="C980" s="5"/>
+      <c r="D980" s="44"/>
     </row>
     <row r="981" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A981" s="4"/>
@@ -27195,12 +27317,12 @@
     <row r="989" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A989" s="4"/>
       <c r="C989" s="5"/>
-      <c r="D989" s="44"/>
+      <c r="D989" s="29"/>
     </row>
     <row r="990" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A990" s="4"/>
       <c r="C990" s="5"/>
-      <c r="D990" s="44"/>
+      <c r="D990" s="29"/>
     </row>
     <row r="991" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A991" s="4"/>
@@ -27245,12 +27367,12 @@
     <row r="999" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A999" s="4"/>
       <c r="C999" s="5"/>
-      <c r="D999" s="29"/>
+      <c r="D999" s="44"/>
     </row>
     <row r="1000" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1000" s="4"/>
       <c r="C1000" s="5"/>
-      <c r="D1000" s="29"/>
+      <c r="D1000" s="44"/>
     </row>
     <row r="1001" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1001" s="4"/>
@@ -27295,12 +27417,12 @@
     <row r="1009" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1009" s="4"/>
       <c r="C1009" s="5"/>
-      <c r="D1009" s="44"/>
+      <c r="D1009" s="29"/>
     </row>
     <row r="1010" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1010" s="4"/>
       <c r="C1010" s="5"/>
-      <c r="D1010" s="44"/>
+      <c r="D1010" s="29"/>
     </row>
     <row r="1011" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1011" s="4"/>
@@ -27359,43 +27481,43 @@
     </row>
     <row r="1022" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1022" s="4"/>
-      <c r="C1022" s="5"/>
+      <c r="C1022" s="29"/>
       <c r="D1022" s="29"/>
     </row>
     <row r="1023" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1023" s="4"/>
-      <c r="C1023" s="5"/>
+      <c r="C1023" s="29"/>
       <c r="D1023" s="29"/>
     </row>
     <row r="1024" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1024" s="4"/>
-      <c r="C1024" s="5"/>
+      <c r="C1024" s="29"/>
       <c r="D1024" s="29"/>
     </row>
     <row r="1025" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1025" s="4"/>
-      <c r="C1025" s="5"/>
+      <c r="C1025" s="29"/>
       <c r="D1025" s="29"/>
     </row>
     <row r="1026" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1026" s="4"/>
-      <c r="C1026" s="5"/>
-      <c r="D1026" s="29"/>
+      <c r="C1026" s="29"/>
+      <c r="D1026" s="5"/>
     </row>
     <row r="1027" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1027" s="4"/>
-      <c r="C1027" s="5"/>
-      <c r="D1027" s="29"/>
+      <c r="C1027" s="29"/>
+      <c r="D1027" s="5"/>
     </row>
     <row r="1028" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1028" s="4"/>
-      <c r="C1028" s="5"/>
-      <c r="D1028" s="29"/>
+      <c r="C1028" s="29"/>
+      <c r="D1028" s="5"/>
     </row>
     <row r="1029" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1029" s="4"/>
-      <c r="C1029" s="5"/>
-      <c r="D1029" s="29"/>
+      <c r="C1029" s="29"/>
+      <c r="D1029" s="5"/>
     </row>
     <row r="1030" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1030" s="4"/>
@@ -27404,60 +27526,60 @@
     </row>
     <row r="1031" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1031" s="4"/>
-      <c r="C1031" s="5"/>
+      <c r="C1031" s="29"/>
       <c r="D1031" s="29"/>
     </row>
     <row r="1032" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1032" s="4"/>
       <c r="B1032" s="2"/>
-      <c r="C1032" s="29"/>
+      <c r="C1032" s="5"/>
       <c r="D1032" s="29"/>
     </row>
     <row r="1033" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1033" s="4"/>
       <c r="B1033" s="2"/>
       <c r="C1033" s="29"/>
-      <c r="D1033" s="29"/>
+      <c r="D1033" s="5"/>
     </row>
     <row r="1034" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1034" s="4"/>
       <c r="B1034" s="2"/>
       <c r="C1034" s="29"/>
-      <c r="D1034" s="29"/>
+      <c r="D1034" s="5"/>
     </row>
     <row r="1035" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1035" s="4"/>
       <c r="B1035" s="2"/>
-      <c r="C1035" s="29"/>
-      <c r="D1035" s="29"/>
+      <c r="C1035" s="43"/>
+      <c r="D1035" s="43"/>
     </row>
     <row r="1036" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1036" s="4"/>
       <c r="B1036" s="2"/>
       <c r="C1036" s="29"/>
-      <c r="D1036" s="5"/>
+      <c r="D1036" s="29"/>
     </row>
     <row r="1037" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1037" s="4"/>
       <c r="B1037" s="2"/>
       <c r="C1037" s="29"/>
-      <c r="D1037" s="5"/>
+      <c r="D1037" s="29"/>
     </row>
     <row r="1038" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1038" s="4"/>
       <c r="B1038" s="2"/>
       <c r="C1038" s="29"/>
-      <c r="D1038" s="5"/>
+      <c r="D1038" s="32"/>
     </row>
     <row r="1039" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1039" s="4"/>
       <c r="B1039" s="2"/>
       <c r="C1039" s="29"/>
-      <c r="D1039" s="5"/>
+      <c r="D1039" s="32"/>
     </row>
     <row r="1040" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1040" s="4"/>
-      <c r="C1040" s="5"/>
+      <c r="C1040" s="29"/>
       <c r="D1040" s="29"/>
       <c r="E1040" s="2"/>
     </row>
@@ -27465,31 +27587,31 @@
       <c r="A1041" s="4"/>
       <c r="B1041" s="2"/>
       <c r="C1041" s="29"/>
-      <c r="D1041" s="29"/>
+      <c r="D1041" s="32"/>
     </row>
     <row r="1042" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1042" s="4"/>
       <c r="B1042" s="2"/>
-      <c r="C1042" s="5"/>
-      <c r="D1042" s="29"/>
+      <c r="C1042" s="29"/>
+      <c r="D1042" s="32"/>
     </row>
     <row r="1043" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1043" s="4"/>
       <c r="B1043" s="2"/>
-      <c r="C1043" s="29"/>
-      <c r="D1043" s="5"/>
+      <c r="C1043" s="5"/>
+      <c r="D1043" s="29"/>
     </row>
     <row r="1044" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1044" s="4"/>
       <c r="B1044" s="2"/>
       <c r="C1044" s="29"/>
-      <c r="D1044" s="5"/>
+      <c r="D1044" s="29"/>
     </row>
     <row r="1045" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1045" s="41"/>
       <c r="B1045" s="42"/>
-      <c r="C1045" s="43"/>
-      <c r="D1045" s="43"/>
+      <c r="C1045" s="29"/>
+      <c r="D1045" s="29"/>
       <c r="E1045" s="42"/>
     </row>
     <row r="1046" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -27505,12 +27627,12 @@
     <row r="1048" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1048" s="4"/>
       <c r="C1048" s="29"/>
-      <c r="D1048" s="32"/>
+      <c r="D1048" s="29"/>
     </row>
     <row r="1049" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1049" s="4"/>
       <c r="C1049" s="29"/>
-      <c r="D1049" s="32"/>
+      <c r="D1049" s="29"/>
     </row>
     <row r="1050" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1050" s="4"/>
@@ -27520,16 +27642,16 @@
     <row r="1051" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1051" s="4"/>
       <c r="C1051" s="29"/>
-      <c r="D1051" s="32"/>
+      <c r="D1051" s="29"/>
     </row>
     <row r="1052" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1052" s="4"/>
       <c r="C1052" s="29"/>
-      <c r="D1052" s="32"/>
+      <c r="D1052" s="29"/>
     </row>
     <row r="1053" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1053" s="4"/>
-      <c r="C1053" s="5"/>
+      <c r="C1053" s="29"/>
       <c r="D1053" s="29"/>
       <c r="E1053" s="2"/>
     </row>
@@ -27545,7 +27667,7 @@
     </row>
     <row r="1056" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1056" s="4"/>
-      <c r="C1056" s="29"/>
+      <c r="C1056" s="31"/>
       <c r="D1056" s="29"/>
     </row>
     <row r="1057" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -27595,7 +27717,7 @@
     </row>
     <row r="1066" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1066" s="4"/>
-      <c r="C1066" s="31"/>
+      <c r="C1066" s="29"/>
       <c r="D1066" s="29"/>
     </row>
     <row r="1067" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -27701,17 +27823,17 @@
     <row r="1087" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1087" s="4"/>
       <c r="C1087" s="29"/>
-      <c r="D1087" s="29"/>
+      <c r="D1087" s="5"/>
     </row>
     <row r="1088" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1088" s="4"/>
       <c r="C1088" s="29"/>
-      <c r="D1088" s="29"/>
+      <c r="D1088" s="5"/>
     </row>
     <row r="1089" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1089" s="4"/>
       <c r="C1089" s="29"/>
-      <c r="D1089" s="29"/>
+      <c r="D1089" s="5"/>
     </row>
     <row r="1090" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1090" s="4"/>
@@ -27748,55 +27870,55 @@
     <row r="1096" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1096" s="4"/>
       <c r="B1096" s="2"/>
-      <c r="C1096" s="29"/>
+      <c r="C1096" s="5"/>
       <c r="D1096" s="29"/>
     </row>
     <row r="1097" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1097" s="4"/>
       <c r="B1097" s="2"/>
-      <c r="C1097" s="29"/>
-      <c r="D1097" s="5"/>
+      <c r="C1097" s="5"/>
+      <c r="D1097" s="29"/>
     </row>
     <row r="1098" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1098" s="4"/>
       <c r="B1098" s="2"/>
-      <c r="C1098" s="29"/>
-      <c r="D1098" s="5"/>
+      <c r="C1098" s="5"/>
+      <c r="D1098" s="29"/>
     </row>
     <row r="1099" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1099" s="4"/>
       <c r="B1099" s="2"/>
-      <c r="C1099" s="29"/>
-      <c r="D1099" s="5"/>
+      <c r="C1099" s="5"/>
+      <c r="D1099" s="29"/>
     </row>
     <row r="1100" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1100" s="4"/>
-      <c r="C1100" s="29"/>
+      <c r="C1100" s="5"/>
       <c r="D1100" s="29"/>
     </row>
     <row r="1101" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1101" s="4"/>
-      <c r="C1101" s="29"/>
+      <c r="C1101" s="5"/>
       <c r="D1101" s="29"/>
     </row>
     <row r="1102" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1102" s="4"/>
-      <c r="C1102" s="29"/>
+      <c r="C1102" s="5"/>
       <c r="D1102" s="29"/>
     </row>
     <row r="1103" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1103" s="4"/>
-      <c r="C1103" s="29"/>
+      <c r="C1103" s="5"/>
       <c r="D1103" s="29"/>
     </row>
     <row r="1104" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1104" s="4"/>
-      <c r="C1104" s="29"/>
+      <c r="C1104" s="5"/>
       <c r="D1104" s="29"/>
     </row>
     <row r="1105" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1105" s="4"/>
-      <c r="C1105" s="29"/>
+      <c r="C1105" s="5"/>
       <c r="D1105" s="29"/>
     </row>
     <row r="1106" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
@@ -28033,118 +28155,118 @@
     <row r="1149" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1149" s="4"/>
       <c r="B1149" s="21"/>
-      <c r="C1149" s="5"/>
+      <c r="C1149" s="29"/>
       <c r="D1149" s="29"/>
     </row>
     <row r="1150" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1150" s="4"/>
       <c r="B1150" s="21"/>
-      <c r="C1150" s="5"/>
+      <c r="C1150" s="29"/>
       <c r="D1150" s="29"/>
     </row>
     <row r="1151" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1151" s="4"/>
       <c r="B1151" s="21"/>
-      <c r="C1151" s="5"/>
+      <c r="C1151" s="29"/>
       <c r="D1151" s="29"/>
     </row>
     <row r="1152" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1152" s="4"/>
       <c r="B1152" s="21"/>
-      <c r="C1152" s="5"/>
+      <c r="C1152" s="29"/>
       <c r="D1152" s="29"/>
     </row>
     <row r="1153" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1153" s="4"/>
       <c r="B1153" s="21"/>
-      <c r="C1153" s="5"/>
+      <c r="C1153" s="29"/>
       <c r="D1153" s="29"/>
     </row>
     <row r="1154" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1154" s="4"/>
       <c r="B1154" s="21"/>
-      <c r="C1154" s="5"/>
+      <c r="C1154" s="29"/>
       <c r="D1154" s="29"/>
     </row>
-    <row r="1155" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1155" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1155" s="4"/>
       <c r="B1155" s="21"/>
-      <c r="C1155" s="5"/>
-      <c r="D1155" s="29"/>
-    </row>
-    <row r="1156" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C1155" s="29"/>
+      <c r="D1155" s="34"/>
+    </row>
+    <row r="1156" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1156" s="4"/>
       <c r="B1156" s="21"/>
-      <c r="C1156" s="5"/>
+      <c r="C1156" s="33"/>
       <c r="D1156" s="29"/>
     </row>
     <row r="1157" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1157" s="4"/>
       <c r="B1157" s="21"/>
-      <c r="C1157" s="5"/>
+      <c r="C1157" s="29"/>
       <c r="D1157" s="29"/>
     </row>
     <row r="1158" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1158" s="4"/>
       <c r="B1158" s="21"/>
-      <c r="C1158" s="5"/>
+      <c r="C1158" s="29"/>
       <c r="D1158" s="29"/>
     </row>
     <row r="1159" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1159" s="4"/>
       <c r="B1159" s="21"/>
-      <c r="C1159" s="29"/>
-      <c r="D1159" s="29"/>
+      <c r="C1159" s="5"/>
+      <c r="D1159" s="45"/>
     </row>
     <row r="1160" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1160" s="4"/>
       <c r="B1160" s="21"/>
-      <c r="C1160" s="29"/>
-      <c r="D1160" s="29"/>
+      <c r="C1160" s="5"/>
+      <c r="D1160" s="45"/>
     </row>
     <row r="1161" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1161" s="4"/>
       <c r="B1161" s="21"/>
-      <c r="C1161" s="29"/>
-      <c r="D1161" s="29"/>
+      <c r="C1161" s="5"/>
+      <c r="D1161" s="45"/>
     </row>
     <row r="1162" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1162" s="4"/>
       <c r="B1162" s="21"/>
-      <c r="C1162" s="29"/>
-      <c r="D1162" s="29"/>
+      <c r="C1162" s="5"/>
+      <c r="D1162" s="45"/>
     </row>
     <row r="1163" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1163" s="4"/>
       <c r="B1163" s="21"/>
-      <c r="C1163" s="29"/>
-      <c r="D1163" s="29"/>
+      <c r="C1163" s="5"/>
+      <c r="D1163" s="45"/>
     </row>
     <row r="1164" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1164" s="4"/>
-      <c r="C1164" s="29"/>
-      <c r="D1164" s="29"/>
-    </row>
-    <row r="1165" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1164" s="5"/>
+      <c r="D1164" s="45"/>
+    </row>
+    <row r="1165" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1165" s="4"/>
-      <c r="C1165" s="29"/>
-      <c r="D1165" s="34"/>
-    </row>
-    <row r="1166" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1165" s="5"/>
+      <c r="D1165" s="45"/>
+    </row>
+    <row r="1166" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1166" s="4"/>
-      <c r="C1166" s="33"/>
-      <c r="D1166" s="29"/>
+      <c r="C1166" s="5"/>
+      <c r="D1166" s="45"/>
       <c r="E1166" s="2"/>
     </row>
     <row r="1167" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1167" s="4"/>
-      <c r="C1167" s="29"/>
-      <c r="D1167" s="29"/>
+      <c r="C1167" s="5"/>
+      <c r="D1167" s="45"/>
     </row>
     <row r="1168" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1168" s="4"/>
-      <c r="C1168" s="29"/>
-      <c r="D1168" s="29"/>
+      <c r="C1168" s="5"/>
+      <c r="D1168" s="45"/>
     </row>
     <row r="1169" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1169" s="4"/>
@@ -28318,53 +28440,53 @@
     </row>
     <row r="1203" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1203" s="4"/>
-      <c r="C1203" s="5"/>
-      <c r="D1203" s="45"/>
+      <c r="C1203" s="29"/>
+      <c r="D1203" s="36"/>
     </row>
     <row r="1204" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1204" s="4"/>
-      <c r="C1204" s="5"/>
-      <c r="D1204" s="45"/>
+      <c r="C1204" s="29"/>
+      <c r="D1204" s="36"/>
     </row>
     <row r="1205" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1205" s="4"/>
-      <c r="C1205" s="5"/>
-      <c r="D1205" s="45"/>
+      <c r="C1205" s="29"/>
+      <c r="D1205" s="36"/>
     </row>
     <row r="1206" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1206" s="4"/>
-      <c r="C1206" s="5"/>
-      <c r="D1206" s="45"/>
+      <c r="C1206" s="29"/>
+      <c r="D1206" s="36"/>
     </row>
     <row r="1207" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1207" s="4"/>
-      <c r="C1207" s="5"/>
-      <c r="D1207" s="45"/>
+      <c r="C1207" s="29"/>
+      <c r="D1207" s="36"/>
     </row>
     <row r="1208" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1208" s="4"/>
-      <c r="C1208" s="5"/>
-      <c r="D1208" s="45"/>
+      <c r="C1208" s="29"/>
+      <c r="D1208" s="36"/>
     </row>
     <row r="1209" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1209" s="4"/>
-      <c r="C1209" s="5"/>
-      <c r="D1209" s="45"/>
+      <c r="C1209" s="29"/>
+      <c r="D1209" s="36"/>
     </row>
     <row r="1210" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1210" s="4"/>
-      <c r="C1210" s="5"/>
-      <c r="D1210" s="45"/>
+      <c r="C1210" s="29"/>
+      <c r="D1210" s="36"/>
     </row>
     <row r="1211" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1211" s="4"/>
-      <c r="C1211" s="5"/>
-      <c r="D1211" s="45"/>
+      <c r="C1211" s="29"/>
+      <c r="D1211" s="36"/>
     </row>
     <row r="1212" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1212" s="4"/>
-      <c r="C1212" s="5"/>
-      <c r="D1212" s="45"/>
+      <c r="C1212" s="29"/>
+      <c r="D1212" s="36"/>
     </row>
     <row r="1213" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1213" s="4"/>
@@ -28673,53 +28795,53 @@
     </row>
     <row r="1274" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1274" s="4"/>
-      <c r="C1274" s="29"/>
-      <c r="D1274" s="36"/>
+      <c r="C1274" s="3"/>
+      <c r="D1274" s="3"/>
     </row>
     <row r="1275" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1275" s="4"/>
-      <c r="C1275" s="29"/>
-      <c r="D1275" s="36"/>
+      <c r="C1275" s="3"/>
+      <c r="D1275" s="3"/>
     </row>
     <row r="1276" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1276" s="4"/>
-      <c r="C1276" s="29"/>
-      <c r="D1276" s="36"/>
+      <c r="C1276" s="3"/>
+      <c r="D1276" s="3"/>
     </row>
     <row r="1277" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1277" s="4"/>
-      <c r="C1277" s="29"/>
-      <c r="D1277" s="36"/>
+      <c r="C1277" s="3"/>
+      <c r="D1277" s="3"/>
     </row>
     <row r="1278" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1278" s="4"/>
-      <c r="C1278" s="29"/>
-      <c r="D1278" s="36"/>
+      <c r="C1278" s="3"/>
+      <c r="D1278" s="3"/>
     </row>
     <row r="1279" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1279" s="4"/>
-      <c r="C1279" s="29"/>
-      <c r="D1279" s="36"/>
+      <c r="C1279" s="3"/>
+      <c r="D1279" s="3"/>
     </row>
     <row r="1280" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1280" s="4"/>
-      <c r="C1280" s="29"/>
-      <c r="D1280" s="36"/>
+      <c r="C1280" s="3"/>
+      <c r="D1280" s="3"/>
     </row>
     <row r="1281" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1281" s="4"/>
-      <c r="C1281" s="29"/>
-      <c r="D1281" s="36"/>
+      <c r="C1281" s="3"/>
+      <c r="D1281" s="3"/>
     </row>
     <row r="1282" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1282" s="4"/>
-      <c r="C1282" s="29"/>
-      <c r="D1282" s="36"/>
+      <c r="C1282" s="3"/>
+      <c r="D1282" s="3"/>
     </row>
     <row r="1283" spans="1:4" s="20" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1283" s="4"/>
-      <c r="C1283" s="29"/>
-      <c r="D1283" s="36"/>
+      <c r="C1283" s="3"/>
+      <c r="D1283" s="3"/>
     </row>
     <row r="1437" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1438" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C848828-A32A-42A1-B0EE-D89ED73A2135}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C345DF24-84A4-494F-9F7F-1010BDB8C997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2759" uniqueCount="2644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2801" uniqueCount="2685">
   <si>
     <t>Int</t>
   </si>
@@ -13593,12 +13593,142 @@
     <t>材料不足!</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>Online_shop001</t>
+  </si>
+  <si>
+    <t>Senzu Potion</t>
+  </si>
+  <si>
+    <t>仙豆</t>
+  </si>
+  <si>
+    <t>Online_shop002</t>
+  </si>
+  <si>
+    <t>Use in game to get stamina</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在游戏中使用可获得体力</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online_shop003</t>
+  </si>
+  <si>
+    <t>Blue Snitch</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色飞贼</t>
+  </si>
+  <si>
+    <t>Online_shop004</t>
+  </si>
+  <si>
+    <t>Capture the Modragon in the bonus level</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>在奖励地图中捕获龙娘时使用</t>
+  </si>
+  <si>
+    <t>Online_shop005</t>
+  </si>
+  <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>Online_shop006</t>
+  </si>
+  <si>
+    <t>Total：</t>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>Online_shop007</t>
+  </si>
+  <si>
+    <t>Available：</t>
+  </si>
+  <si>
+    <t>结余：</t>
+  </si>
+  <si>
+    <t>Online_shop008</t>
+  </si>
+  <si>
+    <t>DragonVerse Shop</t>
+  </si>
+  <si>
+    <t>DragonVerse 商城</t>
+  </si>
+  <si>
+    <t>Online_shop009</t>
+  </si>
+  <si>
+    <t>Consume</t>
+  </si>
+  <si>
+    <t>使用</t>
+  </si>
+  <si>
+    <t>Online_shop010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity: </t>
+  </si>
+  <si>
+    <t>数量：</t>
+  </si>
+  <si>
+    <t>Online_shop011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consume a Senzu Potion to recover {0} stamina? </t>
+  </si>
+  <si>
+    <t>确定消耗一瓶仙豆药水并回复{0}体力吗？</t>
+  </si>
+  <si>
+    <t>Online_shop012</t>
+  </si>
+  <si>
+    <t>Confirm(E)</t>
+  </si>
+  <si>
+    <t>确认（E）</t>
+  </si>
+  <si>
+    <t>Online_shop013</t>
+  </si>
+  <si>
+    <t>Cancel(Esc)</t>
+  </si>
+  <si>
+    <t>取消（Esc）</t>
+  </si>
+  <si>
+    <t>Confirming</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认中</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online_shop014</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -13724,6 +13854,19 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -13766,7 +13909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -13920,6 +14063,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14566,8 +14712,8 @@
   <dimension ref="A1:AMJ1451"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+      <pane ySplit="3" topLeftCell="A454" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D478" sqref="D478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -30023,114 +30169,226 @@
       <c r="F475" s="4"/>
     </row>
     <row r="476" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A476" s="4"/>
-      <c r="B476" s="2"/>
-      <c r="C476" s="35"/>
-      <c r="D476" s="35"/>
+      <c r="A476" s="7">
+        <v>20471</v>
+      </c>
+      <c r="B476" s="33" t="s">
+        <v>2644</v>
+      </c>
+      <c r="C476" s="33" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D476" s="33" t="s">
+        <v>2646</v>
+      </c>
       <c r="E476" s="2"/>
       <c r="F476" s="4"/>
     </row>
     <row r="477" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A477" s="4"/>
-      <c r="B477" s="2"/>
-      <c r="C477" s="31"/>
-      <c r="D477" s="31"/>
+      <c r="A477" s="7">
+        <v>20472</v>
+      </c>
+      <c r="B477" s="33" t="s">
+        <v>2647</v>
+      </c>
+      <c r="C477" s="33" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D477" s="33" t="s">
+        <v>2649</v>
+      </c>
       <c r="E477" s="2"/>
       <c r="F477" s="4"/>
     </row>
     <row r="478" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A478" s="4"/>
-      <c r="B478" s="2"/>
-      <c r="C478" s="31"/>
-      <c r="D478" s="35"/>
+      <c r="A478" s="7">
+        <v>20473</v>
+      </c>
+      <c r="B478" s="33" t="s">
+        <v>2650</v>
+      </c>
+      <c r="C478" s="33" t="s">
+        <v>2651</v>
+      </c>
+      <c r="D478" s="33" t="s">
+        <v>2652</v>
+      </c>
       <c r="E478" s="2"/>
       <c r="F478" s="4"/>
     </row>
     <row r="479" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A479" s="4"/>
-      <c r="B479" s="2"/>
-      <c r="C479" s="31"/>
-      <c r="D479" s="31"/>
+      <c r="A479" s="7">
+        <v>20474</v>
+      </c>
+      <c r="B479" s="33" t="s">
+        <v>2653</v>
+      </c>
+      <c r="C479" s="33" t="s">
+        <v>2654</v>
+      </c>
+      <c r="D479" s="33" t="s">
+        <v>2655</v>
+      </c>
       <c r="E479" s="2"/>
       <c r="F479" s="4"/>
     </row>
     <row r="480" spans="1:1024" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A480" s="4"/>
-      <c r="B480" s="2"/>
-      <c r="C480" s="31"/>
-      <c r="D480" s="35"/>
+      <c r="A480" s="7">
+        <v>20475</v>
+      </c>
+      <c r="B480" s="33" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C480" s="33" t="s">
+        <v>2657</v>
+      </c>
+      <c r="D480" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="E480" s="2"/>
       <c r="F480" s="4"/>
     </row>
     <row r="481" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A481" s="4"/>
-      <c r="B481" s="2"/>
-      <c r="C481" s="31"/>
-      <c r="D481" s="35"/>
+      <c r="A481" s="7">
+        <v>20476</v>
+      </c>
+      <c r="B481" s="33" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C481" s="33" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D481" s="33" t="s">
+        <v>2660</v>
+      </c>
       <c r="E481" s="2"/>
       <c r="F481" s="4"/>
     </row>
     <row r="482" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A482" s="4"/>
-      <c r="B482" s="2"/>
-      <c r="C482" s="31"/>
-      <c r="D482" s="35"/>
+      <c r="A482" s="7">
+        <v>20477</v>
+      </c>
+      <c r="B482" s="33" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C482" s="33" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D482" s="33" t="s">
+        <v>2663</v>
+      </c>
       <c r="E482" s="2"/>
       <c r="F482" s="4"/>
     </row>
     <row r="483" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A483" s="4"/>
-      <c r="B483" s="2"/>
-      <c r="C483" s="31"/>
-      <c r="D483" s="35"/>
+      <c r="A483" s="7">
+        <v>20478</v>
+      </c>
+      <c r="B483" s="33" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C483" s="33" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D483" s="33" t="s">
+        <v>2666</v>
+      </c>
       <c r="E483" s="2"/>
       <c r="F483" s="4"/>
     </row>
     <row r="484" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A484" s="4"/>
-      <c r="B484" s="2"/>
-      <c r="C484" s="31"/>
-      <c r="D484" s="35"/>
+      <c r="A484" s="7">
+        <v>20479</v>
+      </c>
+      <c r="B484" s="33" t="s">
+        <v>2667</v>
+      </c>
+      <c r="C484" s="33" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D484" s="33" t="s">
+        <v>2669</v>
+      </c>
       <c r="E484" s="2"/>
       <c r="F484" s="4"/>
     </row>
     <row r="485" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A485" s="4"/>
-      <c r="B485" s="2"/>
-      <c r="C485" s="31"/>
-      <c r="D485" s="35"/>
+      <c r="A485" s="7">
+        <v>20480</v>
+      </c>
+      <c r="B485" s="33" t="s">
+        <v>2670</v>
+      </c>
+      <c r="C485" s="33" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D485" s="33" t="s">
+        <v>2672</v>
+      </c>
       <c r="E485" s="2"/>
       <c r="F485" s="4"/>
     </row>
     <row r="486" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A486" s="4"/>
-      <c r="B486" s="2"/>
-      <c r="C486" s="31"/>
-      <c r="D486" s="35"/>
+      <c r="A486" s="7">
+        <v>20481</v>
+      </c>
+      <c r="B486" s="33" t="s">
+        <v>2673</v>
+      </c>
+      <c r="C486" s="54" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D486" s="33" t="s">
+        <v>2675</v>
+      </c>
       <c r="E486" s="2"/>
       <c r="F486" s="4"/>
     </row>
     <row r="487" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A487" s="25"/>
-      <c r="B487" s="2"/>
-      <c r="C487" s="31"/>
-      <c r="D487" s="35"/>
+      <c r="A487" s="7">
+        <v>20482</v>
+      </c>
+      <c r="B487" s="33" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C487" s="33" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D487" s="33" t="s">
+        <v>2678</v>
+      </c>
       <c r="E487" s="2"/>
       <c r="F487" s="4"/>
     </row>
     <row r="488" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A488" s="25"/>
-      <c r="B488" s="2"/>
-      <c r="C488" s="31"/>
-      <c r="D488" s="35"/>
+      <c r="A488" s="7">
+        <v>20483</v>
+      </c>
+      <c r="B488" s="33" t="s">
+        <v>2679</v>
+      </c>
+      <c r="C488" s="33" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D488" s="33" t="s">
+        <v>2681</v>
+      </c>
       <c r="E488" s="2"/>
       <c r="F488" s="4"/>
     </row>
     <row r="489" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A489" s="1"/>
-      <c r="B489" s="2"/>
-      <c r="C489" s="31"/>
-      <c r="D489" s="35"/>
+      <c r="A489" s="7">
+        <v>20484</v>
+      </c>
+      <c r="B489" s="33" t="s">
+        <v>2684</v>
+      </c>
+      <c r="C489" s="29" t="s">
+        <v>2682</v>
+      </c>
+      <c r="D489" s="35" t="s">
+        <v>2683</v>
+      </c>
       <c r="F489" s="4"/>
     </row>
     <row r="490" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.35">
@@ -35087,9 +35345,6 @@
     <row r="1451" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A489">
-    <cfRule type="duplicateValues" dxfId="37" priority="2"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A490">
     <cfRule type="duplicateValues" dxfId="36" priority="3"/>
   </conditionalFormatting>
@@ -35195,7 +35450,7 @@
   <conditionalFormatting sqref="A524">
     <cfRule type="duplicateValues" dxfId="2" priority="37"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A529:A659 A663:A1048576 A525:A527 A1:A245 A476:A488 A339:A468">
+  <conditionalFormatting sqref="A529:A659 A663:A1048576 A525:A527 A1:A245 A339:A468">
     <cfRule type="duplicateValues" dxfId="1" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A660:A662">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Project\Edit\DragonVerse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01ECD751-75CF-4383-8616-033B95B12021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD696BCA-3480-4FA5-B564-139E635C2228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3194" uniqueCount="2912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3203" uniqueCount="2921">
   <si>
     <t>Int</t>
   </si>
@@ -14420,6 +14420,42 @@
   </si>
   <si>
     <t>Task_taskName_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return_text_1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cancel</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出战斗将以失败结算奖励，确定要继续吗？</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exiting the battle will result in a loss and affect the reward settlement. Are you sure you want to exit?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return_text_2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return_text_3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -15051,8 +15087,8 @@
   <dimension ref="A1:AMJ1436"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C613" sqref="C613"/>
+      <pane ySplit="3" topLeftCell="A604" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D625" sqref="D625"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -32728,25 +32764,49 @@
       </c>
       <c r="E620" s="2"/>
     </row>
-    <row r="621" spans="1:5" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A621" s="4"/>
-      <c r="B621" s="2"/>
-      <c r="C621" s="6"/>
-      <c r="D621" s="39"/>
+    <row r="621" spans="1:5" s="22" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A621" s="7">
+        <v>20616</v>
+      </c>
+      <c r="B621" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C621" s="6" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D621" s="30" t="s">
+        <v>2917</v>
+      </c>
       <c r="E621" s="23"/>
     </row>
     <row r="622" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A622" s="4"/>
-      <c r="B622" s="2"/>
-      <c r="C622" s="31"/>
-      <c r="D622" s="31"/>
+      <c r="A622" s="7">
+        <v>20617</v>
+      </c>
+      <c r="B622" s="2" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C622" s="29" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D622" s="39" t="s">
+        <v>2913</v>
+      </c>
       <c r="E622" s="23"/>
     </row>
-    <row r="623" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="4"/>
-      <c r="B623" s="2"/>
-      <c r="C623" s="37"/>
-      <c r="D623" s="5"/>
+    <row r="623" spans="1:5" s="22" customFormat="1" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A623" s="7">
+        <v>20618</v>
+      </c>
+      <c r="B623" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C623" s="37" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D623" s="29" t="s">
+        <v>2914</v>
+      </c>
       <c r="E623" s="23"/>
     </row>
     <row r="624" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -36629,7 +36689,7 @@
     <row r="1436" ht="18.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="A621:A644 A648:A1048576 A1:A245 A339:A468">
+  <conditionalFormatting sqref="A624:A644 A648:A1048576 A1:A245 A339:A468">
     <cfRule type="duplicateValues" dxfId="1" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A645:A647">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20640" windowHeight="13571" tabRatio="500"/>
+    <workbookView windowHeight="17600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="3011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3299" uniqueCount="3014">
   <si>
     <t>Int</t>
   </si>
@@ -5212,6 +5212,15 @@
   </si>
   <si>
     <t>光兔子</t>
+  </si>
+  <si>
+    <t>Text_stageAlreadyUsed</t>
+  </si>
+  <si>
+    <t>Stage is alredy used</t>
+  </si>
+  <si>
+    <t>该舞台已经被占用</t>
   </si>
   <si>
     <t>keys</t>
@@ -14044,12 +14053,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -14086,11 +14095,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -14133,18 +14137,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -14653,19 +14645,31 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -14674,130 +14678,118 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -14842,7 +14834,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14851,7 +14843,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -14860,7 +14852,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -14875,13 +14867,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14893,16 +14885,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -14911,44 +14903,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -14960,63 +14952,63 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
     <cellStyle name="Excel Built-in Warning Text" xfId="49"/>
   </cellStyles>
   <dxfs count="1">
@@ -15287,12 +15279,12 @@
   <dimension ref="A1:L1435"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A624" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A637" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C657" sqref="C657"/>
+      <selection pane="bottomLeft" activeCell="B656" sqref="B656"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="18.875" style="7" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="6" customWidth="1"/>
@@ -15395,7 +15387,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" ht="17.4" spans="1:12">
+    <row r="5" ht="16.5" spans="1:12">
       <c r="A5" s="9"/>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
@@ -15674,7 +15666,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" ht="16.5" spans="1:12">
       <c r="A18" s="9">
         <v>20013</v>
       </c>
@@ -15740,7 +15732,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" ht="17.4" spans="1:12">
+    <row r="21" ht="16.5" spans="1:12">
       <c r="A21" s="9">
         <v>20016</v>
       </c>
@@ -15762,7 +15754,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" ht="17.4" spans="1:12">
+    <row r="22" ht="16.5" spans="1:12">
       <c r="A22" s="9">
         <v>20017</v>
       </c>
@@ -15784,7 +15776,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" ht="17.4" spans="1:12">
+    <row r="23" ht="16.5" spans="1:12">
       <c r="A23" s="9">
         <v>20018</v>
       </c>
@@ -15806,7 +15798,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" ht="17.4" spans="1:12">
+    <row r="24" ht="16.5" spans="1:12">
       <c r="A24" s="9">
         <v>20019</v>
       </c>
@@ -15828,7 +15820,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" ht="17.4" spans="1:12">
+    <row r="25" ht="16.5" spans="1:12">
       <c r="A25" s="9">
         <v>20020</v>
       </c>
@@ -15850,7 +15842,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" ht="17.4" spans="1:12">
+    <row r="26" ht="16.5" spans="1:12">
       <c r="A26" s="9">
         <v>20021</v>
       </c>
@@ -15872,7 +15864,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" ht="17.4" spans="1:12">
+    <row r="27" ht="16.5" spans="1:12">
       <c r="A27" s="9">
         <v>20022</v>
       </c>
@@ -15938,7 +15930,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" ht="17.4" spans="1:12">
+    <row r="30" ht="16.5" spans="1:12">
       <c r="A30" s="9">
         <v>20025</v>
       </c>
@@ -15960,7 +15952,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" ht="17.4" spans="1:12">
+    <row r="31" ht="16.5" spans="1:12">
       <c r="A31" s="9">
         <v>20026</v>
       </c>
@@ -15982,7 +15974,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" ht="17.4" spans="1:12">
+    <row r="32" ht="16.5" spans="1:12">
       <c r="A32" s="9">
         <v>20027</v>
       </c>
@@ -16004,7 +15996,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" ht="17.4" spans="1:12">
+    <row r="33" ht="16.5" spans="1:12">
       <c r="A33" s="9">
         <v>20028</v>
       </c>
@@ -16026,7 +16018,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" ht="17.4" spans="1:12">
+    <row r="34" ht="16.5" spans="1:12">
       <c r="A34" s="9">
         <v>20029</v>
       </c>
@@ -16048,7 +16040,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" ht="17.4" spans="1:12">
+    <row r="35" ht="16.5" spans="1:12">
       <c r="A35" s="9">
         <v>20030</v>
       </c>
@@ -16070,7 +16062,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" ht="17.4" spans="1:12">
+    <row r="36" ht="16.5" spans="1:12">
       <c r="A36" s="9">
         <v>20031</v>
       </c>
@@ -16092,7 +16084,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" ht="17.4" spans="1:12">
+    <row r="37" ht="16.5" spans="1:12">
       <c r="A37" s="9">
         <v>20032</v>
       </c>
@@ -16136,7 +16128,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" ht="17.4" spans="1:12">
+    <row r="39" ht="16.5" spans="1:12">
       <c r="A39" s="9">
         <v>20034</v>
       </c>
@@ -16158,7 +16150,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" ht="17.4" spans="1:12">
+    <row r="40" ht="16.5" spans="1:12">
       <c r="A40" s="9">
         <v>20035</v>
       </c>
@@ -16202,7 +16194,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" ht="16.5" spans="1:12">
       <c r="A42" s="9">
         <v>20037</v>
       </c>
@@ -16224,7 +16216,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" ht="16.5" spans="1:12">
       <c r="A43" s="9">
         <v>20038</v>
       </c>
@@ -17214,7 +17206,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" ht="16.35" spans="1:12">
+    <row r="88" ht="16.25" spans="1:12">
       <c r="A88" s="9">
         <v>20083</v>
       </c>
@@ -17236,7 +17228,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" ht="16.35" spans="1:12">
+    <row r="89" ht="16.25" spans="1:12">
       <c r="A89" s="9">
         <v>20084</v>
       </c>
@@ -17258,7 +17250,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" ht="16.35" spans="1:12">
+    <row r="90" ht="16.25" spans="1:12">
       <c r="A90" s="9">
         <v>20085</v>
       </c>
@@ -17808,7 +17800,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" ht="16.5" spans="1:12">
       <c r="A115" s="9">
         <v>20110</v>
       </c>
@@ -17830,7 +17822,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" ht="16.5" spans="1:12">
       <c r="A116" s="9">
         <v>20111</v>
       </c>
@@ -17852,7 +17844,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" ht="16.5" spans="1:12">
       <c r="A117" s="9">
         <v>20112</v>
       </c>
@@ -17874,7 +17866,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" ht="16.5" spans="1:12">
       <c r="A118" s="9">
         <v>20113</v>
       </c>
@@ -17896,7 +17888,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" ht="16.5" spans="1:12">
       <c r="A119" s="9">
         <v>20114</v>
       </c>
@@ -17918,7 +17910,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" ht="16.5" spans="1:12">
       <c r="A120" s="9">
         <v>20115</v>
       </c>
@@ -17940,7 +17932,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" ht="16.5" spans="1:12">
       <c r="A121" s="9">
         <v>20116</v>
       </c>
@@ -17962,7 +17954,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" ht="16.5" spans="1:12">
       <c r="A122" s="9">
         <v>20117</v>
       </c>
@@ -17984,7 +17976,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" ht="16.5" spans="1:12">
       <c r="A123" s="9">
         <v>20118</v>
       </c>
@@ -18006,7 +17998,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" ht="16.5" spans="1:12">
       <c r="A124" s="9">
         <v>20119</v>
       </c>
@@ -18028,7 +18020,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" ht="16.5" spans="1:12">
       <c r="A125" s="9">
         <v>20120</v>
       </c>
@@ -18050,7 +18042,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" ht="16.5" spans="1:12">
       <c r="A126" s="9">
         <v>20121</v>
       </c>
@@ -18072,7 +18064,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" ht="16.5" spans="1:12">
       <c r="A127" s="9">
         <v>20122</v>
       </c>
@@ -18094,7 +18086,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" ht="16.5" spans="1:12">
       <c r="A128" s="9">
         <v>20123</v>
       </c>
@@ -18116,7 +18108,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" ht="16.5" spans="1:12">
       <c r="A129" s="9">
         <v>20124</v>
       </c>
@@ -18138,7 +18130,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" ht="16.5" spans="1:12">
       <c r="A130" s="9">
         <v>20125</v>
       </c>
@@ -18160,7 +18152,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" ht="16.5" spans="1:12">
       <c r="A131" s="9">
         <v>20126</v>
       </c>
@@ -20206,7 +20198,7 @@
       <c r="K223" s="9"/>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" ht="16.35" spans="1:12">
+    <row r="224" ht="16.25" spans="1:12">
       <c r="A224" s="9">
         <v>20219</v>
       </c>
@@ -20228,7 +20220,7 @@
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" ht="16.35" spans="1:12">
+    <row r="225" ht="16.25" spans="1:12">
       <c r="A225" s="9">
         <v>20220</v>
       </c>
@@ -20250,7 +20242,7 @@
       <c r="K225" s="9"/>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" ht="16.35" spans="1:12">
+    <row r="226" ht="16.25" spans="1:12">
       <c r="A226" s="9">
         <v>20221</v>
       </c>
@@ -20272,7 +20264,7 @@
       <c r="K226" s="9"/>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" ht="16.35" spans="1:12">
+    <row r="227" ht="16.25" spans="1:12">
       <c r="A227" s="9">
         <v>20222</v>
       </c>
@@ -20294,7 +20286,7 @@
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" ht="16.35" spans="1:12">
+    <row r="228" ht="16.25" spans="1:12">
       <c r="A228" s="9">
         <v>20223</v>
       </c>
@@ -20316,7 +20308,7 @@
       <c r="K228" s="9"/>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" ht="16.35" spans="1:12">
+    <row r="229" ht="16.25" spans="1:12">
       <c r="A229" s="9">
         <v>20224</v>
       </c>
@@ -20338,7 +20330,7 @@
       <c r="K229" s="9"/>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" ht="16.35" spans="1:12">
+    <row r="230" ht="16.25" spans="1:12">
       <c r="A230" s="9">
         <v>20225</v>
       </c>
@@ -20360,7 +20352,7 @@
       <c r="K230" s="9"/>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" ht="16.35" spans="1:12">
+    <row r="231" ht="16.25" spans="1:12">
       <c r="A231" s="9">
         <v>20226</v>
       </c>
@@ -20626,7 +20618,7 @@
       <c r="K242" s="9"/>
       <c r="L242" s="9"/>
     </row>
-    <row r="243" ht="16.35" spans="1:12">
+    <row r="243" ht="16.25" spans="1:12">
       <c r="A243" s="9">
         <v>20238</v>
       </c>
@@ -20648,7 +20640,7 @@
       <c r="K243" s="9"/>
       <c r="L243" s="9"/>
     </row>
-    <row r="244" ht="16.35" spans="1:12">
+    <row r="244" ht="16.25" spans="1:12">
       <c r="A244" s="9">
         <v>20239</v>
       </c>
@@ -20670,7 +20662,7 @@
       <c r="K244" s="9"/>
       <c r="L244" s="9"/>
     </row>
-    <row r="245" ht="16.35" spans="1:12">
+    <row r="245" ht="16.25" spans="1:12">
       <c r="A245" s="9">
         <v>20240</v>
       </c>
@@ -21000,7 +20992,7 @@
       <c r="K259" s="9"/>
       <c r="L259" s="9"/>
     </row>
-    <row r="260" ht="16.35" spans="1:12">
+    <row r="260" ht="16.25" spans="1:12">
       <c r="A260" s="7">
         <v>20255</v>
       </c>
@@ -21022,7 +21014,7 @@
       <c r="K260" s="9"/>
       <c r="L260" s="9"/>
     </row>
-    <row r="261" ht="16.35" spans="1:12">
+    <row r="261" ht="16.25" spans="1:12">
       <c r="A261" s="7">
         <v>20256</v>
       </c>
@@ -21044,7 +21036,7 @@
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
     </row>
-    <row r="262" ht="16.35" spans="1:12">
+    <row r="262" ht="16.25" spans="1:12">
       <c r="A262" s="7">
         <v>20257</v>
       </c>
@@ -21066,7 +21058,7 @@
       <c r="K262" s="9"/>
       <c r="L262" s="9"/>
     </row>
-    <row r="263" ht="16.35" spans="1:12">
+    <row r="263" ht="16.25" spans="1:12">
       <c r="A263" s="7">
         <v>20258</v>
       </c>
@@ -21088,7 +21080,7 @@
       <c r="K263" s="9"/>
       <c r="L263" s="9"/>
     </row>
-    <row r="264" ht="16.35" spans="1:12">
+    <row r="264" ht="16.25" spans="1:12">
       <c r="A264" s="7">
         <v>20259</v>
       </c>
@@ -21110,7 +21102,7 @@
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
     </row>
-    <row r="265" ht="16.35" spans="1:12">
+    <row r="265" ht="16.25" spans="1:12">
       <c r="A265" s="7">
         <v>20260</v>
       </c>
@@ -21132,7 +21124,7 @@
       <c r="K265" s="9"/>
       <c r="L265" s="9"/>
     </row>
-    <row r="266" ht="16.35" spans="1:12">
+    <row r="266" ht="16.25" spans="1:12">
       <c r="A266" s="7">
         <v>20261</v>
       </c>
@@ -21154,7 +21146,7 @@
       <c r="K266" s="9"/>
       <c r="L266" s="9"/>
     </row>
-    <row r="267" ht="16.35" spans="1:12">
+    <row r="267" ht="16.25" spans="1:12">
       <c r="A267" s="7">
         <v>20262</v>
       </c>
@@ -21176,7 +21168,7 @@
       <c r="K267" s="9"/>
       <c r="L267" s="9"/>
     </row>
-    <row r="268" ht="16.35" spans="1:12">
+    <row r="268" ht="16.25" spans="1:12">
       <c r="A268" s="7">
         <v>20263</v>
       </c>
@@ -21198,7 +21190,7 @@
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" ht="16.35" spans="1:12">
+    <row r="269" ht="16.25" spans="1:12">
       <c r="A269" s="7">
         <v>20264</v>
       </c>
@@ -21220,7 +21212,7 @@
       <c r="K269" s="9"/>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" ht="16.35" spans="1:12">
+    <row r="270" ht="16.25" spans="1:12">
       <c r="A270" s="7">
         <v>20265</v>
       </c>
@@ -21242,7 +21234,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="9"/>
     </row>
-    <row r="271" ht="16.35" spans="1:12">
+    <row r="271" ht="16.25" spans="1:12">
       <c r="A271" s="7">
         <v>20266</v>
       </c>
@@ -21264,7 +21256,7 @@
       <c r="K271" s="9"/>
       <c r="L271" s="9"/>
     </row>
-    <row r="272" ht="16.35" spans="1:12">
+    <row r="272" ht="16.25" spans="1:12">
       <c r="A272" s="7">
         <v>20267</v>
       </c>
@@ -21286,7 +21278,7 @@
       <c r="K272" s="9"/>
       <c r="L272" s="9"/>
     </row>
-    <row r="273" ht="16.35" spans="1:12">
+    <row r="273" ht="16.25" spans="1:12">
       <c r="A273" s="7">
         <v>20268</v>
       </c>
@@ -21308,7 +21300,7 @@
       <c r="K273" s="9"/>
       <c r="L273" s="9"/>
     </row>
-    <row r="274" ht="16.35" spans="1:12">
+    <row r="274" ht="16.25" spans="1:12">
       <c r="A274" s="7">
         <v>20269</v>
       </c>
@@ -21330,7 +21322,7 @@
       <c r="K274" s="9"/>
       <c r="L274" s="9"/>
     </row>
-    <row r="275" ht="16.35" spans="1:12">
+    <row r="275" ht="16.25" spans="1:12">
       <c r="A275" s="7">
         <v>20270</v>
       </c>
@@ -21352,7 +21344,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="9"/>
     </row>
-    <row r="276" ht="16.35" spans="1:12">
+    <row r="276" ht="16.25" spans="1:12">
       <c r="A276" s="7">
         <v>20271</v>
       </c>
@@ -21374,7 +21366,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="9"/>
     </row>
-    <row r="277" ht="16.35" spans="1:12">
+    <row r="277" ht="16.25" spans="1:12">
       <c r="A277" s="7">
         <v>20272</v>
       </c>
@@ -21396,7 +21388,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="9"/>
     </row>
-    <row r="278" ht="16.35" spans="1:12">
+    <row r="278" ht="16.25" spans="1:12">
       <c r="A278" s="7">
         <v>20273</v>
       </c>
@@ -21418,7 +21410,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="9"/>
     </row>
-    <row r="279" ht="16.35" spans="1:12">
+    <row r="279" ht="16.25" spans="1:12">
       <c r="A279" s="7">
         <v>20274</v>
       </c>
@@ -21440,7 +21432,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="9"/>
     </row>
-    <row r="280" ht="16.35" spans="1:12">
+    <row r="280" ht="16.25" spans="1:12">
       <c r="A280" s="7">
         <v>20275</v>
       </c>
@@ -21462,7 +21454,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="9"/>
     </row>
-    <row r="281" ht="16.35" spans="1:12">
+    <row r="281" ht="16.25" spans="1:12">
       <c r="A281" s="7">
         <v>20276</v>
       </c>
@@ -21484,7 +21476,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="9"/>
     </row>
-    <row r="282" ht="16.35" spans="1:12">
+    <row r="282" ht="16.25" spans="1:12">
       <c r="A282" s="7">
         <v>20277</v>
       </c>
@@ -21506,7 +21498,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="9"/>
     </row>
-    <row r="283" ht="16.35" spans="1:12">
+    <row r="283" ht="16.25" spans="1:12">
       <c r="A283" s="7">
         <v>20278</v>
       </c>
@@ -21528,7 +21520,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="9"/>
     </row>
-    <row r="284" ht="16.35" spans="1:12">
+    <row r="284" ht="16.25" spans="1:12">
       <c r="A284" s="7">
         <v>20279</v>
       </c>
@@ -21550,7 +21542,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="9"/>
     </row>
-    <row r="285" ht="16.35" spans="1:12">
+    <row r="285" ht="16.25" spans="1:12">
       <c r="A285" s="7">
         <v>20280</v>
       </c>
@@ -21572,7 +21564,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="9"/>
     </row>
-    <row r="286" ht="16.35" spans="1:12">
+    <row r="286" ht="16.25" spans="1:12">
       <c r="A286" s="7">
         <v>20281</v>
       </c>
@@ -21594,7 +21586,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="9"/>
     </row>
-    <row r="287" ht="16.35" spans="1:12">
+    <row r="287" ht="16.25" spans="1:12">
       <c r="A287" s="7">
         <v>20282</v>
       </c>
@@ -21616,7 +21608,7 @@
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
     </row>
-    <row r="288" ht="16.35" spans="1:12">
+    <row r="288" ht="16.25" spans="1:12">
       <c r="A288" s="7">
         <v>20283</v>
       </c>
@@ -23036,7 +23028,7 @@
       <c r="E375" s="6"/>
       <c r="F375" s="9"/>
     </row>
-    <row r="376" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="376" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A376" s="7">
         <v>20371</v>
       </c>
@@ -23052,7 +23044,7 @@
       <c r="E376" s="6"/>
       <c r="F376" s="9"/>
     </row>
-    <row r="377" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="377" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A377" s="7">
         <v>20372</v>
       </c>
@@ -23068,7 +23060,7 @@
       <c r="E377" s="6"/>
       <c r="F377" s="9"/>
     </row>
-    <row r="378" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="378" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A378" s="7">
         <v>20373</v>
       </c>
@@ -23084,7 +23076,7 @@
       <c r="E378" s="6"/>
       <c r="F378" s="9"/>
     </row>
-    <row r="379" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="379" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A379" s="7">
         <v>20374</v>
       </c>
@@ -23100,7 +23092,7 @@
       <c r="E379" s="6"/>
       <c r="F379" s="9"/>
     </row>
-    <row r="380" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="380" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A380" s="7">
         <v>20375</v>
       </c>
@@ -23116,7 +23108,7 @@
       <c r="E380" s="6"/>
       <c r="F380" s="9"/>
     </row>
-    <row r="381" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="381" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A381" s="7">
         <v>20376</v>
       </c>
@@ -23132,7 +23124,7 @@
       <c r="E381" s="6"/>
       <c r="F381" s="9"/>
     </row>
-    <row r="382" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="382" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A382" s="7">
         <v>20377</v>
       </c>
@@ -23148,7 +23140,7 @@
       <c r="E382" s="6"/>
       <c r="F382" s="9"/>
     </row>
-    <row r="383" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="383" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A383" s="7">
         <v>20378</v>
       </c>
@@ -23164,7 +23156,7 @@
       <c r="E383" s="6"/>
       <c r="F383" s="9"/>
     </row>
-    <row r="384" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="384" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A384" s="7">
         <v>20379</v>
       </c>
@@ -23180,7 +23172,7 @@
       <c r="E384" s="6"/>
       <c r="F384" s="9"/>
     </row>
-    <row r="385" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="385" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A385" s="7">
         <v>20380</v>
       </c>
@@ -23196,7 +23188,7 @@
       <c r="E385" s="6"/>
       <c r="F385" s="9"/>
     </row>
-    <row r="386" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="386" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A386" s="7">
         <v>20381</v>
       </c>
@@ -23212,7 +23204,7 @@
       <c r="E386" s="6"/>
       <c r="F386" s="9"/>
     </row>
-    <row r="387" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="387" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A387" s="7">
         <v>20382</v>
       </c>
@@ -23228,7 +23220,7 @@
       <c r="E387" s="6"/>
       <c r="F387" s="9"/>
     </row>
-    <row r="388" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="388" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A388" s="7">
         <v>20383</v>
       </c>
@@ -23244,7 +23236,7 @@
       <c r="E388" s="6"/>
       <c r="F388" s="9"/>
     </row>
-    <row r="389" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="389" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A389" s="7">
         <v>20384</v>
       </c>
@@ -23260,7 +23252,7 @@
       <c r="E389" s="6"/>
       <c r="F389" s="9"/>
     </row>
-    <row r="390" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="390" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A390" s="7">
         <v>20385</v>
       </c>
@@ -23276,7 +23268,7 @@
       <c r="E390" s="6"/>
       <c r="F390" s="9"/>
     </row>
-    <row r="391" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="391" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A391" s="7">
         <v>20386</v>
       </c>
@@ -23292,7 +23284,7 @@
       <c r="E391" s="6"/>
       <c r="F391" s="9"/>
     </row>
-    <row r="392" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="392" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A392" s="7">
         <v>20387</v>
       </c>
@@ -23308,7 +23300,7 @@
       <c r="E392" s="6"/>
       <c r="F392" s="9"/>
     </row>
-    <row r="393" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="393" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A393" s="7">
         <v>20388</v>
       </c>
@@ -23740,7 +23732,7 @@
       <c r="E419" s="6"/>
       <c r="F419" s="9"/>
     </row>
-    <row r="420" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="420" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A420" s="7">
         <v>20415</v>
       </c>
@@ -23852,7 +23844,7 @@
       <c r="E426" s="6"/>
       <c r="F426" s="9"/>
     </row>
-    <row r="427" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="427" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A427" s="7">
         <v>20422</v>
       </c>
@@ -23932,7 +23924,7 @@
       <c r="E431" s="6"/>
       <c r="F431" s="9"/>
     </row>
-    <row r="432" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="432" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A432" s="7">
         <v>20427</v>
       </c>
@@ -23964,7 +23956,7 @@
       <c r="E433" s="6"/>
       <c r="F433" s="9"/>
     </row>
-    <row r="434" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="434" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A434" s="7">
         <v>20429</v>
       </c>
@@ -24028,7 +24020,7 @@
       <c r="E437" s="6"/>
       <c r="F437" s="9"/>
     </row>
-    <row r="438" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="438" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A438" s="7">
         <v>20433</v>
       </c>
@@ -24060,7 +24052,7 @@
       <c r="E439" s="6"/>
       <c r="F439" s="9"/>
     </row>
-    <row r="440" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="440" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A440" s="7">
         <v>20435</v>
       </c>
@@ -24076,7 +24068,7 @@
       <c r="E440" s="6"/>
       <c r="F440" s="9"/>
     </row>
-    <row r="441" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="441" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A441" s="7">
         <v>20436</v>
       </c>
@@ -24140,7 +24132,7 @@
       <c r="E444" s="6"/>
       <c r="F444" s="9"/>
     </row>
-    <row r="445" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="445" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A445" s="7">
         <v>20440</v>
       </c>
@@ -24188,7 +24180,7 @@
       <c r="E447" s="6"/>
       <c r="F447" s="9"/>
     </row>
-    <row r="448" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="448" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A448" s="7">
         <v>20443</v>
       </c>
@@ -24236,7 +24228,7 @@
       <c r="E450" s="6"/>
       <c r="F450" s="9"/>
     </row>
-    <row r="451" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="451" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A451" s="7">
         <v>20446</v>
       </c>
@@ -24252,7 +24244,7 @@
       <c r="E451" s="6"/>
       <c r="F451" s="9"/>
     </row>
-    <row r="452" s="5" customFormat="1" ht="31.2" spans="1:6">
+    <row r="452" s="5" customFormat="1" ht="31" spans="1:6">
       <c r="A452" s="7">
         <v>20447</v>
       </c>
@@ -24284,7 +24276,7 @@
       <c r="E453" s="6"/>
       <c r="F453" s="9"/>
     </row>
-    <row r="454" s="5" customFormat="1" ht="31.2" spans="1:6">
+    <row r="454" s="5" customFormat="1" ht="31" spans="1:6">
       <c r="A454" s="7">
         <v>20449</v>
       </c>
@@ -24316,7 +24308,7 @@
       <c r="E455" s="6"/>
       <c r="F455" s="9"/>
     </row>
-    <row r="456" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="456" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A456" s="7">
         <v>20451</v>
       </c>
@@ -24332,7 +24324,7 @@
       <c r="E456" s="6"/>
       <c r="F456" s="9"/>
     </row>
-    <row r="457" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="457" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A457" s="7">
         <v>20452</v>
       </c>
@@ -24364,7 +24356,7 @@
       <c r="E458" s="6"/>
       <c r="F458" s="9"/>
     </row>
-    <row r="459" s="5" customFormat="1" ht="31.2" spans="1:6">
+    <row r="459" s="5" customFormat="1" ht="31" spans="1:6">
       <c r="A459" s="7">
         <v>20454</v>
       </c>
@@ -24460,7 +24452,7 @@
       <c r="E464" s="6"/>
       <c r="F464" s="9"/>
     </row>
-    <row r="465" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="465" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A465" s="7">
         <v>20460</v>
       </c>
@@ -24476,7 +24468,7 @@
       <c r="E465" s="6"/>
       <c r="F465" s="9"/>
     </row>
-    <row r="466" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="466" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A466" s="7">
         <v>20461</v>
       </c>
@@ -24492,7 +24484,7 @@
       <c r="E466" s="6"/>
       <c r="F466" s="9"/>
     </row>
-    <row r="467" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="467" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A467" s="7">
         <v>20462</v>
       </c>
@@ -24508,7 +24500,7 @@
       <c r="E467" s="6"/>
       <c r="F467" s="9"/>
     </row>
-    <row r="468" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="468" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A468" s="7">
         <v>20463</v>
       </c>
@@ -25201,7 +25193,7 @@
       </c>
       <c r="F511" s="9"/>
     </row>
-    <row r="512" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="512" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A512" s="12">
         <v>20507</v>
       </c>
@@ -25216,7 +25208,7 @@
       </c>
       <c r="F512" s="9"/>
     </row>
-    <row r="513" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="513" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A513" s="12">
         <v>20508</v>
       </c>
@@ -25231,7 +25223,7 @@
       </c>
       <c r="F513" s="9"/>
     </row>
-    <row r="514" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="514" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A514" s="12">
         <v>20509</v>
       </c>
@@ -25246,7 +25238,7 @@
       </c>
       <c r="F514" s="9"/>
     </row>
-    <row r="515" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="515" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A515" s="12">
         <v>20510</v>
       </c>
@@ -25261,7 +25253,7 @@
       </c>
       <c r="F515" s="9"/>
     </row>
-    <row r="516" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="516" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A516" s="12">
         <v>20511</v>
       </c>
@@ -25637,7 +25629,7 @@
       <c r="E539" s="6"/>
       <c r="F539" s="9"/>
     </row>
-    <row r="540" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="540" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A540" s="12">
         <v>20535</v>
       </c>
@@ -25653,7 +25645,7 @@
       <c r="E540" s="6"/>
       <c r="F540" s="9"/>
     </row>
-    <row r="541" s="5" customFormat="1" ht="17.4" spans="1:6">
+    <row r="541" s="5" customFormat="1" ht="16.5" spans="1:6">
       <c r="A541" s="12">
         <v>20536</v>
       </c>
@@ -26379,7 +26371,7 @@
       </c>
       <c r="E587" s="29"/>
     </row>
-    <row r="588" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="588" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A588" s="12">
         <v>20583</v>
       </c>
@@ -26394,7 +26386,7 @@
       </c>
       <c r="E588" s="29"/>
     </row>
-    <row r="589" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="589" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A589" s="12">
         <v>20584</v>
       </c>
@@ -26409,7 +26401,7 @@
       </c>
       <c r="E589" s="29"/>
     </row>
-    <row r="590" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="590" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A590" s="12">
         <v>20585</v>
       </c>
@@ -26439,7 +26431,7 @@
       </c>
       <c r="E591" s="29"/>
     </row>
-    <row r="592" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="592" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A592" s="12">
         <v>20587</v>
       </c>
@@ -26454,7 +26446,7 @@
       </c>
       <c r="E592" s="29"/>
     </row>
-    <row r="593" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="593" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A593" s="12">
         <v>20588</v>
       </c>
@@ -26469,7 +26461,7 @@
       </c>
       <c r="E593" s="29"/>
     </row>
-    <row r="594" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="594" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A594" s="12">
         <v>20589</v>
       </c>
@@ -26484,7 +26476,7 @@
       </c>
       <c r="E594" s="29"/>
     </row>
-    <row r="595" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="595" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A595" s="12">
         <v>20590</v>
       </c>
@@ -26499,7 +26491,7 @@
       </c>
       <c r="E595" s="29"/>
     </row>
-    <row r="596" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="596" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A596" s="12">
         <v>20591</v>
       </c>
@@ -26514,7 +26506,7 @@
       </c>
       <c r="E596" s="29"/>
     </row>
-    <row r="597" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="597" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A597" s="12">
         <v>20592</v>
       </c>
@@ -26529,7 +26521,7 @@
       </c>
       <c r="E597" s="29"/>
     </row>
-    <row r="598" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="598" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A598" s="12">
         <v>20593</v>
       </c>
@@ -26544,7 +26536,7 @@
       </c>
       <c r="E598" s="29"/>
     </row>
-    <row r="599" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="599" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A599" s="12">
         <v>20594</v>
       </c>
@@ -26559,7 +26551,7 @@
       </c>
       <c r="E599" s="29"/>
     </row>
-    <row r="600" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="600" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A600" s="12">
         <v>20595</v>
       </c>
@@ -26574,7 +26566,7 @@
       </c>
       <c r="E600" s="29"/>
     </row>
-    <row r="601" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="601" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A601" s="12">
         <v>20596</v>
       </c>
@@ -26589,7 +26581,7 @@
       </c>
       <c r="E601" s="29"/>
     </row>
-    <row r="602" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="602" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A602" s="12">
         <v>20597</v>
       </c>
@@ -26604,7 +26596,7 @@
       </c>
       <c r="E602" s="29"/>
     </row>
-    <row r="603" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="603" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A603" s="12">
         <v>20598</v>
       </c>
@@ -26619,7 +26611,7 @@
       </c>
       <c r="E603" s="29"/>
     </row>
-    <row r="604" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="604" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A604" s="12">
         <v>20599</v>
       </c>
@@ -26634,7 +26626,7 @@
       </c>
       <c r="E604" s="29"/>
     </row>
-    <row r="605" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="605" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A605" s="12">
         <v>20600</v>
       </c>
@@ -26649,7 +26641,7 @@
       </c>
       <c r="E605" s="29"/>
     </row>
-    <row r="606" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="606" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A606" s="12">
         <v>20601</v>
       </c>
@@ -26679,7 +26671,7 @@
       </c>
       <c r="E607" s="6"/>
     </row>
-    <row r="608" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="608" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A608" s="12">
         <v>20603</v>
       </c>
@@ -26694,7 +26686,7 @@
       </c>
       <c r="E608" s="6"/>
     </row>
-    <row r="609" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="609" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A609" s="12">
         <v>20604</v>
       </c>
@@ -26709,7 +26701,7 @@
       </c>
       <c r="E609" s="6"/>
     </row>
-    <row r="610" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="610" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A610" s="12">
         <v>20605</v>
       </c>
@@ -26724,7 +26716,7 @@
       </c>
       <c r="E610" s="6"/>
     </row>
-    <row r="611" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="611" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A611" s="12">
         <v>20606</v>
       </c>
@@ -26739,7 +26731,7 @@
       </c>
       <c r="E611" s="6"/>
     </row>
-    <row r="612" s="5" customFormat="1" ht="17.4" spans="1:4">
+    <row r="612" s="5" customFormat="1" ht="16.5" spans="1:4">
       <c r="A612" s="12">
         <v>20607</v>
       </c>
@@ -26753,7 +26745,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="613" s="5" customFormat="1" ht="17.4" spans="1:4">
+    <row r="613" s="5" customFormat="1" ht="16.5" spans="1:4">
       <c r="A613" s="12">
         <v>20608</v>
       </c>
@@ -26767,7 +26759,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="614" s="5" customFormat="1" ht="17.4" spans="1:4">
+    <row r="614" s="5" customFormat="1" ht="16.5" spans="1:4">
       <c r="A614" s="12">
         <v>20609</v>
       </c>
@@ -26781,7 +26773,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="615" s="5" customFormat="1" ht="17.4" spans="1:4">
+    <row r="615" s="5" customFormat="1" ht="16.5" spans="1:4">
       <c r="A615" s="12">
         <v>20610</v>
       </c>
@@ -26795,7 +26787,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="616" s="5" customFormat="1" ht="17.4" spans="1:4">
+    <row r="616" s="5" customFormat="1" ht="16.5" spans="1:4">
       <c r="A616" s="12">
         <v>20611</v>
       </c>
@@ -26824,7 +26816,7 @@
       </c>
       <c r="E617" s="6"/>
     </row>
-    <row r="618" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="618" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A618" s="12">
         <v>20613</v>
       </c>
@@ -26839,7 +26831,7 @@
       </c>
       <c r="E618" s="6"/>
     </row>
-    <row r="619" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="619" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A619" s="12">
         <v>20614</v>
       </c>
@@ -26854,7 +26846,7 @@
       </c>
       <c r="E619" s="6"/>
     </row>
-    <row r="620" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="620" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A620" s="12">
         <v>20615</v>
       </c>
@@ -26869,7 +26861,7 @@
       </c>
       <c r="E620" s="6"/>
     </row>
-    <row r="621" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="621" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A621" s="12">
         <v>20616</v>
       </c>
@@ -26914,7 +26906,7 @@
       </c>
       <c r="E623" s="29"/>
     </row>
-    <row r="624" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="624" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A624" s="12">
         <v>20619</v>
       </c>
@@ -27004,7 +26996,7 @@
       </c>
       <c r="E629" s="29"/>
     </row>
-    <row r="630" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="630" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A630" s="12">
         <v>20625</v>
       </c>
@@ -27019,7 +27011,7 @@
       </c>
       <c r="E630" s="29"/>
     </row>
-    <row r="631" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="631" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A631" s="12">
         <v>20626</v>
       </c>
@@ -27034,7 +27026,7 @@
       </c>
       <c r="E631" s="29"/>
     </row>
-    <row r="632" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="632" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A632" s="12">
         <v>20627</v>
       </c>
@@ -27049,7 +27041,7 @@
       </c>
       <c r="E632" s="29"/>
     </row>
-    <row r="633" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="633" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A633" s="12">
         <v>20628</v>
       </c>
@@ -27064,7 +27056,7 @@
       </c>
       <c r="E633" s="29"/>
     </row>
-    <row r="634" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="634" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A634" s="12">
         <v>20629</v>
       </c>
@@ -27079,7 +27071,7 @@
       </c>
       <c r="E634" s="29"/>
     </row>
-    <row r="635" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="635" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A635" s="12">
         <v>20630</v>
       </c>
@@ -27094,7 +27086,7 @@
       </c>
       <c r="E635" s="29"/>
     </row>
-    <row r="636" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="636" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A636" s="12">
         <v>20631</v>
       </c>
@@ -27109,7 +27101,7 @@
       </c>
       <c r="E636" s="29"/>
     </row>
-    <row r="637" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="637" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A637" s="12">
         <v>20632</v>
       </c>
@@ -27124,7 +27116,7 @@
       </c>
       <c r="E637" s="29"/>
     </row>
-    <row r="638" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="638" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A638" s="12">
         <v>20633</v>
       </c>
@@ -27139,7 +27131,7 @@
       </c>
       <c r="E638" s="29"/>
     </row>
-    <row r="639" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="639" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A639" s="12">
         <v>20634</v>
       </c>
@@ -27154,7 +27146,7 @@
       </c>
       <c r="E639" s="29"/>
     </row>
-    <row r="640" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="640" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A640" s="12">
         <v>20635</v>
       </c>
@@ -27169,7 +27161,7 @@
       </c>
       <c r="E640" s="29"/>
     </row>
-    <row r="641" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="641" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A641" s="12">
         <v>20636</v>
       </c>
@@ -27184,7 +27176,7 @@
       </c>
       <c r="E641" s="29"/>
     </row>
-    <row r="642" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="642" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A642" s="12">
         <v>20637</v>
       </c>
@@ -27199,7 +27191,7 @@
       </c>
       <c r="E642" s="29"/>
     </row>
-    <row r="643" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="643" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A643" s="12">
         <v>20638</v>
       </c>
@@ -27214,7 +27206,7 @@
       </c>
       <c r="E643" s="29"/>
     </row>
-    <row r="644" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="644" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A644" s="12">
         <v>20639</v>
       </c>
@@ -27229,7 +27221,7 @@
       </c>
       <c r="E644" s="29"/>
     </row>
-    <row r="645" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="645" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A645" s="12">
         <v>20640</v>
       </c>
@@ -27244,7 +27236,7 @@
       </c>
       <c r="E645" s="29"/>
     </row>
-    <row r="646" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="646" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A646" s="12">
         <v>20641</v>
       </c>
@@ -27259,7 +27251,7 @@
       </c>
       <c r="E646" s="29"/>
     </row>
-    <row r="647" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="647" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A647" s="12">
         <v>20642</v>
       </c>
@@ -27274,7 +27266,7 @@
       </c>
       <c r="E647" s="29"/>
     </row>
-    <row r="648" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="648" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A648" s="12">
         <v>20643</v>
       </c>
@@ -27289,7 +27281,7 @@
       </c>
       <c r="E648" s="29"/>
     </row>
-    <row r="649" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="649" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A649" s="12">
         <v>20644</v>
       </c>
@@ -27304,7 +27296,7 @@
       </c>
       <c r="E649" s="29"/>
     </row>
-    <row r="650" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="650" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A650" s="12">
         <v>20645</v>
       </c>
@@ -27319,7 +27311,7 @@
       </c>
       <c r="E650" s="29"/>
     </row>
-    <row r="651" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="651" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A651" s="12">
         <v>20646</v>
       </c>
@@ -27334,7 +27326,7 @@
       </c>
       <c r="E651" s="29"/>
     </row>
-    <row r="652" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="652" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A652" s="12">
         <v>20647</v>
       </c>
@@ -27349,7 +27341,7 @@
       </c>
       <c r="E652" s="29"/>
     </row>
-    <row r="653" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="653" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A653" s="12">
         <v>20648</v>
       </c>
@@ -27364,7 +27356,7 @@
       </c>
       <c r="E653" s="29"/>
     </row>
-    <row r="654" s="5" customFormat="1" ht="16.35" spans="1:5">
+    <row r="654" s="5" customFormat="1" ht="16.25" spans="1:5">
       <c r="A654" s="12">
         <v>20649</v>
       </c>
@@ -27380,10 +27372,18 @@
       <c r="E654" s="29"/>
     </row>
     <row r="655" s="5" customFormat="1" spans="1:5">
-      <c r="A655" s="9"/>
-      <c r="B655" s="6"/>
-      <c r="C655" s="41"/>
-      <c r="D655" s="41"/>
+      <c r="A655" s="12">
+        <v>20650</v>
+      </c>
+      <c r="B655" s="6" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C655" s="41" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D655" s="41" t="s">
+        <v>1730</v>
+      </c>
       <c r="E655" s="29"/>
     </row>
     <row r="656" s="5" customFormat="1" spans="1:5">
@@ -27449,42 +27449,42 @@
       <c r="D664" s="41"/>
       <c r="E664" s="29"/>
     </row>
-    <row r="665" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="665" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A665" s="9"/>
       <c r="B665" s="6"/>
       <c r="C665" s="11"/>
       <c r="D665" s="41"/>
       <c r="E665" s="29"/>
     </row>
-    <row r="666" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="666" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A666" s="9"/>
       <c r="B666" s="6"/>
       <c r="C666" s="11"/>
       <c r="D666" s="41"/>
       <c r="E666" s="29"/>
     </row>
-    <row r="667" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="667" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A667" s="9"/>
       <c r="B667" s="6"/>
       <c r="C667" s="11"/>
       <c r="D667" s="41"/>
       <c r="E667" s="29"/>
     </row>
-    <row r="668" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="668" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A668" s="9"/>
       <c r="B668" s="6"/>
       <c r="C668" s="11"/>
       <c r="D668" s="41"/>
       <c r="E668" s="29"/>
     </row>
-    <row r="669" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="669" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A669" s="9"/>
       <c r="B669" s="6"/>
       <c r="C669" s="11"/>
       <c r="D669" s="10"/>
       <c r="E669" s="29"/>
     </row>
-    <row r="670" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="670" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A670" s="9"/>
       <c r="B670" s="6"/>
       <c r="C670" s="11"/>
@@ -27498,77 +27498,77 @@
       <c r="D671" s="10"/>
       <c r="E671" s="29"/>
     </row>
-    <row r="672" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="672" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A672" s="9"/>
       <c r="B672" s="6"/>
       <c r="C672" s="11"/>
       <c r="D672" s="10"/>
       <c r="E672" s="29"/>
     </row>
-    <row r="673" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="673" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A673" s="9"/>
       <c r="B673" s="6"/>
       <c r="C673" s="11"/>
       <c r="D673" s="41"/>
       <c r="E673" s="29"/>
     </row>
-    <row r="674" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="674" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A674" s="9"/>
       <c r="B674" s="6"/>
       <c r="C674" s="11"/>
       <c r="D674" s="10"/>
       <c r="E674" s="29"/>
     </row>
-    <row r="675" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="675" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A675" s="9"/>
       <c r="B675" s="6"/>
       <c r="C675" s="11"/>
       <c r="D675" s="10"/>
       <c r="E675" s="29"/>
     </row>
-    <row r="676" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="676" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A676" s="9"/>
       <c r="B676" s="6"/>
       <c r="C676" s="11"/>
       <c r="D676" s="41"/>
       <c r="E676" s="29"/>
     </row>
-    <row r="677" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="677" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A677" s="9"/>
       <c r="B677" s="6"/>
       <c r="C677" s="11"/>
       <c r="D677" s="41"/>
       <c r="E677" s="29"/>
     </row>
-    <row r="678" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="678" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A678" s="9"/>
       <c r="B678" s="6"/>
       <c r="C678" s="11"/>
       <c r="D678" s="41"/>
       <c r="E678" s="29"/>
     </row>
-    <row r="679" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="679" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A679" s="9"/>
       <c r="B679" s="6"/>
       <c r="C679" s="11"/>
       <c r="D679" s="41"/>
       <c r="E679" s="6"/>
     </row>
-    <row r="680" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="680" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A680" s="9"/>
       <c r="B680" s="6"/>
       <c r="C680" s="11"/>
       <c r="D680" s="41"/>
       <c r="E680" s="6"/>
     </row>
-    <row r="681" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="681" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A681" s="9"/>
       <c r="B681" s="6"/>
       <c r="C681" s="11"/>
       <c r="D681" s="14"/>
       <c r="E681" s="6"/>
     </row>
-    <row r="682" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="682" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A682" s="9"/>
       <c r="B682" s="6"/>
       <c r="C682" s="11"/>
@@ -27603,49 +27603,49 @@
       <c r="D686" s="14"/>
       <c r="E686" s="29"/>
     </row>
-    <row r="687" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="687" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A687" s="9"/>
       <c r="B687" s="6"/>
       <c r="C687" s="11"/>
       <c r="D687" s="14"/>
       <c r="E687" s="29"/>
     </row>
-    <row r="688" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="688" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A688" s="9"/>
       <c r="B688" s="6"/>
       <c r="C688" s="11"/>
       <c r="D688" s="14"/>
       <c r="E688" s="29"/>
     </row>
-    <row r="689" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="689" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A689" s="9"/>
       <c r="B689" s="6"/>
       <c r="C689" s="11"/>
       <c r="D689" s="14"/>
       <c r="E689" s="29"/>
     </row>
-    <row r="690" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="690" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A690" s="9"/>
       <c r="B690" s="6"/>
       <c r="C690" s="11"/>
       <c r="D690" s="14"/>
       <c r="E690" s="29"/>
     </row>
-    <row r="691" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="691" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A691" s="9"/>
       <c r="B691" s="6"/>
       <c r="C691" s="11"/>
       <c r="D691" s="14"/>
       <c r="E691" s="29"/>
     </row>
-    <row r="692" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="692" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A692" s="9"/>
       <c r="B692" s="6"/>
       <c r="C692" s="11"/>
       <c r="D692" s="14"/>
       <c r="E692" s="29"/>
     </row>
-    <row r="693" ht="17.4" spans="1:4">
+    <row r="693" ht="16.5" spans="1:4">
       <c r="A693" s="9"/>
       <c r="C693" s="11"/>
       <c r="D693" s="14"/>
@@ -27657,42 +27657,42 @@
       <c r="D694" s="14"/>
       <c r="E694" s="29"/>
     </row>
-    <row r="695" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="695" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A695" s="9"/>
       <c r="B695" s="6"/>
       <c r="C695" s="11"/>
       <c r="D695" s="17"/>
       <c r="E695" s="29"/>
     </row>
-    <row r="696" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="696" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A696" s="9"/>
       <c r="B696" s="6"/>
       <c r="C696" s="11"/>
       <c r="D696" s="17"/>
       <c r="E696" s="29"/>
     </row>
-    <row r="697" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="697" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A697" s="9"/>
       <c r="B697" s="6"/>
       <c r="C697" s="11"/>
       <c r="D697" s="17"/>
       <c r="E697" s="29"/>
     </row>
-    <row r="698" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="698" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A698" s="9"/>
       <c r="B698" s="6"/>
       <c r="C698" s="11"/>
       <c r="D698" s="17"/>
       <c r="E698" s="6"/>
     </row>
-    <row r="699" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="699" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A699" s="9"/>
       <c r="B699" s="6"/>
       <c r="C699" s="11"/>
       <c r="D699" s="17"/>
       <c r="E699" s="6"/>
     </row>
-    <row r="700" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="700" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A700" s="9"/>
       <c r="B700" s="6"/>
       <c r="C700" s="11"/>
@@ -27706,35 +27706,35 @@
       <c r="D701" s="10"/>
       <c r="E701" s="6"/>
     </row>
-    <row r="702" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="702" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A702" s="9"/>
       <c r="B702" s="6"/>
       <c r="C702" s="11"/>
       <c r="D702" s="25"/>
       <c r="E702" s="6"/>
     </row>
-    <row r="703" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="703" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A703" s="9"/>
       <c r="B703" s="6"/>
       <c r="C703" s="11"/>
       <c r="D703" s="25"/>
       <c r="E703" s="6"/>
     </row>
-    <row r="704" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="704" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A704" s="9"/>
       <c r="B704" s="6"/>
       <c r="C704" s="11"/>
       <c r="D704" s="25"/>
       <c r="E704" s="6"/>
     </row>
-    <row r="705" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="705" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A705" s="9"/>
       <c r="B705" s="6"/>
       <c r="C705" s="11"/>
       <c r="D705" s="25"/>
       <c r="E705" s="6"/>
     </row>
-    <row r="706" s="5" customFormat="1" ht="17.4" spans="1:5">
+    <row r="706" s="5" customFormat="1" ht="16.5" spans="1:5">
       <c r="A706" s="9"/>
       <c r="B706" s="6"/>
       <c r="C706" s="11"/>
@@ -31055,7 +31055,7 @@
       <selection activeCell="P420" sqref="P420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
@@ -31064,57 +31064,57 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1635</v>
@@ -31125,7 +31125,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1632</v>
@@ -31136,260 +31136,260 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1784</v>
+        <v>1787</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1785</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>1786</v>
+        <v>1789</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1787</v>
+        <v>1790</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1788</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>1789</v>
+        <v>1792</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1790</v>
+        <v>1793</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1791</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>1792</v>
+        <v>1795</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1793</v>
+        <v>1796</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1794</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>1795</v>
+        <v>1798</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1796</v>
+        <v>1799</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1797</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>1798</v>
+        <v>1801</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1799</v>
+        <v>1802</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1800</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>1801</v>
+        <v>1804</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1802</v>
+        <v>1805</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>1804</v>
+        <v>1807</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>1805</v>
+        <v>1808</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1806</v>
+        <v>1809</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1807</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>1808</v>
+        <v>1811</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1809</v>
+        <v>1812</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1810</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>1811</v>
+        <v>1814</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>56</v>
@@ -31400,7 +31400,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>1812</v>
+        <v>1815</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>53</v>
@@ -31411,18 +31411,18 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>1813</v>
+        <v>1816</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1814</v>
+        <v>1817</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1815</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>1816</v>
+        <v>1819</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>543</v>
@@ -31433,1297 +31433,1297 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>1817</v>
+        <v>1820</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>1818</v>
+        <v>1821</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>1819</v>
+        <v>1822</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>1820</v>
+        <v>1823</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1821</v>
+        <v>1824</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1822</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>1823</v>
+        <v>1826</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1824</v>
+        <v>1827</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1825</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>1826</v>
+        <v>1829</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1827</v>
+        <v>1830</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1828</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>1829</v>
+        <v>1832</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1831</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>1832</v>
+        <v>1835</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1835</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>1836</v>
+        <v>1839</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>1837</v>
+        <v>1840</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1838</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>1839</v>
+        <v>1842</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>1840</v>
+        <v>1843</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1841</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>1842</v>
+        <v>1845</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>1843</v>
+        <v>1846</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1844</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>1845</v>
+        <v>1848</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>1846</v>
+        <v>1849</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1847</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>1848</v>
+        <v>1851</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1850</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>1851</v>
+        <v>1854</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1853</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>1854</v>
+        <v>1857</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>1855</v>
+        <v>1858</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1856</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>1857</v>
+        <v>1860</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>1858</v>
+        <v>1861</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1859</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>1860</v>
+        <v>1863</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>1861</v>
+        <v>1864</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1862</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>1863</v>
+        <v>1866</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1864</v>
+        <v>1867</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1865</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>1866</v>
+        <v>1869</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>1867</v>
+        <v>1870</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1868</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>1869</v>
+        <v>1872</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>1870</v>
+        <v>1873</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1871</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>1872</v>
+        <v>1875</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>1873</v>
+        <v>1876</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1874</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>1875</v>
+        <v>1878</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>1876</v>
+        <v>1879</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1877</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>1878</v>
+        <v>1881</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>1879</v>
+        <v>1882</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1880</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>1881</v>
+        <v>1884</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>1882</v>
+        <v>1885</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1883</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>1884</v>
+        <v>1887</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>1885</v>
+        <v>1888</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1886</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>1888</v>
+        <v>1891</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1889</v>
+        <v>1892</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>1890</v>
+        <v>1893</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>1891</v>
+        <v>1894</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1892</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>1893</v>
+        <v>1896</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>1894</v>
+        <v>1897</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1895</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>1897</v>
+        <v>1900</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1898</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>1899</v>
+        <v>1902</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>1902</v>
+        <v>1905</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1903</v>
+        <v>1906</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1904</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>1905</v>
+        <v>1908</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1906</v>
+        <v>1909</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1907</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1910</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>1911</v>
+        <v>1914</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1912</v>
+        <v>1915</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1913</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>1914</v>
+        <v>1917</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1915</v>
+        <v>1918</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1916</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>1917</v>
+        <v>1920</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>1918</v>
+        <v>1921</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1919</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1921</v>
+        <v>1924</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1922</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1928</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1930</v>
+        <v>1933</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>1931</v>
+        <v>1934</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>1932</v>
+        <v>1935</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1933</v>
+        <v>1936</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>1934</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>1935</v>
+        <v>1938</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1936</v>
+        <v>1939</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>1937</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>1939</v>
+        <v>1942</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>1941</v>
+        <v>1944</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1942</v>
+        <v>1945</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1945</v>
+        <v>1948</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>1946</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>1947</v>
+        <v>1950</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1948</v>
+        <v>1951</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>1949</v>
+        <v>1952</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>1950</v>
+        <v>1953</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1951</v>
+        <v>1954</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>1952</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>1953</v>
+        <v>1956</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1954</v>
+        <v>1957</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>1955</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>1956</v>
+        <v>1959</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>1957</v>
+        <v>1960</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1958</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>1959</v>
+        <v>1962</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1960</v>
+        <v>1963</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1961</v>
+        <v>1964</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>1962</v>
+        <v>1965</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1963</v>
+        <v>1966</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>1964</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>1965</v>
+        <v>1968</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1966</v>
+        <v>1969</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>1967</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>1968</v>
+        <v>1971</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>1970</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1973</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>1976</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>1977</v>
+        <v>1980</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1978</v>
+        <v>1981</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1979</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>1980</v>
+        <v>1983</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1981</v>
+        <v>1984</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>1982</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>1983</v>
+        <v>1986</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1984</v>
+        <v>1987</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>1985</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>1986</v>
+        <v>1989</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1987</v>
+        <v>1990</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>1988</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>1991</v>
+        <v>1994</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>1992</v>
+        <v>1995</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1993</v>
+        <v>1996</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1994</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>1995</v>
+        <v>1998</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1996</v>
+        <v>1999</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1997</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>1998</v>
+        <v>2001</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1999</v>
+        <v>2002</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>2000</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>2003</v>
+        <v>2006</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>2004</v>
+        <v>2007</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>2005</v>
+        <v>2008</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>2006</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>2008</v>
+        <v>2011</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>2009</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>2010</v>
+        <v>2013</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>2012</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>2016</v>
+        <v>2019</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>2021</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>2023</v>
+        <v>2026</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>2024</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>2025</v>
+        <v>2028</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>2026</v>
+        <v>2029</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>2027</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>2028</v>
+        <v>2031</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>2029</v>
+        <v>2032</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>2030</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>2031</v>
+        <v>2034</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>2032</v>
+        <v>2035</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>2033</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>2034</v>
+        <v>2037</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>2036</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>2038</v>
+        <v>2041</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>2039</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>2040</v>
+        <v>2043</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>2041</v>
+        <v>2044</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>2042</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>2043</v>
+        <v>2046</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>2044</v>
+        <v>2047</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>2045</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>2047</v>
+        <v>2050</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>2048</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>2050</v>
+        <v>2053</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>2051</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>2052</v>
+        <v>2055</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>2053</v>
+        <v>2056</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>2054</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>2055</v>
+        <v>2058</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>2056</v>
+        <v>2059</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2057</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>2058</v>
+        <v>2061</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>2060</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>2061</v>
+        <v>2064</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>2062</v>
+        <v>2065</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>2063</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>2064</v>
+        <v>2067</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2065</v>
+        <v>2068</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>2066</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>2067</v>
+        <v>2070</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>2070</v>
+        <v>2073</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>2072</v>
+        <v>2075</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>2073</v>
+        <v>2076</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>2075</v>
+        <v>2078</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>2076</v>
+        <v>2079</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>2079</v>
+        <v>2082</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>2077</v>
+        <v>2080</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>2078</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>2080</v>
+        <v>2083</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>2081</v>
+        <v>2084</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2082</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>2083</v>
+        <v>2086</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>1833</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>2084</v>
+        <v>2087</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2068</v>
+        <v>2071</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>2069</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
-        <v>2085</v>
+        <v>2088</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>2086</v>
+        <v>2089</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>2087</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>2088</v>
+        <v>2091</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2089</v>
+        <v>2092</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>2090</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>2091</v>
+        <v>2094</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>2092</v>
+        <v>2095</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2093</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>2094</v>
+        <v>2097</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2095</v>
+        <v>2098</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>2096</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
-        <v>2097</v>
+        <v>2100</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>2098</v>
+        <v>2101</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>2099</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>2100</v>
+        <v>2103</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>2101</v>
+        <v>2104</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>2102</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
-        <v>2103</v>
+        <v>2106</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>2071</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>2104</v>
+        <v>2107</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>2105</v>
+        <v>2108</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>2106</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
-        <v>2107</v>
+        <v>2110</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>2108</v>
+        <v>2111</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>2109</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>2111</v>
+        <v>2114</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>2112</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>2113</v>
+        <v>2116</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>2114</v>
+        <v>2117</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2115</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>2116</v>
+        <v>2119</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2117</v>
+        <v>2120</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2118</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>2119</v>
+        <v>2122</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>2120</v>
+        <v>2123</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2121</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>2122</v>
+        <v>2125</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>2123</v>
+        <v>2126</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2124</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>2125</v>
+        <v>2128</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>2126</v>
+        <v>2129</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2127</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>2128</v>
+        <v>2131</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>2129</v>
+        <v>2132</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2130</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>2131</v>
+        <v>2134</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2132</v>
+        <v>2135</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2133</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>2134</v>
+        <v>2137</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>2135</v>
+        <v>2138</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2136</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
-        <v>2137</v>
+        <v>2140</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>2138</v>
+        <v>2141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2139</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>2140</v>
+        <v>2143</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>2141</v>
+        <v>2144</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2142</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
-        <v>2143</v>
+        <v>2146</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2145</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>2146</v>
+        <v>2149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>2147</v>
+        <v>2150</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>270</v>
@@ -32731,318 +32731,318 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
-        <v>2148</v>
+        <v>2151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2149</v>
+        <v>2152</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>2150</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
-        <v>2151</v>
+        <v>2154</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2152</v>
+        <v>2155</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>2153</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
-        <v>2154</v>
+        <v>2157</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2155</v>
+        <v>2158</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>2156</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
-        <v>2157</v>
+        <v>2160</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2158</v>
+        <v>2161</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2159</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
-        <v>2160</v>
+        <v>2163</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>2161</v>
+        <v>2164</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>2162</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>2163</v>
+        <v>2166</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>2164</v>
+        <v>2167</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>2165</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
-        <v>2166</v>
+        <v>2169</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>2167</v>
+        <v>2170</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2168</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>2169</v>
+        <v>2172</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>2170</v>
+        <v>2173</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>2171</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
-        <v>2172</v>
+        <v>2175</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>2173</v>
+        <v>2176</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>2174</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
-        <v>2175</v>
+        <v>2178</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>2176</v>
+        <v>2179</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>2177</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>2178</v>
+        <v>2181</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>2179</v>
+        <v>2182</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>2180</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>2181</v>
+        <v>2184</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>2182</v>
+        <v>2185</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>2183</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>2184</v>
+        <v>2187</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>2185</v>
+        <v>2188</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>2186</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>2187</v>
+        <v>2190</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>2188</v>
+        <v>2191</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>2189</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
-        <v>2190</v>
+        <v>2193</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2191</v>
+        <v>2194</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>2192</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
-        <v>2193</v>
+        <v>2196</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2194</v>
+        <v>2197</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>2195</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>2196</v>
+        <v>2199</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>2197</v>
+        <v>2200</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>2198</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>2199</v>
+        <v>2202</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>2200</v>
+        <v>2203</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>2201</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>2203</v>
+        <v>2206</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>2204</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>2205</v>
+        <v>2208</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2206</v>
+        <v>2209</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>2207</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
-        <v>2208</v>
+        <v>2211</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>2209</v>
+        <v>2212</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>2210</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>2211</v>
+        <v>2214</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>2212</v>
+        <v>2215</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>2213</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>2214</v>
+        <v>2217</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>2215</v>
+        <v>2218</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>2216</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
-        <v>2217</v>
+        <v>2220</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>2218</v>
+        <v>2221</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>2219</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>2220</v>
+        <v>2223</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>2221</v>
+        <v>2224</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>2222</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>2223</v>
+        <v>2226</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>2224</v>
+        <v>2227</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>2225</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>2226</v>
+        <v>2229</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>2227</v>
+        <v>2230</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>2228</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>2229</v>
+        <v>2232</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>2230</v>
+        <v>2233</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>2231</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>2233</v>
+        <v>2236</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>699</v>
@@ -33050,2895 +33050,2895 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>1901</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>2236</v>
+        <v>2239</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>2237</v>
+        <v>2240</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>2238</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>2240</v>
+        <v>2243</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>2241</v>
+        <v>2244</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>2242</v>
+        <v>2245</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>2243</v>
+        <v>2246</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>2244</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>2245</v>
+        <v>2248</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>2246</v>
+        <v>2249</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>2247</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>2248</v>
+        <v>2251</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>2249</v>
+        <v>2252</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>2250</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>2251</v>
+        <v>2254</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>2252</v>
+        <v>2255</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>2253</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>2254</v>
+        <v>2257</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>2255</v>
+        <v>2258</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>2256</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>2258</v>
+        <v>2261</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>2259</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>2260</v>
+        <v>2263</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>528</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>2261</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>2262</v>
+        <v>2265</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>2263</v>
+        <v>2266</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>2264</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>2265</v>
+        <v>2268</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>2266</v>
+        <v>2269</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>2267</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>2268</v>
+        <v>2271</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>2269</v>
+        <v>2272</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>2270</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>2271</v>
+        <v>2274</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>2272</v>
+        <v>2275</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>2273</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>2274</v>
+        <v>2277</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>2276</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>2279</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>2280</v>
+        <v>2283</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>2281</v>
+        <v>2284</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>2282</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>2283</v>
+        <v>2286</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>2284</v>
+        <v>2287</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>2285</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>2287</v>
+        <v>2290</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>2288</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>2289</v>
+        <v>2292</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>2290</v>
+        <v>2293</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2291</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>2292</v>
+        <v>2295</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>2293</v>
+        <v>2296</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>2294</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>2295</v>
+        <v>2298</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>2296</v>
+        <v>2299</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>2297</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>2298</v>
+        <v>2301</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>2299</v>
+        <v>2302</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>2300</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>2301</v>
+        <v>2304</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>2302</v>
+        <v>2305</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>2303</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>2304</v>
+        <v>2307</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>2305</v>
+        <v>2308</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>2306</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>2307</v>
+        <v>2310</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>2308</v>
+        <v>2311</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>2309</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
-        <v>2310</v>
+        <v>2313</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>2311</v>
+        <v>2314</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>2312</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>2313</v>
+        <v>2316</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>2314</v>
+        <v>2317</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>2315</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
-        <v>2316</v>
+        <v>2319</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>2317</v>
+        <v>2320</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>2318</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
-        <v>2319</v>
+        <v>2322</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>2320</v>
+        <v>2323</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>2321</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>2322</v>
+        <v>2325</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>2323</v>
+        <v>2326</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>2324</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>2325</v>
+        <v>2328</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>2326</v>
+        <v>2329</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>2327</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
-        <v>2328</v>
+        <v>2331</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>2329</v>
+        <v>2332</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>2330</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
-        <v>2331</v>
+        <v>2334</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>2332</v>
+        <v>2335</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>2333</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>2334</v>
+        <v>2337</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>2335</v>
+        <v>2338</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>2336</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
-        <v>2337</v>
+        <v>2340</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>2338</v>
+        <v>2341</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>2339</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2342</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>2343</v>
+        <v>2346</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>2344</v>
+        <v>2347</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>2345</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
-        <v>2346</v>
+        <v>2349</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>2347</v>
+        <v>2350</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>2348</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
-        <v>2349</v>
+        <v>2352</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>2350</v>
+        <v>2353</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>2351</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>2352</v>
+        <v>2355</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>2353</v>
+        <v>2356</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>2354</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
-        <v>2355</v>
+        <v>2358</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>2356</v>
+        <v>2359</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>2357</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
-        <v>2358</v>
+        <v>2361</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>2359</v>
+        <v>2362</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>2360</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>2361</v>
+        <v>2364</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2362</v>
+        <v>2365</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>2363</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
-        <v>2364</v>
+        <v>2367</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2365</v>
+        <v>2368</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>2366</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>2367</v>
+        <v>2370</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>2368</v>
+        <v>2371</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>2369</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
-        <v>2370</v>
+        <v>2373</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2371</v>
+        <v>2374</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>2372</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>2373</v>
+        <v>2376</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2374</v>
+        <v>2377</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>2375</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>2377</v>
+        <v>2380</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>2378</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
-        <v>2379</v>
+        <v>2382</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>2380</v>
+        <v>2383</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>2381</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>2383</v>
+        <v>2386</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>2384</v>
+        <v>2387</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>2385</v>
+        <v>2388</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>2386</v>
+        <v>2389</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>2387</v>
+        <v>2390</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>2388</v>
+        <v>2391</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>2389</v>
+        <v>2392</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>2390</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>2391</v>
+        <v>2394</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>2392</v>
+        <v>2395</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2393</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
-        <v>2394</v>
+        <v>2397</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>2395</v>
+        <v>2398</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>2396</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>2397</v>
+        <v>2400</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>2398</v>
+        <v>2401</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>2399</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>2400</v>
+        <v>2403</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2401</v>
+        <v>2404</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2402</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>2403</v>
+        <v>2406</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2404</v>
+        <v>2407</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>2405</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
-        <v>2406</v>
+        <v>2409</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2407</v>
+        <v>2410</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2408</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>2409</v>
+        <v>2412</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2410</v>
+        <v>2413</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>2411</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2" t="s">
-        <v>2412</v>
+        <v>2415</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2416</v>
+        <v>2419</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2417</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
-        <v>2418</v>
+        <v>2421</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2419</v>
+        <v>2422</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>2420</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
-        <v>2421</v>
+        <v>2424</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2422</v>
+        <v>2425</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>2423</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2425</v>
+        <v>2428</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2426</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
-        <v>2427</v>
+        <v>2430</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2428</v>
+        <v>2431</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2429</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
-        <v>2430</v>
+        <v>2433</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2431</v>
+        <v>2434</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>2432</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2" t="s">
-        <v>2433</v>
+        <v>2436</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>2435</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
-        <v>2436</v>
+        <v>2439</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2437</v>
+        <v>2440</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>2438</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
-        <v>2439</v>
+        <v>2442</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2440</v>
+        <v>2443</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>2441</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
-        <v>2442</v>
+        <v>2445</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2443</v>
+        <v>2446</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>2444</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2" t="s">
-        <v>2445</v>
+        <v>2448</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2446</v>
+        <v>2449</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>2447</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
-        <v>2448</v>
+        <v>2451</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2449</v>
+        <v>2452</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>2450</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="2" t="s">
-        <v>2451</v>
+        <v>2454</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2452</v>
+        <v>2455</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>2453</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
-        <v>2454</v>
+        <v>2457</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2455</v>
+        <v>2458</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>2456</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
-        <v>2457</v>
+        <v>2460</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2458</v>
+        <v>2461</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>2459</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
-        <v>2460</v>
+        <v>2463</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>2462</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
-        <v>2463</v>
+        <v>2466</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2464</v>
+        <v>2467</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>2465</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
-        <v>2466</v>
+        <v>2469</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2467</v>
+        <v>2470</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>2468</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>2469</v>
+        <v>2472</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>2470</v>
+        <v>2473</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>2471</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
-        <v>2472</v>
+        <v>2475</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>2473</v>
+        <v>2476</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>2474</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
-        <v>2475</v>
+        <v>2478</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>2476</v>
+        <v>2479</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>2477</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
-        <v>2478</v>
+        <v>2481</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2479</v>
+        <v>2482</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>2480</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
-        <v>2481</v>
+        <v>2484</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>2482</v>
+        <v>2485</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>2483</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
-        <v>2484</v>
+        <v>2487</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>2485</v>
+        <v>2488</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="2" t="s">
-        <v>2487</v>
+        <v>2490</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>2488</v>
+        <v>2491</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>2489</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
-        <v>2490</v>
+        <v>2493</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>2491</v>
+        <v>2494</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>2492</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
-        <v>2493</v>
+        <v>2496</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>2494</v>
+        <v>2497</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>2495</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
-        <v>2496</v>
+        <v>2499</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>2497</v>
+        <v>2500</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2498</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>2499</v>
+        <v>2502</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>2500</v>
+        <v>2503</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>2501</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
-        <v>2502</v>
+        <v>2505</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2503</v>
+        <v>2506</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>2504</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
-        <v>2505</v>
+        <v>2508</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2506</v>
+        <v>2509</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>2507</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>2508</v>
+        <v>2511</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2509</v>
+        <v>2512</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>2510</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>2511</v>
+        <v>2514</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2512</v>
+        <v>2515</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>2513</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>2514</v>
+        <v>2517</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2515</v>
+        <v>2518</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>2516</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>2517</v>
+        <v>2520</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2518</v>
+        <v>2521</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2519</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
-        <v>2520</v>
+        <v>2523</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2521</v>
+        <v>2524</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>2522</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>2523</v>
+        <v>2526</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2524</v>
+        <v>2527</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>2525</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>2526</v>
+        <v>2529</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2527</v>
+        <v>2530</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>2528</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
-        <v>2529</v>
+        <v>2532</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2530</v>
+        <v>2533</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>2531</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
-        <v>2532</v>
+        <v>2535</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2533</v>
+        <v>2536</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>2534</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>2535</v>
+        <v>2538</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2536</v>
+        <v>2539</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>2537</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
-        <v>2538</v>
+        <v>2541</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2539</v>
+        <v>2542</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>2540</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2542</v>
+        <v>2545</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>2543</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
-        <v>2544</v>
+        <v>2547</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2545</v>
+        <v>2548</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>2546</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
-        <v>2547</v>
+        <v>2550</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>2548</v>
+        <v>2551</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>2549</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>2550</v>
+        <v>2553</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>2552</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
-        <v>2553</v>
+        <v>2556</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>2554</v>
+        <v>2557</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>2555</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
-        <v>2556</v>
+        <v>2559</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2557</v>
+        <v>2560</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>2558</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
-        <v>2559</v>
+        <v>2562</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>2560</v>
+        <v>2563</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>2561</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
-        <v>2562</v>
+        <v>2565</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>2563</v>
+        <v>2566</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>2564</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
-        <v>2565</v>
+        <v>2568</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>2566</v>
+        <v>2569</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2567</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="2" t="s">
-        <v>2568</v>
+        <v>2571</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>2569</v>
+        <v>2572</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>2570</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="2" t="s">
-        <v>2571</v>
+        <v>2574</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>2572</v>
+        <v>2575</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>2573</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="2" t="s">
-        <v>2574</v>
+        <v>2577</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>2575</v>
+        <v>2578</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>2576</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="2" t="s">
-        <v>2577</v>
+        <v>2580</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>2578</v>
+        <v>2581</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>2579</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="2" t="s">
-        <v>2580</v>
+        <v>2583</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>2581</v>
+        <v>2584</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>2582</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="2" t="s">
-        <v>2583</v>
+        <v>2586</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>2584</v>
+        <v>2587</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>2585</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="2" t="s">
-        <v>2586</v>
+        <v>2589</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>2587</v>
+        <v>2590</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>2588</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
-        <v>2589</v>
+        <v>2592</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>2590</v>
+        <v>2593</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>2591</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
-        <v>2592</v>
+        <v>2595</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>2593</v>
+        <v>2596</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>2594</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="2" t="s">
-        <v>2595</v>
+        <v>2598</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>2596</v>
+        <v>2599</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>2597</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
-        <v>2598</v>
+        <v>2601</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>2599</v>
+        <v>2602</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>2600</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
-        <v>2601</v>
+        <v>2604</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>2602</v>
+        <v>2605</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>2603</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
-        <v>2604</v>
+        <v>2607</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>2605</v>
+        <v>2608</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>2606</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
-        <v>2607</v>
+        <v>2610</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>2608</v>
+        <v>2611</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>2609</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
-        <v>2610</v>
+        <v>2613</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>2612</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
-        <v>2613</v>
+        <v>2616</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>2615</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
-        <v>2616</v>
+        <v>2619</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>2617</v>
+        <v>2620</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>2618</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
-        <v>2619</v>
+        <v>2622</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>2620</v>
+        <v>2623</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2621</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
-        <v>2622</v>
+        <v>2625</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>2623</v>
+        <v>2626</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2624</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>2625</v>
+        <v>2628</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>2626</v>
+        <v>2629</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>2627</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
-        <v>2628</v>
+        <v>2631</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>2629</v>
+        <v>2632</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>2630</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
-        <v>2631</v>
+        <v>2634</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>2632</v>
+        <v>2635</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>2633</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
-        <v>2634</v>
+        <v>2637</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>2635</v>
+        <v>2638</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>2636</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
-        <v>2637</v>
+        <v>2640</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>2638</v>
+        <v>2641</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>2639</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
-        <v>2640</v>
+        <v>2643</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>2641</v>
+        <v>2644</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>2642</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
-        <v>2643</v>
+        <v>2646</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>2644</v>
+        <v>2647</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>2645</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
-        <v>2646</v>
+        <v>2649</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
-        <v>2649</v>
+        <v>2652</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>2650</v>
+        <v>2653</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>2651</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
-        <v>2652</v>
+        <v>2655</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>2653</v>
+        <v>2656</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>2654</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
-        <v>2655</v>
+        <v>2658</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>2656</v>
+        <v>2659</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>2657</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>2659</v>
+        <v>2662</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>2660</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>2661</v>
+        <v>2664</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>2662</v>
+        <v>2665</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>2663</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>2664</v>
+        <v>2667</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>2665</v>
+        <v>2668</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>2666</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
-        <v>2667</v>
+        <v>2670</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>2668</v>
+        <v>2671</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2669</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
-        <v>2670</v>
+        <v>2673</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>2671</v>
+        <v>2674</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>2672</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
-        <v>2673</v>
+        <v>2676</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>2674</v>
+        <v>2677</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>2675</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>2676</v>
+        <v>2679</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>2677</v>
+        <v>2680</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>2678</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
-        <v>2679</v>
+        <v>2682</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>2680</v>
+        <v>2683</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>2681</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
-        <v>2682</v>
+        <v>2685</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>2683</v>
+        <v>2686</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>2684</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
-        <v>2685</v>
+        <v>2688</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>2686</v>
+        <v>2689</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>2687</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>2688</v>
+        <v>2691</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>2689</v>
+        <v>2692</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>2690</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>2691</v>
+        <v>2694</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>2692</v>
+        <v>2695</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>2693</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
-        <v>2694</v>
+        <v>2697</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>2695</v>
+        <v>2698</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>2696</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
-        <v>2697</v>
+        <v>2700</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>2699</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
-        <v>2700</v>
+        <v>2703</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>2702</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
-        <v>2703</v>
+        <v>2706</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>2704</v>
+        <v>2707</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>2705</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="2" t="s">
-        <v>2706</v>
+        <v>2709</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>2707</v>
+        <v>2710</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>2708</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
-        <v>2709</v>
+        <v>2712</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
-        <v>2712</v>
+        <v>2715</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>2713</v>
+        <v>2716</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>2714</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
-        <v>2715</v>
+        <v>2718</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
-        <v>2718</v>
+        <v>2721</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>2719</v>
+        <v>2722</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>2720</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
-        <v>2721</v>
+        <v>2724</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>2710</v>
+        <v>2713</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>2711</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
-        <v>2722</v>
+        <v>2725</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>2723</v>
+        <v>2726</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>2724</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
-        <v>2725</v>
+        <v>2728</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>2716</v>
+        <v>2719</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>2717</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
-        <v>2726</v>
+        <v>2729</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>2727</v>
+        <v>2730</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>2728</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
-        <v>2729</v>
+        <v>2732</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>2730</v>
+        <v>2733</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>2731</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
-        <v>2732</v>
+        <v>2735</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>2733</v>
+        <v>2736</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>2734</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>2736</v>
+        <v>2739</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>2737</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
-        <v>2738</v>
+        <v>2741</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>2739</v>
+        <v>2742</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>2740</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
-        <v>2741</v>
+        <v>2744</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>2742</v>
+        <v>2745</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>2743</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
-        <v>2744</v>
+        <v>2747</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>2746</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>2747</v>
+        <v>2750</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>2748</v>
+        <v>2751</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>2749</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>2750</v>
+        <v>2753</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>2751</v>
+        <v>2754</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>2752</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
-        <v>2753</v>
+        <v>2756</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>2754</v>
+        <v>2757</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>2755</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
-        <v>2756</v>
+        <v>2759</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>2757</v>
+        <v>2760</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>2758</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>2760</v>
+        <v>2763</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>2761</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
-        <v>2762</v>
+        <v>2765</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>2764</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
-        <v>2765</v>
+        <v>2768</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>2766</v>
+        <v>2769</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>2767</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>2768</v>
+        <v>2771</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>2769</v>
+        <v>2772</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>2770</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>2771</v>
+        <v>2774</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>2772</v>
+        <v>2775</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>2773</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
-        <v>2774</v>
+        <v>2777</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>2775</v>
+        <v>2778</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>2776</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
-        <v>2777</v>
+        <v>2780</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>2778</v>
+        <v>2781</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>2779</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>2780</v>
+        <v>2783</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>2781</v>
+        <v>2784</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>2782</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
-        <v>2783</v>
+        <v>2786</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>2784</v>
+        <v>2787</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>2785</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
-        <v>2786</v>
+        <v>2789</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>2787</v>
+        <v>2790</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>2788</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>2789</v>
+        <v>2792</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>2790</v>
+        <v>2793</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>2791</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>2792</v>
+        <v>2795</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>2793</v>
+        <v>2796</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>2794</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>2795</v>
+        <v>2798</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>2796</v>
+        <v>2799</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>2797</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>2798</v>
+        <v>2801</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>2800</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>2801</v>
+        <v>2804</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>2802</v>
+        <v>2805</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>2803</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>2805</v>
+        <v>2808</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>2806</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>2808</v>
+        <v>2811</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>2809</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>2810</v>
+        <v>2813</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>2811</v>
+        <v>2814</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>2812</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>2813</v>
+        <v>2816</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>2814</v>
+        <v>2817</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>2815</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>2816</v>
+        <v>2819</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>2817</v>
+        <v>2820</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>2818</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>2819</v>
+        <v>2822</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>2820</v>
+        <v>2823</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>2821</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>2822</v>
+        <v>2825</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>2823</v>
+        <v>2826</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>2824</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>2825</v>
+        <v>2828</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>2826</v>
+        <v>2829</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>2827</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>2828</v>
+        <v>2831</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>2829</v>
+        <v>2832</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>2830</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>2831</v>
+        <v>2834</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>2832</v>
+        <v>2835</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>2833</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>2834</v>
+        <v>2837</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>2835</v>
+        <v>2838</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>2836</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>2837</v>
+        <v>2840</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>2838</v>
+        <v>2841</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>2839</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
-        <v>2840</v>
+        <v>2843</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>2841</v>
+        <v>2844</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>2842</v>
+        <v>2845</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
-        <v>2843</v>
+        <v>2846</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>2844</v>
+        <v>2847</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>2845</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>2846</v>
+        <v>2849</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>2847</v>
+        <v>2850</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>2848</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
-        <v>2849</v>
+        <v>2852</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>2850</v>
+        <v>2853</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>2851</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
-        <v>2852</v>
+        <v>2855</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>2853</v>
+        <v>2856</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>2854</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
-        <v>2855</v>
+        <v>2858</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>2856</v>
+        <v>2859</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>2857</v>
+        <v>2860</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
-        <v>2858</v>
+        <v>2861</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>2859</v>
+        <v>2862</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>2860</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>2861</v>
+        <v>2864</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>2862</v>
+        <v>2865</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>2863</v>
+        <v>2866</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>2864</v>
+        <v>2867</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>2865</v>
+        <v>2868</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>2866</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
-        <v>2867</v>
+        <v>2870</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>2868</v>
+        <v>2871</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>2869</v>
+        <v>2872</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
-        <v>2870</v>
+        <v>2873</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>2871</v>
+        <v>2874</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>2872</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>2873</v>
+        <v>2876</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>2874</v>
+        <v>2877</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>2875</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
-        <v>2876</v>
+        <v>2879</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>2877</v>
+        <v>2880</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>2880</v>
+        <v>2883</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>2881</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
-        <v>2882</v>
+        <v>2885</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>2883</v>
+        <v>2886</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>2884</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
-        <v>2885</v>
+        <v>2888</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>2886</v>
+        <v>2889</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>2887</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
-        <v>2888</v>
+        <v>2891</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>2889</v>
+        <v>2892</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>2890</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="402" ht="409.5" spans="1:5">
       <c r="A402" s="2" t="s">
-        <v>2891</v>
+        <v>2894</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>2892</v>
+        <v>2895</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>2893</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
-        <v>2894</v>
+        <v>2897</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>2896</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
-        <v>2897</v>
+        <v>2900</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>2898</v>
+        <v>2901</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>2899</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
-        <v>2900</v>
+        <v>2903</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>2901</v>
+        <v>2904</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>2902</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
-        <v>2903</v>
+        <v>2906</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>2904</v>
+        <v>2907</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>2905</v>
+        <v>2908</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
-        <v>2906</v>
+        <v>2909</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>2907</v>
+        <v>2910</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>2908</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
-        <v>2909</v>
+        <v>2912</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>2910</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>2911</v>
+        <v>2914</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>2912</v>
+        <v>2915</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>2913</v>
+        <v>2916</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
-        <v>2914</v>
+        <v>2917</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>2915</v>
+        <v>2918</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>2916</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>2917</v>
+        <v>2920</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>2918</v>
+        <v>2921</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>2919</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
-        <v>2920</v>
+        <v>2923</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>2921</v>
+        <v>2924</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>2922</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
-        <v>2923</v>
+        <v>2926</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>2924</v>
+        <v>2927</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>2925</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
-        <v>2926</v>
+        <v>2929</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>2927</v>
+        <v>2930</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>2928</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
-        <v>2929</v>
+        <v>2932</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>2930</v>
+        <v>2933</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>2931</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
-        <v>2932</v>
+        <v>2935</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>2933</v>
+        <v>2936</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>2934</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
-        <v>2935</v>
+        <v>2938</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>2936</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
-        <v>2937</v>
+        <v>2940</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>2938</v>
+        <v>2941</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>2939</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="2" t="s">
-        <v>2940</v>
+        <v>2943</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>2941</v>
+        <v>2944</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>2942</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>2943</v>
+        <v>2946</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>2944</v>
+        <v>2947</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>2945</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
-        <v>2946</v>
+        <v>2949</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>2947</v>
+        <v>2950</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>2948</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>2950</v>
+        <v>2953</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>2951</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="2" t="s">
-        <v>2952</v>
+        <v>2955</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>2953</v>
+        <v>2956</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>2954</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="2" t="s">
-        <v>2955</v>
+        <v>2958</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>2956</v>
+        <v>2959</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>2957</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
-        <v>2958</v>
+        <v>2961</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>2959</v>
+        <v>2962</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>2960</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
-        <v>2961</v>
+        <v>2964</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>2962</v>
+        <v>2965</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>2963</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="2" t="s">
-        <v>2964</v>
+        <v>2967</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>2965</v>
+        <v>2968</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>2966</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
-        <v>2967</v>
+        <v>2970</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>2968</v>
+        <v>2971</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>2969</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="2" t="s">
-        <v>2970</v>
+        <v>2973</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>2972</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
-        <v>2973</v>
+        <v>2976</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>2974</v>
+        <v>2977</v>
       </c>
       <c r="E430" s="2" t="s">
-        <v>2975</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
-        <v>2976</v>
+        <v>2979</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>2977</v>
+        <v>2980</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>2978</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="2" t="s">
-        <v>2979</v>
+        <v>2982</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>2980</v>
+        <v>2983</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>2981</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="2" t="s">
-        <v>2982</v>
+        <v>2985</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>2983</v>
+        <v>2986</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>2984</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="2" t="s">
-        <v>2985</v>
+        <v>2988</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>2971</v>
+        <v>2974</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>2972</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
-        <v>2986</v>
+        <v>2989</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>2987</v>
+        <v>2990</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>2988</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
-        <v>2989</v>
+        <v>2992</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>2990</v>
+        <v>2993</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>2991</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
-        <v>2992</v>
+        <v>2995</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>2993</v>
+        <v>2996</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>2994</v>
+        <v>2997</v>
       </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="2" t="s">
-        <v>2995</v>
+        <v>2998</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>2996</v>
+        <v>2999</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>2997</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="2" t="s">
-        <v>2998</v>
+        <v>3001</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>2999</v>
+        <v>3002</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>3000</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
-        <v>3001</v>
+        <v>3004</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>3002</v>
+        <v>3005</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>3003</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
-        <v>3004</v>
+        <v>3007</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>3005</v>
+        <v>3008</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>3006</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="2" t="s">
-        <v>3007</v>
+        <v>3010</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>3008</v>
+        <v>3011</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>3009</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="2" t="s">
-        <v>3010</v>
+        <v>3013</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>2413</v>
+        <v>2416</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>2414</v>
+        <v>2417</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2AB25-3217-45B7-80FE-BEAAF176DE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2012FA6-3315-49B2-91D9-148A027A497B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="3047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="3049">
   <si>
     <t>Int</t>
   </si>
@@ -14445,10 +14445,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>Attack Range</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>召唤·光I</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -14533,10 +14529,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>Apex Magical</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>TalentBuff_Name_2002</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
@@ -14581,11 +14573,27 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>Attack Speed</t>
+    <t>Decel+</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>Decel+</t>
+    <t>Atk Speed</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magical</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dura</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -15267,8 +15275,8 @@
   <dimension ref="A1:AMJ1434"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A348" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C381" sqref="C381"/>
+      <pane ySplit="3" topLeftCell="A647" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D682" sqref="D682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -15529,10 +15537,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="56" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -16538,10 +16546,10 @@
         <v>20053</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="C58" s="56" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="D58" s="17" t="s">
         <v>165</v>
@@ -22247,7 +22255,7 @@
         <v>936</v>
       </c>
       <c r="C326" s="7" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="D326" s="7" t="s">
         <v>938</v>
@@ -24012,7 +24020,7 @@
         <v>20433</v>
       </c>
       <c r="B438" s="6" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="C438" s="10" t="s">
         <v>1222</v>
@@ -24876,7 +24884,7 @@
         <v>1371</v>
       </c>
       <c r="D491" s="22" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="F491" s="9"/>
     </row>
@@ -24921,7 +24929,7 @@
         <v>1376</v>
       </c>
       <c r="D494" s="22" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="F494" s="9"/>
     </row>
@@ -25146,7 +25154,7 @@
         <v>1405</v>
       </c>
       <c r="D509" s="55" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="F509" s="9"/>
     </row>
@@ -25611,7 +25619,7 @@
         <v>1464</v>
       </c>
       <c r="D539" s="37" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="E539" s="6"/>
       <c r="F539" s="9"/>
@@ -25627,7 +25635,7 @@
         <v>1465</v>
       </c>
       <c r="D540" s="37" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="E540" s="6"/>
       <c r="F540" s="9"/>
@@ -25643,7 +25651,7 @@
         <v>1466</v>
       </c>
       <c r="D541" s="10" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="E541" s="6"/>
       <c r="F541" s="9"/>
@@ -25659,7 +25667,7 @@
         <v>1467</v>
       </c>
       <c r="D542" s="10" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="E542" s="6"/>
       <c r="F542" s="9"/>
@@ -25675,7 +25683,7 @@
         <v>1468</v>
       </c>
       <c r="D543" s="10" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="E543" s="6"/>
       <c r="F543" s="9"/>
@@ -25691,7 +25699,7 @@
         <v>1469</v>
       </c>
       <c r="D544" s="10" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="E544" s="6"/>
       <c r="F544" s="9"/>
@@ -27423,13 +27431,13 @@
         <v>20654</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="C659" s="54" t="s">
-        <v>3010</v>
+        <v>3045</v>
       </c>
       <c r="D659" s="37" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="E659" s="26"/>
     </row>
@@ -27438,13 +27446,13 @@
         <v>20655</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="C660" s="54" t="s">
-        <v>3033</v>
+        <v>3046</v>
       </c>
       <c r="D660" s="37" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="E660" s="26"/>
     </row>
@@ -27453,13 +27461,13 @@
         <v>20656</v>
       </c>
       <c r="B661" s="6" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="C661" s="54" t="s">
-        <v>3011</v>
+        <v>3047</v>
       </c>
       <c r="D661" s="37" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="E661" s="26"/>
     </row>
@@ -27468,13 +27476,13 @@
         <v>20657</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="C662" s="7" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="D662" s="38" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="E662" s="26"/>
     </row>
@@ -27483,13 +27491,13 @@
         <v>20658</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>3037</v>
-      </c>
-      <c r="C663" s="28" t="s">
-        <v>1159</v>
+        <v>3035</v>
+      </c>
+      <c r="C663" s="54" t="s">
+        <v>3048</v>
       </c>
       <c r="D663" s="37" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="E663" s="26"/>
     </row>
@@ -27498,13 +27506,13 @@
         <v>20659</v>
       </c>
       <c r="B664" s="6" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="D664" s="37" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="E664" s="26"/>
     </row>
@@ -27513,13 +27521,13 @@
         <v>20660</v>
       </c>
       <c r="B665" s="6" t="s">
+        <v>3027</v>
+      </c>
+      <c r="C665" s="57" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D665" s="7" t="s">
         <v>3028</v>
-      </c>
-      <c r="C665" s="57" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D665" s="7" t="s">
-        <v>3029</v>
       </c>
       <c r="E665" s="26"/>
     </row>
@@ -27528,13 +27536,13 @@
         <v>20661</v>
       </c>
       <c r="B666" s="6" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C666" s="57" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D666" s="7" t="s">
         <v>3041</v>
-      </c>
-      <c r="C666" s="57" t="s">
-        <v>3042</v>
-      </c>
-      <c r="D666" s="7" t="s">
-        <v>3043</v>
       </c>
       <c r="E666" s="26"/>
     </row>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED42FB3-2089-45F4-9FBE-38D147736054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03ABD3D-5890-45D4-A91F-634E83736B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="3052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="3056">
   <si>
     <t>Int</t>
   </si>
@@ -14623,6 +14623,22 @@
   </si>
   <si>
     <t>Atk Speed+</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recovers {0} durability / end of wave</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0} energy regen / end of wave</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>基地每个波次结束时恢复{0}耐久</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个波次结束时获得{0}能量</t>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -15304,8 +15320,8 @@
   <dimension ref="A1:AMJ1433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A296" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C313" sqref="C313"/>
+      <pane ySplit="3" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E343" sqref="E342:E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -22298,10 +22314,10 @@
         <v>935</v>
       </c>
       <c r="C327" s="7" t="s">
-        <v>936</v>
+        <v>3053</v>
       </c>
       <c r="D327" s="7" t="s">
-        <v>937</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="328" spans="1:4" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">
@@ -22368,10 +22384,10 @@
         <v>950</v>
       </c>
       <c r="C332" s="7" t="s">
-        <v>951</v>
+        <v>3052</v>
       </c>
       <c r="D332" s="7" t="s">
-        <v>952</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="333" spans="1:4" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.35">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6088B0A4-436E-494F-816B-3BD6F0E4CFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F34ADE9-8F79-417B-9AE7-3422598F08D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -15601,8 +15601,8 @@
   <dimension ref="A1:AMJ1429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D665" sqref="D665"/>
+      <pane ySplit="3" topLeftCell="A378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D392" sqref="D392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -23515,10 +23515,10 @@
         <v>1082</v>
       </c>
       <c r="C386" s="29" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D386" s="29" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="E386" s="6"/>
       <c r="F386" s="9"/>
@@ -23531,13 +23531,11 @@
         <v>1084</v>
       </c>
       <c r="C387" s="29" t="s">
-        <v>1085</v>
+        <v>1092</v>
       </c>
       <c r="D387" s="29" t="s">
-        <v>2996</v>
-      </c>
-      <c r="E387" s="6"/>
-      <c r="F387" s="9"/>
+        <v>2998</v>
+      </c>
     </row>
     <row r="388" spans="1:6" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A388" s="7">
@@ -23563,10 +23561,10 @@
         <v>1089</v>
       </c>
       <c r="C389" s="29" t="s">
-        <v>1090</v>
+        <v>1083</v>
       </c>
       <c r="D389" s="29" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="E389" s="6"/>
       <c r="F389" s="9"/>
@@ -23579,10 +23577,10 @@
         <v>1091</v>
       </c>
       <c r="C390" s="29" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D390" s="29" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="E390" s="6"/>
       <c r="F390" s="9"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E0D9BD-276D-4DF5-96E5-315062CC4747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA7360-2408-4A39-8EBB-901BE2C7242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="3154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3350" uniqueCount="3157">
   <si>
     <t>Int</t>
   </si>
@@ -14910,6 +14910,18 @@
   </si>
   <si>
     <t>远古部落-简单</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色等级未达到{0}级</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Tips_1</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character level has not reached level {0}</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -15585,8 +15597,8 @@
   <dimension ref="A1:AMJ1429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <pane ySplit="3" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F678" sqref="F678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -27927,11 +27939,19 @@
       </c>
       <c r="E671" s="26"/>
     </row>
-    <row r="672" spans="1:5" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A672" s="9"/>
-      <c r="B672" s="6"/>
-      <c r="C672" s="11"/>
-      <c r="D672" s="36"/>
+    <row r="672" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A672" s="12">
+        <v>20667</v>
+      </c>
+      <c r="B672" s="6" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C672" s="11" t="s">
+        <v>3156</v>
+      </c>
+      <c r="D672" s="14" t="s">
+        <v>3154</v>
+      </c>
       <c r="E672" s="26"/>
     </row>
     <row r="673" spans="1:5" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDA7360-2408-4A39-8EBB-901BE2C7242F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19213CC8-0291-4E8F-956D-2D567E2B052D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14921,7 +14921,7 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>Character level has not reached level {0}</t>
+    <t>Character Level has not reached Lv.{0}</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -15597,8 +15597,8 @@
   <dimension ref="A1:AMJ1429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A648" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F678" sqref="F678"/>
+      <pane ySplit="3" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C671" sqref="C671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\v0.38.0.0.20240805170156\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9202A455-3FF1-4750-ACDE-E928D3354072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C420B1-D25D-4B7B-AC9F-B92FADA4C89F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14935,14 +14935,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>Normal completion</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>Perfect completion</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>战斗中</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -14979,14 +14971,6 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>*首次完美通关奖励龙娘塔：</t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">*First perfect completion bonus: </t>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
     <t>Mirrana</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -15036,6 +15020,22 @@
   </si>
   <si>
     <t>QuestionText_3</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Complete</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perfect</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*First perfect bonus: </t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>*首次完美通关奖励：</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
 </sst>
@@ -15715,7 +15715,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E680" sqref="E680"/>
+      <selection pane="bottomLeft" activeCell="C675" sqref="C675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -21784,7 +21784,7 @@
         <v>755</v>
       </c>
       <c r="C276" s="58" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="D276" s="10" t="s">
         <v>756</v>
@@ -21916,7 +21916,7 @@
         <v>772</v>
       </c>
       <c r="C282" s="58" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="D282" s="10" t="s">
         <v>773</v>
@@ -25270,7 +25270,7 @@
         <v>1286</v>
       </c>
       <c r="C488" s="33" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="D488" s="33" t="s">
         <v>1287</v>
@@ -27857,7 +27857,7 @@
         <v>3102</v>
       </c>
       <c r="D658" s="14" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="E658" s="26"/>
     </row>
@@ -27872,7 +27872,7 @@
         <v>668</v>
       </c>
       <c r="D659" s="14" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="E659" s="26"/>
     </row>
@@ -27887,7 +27887,7 @@
         <v>671</v>
       </c>
       <c r="D660" s="14" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="E660" s="26"/>
     </row>
@@ -27902,7 +27902,7 @@
         <v>3103</v>
       </c>
       <c r="D661" s="14" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="E661" s="26"/>
     </row>
@@ -27917,7 +27917,7 @@
         <v>872</v>
       </c>
       <c r="D662" s="14" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="E662" s="26"/>
     </row>
@@ -27932,7 +27932,7 @@
         <v>3104</v>
       </c>
       <c r="D663" s="14" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="E663" s="26"/>
     </row>
@@ -27947,7 +27947,7 @@
         <v>3105</v>
       </c>
       <c r="D664" s="14" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="E664" s="26"/>
     </row>
@@ -27962,7 +27962,7 @@
         <v>3106</v>
       </c>
       <c r="D665" s="14" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="E665" s="26"/>
     </row>
@@ -27977,7 +27977,7 @@
         <v>2873</v>
       </c>
       <c r="D666" s="14" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="E666" s="26"/>
     </row>
@@ -28109,7 +28109,7 @@
         <v>3151</v>
       </c>
       <c r="C675" s="11" t="s">
-        <v>3158</v>
+        <v>3180</v>
       </c>
       <c r="D675" s="14" t="s">
         <v>3156</v>
@@ -28124,7 +28124,7 @@
         <v>3152</v>
       </c>
       <c r="C676" s="11" t="s">
-        <v>3159</v>
+        <v>3181</v>
       </c>
       <c r="D676" s="14" t="s">
         <v>3157</v>
@@ -28136,13 +28136,13 @@
         <v>20672</v>
       </c>
       <c r="B677" s="6" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="C677" s="8" t="s">
-        <v>3170</v>
+        <v>3182</v>
       </c>
       <c r="D677" s="14" t="s">
-        <v>3169</v>
+        <v>3183</v>
       </c>
       <c r="E677" s="26"/>
     </row>
@@ -28151,13 +28151,13 @@
         <v>20673</v>
       </c>
       <c r="B678" s="6" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="C678" s="14" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="D678" s="14" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="E678" s="26"/>
     </row>
@@ -28166,13 +28166,13 @@
         <v>20674</v>
       </c>
       <c r="B679" s="6" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="C679" s="14" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="D679" s="14" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="E679" s="26"/>
     </row>
@@ -28181,13 +28181,13 @@
         <v>20675</v>
       </c>
       <c r="B680" s="6" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="C680" s="14" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="D680" s="14" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="E680" s="26"/>
     </row>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CEE9FD-0A5F-4D66-A355-A736EEDB919A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D5D858-F789-4873-AF9A-7AD03D5CB08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3377" uniqueCount="3204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="3207">
   <si>
     <t>Int</t>
   </si>
@@ -15132,6 +15132,18 @@
   </si>
   <si>
     <t>完美·世界1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认以500金币的价格将塔回收给商店</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_TowerReturn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to recycle the tower back to the shop for 500 gold?</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15748,8 +15760,8 @@
   <dimension ref="A1:AMJ692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A504" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C525" sqref="C525"/>
+      <pane ySplit="3" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E682" sqref="E682"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -28240,11 +28252,19 @@
       </c>
       <c r="E681" s="26"/>
     </row>
-    <row r="682" spans="1:5" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A682" s="9"/>
-      <c r="B682" s="6"/>
-      <c r="C682" s="11"/>
-      <c r="D682" s="14"/>
+    <row r="682" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A682" s="12">
+        <v>20677</v>
+      </c>
+      <c r="B682" s="6" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C682" s="11" t="s">
+        <v>3206</v>
+      </c>
+      <c r="D682" s="14" t="s">
+        <v>3204</v>
+      </c>
       <c r="E682" s="26"/>
     </row>
     <row r="683" spans="1:5" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D5D858-F789-4873-AF9A-7AD03D5CB08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26177F60-0C9F-4616-A025-4DD9234DBECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="3207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3383" uniqueCount="3210">
   <si>
     <t>Int</t>
   </si>
@@ -15143,7 +15143,19 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>Are you sure you want to recycle the tower back to the shop for 500 gold?</t>
+    <t>Text_BtnTowerReturn</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell back</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you sure you want to recycle the tower sell back to the shop for 500 gold?</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15761,7 +15773,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E682" sqref="E682"/>
+      <selection pane="bottomLeft" activeCell="B684" sqref="B684"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -28260,18 +28272,26 @@
         <v>3205</v>
       </c>
       <c r="C682" s="11" t="s">
-        <v>3206</v>
+        <v>3209</v>
       </c>
       <c r="D682" s="14" t="s">
         <v>3204</v>
       </c>
       <c r="E682" s="26"/>
     </row>
-    <row r="683" spans="1:5" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A683" s="9"/>
-      <c r="B683" s="6"/>
-      <c r="C683" s="11"/>
-      <c r="D683" s="14"/>
+    <row r="683" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A683" s="12">
+        <v>20678</v>
+      </c>
+      <c r="B683" s="6" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C683" s="11" t="s">
+        <v>3208</v>
+      </c>
+      <c r="D683" s="14" t="s">
+        <v>3207</v>
+      </c>
       <c r="E683" s="26"/>
     </row>
     <row r="684" spans="1:5" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781A047C-9FE7-43A4-AB87-5D4BE4CA0D29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D062D1-F28C-45CD-80DC-13D74E2A3FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14947,10 +14947,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>是否确认以500金币的价格将塔回收给商店</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>Text_TowerReturn</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -14967,10 +14963,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>Are you sure you want to recycle the tower sell back to the shop for 500 gold?</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>Text_insufficientStamina</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -15138,15 +15130,23 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>Sell back successfully!</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>Switch Room Failed!</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>Sell back failed!</t>
+    <t>Are you sure you want to recycle the tower sell back to the shop for {0} gold?</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否确认以{0}金币的价格将塔回收给商店？</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell back successfully</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell back failed</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15764,7 +15764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A656" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E685" sqref="E685"/>
+      <selection pane="bottomLeft" activeCell="C686" sqref="C686"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -17213,7 +17213,7 @@
         <v>182</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>183</v>
@@ -18313,7 +18313,7 @@
         <v>321</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>322</v>
@@ -18335,7 +18335,7 @@
         <v>323</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>2884</v>
@@ -18355,7 +18355,7 @@
         <v>324</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>325</v>
@@ -18399,7 +18399,7 @@
         <v>328</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>2886</v>
@@ -18465,7 +18465,7 @@
         <v>333</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>334</v>
@@ -18710,7 +18710,7 @@
         <v>3064</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -18732,7 +18732,7 @@
         <v>3064</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -18754,7 +18754,7 @@
         <v>3064</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -18776,7 +18776,7 @@
         <v>3065</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -18798,7 +18798,7 @@
         <v>3065</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -18820,7 +18820,7 @@
         <v>3065</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -18842,7 +18842,7 @@
         <v>3066</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -18864,7 +18864,7 @@
         <v>3066</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -18886,7 +18886,7 @@
         <v>3066</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -18908,7 +18908,7 @@
         <v>3067</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -18930,7 +18930,7 @@
         <v>3067</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -18952,7 +18952,7 @@
         <v>3067</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -18974,7 +18974,7 @@
         <v>3068</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -18996,7 +18996,7 @@
         <v>3068</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -19018,7 +19018,7 @@
         <v>3068</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -19499,7 +19499,7 @@
         <v>422</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>423</v>
@@ -22317,7 +22317,7 @@
         <v>792</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>793</v>
@@ -22339,7 +22339,7 @@
         <v>794</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>3057</v>
@@ -22409,7 +22409,7 @@
         <v>801</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>3058</v>
@@ -22441,7 +22441,7 @@
         <v>805</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>3059</v>
@@ -22699,7 +22699,7 @@
         <v>849</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>850</v>
@@ -22713,7 +22713,7 @@
         <v>851</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="D324" s="7" t="s">
         <v>852</v>
@@ -22783,7 +22783,7 @@
         <v>865</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="D329" s="7" t="s">
         <v>866</v>
@@ -22797,7 +22797,7 @@
         <v>867</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>868</v>
@@ -22811,7 +22811,7 @@
         <v>869</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>870</v>
@@ -22839,7 +22839,7 @@
         <v>874</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="D333" s="7" t="s">
         <v>875</v>
@@ -22853,7 +22853,7 @@
         <v>876</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>877</v>
@@ -22867,7 +22867,7 @@
         <v>878</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>879</v>
@@ -22881,7 +22881,7 @@
         <v>880</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>3063</v>
@@ -22895,7 +22895,7 @@
         <v>881</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>882</v>
@@ -23979,7 +23979,7 @@
         <v>1074</v>
       </c>
       <c r="C405" s="28" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="D405" s="28" t="s">
         <v>1075</v>
@@ -23995,7 +23995,7 @@
         <v>1076</v>
       </c>
       <c r="C406" s="43" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="D406" s="43" t="s">
         <v>3061</v>
@@ -24011,7 +24011,7 @@
         <v>1077</v>
       </c>
       <c r="C407" s="43" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="D407" s="43" t="s">
         <v>3062</v>
@@ -24027,7 +24027,7 @@
         <v>1078</v>
       </c>
       <c r="C408" s="28" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="D408" s="28" t="s">
         <v>1079</v>
@@ -24043,7 +24043,7 @@
         <v>1080</v>
       </c>
       <c r="C409" s="28" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="D409" s="28" t="s">
         <v>1081</v>
@@ -24059,7 +24059,7 @@
         <v>1082</v>
       </c>
       <c r="C410" s="28" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="D410" s="28" t="s">
         <v>1083</v>
@@ -24075,7 +24075,7 @@
         <v>1084</v>
       </c>
       <c r="C411" s="28" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="D411" s="28" t="s">
         <v>1085</v>
@@ -24091,7 +24091,7 @@
         <v>1086</v>
       </c>
       <c r="C412" s="28" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="D412" s="28" t="s">
         <v>882</v>
@@ -24107,7 +24107,7 @@
         <v>1087</v>
       </c>
       <c r="C413" s="28" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="D413" s="28" t="s">
         <v>850</v>
@@ -24123,7 +24123,7 @@
         <v>1088</v>
       </c>
       <c r="C414" s="28" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="D414" s="28" t="s">
         <v>852</v>
@@ -24203,7 +24203,7 @@
         <v>1093</v>
       </c>
       <c r="C419" s="28" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="D419" s="28" t="s">
         <v>866</v>
@@ -24219,7 +24219,7 @@
         <v>1094</v>
       </c>
       <c r="C420" s="30" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="D420" s="30" t="s">
         <v>868</v>
@@ -24235,7 +24235,7 @@
         <v>1095</v>
       </c>
       <c r="C421" s="28" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="D421" s="28" t="s">
         <v>870</v>
@@ -24267,7 +24267,7 @@
         <v>1097</v>
       </c>
       <c r="C423" s="28" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="D423" s="28" t="s">
         <v>875</v>
@@ -24283,7 +24283,7 @@
         <v>1098</v>
       </c>
       <c r="C424" s="28" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="D424" s="28" t="s">
         <v>877</v>
@@ -24299,7 +24299,7 @@
         <v>1099</v>
       </c>
       <c r="C425" s="28" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="D425" s="28" t="s">
         <v>879</v>
@@ -24315,7 +24315,7 @@
         <v>1100</v>
       </c>
       <c r="C426" s="43" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="D426" s="43" t="s">
         <v>3063</v>
@@ -24331,7 +24331,7 @@
         <v>1101</v>
       </c>
       <c r="C427" s="29" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="D427" s="29" t="s">
         <v>882</v>
@@ -24363,7 +24363,7 @@
         <v>1103</v>
       </c>
       <c r="C429" s="28" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="D429" s="28" t="s">
         <v>1075</v>
@@ -24379,7 +24379,7 @@
         <v>1104</v>
       </c>
       <c r="C430" s="43" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="D430" s="43" t="s">
         <v>3061</v>
@@ -24395,7 +24395,7 @@
         <v>1105</v>
       </c>
       <c r="C431" s="43" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="D431" s="43" t="s">
         <v>3062</v>
@@ -24411,7 +24411,7 @@
         <v>1106</v>
       </c>
       <c r="C432" s="29" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="D432" s="29" t="s">
         <v>1079</v>
@@ -24427,7 +24427,7 @@
         <v>1107</v>
       </c>
       <c r="C433" s="28" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="D433" s="28" t="s">
         <v>1081</v>
@@ -24443,7 +24443,7 @@
         <v>1108</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="D434" s="29" t="s">
         <v>882</v>
@@ -24459,7 +24459,7 @@
         <v>1109</v>
       </c>
       <c r="C435" s="28" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="D435" s="28" t="s">
         <v>1110</v>
@@ -24475,7 +24475,7 @@
         <v>1111</v>
       </c>
       <c r="C436" s="28" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="D436" s="28" t="s">
         <v>1112</v>
@@ -24552,7 +24552,7 @@
         <v>20436</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="C441" s="11" t="s">
         <v>1124</v>
@@ -24718,7 +24718,7 @@
         <v>3043</v>
       </c>
       <c r="D451" s="31" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="E451" s="6"/>
       <c r="F451" s="9"/>
@@ -24731,7 +24731,7 @@
         <v>1147</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="D452" s="31" t="s">
         <v>1148</v>
@@ -25021,7 +25021,7 @@
         <v>1197</v>
       </c>
       <c r="C470" s="33" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="D470" s="32" t="s">
         <v>1198</v>
@@ -25290,7 +25290,7 @@
         <v>1231</v>
       </c>
       <c r="D486" s="33" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="9"/>
@@ -27098,7 +27098,7 @@
         <v>1438</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="D604" s="8" t="s">
         <v>1439</v>
@@ -27128,7 +27128,7 @@
         <v>1442</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="D606" s="8" t="s">
         <v>1443</v>
@@ -27993,7 +27993,7 @@
         <v>2867</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="D664" s="14" t="s">
         <v>3089</v>
@@ -28038,7 +28038,7 @@
         <v>2876</v>
       </c>
       <c r="C667" s="11" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="D667" s="14" t="s">
         <v>2877</v>
@@ -28260,13 +28260,13 @@
         <v>20677</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>3146</v>
+        <v>3145</v>
       </c>
       <c r="C682" s="11" t="s">
-        <v>3150</v>
+        <v>3202</v>
       </c>
       <c r="D682" s="14" t="s">
-        <v>3145</v>
+        <v>3203</v>
       </c>
       <c r="E682" s="26"/>
     </row>
@@ -28275,13 +28275,13 @@
         <v>20678</v>
       </c>
       <c r="B683" s="6" t="s">
+        <v>3146</v>
+      </c>
+      <c r="C683" s="11" t="s">
+        <v>3148</v>
+      </c>
+      <c r="D683" s="14" t="s">
         <v>3147</v>
-      </c>
-      <c r="C683" s="11" t="s">
-        <v>3149</v>
-      </c>
-      <c r="D683" s="14" t="s">
-        <v>3148</v>
       </c>
       <c r="E683" s="26"/>
     </row>
@@ -28290,13 +28290,13 @@
         <v>20679</v>
       </c>
       <c r="B684" s="6" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C684" s="11" t="s">
+        <v>3204</v>
+      </c>
+      <c r="D684" s="14" t="s">
         <v>3198</v>
-      </c>
-      <c r="C684" s="11" t="s">
-        <v>3203</v>
-      </c>
-      <c r="D684" s="14" t="s">
-        <v>3200</v>
       </c>
       <c r="E684" s="26"/>
     </row>
@@ -28305,13 +28305,13 @@
         <v>20680</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
       <c r="C685" s="11" t="s">
         <v>3205</v>
       </c>
       <c r="D685" s="14" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="E685" s="26"/>
     </row>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58851F7D-15F0-4231-9920-8B564CA149C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C4A5D-18E6-4741-84FD-2145D0C33A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3392" uniqueCount="3210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3398" uniqueCount="3216">
   <si>
     <t>Int</t>
   </si>
@@ -15166,6 +15166,29 @@
   </si>
   <si>
     <t xml:space="preserve">Endless score: </t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Complete_1</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text_Complete_2</t>
+  </si>
+  <si>
+    <t>*恭喜通关！完美通关可获得更多奖励</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>*完美通关会获得更多奖励</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Perfect can earn more rewards</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>*Perfect complete will earn more rewards</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15354,7 +15377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -15495,6 +15518,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15782,8 +15808,8 @@
   <dimension ref="A1:AMJ692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A662" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D686" sqref="D686"/>
+      <pane ySplit="3" topLeftCell="A655" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C677" sqref="C677"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -28350,15 +28376,32 @@
       <c r="E686" s="26"/>
     </row>
     <row r="687" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A687" s="9"/>
-      <c r="C687" s="11"/>
-      <c r="D687" s="14"/>
+      <c r="A687" s="12">
+        <v>20682</v>
+      </c>
+      <c r="B687" s="6" t="s">
+        <v>3210</v>
+      </c>
+      <c r="C687" s="49" t="s">
+        <v>3215</v>
+      </c>
+      <c r="D687" s="14" t="s">
+        <v>3212</v>
+      </c>
     </row>
     <row r="688" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A688" s="9"/>
-      <c r="B688" s="6"/>
-      <c r="C688" s="14"/>
-      <c r="D688" s="14"/>
+      <c r="A688" s="12">
+        <v>20683</v>
+      </c>
+      <c r="B688" s="6" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C688" s="14" t="s">
+        <v>3214</v>
+      </c>
+      <c r="D688" s="14" t="s">
+        <v>3213</v>
+      </c>
       <c r="E688" s="26"/>
     </row>
     <row r="689" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{894101A9-E868-4AAE-9C92-473ADB77B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DDFFD3-2B26-44E2-9DFF-932AF2F7F10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14972,12 +14972,6 @@
     <t>Attack Range:</t>
   </si>
   <si>
-    <t>Attack Segments:</t>
-  </si>
-  <si>
-    <t>Attack Multiplier:</t>
-  </si>
-  <si>
     <t>Attack SPD Increase</t>
   </si>
   <si>
@@ -15202,6 +15196,14 @@
   </si>
   <si>
     <t>Prioritizes attacks on airborne targets.</t>
+  </si>
+  <si>
+    <t>Attack Boost:</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attack Segments:</t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -15820,8 +15822,8 @@
   <dimension ref="A1:AMJ690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A659" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D679" sqref="D679"/>
+      <pane ySplit="3" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -16893,7 +16895,7 @@
         <v>20044</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>135</v>
@@ -17270,7 +17272,7 @@
         <v>181</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>182</v>
@@ -18456,7 +18458,7 @@
         <v>327</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>3152</v>
+        <v>3218</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>2883</v>
@@ -18522,7 +18524,7 @@
         <v>332</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>3153</v>
+        <v>3217</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>333</v>
@@ -18767,7 +18769,7 @@
         <v>3059</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -18789,7 +18791,7 @@
         <v>3059</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -18811,7 +18813,7 @@
         <v>3059</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -18833,7 +18835,7 @@
         <v>3060</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -18855,7 +18857,7 @@
         <v>3060</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -18877,7 +18879,7 @@
         <v>3060</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>3186</v>
+        <v>3184</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -18899,7 +18901,7 @@
         <v>3061</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -18921,7 +18923,7 @@
         <v>3061</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -18943,7 +18945,7 @@
         <v>3061</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -18965,7 +18967,7 @@
         <v>3062</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -18987,7 +18989,7 @@
         <v>3062</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -19009,7 +19011,7 @@
         <v>3062</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -19031,7 +19033,7 @@
         <v>3063</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -19053,7 +19055,7 @@
         <v>3063</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -19075,7 +19077,7 @@
         <v>3063</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -19556,7 +19558,7 @@
         <v>421</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>422</v>
@@ -22374,7 +22376,7 @@
         <v>791</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>792</v>
@@ -22396,7 +22398,7 @@
         <v>793</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>3053</v>
@@ -22466,7 +22468,7 @@
         <v>800</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>3054</v>
@@ -22498,7 +22500,7 @@
         <v>804</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>3055</v>
@@ -22514,7 +22516,7 @@
         <v>805</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>806</v>
@@ -22530,7 +22532,7 @@
         <v>807</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="D307" s="7" t="s">
         <v>808</v>
@@ -22756,7 +22758,7 @@
         <v>847</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>848</v>
@@ -22770,7 +22772,7 @@
         <v>849</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="D324" s="7" t="s">
         <v>850</v>
@@ -22840,7 +22842,7 @@
         <v>863</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="D329" s="7" t="s">
         <v>864</v>
@@ -22854,7 +22856,7 @@
         <v>865</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>866</v>
@@ -22868,7 +22870,7 @@
         <v>867</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>868</v>
@@ -22896,7 +22898,7 @@
         <v>872</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="D333" s="7" t="s">
         <v>873</v>
@@ -22910,7 +22912,7 @@
         <v>874</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>875</v>
@@ -22924,7 +22926,7 @@
         <v>876</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>877</v>
@@ -22938,7 +22940,7 @@
         <v>878</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>3058</v>
@@ -22952,7 +22954,7 @@
         <v>879</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>880</v>
@@ -24036,7 +24038,7 @@
         <v>1072</v>
       </c>
       <c r="C405" s="28" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="D405" s="28" t="s">
         <v>1073</v>
@@ -24052,7 +24054,7 @@
         <v>1074</v>
       </c>
       <c r="C406" s="43" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="D406" s="43" t="s">
         <v>3056</v>
@@ -24068,7 +24070,7 @@
         <v>1075</v>
       </c>
       <c r="C407" s="43" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="D407" s="43" t="s">
         <v>3057</v>
@@ -24084,7 +24086,7 @@
         <v>1076</v>
       </c>
       <c r="C408" s="28" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="D408" s="28" t="s">
         <v>1077</v>
@@ -24100,7 +24102,7 @@
         <v>1078</v>
       </c>
       <c r="C409" s="28" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="D409" s="28" t="s">
         <v>1079</v>
@@ -24116,7 +24118,7 @@
         <v>1080</v>
       </c>
       <c r="C410" s="28" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="D410" s="28" t="s">
         <v>1081</v>
@@ -24132,7 +24134,7 @@
         <v>1082</v>
       </c>
       <c r="C411" s="28" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="D411" s="28" t="s">
         <v>1083</v>
@@ -24148,7 +24150,7 @@
         <v>1084</v>
       </c>
       <c r="C412" s="28" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="D412" s="28" t="s">
         <v>880</v>
@@ -24164,7 +24166,7 @@
         <v>1085</v>
       </c>
       <c r="C413" s="28" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="D413" s="28" t="s">
         <v>848</v>
@@ -24180,7 +24182,7 @@
         <v>1086</v>
       </c>
       <c r="C414" s="28" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="D414" s="28" t="s">
         <v>850</v>
@@ -24260,7 +24262,7 @@
         <v>1091</v>
       </c>
       <c r="C419" s="28" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="D419" s="28" t="s">
         <v>864</v>
@@ -24276,7 +24278,7 @@
         <v>1092</v>
       </c>
       <c r="C420" s="30" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="D420" s="30" t="s">
         <v>866</v>
@@ -24292,7 +24294,7 @@
         <v>1093</v>
       </c>
       <c r="C421" s="28" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="D421" s="28" t="s">
         <v>868</v>
@@ -24324,7 +24326,7 @@
         <v>1095</v>
       </c>
       <c r="C423" s="28" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="D423" s="28" t="s">
         <v>873</v>
@@ -24340,7 +24342,7 @@
         <v>1096</v>
       </c>
       <c r="C424" s="28" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="D424" s="28" t="s">
         <v>875</v>
@@ -24356,7 +24358,7 @@
         <v>1097</v>
       </c>
       <c r="C425" s="28" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="D425" s="28" t="s">
         <v>877</v>
@@ -24372,7 +24374,7 @@
         <v>1098</v>
       </c>
       <c r="C426" s="43" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="D426" s="43" t="s">
         <v>3058</v>
@@ -24388,7 +24390,7 @@
         <v>1099</v>
       </c>
       <c r="C427" s="29" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="D427" s="29" t="s">
         <v>880</v>
@@ -24420,7 +24422,7 @@
         <v>1101</v>
       </c>
       <c r="C429" s="28" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="D429" s="28" t="s">
         <v>1073</v>
@@ -24436,7 +24438,7 @@
         <v>1102</v>
       </c>
       <c r="C430" s="43" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="D430" s="43" t="s">
         <v>3056</v>
@@ -24452,7 +24454,7 @@
         <v>1103</v>
       </c>
       <c r="C431" s="43" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
       <c r="D431" s="43" t="s">
         <v>3057</v>
@@ -24468,7 +24470,7 @@
         <v>1104</v>
       </c>
       <c r="C432" s="29" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="D432" s="29" t="s">
         <v>1077</v>
@@ -24484,7 +24486,7 @@
         <v>1105</v>
       </c>
       <c r="C433" s="28" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
       <c r="D433" s="28" t="s">
         <v>1079</v>
@@ -24500,7 +24502,7 @@
         <v>1106</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="D434" s="29" t="s">
         <v>880</v>
@@ -24516,7 +24518,7 @@
         <v>1107</v>
       </c>
       <c r="C435" s="43" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="D435" s="28" t="s">
         <v>1108</v>
@@ -24532,7 +24534,7 @@
         <v>1109</v>
       </c>
       <c r="C436" s="28" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
       <c r="D436" s="28" t="s">
         <v>1110</v>
@@ -24788,7 +24790,7 @@
         <v>1145</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="D452" s="31" t="s">
         <v>1146</v>
@@ -25078,7 +25080,7 @@
         <v>1195</v>
       </c>
       <c r="C470" s="33" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
       <c r="D470" s="32" t="s">
         <v>1196</v>
@@ -25467,7 +25469,7 @@
         <v>1245</v>
       </c>
       <c r="C494" s="44" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
       <c r="D494" s="22" t="s">
         <v>2920</v>
@@ -26990,7 +26992,7 @@
         <v>1418</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="D593" s="37" t="s">
         <v>1417</v>
@@ -27155,7 +27157,7 @@
         <v>1436</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="D604" s="8" t="s">
         <v>1437</v>
@@ -27185,7 +27187,7 @@
         <v>1440</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
       <c r="D606" s="8" t="s">
         <v>1441</v>
@@ -27447,7 +27449,7 @@
         <v>20619</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>1477</v>
@@ -28320,10 +28322,10 @@
         <v>3140</v>
       </c>
       <c r="C682" s="11" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="D682" s="14" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="E682" s="26"/>
     </row>
@@ -28347,13 +28349,13 @@
         <v>20679</v>
       </c>
       <c r="B684" s="6" t="s">
+        <v>3188</v>
+      </c>
+      <c r="C684" s="11" t="s">
+        <v>3196</v>
+      </c>
+      <c r="D684" s="14" t="s">
         <v>3190</v>
-      </c>
-      <c r="C684" s="11" t="s">
-        <v>3198</v>
-      </c>
-      <c r="D684" s="14" t="s">
-        <v>3192</v>
       </c>
       <c r="E684" s="26"/>
     </row>
@@ -28362,13 +28364,13 @@
         <v>20680</v>
       </c>
       <c r="B685" s="6" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C685" s="11" t="s">
+        <v>3197</v>
+      </c>
+      <c r="D685" s="14" t="s">
         <v>3191</v>
-      </c>
-      <c r="C685" s="11" t="s">
-        <v>3199</v>
-      </c>
-      <c r="D685" s="14" t="s">
-        <v>3193</v>
       </c>
       <c r="E685" s="26"/>
     </row>
@@ -28377,13 +28379,13 @@
         <v>20681</v>
       </c>
       <c r="B686" s="6" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
       <c r="C686" s="11" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="D686" s="14" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="E686" s="26"/>
     </row>
@@ -28392,13 +28394,13 @@
         <v>20682</v>
       </c>
       <c r="B687" s="6" t="s">
+        <v>3205</v>
+      </c>
+      <c r="C687" s="49" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D687" s="14" t="s">
         <v>3207</v>
-      </c>
-      <c r="C687" s="49" t="s">
-        <v>3212</v>
-      </c>
-      <c r="D687" s="14" t="s">
-        <v>3209</v>
       </c>
     </row>
     <row r="688" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -28406,13 +28408,13 @@
         <v>20683</v>
       </c>
       <c r="B688" s="6" t="s">
+        <v>3206</v>
+      </c>
+      <c r="C688" s="14" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D688" s="14" t="s">
         <v>3208</v>
-      </c>
-      <c r="C688" s="14" t="s">
-        <v>3211</v>
-      </c>
-      <c r="D688" s="14" t="s">
-        <v>3210</v>
       </c>
       <c r="E688" s="26"/>
     </row>
@@ -28421,13 +28423,13 @@
         <v>20684</v>
       </c>
       <c r="B689" s="6" t="s">
+        <v>3212</v>
+      </c>
+      <c r="C689" s="11" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D689" s="47" t="s">
         <v>3214</v>
-      </c>
-      <c r="C689" s="11" t="s">
-        <v>3215</v>
-      </c>
-      <c r="D689" s="47" t="s">
-        <v>3216</v>
       </c>
       <c r="E689" s="26"/>
     </row>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74DD4CB-B8E9-4D50-B206-3409073A8B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3F54F-4D8E-4686-84F9-3943423C8C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15173,14 +15173,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>For more detailed rules: https://mobox.gitbook.io/dragon-defense-guidebook</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多详细规则说明请前往 https://mobox.gitbook.io/dragon-defense-guidebook</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>Confirm</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -15194,6 +15186,16 @@
   </si>
   <si>
     <t>取消</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>For more detailed rules:
+https://mobox.gitbook.io/dragon-defense-guidebook</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多详细规则说明请前往：
+https://mobox.gitbook.io/cn-long-yu-bao-wei-zhan-ru-men-shou-ce-dragon-defense</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15813,8 +15815,8 @@
   <dimension ref="A1:AMJ690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+      <pane ySplit="3" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C678" sqref="C678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -25353,10 +25355,10 @@
         <v>1226</v>
       </c>
       <c r="C487" s="33" t="s">
+        <v>3209</v>
+      </c>
+      <c r="D487" s="33" t="s">
         <v>3211</v>
-      </c>
-      <c r="D487" s="33" t="s">
-        <v>3213</v>
       </c>
       <c r="E487" s="6"/>
       <c r="F487" s="9"/>
@@ -25369,10 +25371,10 @@
         <v>1227</v>
       </c>
       <c r="C488" s="33" t="s">
+        <v>3210</v>
+      </c>
+      <c r="D488" s="33" t="s">
         <v>3212</v>
-      </c>
-      <c r="D488" s="33" t="s">
-        <v>3214</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="9"/>
@@ -28245,18 +28247,18 @@
       </c>
       <c r="E677" s="26"/>
     </row>
-    <row r="678" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:5" s="5" customFormat="1" ht="49.5" x14ac:dyDescent="0.35">
       <c r="A678" s="12">
         <v>20673</v>
       </c>
       <c r="B678" s="6" t="s">
         <v>3083</v>
       </c>
-      <c r="C678" s="14" t="s">
-        <v>3209</v>
-      </c>
-      <c r="D678" s="14" t="s">
-        <v>3210</v>
+      <c r="C678" s="23" t="s">
+        <v>3213</v>
+      </c>
+      <c r="D678" s="23" t="s">
+        <v>3214</v>
       </c>
       <c r="E678" s="26"/>
     </row>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF3F54F-4D8E-4686-84F9-3943423C8C97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF47512-9433-4B65-BD5C-CAECD75E57D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3401" uniqueCount="3215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="3224">
   <si>
     <t>Int</t>
   </si>
@@ -15196,6 +15196,42 @@
   <si>
     <t>更多详细规则说明请前往：
 https://mobox.gitbook.io/cn-long-yu-bao-wei-zhan-ru-men-shou-ce-dragon-defense</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害数字</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗特效</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effect</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Combat effects</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damage numbers</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_51</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_52</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_53</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15812,11 +15848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ690"/>
+  <dimension ref="A1:AMJ692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A651" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C678" sqref="C678"/>
+      <pane ySplit="3" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E688" sqref="E688"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -28427,11 +28463,47 @@
       <c r="E689" s="26"/>
     </row>
     <row r="690" spans="1:5" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A690" s="9"/>
-      <c r="B690" s="6"/>
-      <c r="C690" s="11"/>
-      <c r="D690" s="16"/>
+      <c r="A690" s="12">
+        <v>20685</v>
+      </c>
+      <c r="B690" s="6" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C690" s="11" t="s">
+        <v>3218</v>
+      </c>
+      <c r="D690" s="47" t="s">
+        <v>3215</v>
+      </c>
       <c r="E690" s="6"/>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A691" s="12">
+        <v>20686</v>
+      </c>
+      <c r="B691" s="6" t="s">
+        <v>3222</v>
+      </c>
+      <c r="C691" s="8" t="s">
+        <v>3219</v>
+      </c>
+      <c r="D691" s="8" t="s">
+        <v>3217</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A692" s="12">
+        <v>20687</v>
+      </c>
+      <c r="B692" s="6" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C692" s="8" t="s">
+        <v>3220</v>
+      </c>
+      <c r="D692" s="8" t="s">
+        <v>3216</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="17" type="noConversion"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF47512-9433-4B65-BD5C-CAECD75E57D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A1B174-3A29-47B9-A564-2A238A462F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15852,7 +15852,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E688" sqref="E688"/>
+      <selection pane="bottomLeft" activeCell="E690" sqref="E690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A1B174-3A29-47B9-A564-2A238A462F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A5B5F-5A2B-4E2D-8826-F1E3F11B1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14767,14 +14767,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>完成十局完美通关</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finish 10 game with Perfection</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>出售（Q）</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -14823,14 +14815,6 @@
   </si>
   <si>
     <t>解锁1个能量塔上限</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成十局游戏</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>Finish 10 game</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -15232,6 +15216,22 @@
   </si>
   <si>
     <t>UI_53</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish 2 game</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成2局游戏</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish 1 game with Perfection</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成1局完美通关</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15851,8 +15851,8 @@
   <dimension ref="A1:AMJ692"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A663" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E690" sqref="E690"/>
+      <pane ySplit="3" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E552" sqref="E552"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -16924,7 +16924,7 @@
         <v>20044</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>135</v>
@@ -16993,10 +16993,10 @@
         <v>143</v>
       </c>
       <c r="C52" s="45" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -17301,7 +17301,7 @@
         <v>181</v>
       </c>
       <c r="C66" s="45" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="D66" s="17" t="s">
         <v>182</v>
@@ -17983,10 +17983,10 @@
         <v>266</v>
       </c>
       <c r="C97" s="45" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="D97" s="47" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -18002,13 +18002,13 @@
         <v>20093</v>
       </c>
       <c r="B98" s="6" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C98" s="45" t="s">
+        <v>3102</v>
+      </c>
+      <c r="D98" s="47" t="s">
         <v>3106</v>
-      </c>
-      <c r="C98" s="45" t="s">
-        <v>3104</v>
-      </c>
-      <c r="D98" s="47" t="s">
-        <v>3108</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9"/>
@@ -18401,7 +18401,7 @@
         <v>316</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="D116" s="19" t="s">
         <v>317</v>
@@ -18423,7 +18423,7 @@
         <v>318</v>
       </c>
       <c r="C117" s="45" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="D117" s="19" t="s">
         <v>2874</v>
@@ -18443,7 +18443,7 @@
         <v>319</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="D118" s="19" t="s">
         <v>320</v>
@@ -18487,7 +18487,7 @@
         <v>323</v>
       </c>
       <c r="C120" s="45" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="D120" s="19" t="s">
         <v>2876</v>
@@ -18553,7 +18553,7 @@
         <v>328</v>
       </c>
       <c r="C123" s="45" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="D123" s="19" t="s">
         <v>329</v>
@@ -18798,7 +18798,7 @@
         <v>3052</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9"/>
@@ -18820,7 +18820,7 @@
         <v>3052</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="E135" s="9"/>
       <c r="F135" s="9"/>
@@ -18842,7 +18842,7 @@
         <v>3052</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9"/>
@@ -18864,7 +18864,7 @@
         <v>3053</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="E137" s="9"/>
       <c r="F137" s="9"/>
@@ -18886,7 +18886,7 @@
         <v>3053</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9"/>
@@ -18908,7 +18908,7 @@
         <v>3053</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="E139" s="9"/>
       <c r="F139" s="9"/>
@@ -18930,7 +18930,7 @@
         <v>3054</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9"/>
@@ -18952,7 +18952,7 @@
         <v>3054</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9"/>
@@ -18974,7 +18974,7 @@
         <v>3054</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9"/>
@@ -18996,7 +18996,7 @@
         <v>3055</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9"/>
@@ -19018,7 +19018,7 @@
         <v>3055</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9"/>
@@ -19040,7 +19040,7 @@
         <v>3055</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="E145" s="9"/>
       <c r="F145" s="9"/>
@@ -19062,7 +19062,7 @@
         <v>3056</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="E146" s="9"/>
       <c r="F146" s="9"/>
@@ -19084,7 +19084,7 @@
         <v>3056</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9"/>
@@ -19106,7 +19106,7 @@
         <v>3056</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9"/>
@@ -19125,7 +19125,7 @@
         <v>370</v>
       </c>
       <c r="C149" s="44" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="D149" s="22" t="s">
         <v>371</v>
@@ -19147,7 +19147,7 @@
         <v>372</v>
       </c>
       <c r="C150" s="44" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="D150" s="22" t="s">
         <v>373</v>
@@ -19169,7 +19169,7 @@
         <v>374</v>
       </c>
       <c r="C151" s="44" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="D151" s="22" t="s">
         <v>375</v>
@@ -19191,7 +19191,7 @@
         <v>376</v>
       </c>
       <c r="C152" s="44" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="D152" s="22" t="s">
         <v>377</v>
@@ -19213,7 +19213,7 @@
         <v>378</v>
       </c>
       <c r="C153" s="44" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="D153" s="22" t="s">
         <v>379</v>
@@ -19235,10 +19235,10 @@
         <v>380</v>
       </c>
       <c r="C154" s="44" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9"/>
@@ -19257,7 +19257,7 @@
         <v>381</v>
       </c>
       <c r="C155" s="44" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="D155" s="22" t="s">
         <v>382</v>
@@ -19279,7 +19279,7 @@
         <v>383</v>
       </c>
       <c r="C156" s="44" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="D156" s="22" t="s">
         <v>384</v>
@@ -19301,7 +19301,7 @@
         <v>385</v>
       </c>
       <c r="C157" s="44" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="D157" s="22" t="s">
         <v>386</v>
@@ -19323,7 +19323,7 @@
         <v>387</v>
       </c>
       <c r="C158" s="44" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="D158" s="22" t="s">
         <v>388</v>
@@ -19345,7 +19345,7 @@
         <v>389</v>
       </c>
       <c r="C159" s="44" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="D159" s="10" t="s">
         <v>390</v>
@@ -19367,7 +19367,7 @@
         <v>391</v>
       </c>
       <c r="C160" s="44" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="D160" s="10" t="s">
         <v>392</v>
@@ -19389,7 +19389,7 @@
         <v>393</v>
       </c>
       <c r="C161" s="44" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="D161" s="10" t="s">
         <v>394</v>
@@ -19411,7 +19411,7 @@
         <v>395</v>
       </c>
       <c r="C162" s="44" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="D162" s="10" t="s">
         <v>396</v>
@@ -19433,7 +19433,7 @@
         <v>397</v>
       </c>
       <c r="C163" s="44" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="D163" s="10" t="s">
         <v>398</v>
@@ -19587,7 +19587,7 @@
         <v>417</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="D170" s="10" t="s">
         <v>418</v>
@@ -21525,7 +21525,7 @@
         <v>673</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
       <c r="D258" s="6" t="s">
         <v>674</v>
@@ -22405,7 +22405,7 @@
         <v>787</v>
       </c>
       <c r="C298" s="6" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="D298" s="6" t="s">
         <v>788</v>
@@ -22427,7 +22427,7 @@
         <v>789</v>
       </c>
       <c r="C299" s="6" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="D299" s="6" t="s">
         <v>3046</v>
@@ -22497,7 +22497,7 @@
         <v>796</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="D303" s="7" t="s">
         <v>3047</v>
@@ -22529,7 +22529,7 @@
         <v>800</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="D305" s="7" t="s">
         <v>3048</v>
@@ -22545,7 +22545,7 @@
         <v>801</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="D306" s="7" t="s">
         <v>802</v>
@@ -22561,7 +22561,7 @@
         <v>803</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>3206</v>
+        <v>3202</v>
       </c>
       <c r="D307" s="7" t="s">
         <v>804</v>
@@ -22787,7 +22787,7 @@
         <v>843</v>
       </c>
       <c r="C323" s="7" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="D323" s="7" t="s">
         <v>844</v>
@@ -22801,7 +22801,7 @@
         <v>845</v>
       </c>
       <c r="C324" s="7" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="D324" s="7" t="s">
         <v>846</v>
@@ -22871,7 +22871,7 @@
         <v>859</v>
       </c>
       <c r="C329" s="7" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="D329" s="7" t="s">
         <v>860</v>
@@ -22885,7 +22885,7 @@
         <v>861</v>
       </c>
       <c r="C330" s="7" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="D330" s="7" t="s">
         <v>862</v>
@@ -22899,7 +22899,7 @@
         <v>863</v>
       </c>
       <c r="C331" s="7" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="D331" s="7" t="s">
         <v>864</v>
@@ -22927,7 +22927,7 @@
         <v>868</v>
       </c>
       <c r="C333" s="7" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="D333" s="7" t="s">
         <v>869</v>
@@ -22941,7 +22941,7 @@
         <v>870</v>
       </c>
       <c r="C334" s="7" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="D334" s="7" t="s">
         <v>871</v>
@@ -22955,7 +22955,7 @@
         <v>872</v>
       </c>
       <c r="C335" s="7" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="D335" s="7" t="s">
         <v>873</v>
@@ -22969,7 +22969,7 @@
         <v>874</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="D336" s="7" t="s">
         <v>3051</v>
@@ -22983,7 +22983,7 @@
         <v>875</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="D337" s="7" t="s">
         <v>876</v>
@@ -24067,7 +24067,7 @@
         <v>1068</v>
       </c>
       <c r="C405" s="28" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="D405" s="28" t="s">
         <v>1069</v>
@@ -24083,7 +24083,7 @@
         <v>1070</v>
       </c>
       <c r="C406" s="43" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="D406" s="43" t="s">
         <v>3049</v>
@@ -24099,7 +24099,7 @@
         <v>1071</v>
       </c>
       <c r="C407" s="43" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="D407" s="43" t="s">
         <v>3050</v>
@@ -24115,7 +24115,7 @@
         <v>1072</v>
       </c>
       <c r="C408" s="28" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="D408" s="28" t="s">
         <v>1073</v>
@@ -24131,7 +24131,7 @@
         <v>1074</v>
       </c>
       <c r="C409" s="28" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="D409" s="28" t="s">
         <v>1075</v>
@@ -24147,7 +24147,7 @@
         <v>1076</v>
       </c>
       <c r="C410" s="28" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="D410" s="28" t="s">
         <v>1077</v>
@@ -24163,7 +24163,7 @@
         <v>1078</v>
       </c>
       <c r="C411" s="28" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="D411" s="28" t="s">
         <v>1079</v>
@@ -24179,7 +24179,7 @@
         <v>1080</v>
       </c>
       <c r="C412" s="28" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="D412" s="28" t="s">
         <v>876</v>
@@ -24195,7 +24195,7 @@
         <v>1081</v>
       </c>
       <c r="C413" s="28" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="D413" s="28" t="s">
         <v>844</v>
@@ -24211,7 +24211,7 @@
         <v>1082</v>
       </c>
       <c r="C414" s="28" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="D414" s="28" t="s">
         <v>846</v>
@@ -24291,7 +24291,7 @@
         <v>1087</v>
       </c>
       <c r="C419" s="28" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="D419" s="28" t="s">
         <v>860</v>
@@ -24307,7 +24307,7 @@
         <v>1088</v>
       </c>
       <c r="C420" s="30" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="D420" s="30" t="s">
         <v>862</v>
@@ -24323,7 +24323,7 @@
         <v>1089</v>
       </c>
       <c r="C421" s="28" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="D421" s="28" t="s">
         <v>864</v>
@@ -24355,7 +24355,7 @@
         <v>1091</v>
       </c>
       <c r="C423" s="28" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="D423" s="28" t="s">
         <v>869</v>
@@ -24371,7 +24371,7 @@
         <v>1092</v>
       </c>
       <c r="C424" s="28" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="D424" s="28" t="s">
         <v>871</v>
@@ -24387,7 +24387,7 @@
         <v>1093</v>
       </c>
       <c r="C425" s="28" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="D425" s="28" t="s">
         <v>873</v>
@@ -24403,7 +24403,7 @@
         <v>1094</v>
       </c>
       <c r="C426" s="43" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="D426" s="43" t="s">
         <v>3051</v>
@@ -24419,7 +24419,7 @@
         <v>1095</v>
       </c>
       <c r="C427" s="29" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="D427" s="29" t="s">
         <v>876</v>
@@ -24451,7 +24451,7 @@
         <v>1097</v>
       </c>
       <c r="C429" s="28" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="D429" s="28" t="s">
         <v>1069</v>
@@ -24467,7 +24467,7 @@
         <v>1098</v>
       </c>
       <c r="C430" s="43" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="D430" s="43" t="s">
         <v>3049</v>
@@ -24483,7 +24483,7 @@
         <v>1099</v>
       </c>
       <c r="C431" s="43" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="D431" s="43" t="s">
         <v>3050</v>
@@ -24499,7 +24499,7 @@
         <v>1100</v>
       </c>
       <c r="C432" s="29" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="D432" s="29" t="s">
         <v>1073</v>
@@ -24515,7 +24515,7 @@
         <v>1101</v>
       </c>
       <c r="C433" s="28" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="D433" s="28" t="s">
         <v>1075</v>
@@ -24531,7 +24531,7 @@
         <v>1102</v>
       </c>
       <c r="C434" s="29" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="D434" s="29" t="s">
         <v>876</v>
@@ -24547,7 +24547,7 @@
         <v>1103</v>
       </c>
       <c r="C435" s="43" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="D435" s="28" t="s">
         <v>1104</v>
@@ -24563,7 +24563,7 @@
         <v>1105</v>
       </c>
       <c r="C436" s="28" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="D436" s="28" t="s">
         <v>1106</v>
@@ -24640,7 +24640,7 @@
         <v>20436</v>
       </c>
       <c r="B441" s="6" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="C441" s="11" t="s">
         <v>1118</v>
@@ -24806,7 +24806,7 @@
         <v>3032</v>
       </c>
       <c r="D451" s="31" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="E451" s="6"/>
       <c r="F451" s="9"/>
@@ -24819,7 +24819,7 @@
         <v>1141</v>
       </c>
       <c r="C452" s="11" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="D452" s="31" t="s">
         <v>1142</v>
@@ -24899,10 +24899,10 @@
         <v>1155</v>
       </c>
       <c r="C457" s="11" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="D457" s="10" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="E457" s="6"/>
       <c r="F457" s="9"/>
@@ -25109,7 +25109,7 @@
         <v>1191</v>
       </c>
       <c r="C470" s="33" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="D470" s="32" t="s">
         <v>1192</v>
@@ -25378,7 +25378,7 @@
         <v>1225</v>
       </c>
       <c r="D486" s="33" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="E486" s="6"/>
       <c r="F486" s="9"/>
@@ -25391,10 +25391,10 @@
         <v>1226</v>
       </c>
       <c r="C487" s="33" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="D487" s="33" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="E487" s="6"/>
       <c r="F487" s="9"/>
@@ -25407,10 +25407,10 @@
         <v>1227</v>
       </c>
       <c r="C488" s="33" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="D488" s="33" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="E488" s="6"/>
       <c r="F488" s="9"/>
@@ -25498,7 +25498,7 @@
         <v>1238</v>
       </c>
       <c r="C494" s="44" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="D494" s="22" t="s">
         <v>2913</v>
@@ -26108,10 +26108,10 @@
         <v>1316</v>
       </c>
       <c r="C534" s="44" t="s">
-        <v>3113</v>
+        <v>3220</v>
       </c>
       <c r="D534" s="44" t="s">
-        <v>3112</v>
+        <v>3221</v>
       </c>
       <c r="E534" s="6"/>
       <c r="F534" s="9"/>
@@ -26124,10 +26124,10 @@
         <v>1317</v>
       </c>
       <c r="C535" s="44" t="s">
-        <v>3098</v>
+        <v>3222</v>
       </c>
       <c r="D535" s="44" t="s">
-        <v>3097</v>
+        <v>3223</v>
       </c>
       <c r="E535" s="6"/>
       <c r="F535" s="9"/>
@@ -27021,7 +27021,7 @@
         <v>1411</v>
       </c>
       <c r="C593" s="11" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="D593" s="37" t="s">
         <v>1410</v>
@@ -27186,7 +27186,7 @@
         <v>1429</v>
       </c>
       <c r="C604" s="11" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="D604" s="8" t="s">
         <v>1430</v>
@@ -27216,7 +27216,7 @@
         <v>1433</v>
       </c>
       <c r="C606" s="11" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="D606" s="8" t="s">
         <v>1434</v>
@@ -27478,7 +27478,7 @@
         <v>20619</v>
       </c>
       <c r="B624" s="6" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="C624" s="5" t="s">
         <v>1470</v>
@@ -28081,7 +28081,7 @@
         <v>2857</v>
       </c>
       <c r="C664" s="7" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="D664" s="14" t="s">
         <v>3077</v>
@@ -28126,7 +28126,7 @@
         <v>2866</v>
       </c>
       <c r="C667" s="11" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="D667" s="14" t="s">
         <v>2867</v>
@@ -28291,10 +28291,10 @@
         <v>3083</v>
       </c>
       <c r="C678" s="23" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="D678" s="23" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="E678" s="26"/>
     </row>
@@ -28333,13 +28333,13 @@
         <v>20676</v>
       </c>
       <c r="B681" s="6" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="C681" s="11" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
       <c r="D681" s="14" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="E681" s="26"/>
     </row>
@@ -28348,13 +28348,13 @@
         <v>20677</v>
       </c>
       <c r="B682" s="6" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="C682" s="11" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="D682" s="14" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="E682" s="26"/>
     </row>
@@ -28363,13 +28363,13 @@
         <v>20678</v>
       </c>
       <c r="B683" s="6" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="C683" s="11" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="D683" s="14" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="E683" s="26"/>
     </row>
@@ -28378,13 +28378,13 @@
         <v>20679</v>
       </c>
       <c r="B684" s="6" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="C684" s="11" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="D684" s="14" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="E684" s="26"/>
     </row>
@@ -28393,13 +28393,13 @@
         <v>20680</v>
       </c>
       <c r="B685" s="6" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="C685" s="11" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="D685" s="14" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="E685" s="26"/>
     </row>
@@ -28408,13 +28408,13 @@
         <v>20681</v>
       </c>
       <c r="B686" s="6" t="s">
+        <v>3186</v>
+      </c>
+      <c r="C686" s="11" t="s">
         <v>3190</v>
       </c>
-      <c r="C686" s="11" t="s">
-        <v>3194</v>
-      </c>
       <c r="D686" s="14" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="E686" s="26"/>
     </row>
@@ -28423,13 +28423,13 @@
         <v>20682</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="C687" s="49" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="D687" s="14" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="688" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -28437,13 +28437,13 @@
         <v>20683</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="C688" s="14" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="D688" s="14" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="E688" s="26"/>
     </row>
@@ -28452,13 +28452,13 @@
         <v>20684</v>
       </c>
       <c r="B689" s="6" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="C689" s="11" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="D689" s="47" t="s">
-        <v>3204</v>
+        <v>3200</v>
       </c>
       <c r="E689" s="26"/>
     </row>
@@ -28467,13 +28467,13 @@
         <v>20685</v>
       </c>
       <c r="B690" s="6" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="C690" s="11" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="D690" s="47" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="E690" s="6"/>
     </row>
@@ -28482,13 +28482,13 @@
         <v>20686</v>
       </c>
       <c r="B691" s="6" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="C691" s="8" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="D691" s="8" t="s">
-        <v>3217</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.35">
@@ -28496,13 +28496,13 @@
         <v>20687</v>
       </c>
       <c r="B692" s="6" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="C692" s="8" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="D692" s="8" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\P12GPark\Editor\editor_v0.40.0.2.20241015185135\MetaWorldSaved\Saved\MetaWorld\Project\Edit\dragon-verse\nevergiveup\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A5B5F-5A2B-4E2D-8826-F1E3F11B1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16004076-C4C9-46B6-A686-C82C16A5CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3410" uniqueCount="3224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3416" uniqueCount="3230">
   <si>
     <t>Int</t>
   </si>
@@ -15232,6 +15232,30 @@
   </si>
   <si>
     <t>完成1局完美通关</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_54</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sweep</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speed sweep</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速扫荡</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_55</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
@@ -15848,11 +15872,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ692"/>
+  <dimension ref="A1:AMJ694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E552" sqref="E552"/>
+      <pane ySplit="3" topLeftCell="A669" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F699" sqref="F699"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -28503,6 +28527,34 @@
       </c>
       <c r="D692" s="8" t="s">
         <v>3212</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A693" s="12">
+        <v>20688</v>
+      </c>
+      <c r="B693" s="6" t="s">
+        <v>3224</v>
+      </c>
+      <c r="C693" s="8" t="s">
+        <v>3225</v>
+      </c>
+      <c r="D693" s="8" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A694" s="12">
+        <v>20689</v>
+      </c>
+      <c r="B694" s="6" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C694" s="8" t="s">
+        <v>3227</v>
+      </c>
+      <c r="D694" s="8" t="s">
+        <v>3228</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17600" tabRatio="500"/>
+    <workbookView windowHeight="17150" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4536,19 +4536,19 @@
     <t>Task_taskName_55</t>
   </si>
   <si>
-    <t>Finish 2 game</t>
-  </si>
-  <si>
-    <t>完成2局游戏</t>
+    <t>Finish 5 game</t>
+  </si>
+  <si>
+    <t>完成5局游戏</t>
   </si>
   <si>
     <t>Task_taskName_56</t>
   </si>
   <si>
-    <t>Finish 1 game with Perfection</t>
-  </si>
-  <si>
-    <t>完成1局完美通关</t>
+    <t>Finish 10 game with Perfection</t>
+  </si>
+  <si>
+    <t>完成10局完美通关</t>
   </si>
   <si>
     <t>Task_taskName_57</t>
@@ -5190,10 +5190,10 @@
     <t>Task_taskinfo_73</t>
   </si>
   <si>
-    <t>Unlocked 1 Tower Today</t>
-  </si>
-  <si>
-    <t>今日解锁一个塔</t>
+    <t>Unlocked 2 Tower Today</t>
+  </si>
+  <si>
+    <t>今日解锁2个塔</t>
   </si>
   <si>
     <t>Return_text_1</t>
@@ -14783,7 +14783,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -14803,11 +14803,6 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -15345,28 +15340,31 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15375,121 +15373,118 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -15525,8 +15520,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -15534,52 +15532,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -15588,37 +15583,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -15945,9 +15940,9 @@
   <dimension ref="A1:L717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D720" sqref="D720"/>
+      <selection pane="bottomLeft" activeCell="D620" sqref="D620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.5"/>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17150" tabRatio="500"/>
+    <workbookView windowHeight="18360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3485" uniqueCount="3255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3491" uniqueCount="3261">
   <si>
     <t>Int</t>
   </si>
@@ -5952,6 +5952,24 @@
   </si>
   <si>
     <t>DragonPoints</t>
+  </si>
+  <si>
+    <t>Online_shop016</t>
+  </si>
+  <si>
+    <t>Sweep Token</t>
+  </si>
+  <si>
+    <t>扫荡券</t>
+  </si>
+  <si>
+    <t>Online_shop017</t>
+  </si>
+  <si>
+    <t>Speed-sweep for Perfect Victory stages</t>
+  </si>
+  <si>
+    <t>快速通关已经取得完美胜利的关卡</t>
   </si>
   <si>
     <t>keys</t>
@@ -14778,10 +14796,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -15340,19 +15358,19 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -15621,55 +15639,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="Excel Built-in Warning Text" xfId="49"/>
   </cellStyles>
   <dxfs count="1">
@@ -15937,15 +15955,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L717"/>
+  <dimension ref="A1:L719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A708" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D620" sqref="D620"/>
+      <selection pane="bottomLeft" activeCell="C729" sqref="C729"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.875" style="7" customWidth="1"/>
     <col min="2" max="2" width="32.875" style="6" customWidth="1"/>
@@ -16048,7 +16066,7 @@
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" ht="16.5" spans="1:12">
+    <row r="5" ht="17.25" spans="1:12">
       <c r="A5" s="9"/>
       <c r="C5" s="11"/>
       <c r="D5" s="10"/>
@@ -16327,7 +16345,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" ht="16.5" spans="1:12">
+    <row r="18" spans="1:12">
       <c r="A18" s="9">
         <v>20013</v>
       </c>
@@ -16393,7 +16411,7 @@
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" ht="16.5" spans="1:12">
+    <row r="21" ht="17.25" spans="1:12">
       <c r="A21" s="9">
         <v>20016</v>
       </c>
@@ -16415,7 +16433,7 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" ht="16.5" spans="1:12">
+    <row r="22" ht="17.25" spans="1:12">
       <c r="A22" s="9">
         <v>20017</v>
       </c>
@@ -16437,7 +16455,7 @@
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" ht="16.5" spans="1:12">
+    <row r="23" ht="17.25" spans="1:12">
       <c r="A23" s="9">
         <v>20018</v>
       </c>
@@ -16459,7 +16477,7 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" ht="16.5" spans="1:12">
+    <row r="24" ht="17.25" spans="1:12">
       <c r="A24" s="9">
         <v>20019</v>
       </c>
@@ -16481,7 +16499,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" ht="16.5" spans="1:12">
+    <row r="25" ht="17.25" spans="1:12">
       <c r="A25" s="9">
         <v>20020</v>
       </c>
@@ -16503,7 +16521,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" ht="16.5" spans="1:12">
+    <row r="26" ht="17.25" spans="1:12">
       <c r="A26" s="9">
         <v>20021</v>
       </c>
@@ -16525,7 +16543,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" ht="16.5" spans="1:12">
+    <row r="27" ht="17.25" spans="1:12">
       <c r="A27" s="9">
         <v>20022</v>
       </c>
@@ -16591,7 +16609,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" ht="16.5" spans="1:12">
+    <row r="30" ht="17.25" spans="1:12">
       <c r="A30" s="9">
         <v>20025</v>
       </c>
@@ -16613,7 +16631,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" ht="16.5" spans="1:12">
+    <row r="31" ht="17.25" spans="1:12">
       <c r="A31" s="9">
         <v>20026</v>
       </c>
@@ -16635,7 +16653,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" ht="16.5" spans="1:12">
+    <row r="32" ht="17.25" spans="1:12">
       <c r="A32" s="9">
         <v>20027</v>
       </c>
@@ -16657,7 +16675,7 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" ht="16.5" spans="1:12">
+    <row r="33" ht="17.25" spans="1:12">
       <c r="A33" s="9">
         <v>20028</v>
       </c>
@@ -16679,7 +16697,7 @@
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" ht="16.5" spans="1:12">
+    <row r="34" ht="17.25" spans="1:12">
       <c r="A34" s="9">
         <v>20029</v>
       </c>
@@ -16701,7 +16719,7 @@
       <c r="K34" s="9"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" ht="16.5" spans="1:12">
+    <row r="35" ht="17.25" spans="1:12">
       <c r="A35" s="9">
         <v>20030</v>
       </c>
@@ -16723,7 +16741,7 @@
       <c r="K35" s="9"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" ht="16.5" spans="1:12">
+    <row r="36" ht="17.25" spans="1:12">
       <c r="A36" s="9">
         <v>20031</v>
       </c>
@@ -16745,7 +16763,7 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" ht="16.5" spans="1:12">
+    <row r="37" ht="17.25" spans="1:12">
       <c r="A37" s="9">
         <v>20032</v>
       </c>
@@ -16789,7 +16807,7 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" ht="16.5" spans="1:12">
+    <row r="39" ht="17.25" spans="1:12">
       <c r="A39" s="9">
         <v>20034</v>
       </c>
@@ -16811,7 +16829,7 @@
       <c r="K39" s="9"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" ht="16.5" spans="1:12">
+    <row r="40" ht="17.25" spans="1:12">
       <c r="A40" s="9">
         <v>20035</v>
       </c>
@@ -16855,7 +16873,7 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" ht="16.5" spans="1:12">
+    <row r="42" spans="1:12">
       <c r="A42" s="9">
         <v>20037</v>
       </c>
@@ -16877,7 +16895,7 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" ht="16.5" spans="1:12">
+    <row r="43" spans="1:12">
       <c r="A43" s="9">
         <v>20038</v>
       </c>
@@ -17867,7 +17885,7 @@
       <c r="K87" s="9"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" ht="16.25" spans="1:12">
+    <row r="88" ht="17.25" spans="1:12">
       <c r="A88" s="9">
         <v>20083</v>
       </c>
@@ -17889,7 +17907,7 @@
       <c r="K88" s="9"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" ht="16.25" spans="1:12">
+    <row r="89" ht="17.25" spans="1:12">
       <c r="A89" s="9">
         <v>20084</v>
       </c>
@@ -17911,7 +17929,7 @@
       <c r="K89" s="9"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" ht="16.25" spans="1:12">
+    <row r="90" ht="17.25" spans="1:12">
       <c r="A90" s="9">
         <v>20085</v>
       </c>
@@ -18461,7 +18479,7 @@
       <c r="K114" s="9"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" ht="16.5" spans="1:12">
+    <row r="115" spans="1:12">
       <c r="A115" s="9">
         <v>20110</v>
       </c>
@@ -18483,7 +18501,7 @@
       <c r="K115" s="9"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" ht="16.5" spans="1:12">
+    <row r="116" spans="1:12">
       <c r="A116" s="9">
         <v>20111</v>
       </c>
@@ -18505,7 +18523,7 @@
       <c r="K116" s="9"/>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" ht="16.5" spans="1:12">
+    <row r="117" spans="1:12">
       <c r="A117" s="9">
         <v>20112</v>
       </c>
@@ -18525,7 +18543,7 @@
       <c r="K117" s="9"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" ht="16.5" spans="1:12">
+    <row r="118" spans="1:12">
       <c r="A118" s="9">
         <v>20113</v>
       </c>
@@ -18547,7 +18565,7 @@
       <c r="K118" s="9"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" ht="16.5" spans="1:12">
+    <row r="119" spans="1:12">
       <c r="A119" s="9">
         <v>20114</v>
       </c>
@@ -18569,7 +18587,7 @@
       <c r="K119" s="9"/>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" ht="16.5" spans="1:12">
+    <row r="120" spans="1:12">
       <c r="A120" s="9">
         <v>20115</v>
       </c>
@@ -18591,7 +18609,7 @@
       <c r="K120" s="9"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" ht="16.5" spans="1:12">
+    <row r="121" spans="1:12">
       <c r="A121" s="9">
         <v>20116</v>
       </c>
@@ -18613,7 +18631,7 @@
       <c r="K121" s="9"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" ht="16.5" spans="1:12">
+    <row r="122" spans="1:12">
       <c r="A122" s="9">
         <v>20117</v>
       </c>
@@ -18635,7 +18653,7 @@
       <c r="K122" s="9"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" ht="16.5" spans="1:12">
+    <row r="123" spans="1:12">
       <c r="A123" s="9">
         <v>20118</v>
       </c>
@@ -18657,7 +18675,7 @@
       <c r="K123" s="9"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" ht="16.5" spans="1:12">
+    <row r="124" spans="1:12">
       <c r="A124" s="9">
         <v>20119</v>
       </c>
@@ -18679,7 +18697,7 @@
       <c r="K124" s="9"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" ht="16.5" spans="1:12">
+    <row r="125" spans="1:12">
       <c r="A125" s="9">
         <v>20120</v>
       </c>
@@ -18701,7 +18719,7 @@
       <c r="K125" s="9"/>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" ht="16.5" spans="1:12">
+    <row r="126" spans="1:12">
       <c r="A126" s="9">
         <v>20121</v>
       </c>
@@ -18723,7 +18741,7 @@
       <c r="K126" s="9"/>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" ht="16.5" spans="1:12">
+    <row r="127" spans="1:12">
       <c r="A127" s="9">
         <v>20122</v>
       </c>
@@ -18745,7 +18763,7 @@
       <c r="K127" s="9"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" ht="16.5" spans="1:12">
+    <row r="128" spans="1:12">
       <c r="A128" s="9">
         <v>20123</v>
       </c>
@@ -18767,7 +18785,7 @@
       <c r="K128" s="9"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" ht="16.5" spans="1:12">
+    <row r="129" spans="1:12">
       <c r="A129" s="9">
         <v>20124</v>
       </c>
@@ -18789,7 +18807,7 @@
       <c r="K129" s="9"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" ht="16.5" spans="1:12">
+    <row r="130" spans="1:12">
       <c r="A130" s="9">
         <v>20125</v>
       </c>
@@ -18811,7 +18829,7 @@
       <c r="K130" s="9"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" ht="16.5" spans="1:12">
+    <row r="131" spans="1:12">
       <c r="A131" s="9">
         <v>20126</v>
       </c>
@@ -20857,7 +20875,7 @@
       <c r="K223" s="9"/>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" ht="16.25" spans="1:12">
+    <row r="224" ht="17.25" spans="1:12">
       <c r="A224" s="9">
         <v>20219</v>
       </c>
@@ -20879,7 +20897,7 @@
       <c r="K224" s="9"/>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" ht="16.25" spans="1:12">
+    <row r="225" ht="17.25" spans="1:12">
       <c r="A225" s="9">
         <v>20220</v>
       </c>
@@ -20901,7 +20919,7 @@
       <c r="K225" s="9"/>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" ht="16.25" spans="1:12">
+    <row r="226" ht="17.25" spans="1:12">
       <c r="A226" s="9">
         <v>20221</v>
       </c>
@@ -20923,7 +20941,7 @@
       <c r="K226" s="9"/>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" ht="16.25" spans="1:12">
+    <row r="227" ht="17.25" spans="1:12">
       <c r="A227" s="9">
         <v>20222</v>
       </c>
@@ -20945,7 +20963,7 @@
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" ht="16.25" spans="1:12">
+    <row r="228" ht="17.25" spans="1:12">
       <c r="A228" s="9">
         <v>20223</v>
       </c>
@@ -20967,7 +20985,7 @@
       <c r="K228" s="9"/>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" ht="16.25" spans="1:12">
+    <row r="229" ht="17.25" spans="1:12">
       <c r="A229" s="9">
         <v>20224</v>
       </c>
@@ -20989,7 +21007,7 @@
       <c r="K229" s="9"/>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" ht="16.25" spans="1:12">
+    <row r="230" ht="17.25" spans="1:12">
       <c r="A230" s="9">
         <v>20225</v>
       </c>
@@ -21011,7 +21029,7 @@
       <c r="K230" s="9"/>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" ht="16.25" spans="1:12">
+    <row r="231" ht="17.25" spans="1:12">
       <c r="A231" s="9">
         <v>20226</v>
       </c>
@@ -21277,7 +21295,7 @@
       <c r="K242" s="9"/>
       <c r="L242" s="9"/>
     </row>
-    <row r="243" ht="16.25" spans="1:12">
+    <row r="243" ht="17.25" spans="1:12">
       <c r="A243" s="9">
         <v>20238</v>
       </c>
@@ -21299,7 +21317,7 @@
       <c r="K243" s="9"/>
       <c r="L243" s="9"/>
     </row>
-    <row r="244" ht="16.25" spans="1:12">
+    <row r="244" ht="17.25" spans="1:12">
       <c r="A244" s="9">
         <v>20239</v>
       </c>
@@ -21321,7 +21339,7 @@
       <c r="K244" s="9"/>
       <c r="L244" s="9"/>
     </row>
-    <row r="245" ht="16.25" spans="1:12">
+    <row r="245" ht="17.25" spans="1:12">
       <c r="A245" s="9">
         <v>20240</v>
       </c>
@@ -21651,7 +21669,7 @@
       <c r="K259" s="9"/>
       <c r="L259" s="9"/>
     </row>
-    <row r="260" ht="16.25" spans="1:12">
+    <row r="260" ht="17.25" spans="1:12">
       <c r="A260" s="7">
         <v>20255</v>
       </c>
@@ -21673,7 +21691,7 @@
       <c r="K260" s="9"/>
       <c r="L260" s="9"/>
     </row>
-    <row r="261" ht="16.25" spans="1:12">
+    <row r="261" ht="17.25" spans="1:12">
       <c r="A261" s="7">
         <v>20256</v>
       </c>
@@ -21695,7 +21713,7 @@
       <c r="K261" s="9"/>
       <c r="L261" s="9"/>
     </row>
-    <row r="262" ht="16.25" spans="1:12">
+    <row r="262" ht="17.25" spans="1:12">
       <c r="A262" s="7">
         <v>20257</v>
       </c>
@@ -21717,7 +21735,7 @@
       <c r="K262" s="9"/>
       <c r="L262" s="9"/>
     </row>
-    <row r="263" ht="16.25" spans="1:12">
+    <row r="263" ht="17.25" spans="1:12">
       <c r="A263" s="7">
         <v>20258</v>
       </c>
@@ -21739,7 +21757,7 @@
       <c r="K263" s="9"/>
       <c r="L263" s="9"/>
     </row>
-    <row r="264" ht="16.25" spans="1:12">
+    <row r="264" ht="17.25" spans="1:12">
       <c r="A264" s="7">
         <v>20259</v>
       </c>
@@ -21761,7 +21779,7 @@
       <c r="K264" s="9"/>
       <c r="L264" s="9"/>
     </row>
-    <row r="265" ht="16.25" spans="1:12">
+    <row r="265" ht="17.25" spans="1:12">
       <c r="A265" s="7">
         <v>20260</v>
       </c>
@@ -21783,7 +21801,7 @@
       <c r="K265" s="9"/>
       <c r="L265" s="9"/>
     </row>
-    <row r="266" ht="16.25" spans="1:12">
+    <row r="266" ht="17.25" spans="1:12">
       <c r="A266" s="7">
         <v>20261</v>
       </c>
@@ -21805,7 +21823,7 @@
       <c r="K266" s="9"/>
       <c r="L266" s="9"/>
     </row>
-    <row r="267" ht="16.25" spans="1:12">
+    <row r="267" ht="17.25" spans="1:12">
       <c r="A267" s="7">
         <v>20262</v>
       </c>
@@ -21827,7 +21845,7 @@
       <c r="K267" s="9"/>
       <c r="L267" s="9"/>
     </row>
-    <row r="268" ht="16.25" spans="1:12">
+    <row r="268" ht="17.25" spans="1:12">
       <c r="A268" s="7">
         <v>20263</v>
       </c>
@@ -21849,7 +21867,7 @@
       <c r="K268" s="9"/>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" ht="16.25" spans="1:12">
+    <row r="269" ht="17.25" spans="1:12">
       <c r="A269" s="7">
         <v>20264</v>
       </c>
@@ -21871,7 +21889,7 @@
       <c r="K269" s="9"/>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" ht="16.25" spans="1:12">
+    <row r="270" ht="17.25" spans="1:12">
       <c r="A270" s="7">
         <v>20265</v>
       </c>
@@ -21893,7 +21911,7 @@
       <c r="K270" s="9"/>
       <c r="L270" s="9"/>
     </row>
-    <row r="271" ht="16.25" spans="1:12">
+    <row r="271" ht="17.25" spans="1:12">
       <c r="A271" s="7">
         <v>20266</v>
       </c>
@@ -21915,7 +21933,7 @@
       <c r="K271" s="9"/>
       <c r="L271" s="9"/>
     </row>
-    <row r="272" ht="16.25" spans="1:12">
+    <row r="272" ht="17.25" spans="1:12">
       <c r="A272" s="7">
         <v>20267</v>
       </c>
@@ -21937,7 +21955,7 @@
       <c r="K272" s="9"/>
       <c r="L272" s="9"/>
     </row>
-    <row r="273" ht="16.25" spans="1:12">
+    <row r="273" ht="17.25" spans="1:12">
       <c r="A273" s="7">
         <v>20268</v>
       </c>
@@ -21959,7 +21977,7 @@
       <c r="K273" s="9"/>
       <c r="L273" s="9"/>
     </row>
-    <row r="274" ht="16.25" spans="1:12">
+    <row r="274" ht="17.25" spans="1:12">
       <c r="A274" s="7">
         <v>20269</v>
       </c>
@@ -21981,7 +21999,7 @@
       <c r="K274" s="9"/>
       <c r="L274" s="9"/>
     </row>
-    <row r="275" ht="16.25" spans="1:12">
+    <row r="275" ht="17.25" spans="1:12">
       <c r="A275" s="7">
         <v>20270</v>
       </c>
@@ -22003,7 +22021,7 @@
       <c r="K275" s="9"/>
       <c r="L275" s="9"/>
     </row>
-    <row r="276" ht="16.25" spans="1:12">
+    <row r="276" ht="17.25" spans="1:12">
       <c r="A276" s="7">
         <v>20271</v>
       </c>
@@ -22025,7 +22043,7 @@
       <c r="K276" s="9"/>
       <c r="L276" s="9"/>
     </row>
-    <row r="277" ht="16.25" spans="1:12">
+    <row r="277" ht="17.25" spans="1:12">
       <c r="A277" s="7">
         <v>20272</v>
       </c>
@@ -22047,7 +22065,7 @@
       <c r="K277" s="9"/>
       <c r="L277" s="9"/>
     </row>
-    <row r="278" ht="16.25" spans="1:12">
+    <row r="278" ht="17.25" spans="1:12">
       <c r="A278" s="7">
         <v>20273</v>
       </c>
@@ -22069,7 +22087,7 @@
       <c r="K278" s="9"/>
       <c r="L278" s="9"/>
     </row>
-    <row r="279" ht="16.25" spans="1:12">
+    <row r="279" ht="17.25" spans="1:12">
       <c r="A279" s="7">
         <v>20274</v>
       </c>
@@ -22091,7 +22109,7 @@
       <c r="K279" s="9"/>
       <c r="L279" s="9"/>
     </row>
-    <row r="280" ht="16.25" spans="1:12">
+    <row r="280" ht="17.25" spans="1:12">
       <c r="A280" s="7">
         <v>20275</v>
       </c>
@@ -22113,7 +22131,7 @@
       <c r="K280" s="9"/>
       <c r="L280" s="9"/>
     </row>
-    <row r="281" ht="16.25" spans="1:12">
+    <row r="281" ht="17.25" spans="1:12">
       <c r="A281" s="7">
         <v>20276</v>
       </c>
@@ -22135,7 +22153,7 @@
       <c r="K281" s="9"/>
       <c r="L281" s="9"/>
     </row>
-    <row r="282" ht="16.25" spans="1:12">
+    <row r="282" ht="17.25" spans="1:12">
       <c r="A282" s="7">
         <v>20277</v>
       </c>
@@ -22157,7 +22175,7 @@
       <c r="K282" s="9"/>
       <c r="L282" s="9"/>
     </row>
-    <row r="283" ht="16.25" spans="1:12">
+    <row r="283" ht="17.25" spans="1:12">
       <c r="A283" s="7">
         <v>20278</v>
       </c>
@@ -22179,7 +22197,7 @@
       <c r="K283" s="9"/>
       <c r="L283" s="9"/>
     </row>
-    <row r="284" ht="16.25" spans="1:12">
+    <row r="284" ht="17.25" spans="1:12">
       <c r="A284" s="7">
         <v>20279</v>
       </c>
@@ -22201,7 +22219,7 @@
       <c r="K284" s="9"/>
       <c r="L284" s="9"/>
     </row>
-    <row r="285" ht="16.25" spans="1:12">
+    <row r="285" ht="17.25" spans="1:12">
       <c r="A285" s="7">
         <v>20280</v>
       </c>
@@ -22223,7 +22241,7 @@
       <c r="K285" s="9"/>
       <c r="L285" s="9"/>
     </row>
-    <row r="286" ht="16.25" spans="1:12">
+    <row r="286" ht="17.25" spans="1:12">
       <c r="A286" s="7">
         <v>20281</v>
       </c>
@@ -22245,7 +22263,7 @@
       <c r="K286" s="9"/>
       <c r="L286" s="9"/>
     </row>
-    <row r="287" ht="16.25" spans="1:12">
+    <row r="287" ht="17.25" spans="1:12">
       <c r="A287" s="7">
         <v>20282</v>
       </c>
@@ -22267,7 +22285,7 @@
       <c r="K287" s="9"/>
       <c r="L287" s="9"/>
     </row>
-    <row r="288" ht="16.25" spans="1:12">
+    <row r="288" ht="17.25" spans="1:12">
       <c r="A288" s="7">
         <v>20283</v>
       </c>
@@ -22659,7 +22677,7 @@
       <c r="E307" s="30"/>
       <c r="F307" s="9"/>
     </row>
-    <row r="308" s="6" customFormat="1" spans="1:4">
+    <row r="308" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A308" s="7">
         <v>20303</v>
       </c>
@@ -22673,7 +22691,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="309" s="6" customFormat="1" spans="1:4">
+    <row r="309" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A309" s="7">
         <v>20304</v>
       </c>
@@ -22687,7 +22705,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="310" s="6" customFormat="1" spans="1:4">
+    <row r="310" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A310" s="7">
         <v>20305</v>
       </c>
@@ -22701,7 +22719,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="311" s="6" customFormat="1" spans="1:4">
+    <row r="311" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A311" s="7">
         <v>20306</v>
       </c>
@@ -22715,7 +22733,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="312" s="6" customFormat="1" spans="1:4">
+    <row r="312" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A312" s="7">
         <v>20307</v>
       </c>
@@ -22729,7 +22747,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="313" s="6" customFormat="1" spans="1:4">
+    <row r="313" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A313" s="7">
         <v>20308</v>
       </c>
@@ -22743,7 +22761,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="314" s="6" customFormat="1" spans="1:4">
+    <row r="314" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A314" s="7">
         <v>20309</v>
       </c>
@@ -22757,7 +22775,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="315" s="6" customFormat="1" spans="1:4">
+    <row r="315" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A315" s="7">
         <v>20310</v>
       </c>
@@ -22771,7 +22789,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="316" s="6" customFormat="1" spans="1:4">
+    <row r="316" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A316" s="7">
         <v>20311</v>
       </c>
@@ -22785,7 +22803,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:4">
+    <row r="317" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A317" s="7">
         <v>20312</v>
       </c>
@@ -22799,7 +22817,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:4">
+    <row r="318" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A318" s="7">
         <v>20313</v>
       </c>
@@ -22813,7 +22831,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:4">
+    <row r="319" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A319" s="7">
         <v>20314</v>
       </c>
@@ -22827,7 +22845,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:4">
+    <row r="320" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A320" s="7">
         <v>20315</v>
       </c>
@@ -22841,7 +22859,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:4">
+    <row r="321" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A321" s="7">
         <v>20316</v>
       </c>
@@ -22855,7 +22873,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:4">
+    <row r="322" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A322" s="7">
         <v>20317</v>
       </c>
@@ -22869,7 +22887,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="323" s="6" customFormat="1" spans="1:4">
+    <row r="323" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A323" s="7">
         <v>20318</v>
       </c>
@@ -22883,7 +22901,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="324" s="6" customFormat="1" spans="1:4">
+    <row r="324" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A324" s="7">
         <v>20319</v>
       </c>
@@ -22897,7 +22915,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="325" s="6" customFormat="1" spans="1:4">
+    <row r="325" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A325" s="7">
         <v>20320</v>
       </c>
@@ -22911,7 +22929,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="326" s="6" customFormat="1" spans="1:4">
+    <row r="326" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A326" s="7">
         <v>20321</v>
       </c>
@@ -22925,7 +22943,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="327" s="6" customFormat="1" spans="1:4">
+    <row r="327" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A327" s="7">
         <v>20322</v>
       </c>
@@ -22939,7 +22957,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="328" s="6" customFormat="1" spans="1:4">
+    <row r="328" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A328" s="7">
         <v>20323</v>
       </c>
@@ -22953,7 +22971,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="329" s="6" customFormat="1" spans="1:4">
+    <row r="329" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A329" s="7">
         <v>20324</v>
       </c>
@@ -22967,7 +22985,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="330" s="6" customFormat="1" spans="1:4">
+    <row r="330" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A330" s="7">
         <v>20325</v>
       </c>
@@ -22981,7 +22999,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="331" s="6" customFormat="1" spans="1:4">
+    <row r="331" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A331" s="7">
         <v>20326</v>
       </c>
@@ -22995,7 +23013,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="332" s="6" customFormat="1" spans="1:4">
+    <row r="332" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A332" s="7">
         <v>20327</v>
       </c>
@@ -23009,7 +23027,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="333" s="6" customFormat="1" spans="1:4">
+    <row r="333" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A333" s="7">
         <v>20328</v>
       </c>
@@ -23023,7 +23041,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="334" s="6" customFormat="1" spans="1:4">
+    <row r="334" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A334" s="7">
         <v>20329</v>
       </c>
@@ -23037,7 +23055,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="335" s="6" customFormat="1" spans="1:4">
+    <row r="335" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A335" s="7">
         <v>20330</v>
       </c>
@@ -23051,7 +23069,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="336" s="6" customFormat="1" spans="1:4">
+    <row r="336" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A336" s="7">
         <v>20331</v>
       </c>
@@ -23065,7 +23083,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="337" s="6" customFormat="1" spans="1:4">
+    <row r="337" s="6" customFormat="1" ht="15.75" spans="1:4">
       <c r="A337" s="7">
         <v>20332</v>
       </c>
@@ -23687,7 +23705,7 @@
       <c r="E375" s="6"/>
       <c r="F375" s="9"/>
     </row>
-    <row r="376" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="376" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A376" s="7">
         <v>20371</v>
       </c>
@@ -23703,7 +23721,7 @@
       <c r="E376" s="6"/>
       <c r="F376" s="9"/>
     </row>
-    <row r="377" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="377" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A377" s="7">
         <v>20372</v>
       </c>
@@ -23719,7 +23737,7 @@
       <c r="E377" s="6"/>
       <c r="F377" s="9"/>
     </row>
-    <row r="378" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="378" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A378" s="7">
         <v>20373</v>
       </c>
@@ -23735,7 +23753,7 @@
       <c r="E378" s="6"/>
       <c r="F378" s="9"/>
     </row>
-    <row r="379" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="379" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A379" s="7">
         <v>20374</v>
       </c>
@@ -23751,7 +23769,7 @@
       <c r="E379" s="6"/>
       <c r="F379" s="9"/>
     </row>
-    <row r="380" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="380" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A380" s="7">
         <v>20375</v>
       </c>
@@ -23767,7 +23785,7 @@
       <c r="E380" s="6"/>
       <c r="F380" s="9"/>
     </row>
-    <row r="381" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="381" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A381" s="7">
         <v>20376</v>
       </c>
@@ -23783,7 +23801,7 @@
       <c r="E381" s="6"/>
       <c r="F381" s="9"/>
     </row>
-    <row r="382" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="382" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A382" s="7">
         <v>20377</v>
       </c>
@@ -23799,7 +23817,7 @@
       <c r="E382" s="6"/>
       <c r="F382" s="9"/>
     </row>
-    <row r="383" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="383" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A383" s="7">
         <v>20378</v>
       </c>
@@ -23815,7 +23833,7 @@
       <c r="E383" s="6"/>
       <c r="F383" s="9"/>
     </row>
-    <row r="384" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="384" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A384" s="7">
         <v>20379</v>
       </c>
@@ -23831,7 +23849,7 @@
       <c r="E384" s="6"/>
       <c r="F384" s="9"/>
     </row>
-    <row r="385" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="385" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A385" s="7">
         <v>20380</v>
       </c>
@@ -23847,7 +23865,7 @@
       <c r="E385" s="6"/>
       <c r="F385" s="9"/>
     </row>
-    <row r="386" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="386" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A386" s="7">
         <v>20381</v>
       </c>
@@ -23863,7 +23881,7 @@
       <c r="E386" s="6"/>
       <c r="F386" s="9"/>
     </row>
-    <row r="387" s="5" customFormat="1" ht="16.5" spans="1:4">
+    <row r="387" s="5" customFormat="1" ht="17.25" spans="1:4">
       <c r="A387" s="7">
         <v>20382</v>
       </c>
@@ -23877,7 +23895,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="388" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="388" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A388" s="7">
         <v>20383</v>
       </c>
@@ -23893,7 +23911,7 @@
       <c r="E388" s="6"/>
       <c r="F388" s="9"/>
     </row>
-    <row r="389" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="389" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A389" s="7">
         <v>20384</v>
       </c>
@@ -23909,7 +23927,7 @@
       <c r="E389" s="6"/>
       <c r="F389" s="9"/>
     </row>
-    <row r="390" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="390" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A390" s="7">
         <v>20385</v>
       </c>
@@ -23925,7 +23943,7 @@
       <c r="E390" s="6"/>
       <c r="F390" s="9"/>
     </row>
-    <row r="391" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="391" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A391" s="7">
         <v>20386</v>
       </c>
@@ -23941,7 +23959,7 @@
       <c r="E391" s="6"/>
       <c r="F391" s="9"/>
     </row>
-    <row r="392" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="392" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A392" s="7">
         <v>20387</v>
       </c>
@@ -23957,7 +23975,7 @@
       <c r="E392" s="6"/>
       <c r="F392" s="9"/>
     </row>
-    <row r="393" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="393" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A393" s="7">
         <v>20388</v>
       </c>
@@ -24389,7 +24407,7 @@
       <c r="E419" s="6"/>
       <c r="F419" s="9"/>
     </row>
-    <row r="420" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="420" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A420" s="7">
         <v>20415</v>
       </c>
@@ -24501,7 +24519,7 @@
       <c r="E426" s="6"/>
       <c r="F426" s="9"/>
     </row>
-    <row r="427" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="427" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A427" s="7">
         <v>20422</v>
       </c>
@@ -24581,7 +24599,7 @@
       <c r="E431" s="6"/>
       <c r="F431" s="9"/>
     </row>
-    <row r="432" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="432" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A432" s="7">
         <v>20427</v>
       </c>
@@ -24613,7 +24631,7 @@
       <c r="E433" s="6"/>
       <c r="F433" s="9"/>
     </row>
-    <row r="434" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="434" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A434" s="7">
         <v>20429</v>
       </c>
@@ -24677,7 +24695,7 @@
       <c r="E437" s="6"/>
       <c r="F437" s="9"/>
     </row>
-    <row r="438" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="438" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A438" s="7">
         <v>20433</v>
       </c>
@@ -24709,7 +24727,7 @@
       <c r="E439" s="6"/>
       <c r="F439" s="9"/>
     </row>
-    <row r="440" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="440" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A440" s="7">
         <v>20435</v>
       </c>
@@ -24725,7 +24743,7 @@
       <c r="E440" s="6"/>
       <c r="F440" s="9"/>
     </row>
-    <row r="441" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="441" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A441" s="7">
         <v>20436</v>
       </c>
@@ -24789,7 +24807,7 @@
       <c r="E444" s="6"/>
       <c r="F444" s="9"/>
     </row>
-    <row r="445" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="445" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A445" s="7">
         <v>20440</v>
       </c>
@@ -24837,7 +24855,7 @@
       <c r="E447" s="6"/>
       <c r="F447" s="9"/>
     </row>
-    <row r="448" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="448" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A448" s="7">
         <v>20443</v>
       </c>
@@ -24885,7 +24903,7 @@
       <c r="E450" s="6"/>
       <c r="F450" s="9"/>
     </row>
-    <row r="451" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="451" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A451" s="7">
         <v>20446</v>
       </c>
@@ -24901,7 +24919,7 @@
       <c r="E451" s="6"/>
       <c r="F451" s="9"/>
     </row>
-    <row r="452" s="5" customFormat="1" ht="31" spans="1:6">
+    <row r="452" s="5" customFormat="1" ht="31.5" spans="1:6">
       <c r="A452" s="7">
         <v>20447</v>
       </c>
@@ -24933,7 +24951,7 @@
       <c r="E453" s="6"/>
       <c r="F453" s="9"/>
     </row>
-    <row r="454" s="5" customFormat="1" ht="31" spans="1:6">
+    <row r="454" s="5" customFormat="1" ht="31.5" spans="1:6">
       <c r="A454" s="7">
         <v>20449</v>
       </c>
@@ -24965,7 +24983,7 @@
       <c r="E455" s="6"/>
       <c r="F455" s="9"/>
     </row>
-    <row r="456" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="456" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A456" s="7">
         <v>20451</v>
       </c>
@@ -24981,7 +24999,7 @@
       <c r="E456" s="6"/>
       <c r="F456" s="9"/>
     </row>
-    <row r="457" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="457" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A457" s="7">
         <v>20452</v>
       </c>
@@ -25013,7 +25031,7 @@
       <c r="E458" s="6"/>
       <c r="F458" s="9"/>
     </row>
-    <row r="459" s="5" customFormat="1" ht="31" spans="1:6">
+    <row r="459" s="5" customFormat="1" ht="31.5" spans="1:6">
       <c r="A459" s="7">
         <v>20454</v>
       </c>
@@ -25109,7 +25127,7 @@
       <c r="E464" s="6"/>
       <c r="F464" s="9"/>
     </row>
-    <row r="465" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="465" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A465" s="7">
         <v>20460</v>
       </c>
@@ -25125,7 +25143,7 @@
       <c r="E465" s="6"/>
       <c r="F465" s="9"/>
     </row>
-    <row r="466" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="466" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A466" s="7">
         <v>20461</v>
       </c>
@@ -25141,7 +25159,7 @@
       <c r="E466" s="6"/>
       <c r="F466" s="9"/>
     </row>
-    <row r="467" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="467" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A467" s="7">
         <v>20462</v>
       </c>
@@ -25157,7 +25175,7 @@
       <c r="E467" s="6"/>
       <c r="F467" s="9"/>
     </row>
-    <row r="468" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="468" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A468" s="7">
         <v>20463</v>
       </c>
@@ -25850,7 +25868,7 @@
       </c>
       <c r="F511" s="9"/>
     </row>
-    <row r="512" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="512" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A512" s="12">
         <v>20507</v>
       </c>
@@ -25865,7 +25883,7 @@
       </c>
       <c r="F512" s="9"/>
     </row>
-    <row r="513" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="513" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A513" s="12">
         <v>20508</v>
       </c>
@@ -25880,7 +25898,7 @@
       </c>
       <c r="F513" s="9"/>
     </row>
-    <row r="514" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="514" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A514" s="12">
         <v>20509</v>
       </c>
@@ -25895,7 +25913,7 @@
       </c>
       <c r="F514" s="9"/>
     </row>
-    <row r="515" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="515" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A515" s="12">
         <v>20510</v>
       </c>
@@ -25910,7 +25928,7 @@
       </c>
       <c r="F515" s="9"/>
     </row>
-    <row r="516" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="516" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A516" s="12">
         <v>20511</v>
       </c>
@@ -26286,7 +26304,7 @@
       <c r="E539" s="6"/>
       <c r="F539" s="9"/>
     </row>
-    <row r="540" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="540" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A540" s="12">
         <v>20535</v>
       </c>
@@ -26302,7 +26320,7 @@
       <c r="E540" s="6"/>
       <c r="F540" s="9"/>
     </row>
-    <row r="541" s="5" customFormat="1" ht="16.5" spans="1:6">
+    <row r="541" s="5" customFormat="1" ht="17.25" spans="1:6">
       <c r="A541" s="12">
         <v>20536</v>
       </c>
@@ -27028,7 +27046,7 @@
       </c>
       <c r="E587" s="30"/>
     </row>
-    <row r="588" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="588" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A588" s="12">
         <v>20583</v>
       </c>
@@ -27043,7 +27061,7 @@
       </c>
       <c r="E588" s="30"/>
     </row>
-    <row r="589" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="589" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A589" s="12">
         <v>20584</v>
       </c>
@@ -27058,7 +27076,7 @@
       </c>
       <c r="E589" s="30"/>
     </row>
-    <row r="590" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="590" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A590" s="12">
         <v>20585</v>
       </c>
@@ -27088,7 +27106,7 @@
       </c>
       <c r="E591" s="30"/>
     </row>
-    <row r="592" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="592" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A592" s="12">
         <v>20587</v>
       </c>
@@ -27103,7 +27121,7 @@
       </c>
       <c r="E592" s="30"/>
     </row>
-    <row r="593" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="593" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A593" s="12">
         <v>20588</v>
       </c>
@@ -27118,7 +27136,7 @@
       </c>
       <c r="E593" s="30"/>
     </row>
-    <row r="594" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="594" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A594" s="12">
         <v>20589</v>
       </c>
@@ -27133,7 +27151,7 @@
       </c>
       <c r="E594" s="30"/>
     </row>
-    <row r="595" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="595" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A595" s="12">
         <v>20590</v>
       </c>
@@ -27148,7 +27166,7 @@
       </c>
       <c r="E595" s="30"/>
     </row>
-    <row r="596" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="596" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A596" s="12">
         <v>20591</v>
       </c>
@@ -27163,7 +27181,7 @@
       </c>
       <c r="E596" s="30"/>
     </row>
-    <row r="597" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="597" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A597" s="12">
         <v>20592</v>
       </c>
@@ -27178,7 +27196,7 @@
       </c>
       <c r="E597" s="30"/>
     </row>
-    <row r="598" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="598" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A598" s="12">
         <v>20593</v>
       </c>
@@ -27193,7 +27211,7 @@
       </c>
       <c r="E598" s="30"/>
     </row>
-    <row r="599" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="599" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A599" s="12">
         <v>20594</v>
       </c>
@@ -27208,7 +27226,7 @@
       </c>
       <c r="E599" s="30"/>
     </row>
-    <row r="600" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="600" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A600" s="12">
         <v>20595</v>
       </c>
@@ -27223,7 +27241,7 @@
       </c>
       <c r="E600" s="30"/>
     </row>
-    <row r="601" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="601" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A601" s="12">
         <v>20596</v>
       </c>
@@ -27238,7 +27256,7 @@
       </c>
       <c r="E601" s="30"/>
     </row>
-    <row r="602" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="602" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A602" s="12">
         <v>20597</v>
       </c>
@@ -27253,7 +27271,7 @@
       </c>
       <c r="E602" s="30"/>
     </row>
-    <row r="603" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="603" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A603" s="12">
         <v>20598</v>
       </c>
@@ -27268,7 +27286,7 @@
       </c>
       <c r="E603" s="30"/>
     </row>
-    <row r="604" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="604" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A604" s="12">
         <v>20599</v>
       </c>
@@ -27283,7 +27301,7 @@
       </c>
       <c r="E604" s="30"/>
     </row>
-    <row r="605" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="605" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A605" s="12">
         <v>20600</v>
       </c>
@@ -27298,7 +27316,7 @@
       </c>
       <c r="E605" s="30"/>
     </row>
-    <row r="606" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="606" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A606" s="12">
         <v>20601</v>
       </c>
@@ -27328,7 +27346,7 @@
       </c>
       <c r="E607" s="6"/>
     </row>
-    <row r="608" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="608" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A608" s="12">
         <v>20603</v>
       </c>
@@ -27343,7 +27361,7 @@
       </c>
       <c r="E608" s="6"/>
     </row>
-    <row r="609" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="609" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A609" s="12">
         <v>20604</v>
       </c>
@@ -27358,7 +27376,7 @@
       </c>
       <c r="E609" s="6"/>
     </row>
-    <row r="610" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="610" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A610" s="12">
         <v>20605</v>
       </c>
@@ -27373,7 +27391,7 @@
       </c>
       <c r="E610" s="6"/>
     </row>
-    <row r="611" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="611" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A611" s="12">
         <v>20606</v>
       </c>
@@ -27388,7 +27406,7 @@
       </c>
       <c r="E611" s="6"/>
     </row>
-    <row r="612" s="5" customFormat="1" ht="16.5" spans="1:4">
+    <row r="612" s="5" customFormat="1" ht="17.25" spans="1:4">
       <c r="A612" s="12">
         <v>20607</v>
       </c>
@@ -27402,7 +27420,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="613" s="5" customFormat="1" ht="16.5" spans="1:4">
+    <row r="613" s="5" customFormat="1" ht="17.25" spans="1:4">
       <c r="A613" s="12">
         <v>20608</v>
       </c>
@@ -27416,7 +27434,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="614" s="5" customFormat="1" ht="16.5" spans="1:4">
+    <row r="614" s="5" customFormat="1" ht="17.25" spans="1:4">
       <c r="A614" s="12">
         <v>20609</v>
       </c>
@@ -27430,7 +27448,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="615" s="5" customFormat="1" ht="16.5" spans="1:4">
+    <row r="615" s="5" customFormat="1" ht="17.25" spans="1:4">
       <c r="A615" s="12">
         <v>20610</v>
       </c>
@@ -27444,7 +27462,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="616" s="5" customFormat="1" ht="16.5" spans="1:4">
+    <row r="616" s="5" customFormat="1" ht="17.25" spans="1:4">
       <c r="A616" s="12">
         <v>20611</v>
       </c>
@@ -27473,7 +27491,7 @@
       </c>
       <c r="E617" s="6"/>
     </row>
-    <row r="618" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="618" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A618" s="12">
         <v>20613</v>
       </c>
@@ -27488,7 +27506,7 @@
       </c>
       <c r="E618" s="6"/>
     </row>
-    <row r="619" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="619" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A619" s="12">
         <v>20614</v>
       </c>
@@ -27503,7 +27521,7 @@
       </c>
       <c r="E619" s="6"/>
     </row>
-    <row r="620" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="620" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A620" s="12">
         <v>20615</v>
       </c>
@@ -27518,7 +27536,7 @@
       </c>
       <c r="E620" s="6"/>
     </row>
-    <row r="621" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="621" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A621" s="12">
         <v>20616</v>
       </c>
@@ -27563,7 +27581,7 @@
       </c>
       <c r="E623" s="30"/>
     </row>
-    <row r="624" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="624" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A624" s="12">
         <v>20619</v>
       </c>
@@ -27653,7 +27671,7 @@
       </c>
       <c r="E629" s="30"/>
     </row>
-    <row r="630" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="630" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A630" s="12">
         <v>20625</v>
       </c>
@@ -27668,7 +27686,7 @@
       </c>
       <c r="E630" s="30"/>
     </row>
-    <row r="631" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="631" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A631" s="12">
         <v>20626</v>
       </c>
@@ -27683,7 +27701,7 @@
       </c>
       <c r="E631" s="30"/>
     </row>
-    <row r="632" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="632" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A632" s="12">
         <v>20627</v>
       </c>
@@ -27698,7 +27716,7 @@
       </c>
       <c r="E632" s="30"/>
     </row>
-    <row r="633" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="633" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A633" s="12">
         <v>20628</v>
       </c>
@@ -27713,7 +27731,7 @@
       </c>
       <c r="E633" s="30"/>
     </row>
-    <row r="634" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="634" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A634" s="12">
         <v>20629</v>
       </c>
@@ -27728,7 +27746,7 @@
       </c>
       <c r="E634" s="30"/>
     </row>
-    <row r="635" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="635" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A635" s="12">
         <v>20630</v>
       </c>
@@ -27743,7 +27761,7 @@
       </c>
       <c r="E635" s="30"/>
     </row>
-    <row r="636" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="636" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A636" s="12">
         <v>20631</v>
       </c>
@@ -27758,7 +27776,7 @@
       </c>
       <c r="E636" s="30"/>
     </row>
-    <row r="637" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="637" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A637" s="12">
         <v>20632</v>
       </c>
@@ -27773,7 +27791,7 @@
       </c>
       <c r="E637" s="30"/>
     </row>
-    <row r="638" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="638" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A638" s="12">
         <v>20633</v>
       </c>
@@ -27788,7 +27806,7 @@
       </c>
       <c r="E638" s="30"/>
     </row>
-    <row r="639" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="639" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A639" s="12">
         <v>20634</v>
       </c>
@@ -27803,7 +27821,7 @@
       </c>
       <c r="E639" s="30"/>
     </row>
-    <row r="640" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="640" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A640" s="12">
         <v>20635</v>
       </c>
@@ -27818,7 +27836,7 @@
       </c>
       <c r="E640" s="30"/>
     </row>
-    <row r="641" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="641" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A641" s="12">
         <v>20636</v>
       </c>
@@ -27833,7 +27851,7 @@
       </c>
       <c r="E641" s="30"/>
     </row>
-    <row r="642" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="642" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A642" s="12">
         <v>20637</v>
       </c>
@@ -27848,7 +27866,7 @@
       </c>
       <c r="E642" s="30"/>
     </row>
-    <row r="643" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="643" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A643" s="12">
         <v>20638</v>
       </c>
@@ -27863,7 +27881,7 @@
       </c>
       <c r="E643" s="30"/>
     </row>
-    <row r="644" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="644" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A644" s="12">
         <v>20639</v>
       </c>
@@ -27878,7 +27896,7 @@
       </c>
       <c r="E644" s="30"/>
     </row>
-    <row r="645" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="645" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A645" s="12">
         <v>20640</v>
       </c>
@@ -27893,7 +27911,7 @@
       </c>
       <c r="E645" s="30"/>
     </row>
-    <row r="646" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="646" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A646" s="12">
         <v>20641</v>
       </c>
@@ -27908,7 +27926,7 @@
       </c>
       <c r="E646" s="30"/>
     </row>
-    <row r="647" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="647" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A647" s="12">
         <v>20642</v>
       </c>
@@ -27923,7 +27941,7 @@
       </c>
       <c r="E647" s="30"/>
     </row>
-    <row r="648" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="648" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A648" s="12">
         <v>20643</v>
       </c>
@@ -27938,7 +27956,7 @@
       </c>
       <c r="E648" s="30"/>
     </row>
-    <row r="649" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="649" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A649" s="12">
         <v>20644</v>
       </c>
@@ -27953,7 +27971,7 @@
       </c>
       <c r="E649" s="30"/>
     </row>
-    <row r="650" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="650" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A650" s="12">
         <v>20645</v>
       </c>
@@ -27968,7 +27986,7 @@
       </c>
       <c r="E650" s="30"/>
     </row>
-    <row r="651" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="651" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A651" s="12">
         <v>20646</v>
       </c>
@@ -27983,7 +28001,7 @@
       </c>
       <c r="E651" s="30"/>
     </row>
-    <row r="652" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="652" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A652" s="12">
         <v>20647</v>
       </c>
@@ -27998,7 +28016,7 @@
       </c>
       <c r="E652" s="30"/>
     </row>
-    <row r="653" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="653" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A653" s="12">
         <v>20648</v>
       </c>
@@ -28013,7 +28031,7 @@
       </c>
       <c r="E653" s="30"/>
     </row>
-    <row r="654" s="5" customFormat="1" ht="16.25" spans="1:5">
+    <row r="654" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A654" s="12">
         <v>20649</v>
       </c>
@@ -28208,7 +28226,7 @@
       </c>
       <c r="E666" s="30"/>
     </row>
-    <row r="667" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="667" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A667" s="12">
         <v>20662</v>
       </c>
@@ -28223,7 +28241,7 @@
       </c>
       <c r="E667" s="30"/>
     </row>
-    <row r="668" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="668" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A668" s="12">
         <v>20663</v>
       </c>
@@ -28253,7 +28271,7 @@
       </c>
       <c r="E669" s="30"/>
     </row>
-    <row r="670" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="670" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A670" s="12">
         <v>20665</v>
       </c>
@@ -28268,7 +28286,7 @@
       </c>
       <c r="E670" s="30"/>
     </row>
-    <row r="671" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="671" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A671" s="12">
         <v>20666</v>
       </c>
@@ -28283,7 +28301,7 @@
       </c>
       <c r="E671" s="30"/>
     </row>
-    <row r="672" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="672" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A672" s="12">
         <v>20667</v>
       </c>
@@ -28298,7 +28316,7 @@
       </c>
       <c r="E672" s="30"/>
     </row>
-    <row r="673" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="673" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A673" s="12">
         <v>20668</v>
       </c>
@@ -28313,7 +28331,7 @@
       </c>
       <c r="E673" s="6"/>
     </row>
-    <row r="674" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="674" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A674" s="12">
         <v>20669</v>
       </c>
@@ -28328,7 +28346,7 @@
       </c>
       <c r="E674" s="6"/>
     </row>
-    <row r="675" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="675" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A675" s="12">
         <v>20670</v>
       </c>
@@ -28343,7 +28361,7 @@
       </c>
       <c r="E675" s="6"/>
     </row>
-    <row r="676" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="676" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A676" s="12">
         <v>20671</v>
       </c>
@@ -28373,7 +28391,7 @@
       </c>
       <c r="E677" s="30"/>
     </row>
-    <row r="678" s="5" customFormat="1" ht="43.5" spans="1:5">
+    <row r="678" s="5" customFormat="1" ht="49.5" spans="1:5">
       <c r="A678" s="12">
         <v>20673</v>
       </c>
@@ -28418,7 +28436,7 @@
       </c>
       <c r="E680" s="30"/>
     </row>
-    <row r="681" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="681" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A681" s="12">
         <v>20676</v>
       </c>
@@ -28433,7 +28451,7 @@
       </c>
       <c r="E681" s="30"/>
     </row>
-    <row r="682" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="682" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A682" s="12">
         <v>20677</v>
       </c>
@@ -28448,7 +28466,7 @@
       </c>
       <c r="E682" s="30"/>
     </row>
-    <row r="683" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="683" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A683" s="12">
         <v>20678</v>
       </c>
@@ -28463,7 +28481,7 @@
       </c>
       <c r="E683" s="30"/>
     </row>
-    <row r="684" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="684" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A684" s="12">
         <v>20679</v>
       </c>
@@ -28478,7 +28496,7 @@
       </c>
       <c r="E684" s="30"/>
     </row>
-    <row r="685" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="685" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A685" s="12">
         <v>20680</v>
       </c>
@@ -28493,7 +28511,7 @@
       </c>
       <c r="E685" s="30"/>
     </row>
-    <row r="686" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="686" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A686" s="12">
         <v>20681</v>
       </c>
@@ -28508,7 +28526,7 @@
       </c>
       <c r="E686" s="30"/>
     </row>
-    <row r="687" ht="16.5" spans="1:4">
+    <row r="687" ht="17.25" spans="1:4">
       <c r="A687" s="12">
         <v>20682</v>
       </c>
@@ -28537,7 +28555,7 @@
       </c>
       <c r="E688" s="30"/>
     </row>
-    <row r="689" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="689" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A689" s="12">
         <v>20684</v>
       </c>
@@ -28552,7 +28570,7 @@
       </c>
       <c r="E689" s="30"/>
     </row>
-    <row r="690" s="5" customFormat="1" ht="16.5" spans="1:5">
+    <row r="690" s="5" customFormat="1" ht="17.25" spans="1:5">
       <c r="A690" s="12">
         <v>20685</v>
       </c>
@@ -28931,7 +28949,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="717" ht="16.5" spans="1:4">
+    <row r="717" spans="1:4">
       <c r="A717" s="9">
         <v>20712</v>
       </c>
@@ -28945,14 +28963,42 @@
         <v>1973</v>
       </c>
     </row>
+    <row r="718" spans="1:4">
+      <c r="A718" s="9">
+        <v>20713</v>
+      </c>
+      <c r="B718" s="38" t="s">
+        <v>1974</v>
+      </c>
+      <c r="C718" s="36" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D718" s="25" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="719" spans="1:4">
+      <c r="A719" s="9">
+        <v>20714</v>
+      </c>
+      <c r="B719" s="38" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C719" s="8" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D719" s="10" t="s">
+        <v>1979</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A717">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A644:A646">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A339:A468 A1:A245 A626:A643 A647:A704 A705:B713 A714:A716 A718:A1048576">
+  <conditionalFormatting sqref="A717:A719">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A339:A468 A1:A245 A626:A643 A647:A704 A705:B713 A714:A716 A720:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -28970,7 +29016,7 @@
       <selection activeCell="P420" sqref="P420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="32.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.625" style="1" customWidth="1"/>
@@ -28979,57 +29025,57 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>1974</v>
+        <v>1980</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1975</v>
+        <v>1981</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1976</v>
+        <v>1982</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1977</v>
+        <v>1983</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1978</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>1979</v>
+        <v>1985</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1981</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>1982</v>
+        <v>1988</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1984</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>1985</v>
+        <v>1991</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1987</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>1988</v>
+        <v>1994</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1365</v>
@@ -29040,7 +29086,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>1989</v>
+        <v>1995</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>1362</v>
@@ -29051,260 +29097,260 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>1990</v>
+        <v>1996</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1991</v>
+        <v>1997</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1992</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>1993</v>
+        <v>1999</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1995</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>1996</v>
+        <v>2002</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1997</v>
+        <v>2003</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1998</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>2001</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>2002</v>
+        <v>2008</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>2003</v>
+        <v>2009</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>2004</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>2005</v>
+        <v>2011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>2006</v>
+        <v>2012</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>2007</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>2010</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>2013</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>2014</v>
+        <v>2020</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>2015</v>
+        <v>2021</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>2016</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>2018</v>
+        <v>2024</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>2019</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>2020</v>
+        <v>2026</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>2021</v>
+        <v>2027</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>2022</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
-        <v>2023</v>
+        <v>2029</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>2024</v>
+        <v>2030</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>2025</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
-        <v>2026</v>
+        <v>2032</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>2027</v>
+        <v>2033</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>2028</v>
+        <v>2034</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>2029</v>
+        <v>2035</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>2030</v>
+        <v>2036</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>2031</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>2032</v>
+        <v>2038</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>2033</v>
+        <v>2039</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>2034</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>2035</v>
+        <v>2041</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>2036</v>
+        <v>2042</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>2037</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>2038</v>
+        <v>2044</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>2039</v>
+        <v>2045</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>2040</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>2041</v>
+        <v>2047</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>2042</v>
+        <v>2048</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>2043</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>2045</v>
+        <v>2051</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>2046</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2" t="s">
-        <v>2047</v>
+        <v>2053</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>2048</v>
+        <v>2054</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>2049</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>2050</v>
+        <v>2056</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>2000</v>
+        <v>2006</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>2001</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>2051</v>
+        <v>2057</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>2052</v>
+        <v>2058</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>2053</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>2054</v>
+        <v>2060</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>2055</v>
+        <v>2061</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>2056</v>
+        <v>2062</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>2057</v>
+        <v>2063</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>56</v>
@@ -29315,7 +29361,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>2058</v>
+        <v>2064</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>53</v>
@@ -29326,18 +29372,18 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>2059</v>
+        <v>2065</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2060</v>
+        <v>2066</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>2061</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>2062</v>
+        <v>2068</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>537</v>
@@ -29348,1297 +29394,1297 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>2063</v>
+        <v>2069</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1980</v>
+        <v>1986</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1981</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>2064</v>
+        <v>2070</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1984</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>2065</v>
+        <v>2071</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1986</v>
+        <v>1992</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1987</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>2066</v>
+        <v>2072</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>2067</v>
+        <v>2073</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>2068</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>2069</v>
+        <v>2075</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>2070</v>
+        <v>2076</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>2071</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>2072</v>
+        <v>2078</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>2073</v>
+        <v>2079</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>2074</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2" t="s">
-        <v>2075</v>
+        <v>2081</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>2076</v>
+        <v>2082</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>2077</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>2078</v>
+        <v>2084</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>2079</v>
+        <v>2085</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>2079</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>2080</v>
+        <v>2086</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>540</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>2081</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>2082</v>
+        <v>2088</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>2083</v>
+        <v>2089</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>2084</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>2085</v>
+        <v>2091</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>2086</v>
+        <v>2092</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>2087</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>2088</v>
+        <v>2094</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>2089</v>
+        <v>2095</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>2090</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>2091</v>
+        <v>2097</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>2092</v>
+        <v>2098</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>2093</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>2094</v>
+        <v>2100</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>2095</v>
+        <v>2101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>2096</v>
+        <v>2102</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>2097</v>
+        <v>2103</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>2098</v>
+        <v>2104</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>2099</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>2100</v>
+        <v>2106</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>2101</v>
+        <v>2107</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>2102</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>2103</v>
+        <v>2109</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>2104</v>
+        <v>2110</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>2105</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>2106</v>
+        <v>2112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>2107</v>
+        <v>2113</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>2108</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>2109</v>
+        <v>2115</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>2110</v>
+        <v>2116</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>2111</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>2112</v>
+        <v>2118</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>2113</v>
+        <v>2119</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>2114</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
-        <v>2115</v>
+        <v>2121</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>2116</v>
+        <v>2122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>2117</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2" t="s">
-        <v>2118</v>
+        <v>2124</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>2119</v>
+        <v>2125</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>2120</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>2121</v>
+        <v>2127</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2122</v>
+        <v>2128</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>2123</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>2124</v>
+        <v>2130</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2125</v>
+        <v>2131</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>2126</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>2127</v>
+        <v>2133</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>2128</v>
+        <v>2134</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>2129</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>2130</v>
+        <v>2136</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>2131</v>
+        <v>2137</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>2132</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>2133</v>
+        <v>2139</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>2134</v>
+        <v>2140</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>2135</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>2136</v>
+        <v>2142</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>2137</v>
+        <v>2143</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>2138</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>2139</v>
+        <v>2145</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>2140</v>
+        <v>2146</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>2141</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>2142</v>
+        <v>2148</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>2143</v>
+        <v>2149</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>2144</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>2145</v>
+        <v>2151</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>2146</v>
+        <v>2152</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>2147</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2" t="s">
-        <v>2148</v>
+        <v>2154</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>2149</v>
+        <v>2155</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>2150</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2" t="s">
-        <v>2151</v>
+        <v>2157</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>2152</v>
+        <v>2158</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>2153</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>2154</v>
+        <v>2160</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>2155</v>
+        <v>2161</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>2156</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2" t="s">
-        <v>2157</v>
+        <v>2163</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>2158</v>
+        <v>2164</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>2159</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2" t="s">
-        <v>2160</v>
+        <v>2166</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>2161</v>
+        <v>2167</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>2162</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2" t="s">
-        <v>2163</v>
+        <v>2169</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>2164</v>
+        <v>2170</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>2165</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2" t="s">
-        <v>2166</v>
+        <v>2172</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>2167</v>
+        <v>2173</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>2168</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2" t="s">
-        <v>2169</v>
+        <v>2175</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>2170</v>
+        <v>2176</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>2171</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2" t="s">
-        <v>2172</v>
+        <v>2178</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>2173</v>
+        <v>2179</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>2174</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>2175</v>
+        <v>2181</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>2176</v>
+        <v>2182</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>2177</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>2178</v>
+        <v>2184</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>2179</v>
+        <v>2185</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>2180</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>2181</v>
+        <v>2187</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>2182</v>
+        <v>2188</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>2183</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2" t="s">
-        <v>2184</v>
+        <v>2190</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>2185</v>
+        <v>2191</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>2186</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>2187</v>
+        <v>2193</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>2188</v>
+        <v>2194</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>2189</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>2190</v>
+        <v>2196</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>2191</v>
+        <v>2197</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>2192</v>
+        <v>2198</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2" t="s">
-        <v>2193</v>
+        <v>2199</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>2194</v>
+        <v>2200</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>2195</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2" t="s">
-        <v>2196</v>
+        <v>2202</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>2197</v>
+        <v>2203</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>2198</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
-        <v>2199</v>
+        <v>2205</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>2200</v>
+        <v>2206</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>2201</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
-        <v>2202</v>
+        <v>2208</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>2203</v>
+        <v>2209</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>2204</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2" t="s">
-        <v>2205</v>
+        <v>2211</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>2206</v>
+        <v>2212</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>2207</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2" t="s">
-        <v>2208</v>
+        <v>2214</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>2209</v>
+        <v>2215</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>2210</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2" t="s">
-        <v>2211</v>
+        <v>2217</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>2212</v>
+        <v>2218</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>2213</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2" t="s">
-        <v>2214</v>
+        <v>2220</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>2215</v>
+        <v>2221</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>2216</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2" t="s">
-        <v>2217</v>
+        <v>2223</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>2218</v>
+        <v>2224</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>2219</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2" t="s">
-        <v>2220</v>
+        <v>2226</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>2221</v>
+        <v>2227</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>2222</v>
+        <v>2228</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2" t="s">
-        <v>2223</v>
+        <v>2229</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>2224</v>
+        <v>2230</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>2225</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2" t="s">
-        <v>2226</v>
+        <v>2232</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>2227</v>
+        <v>2233</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>2228</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2" t="s">
-        <v>2229</v>
+        <v>2235</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>2230</v>
+        <v>2236</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>2231</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2" t="s">
-        <v>2232</v>
+        <v>2238</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>2233</v>
+        <v>2239</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>2234</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2" t="s">
-        <v>2235</v>
+        <v>2241</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>2236</v>
+        <v>2242</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>2237</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2" t="s">
-        <v>2238</v>
+        <v>2244</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>2239</v>
+        <v>2245</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>2240</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2" t="s">
-        <v>2241</v>
+        <v>2247</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>2242</v>
+        <v>2248</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>2243</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2" t="s">
-        <v>2244</v>
+        <v>2250</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>2245</v>
+        <v>2251</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>2246</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2" t="s">
-        <v>2247</v>
+        <v>2253</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>2248</v>
+        <v>2254</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>2249</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2" t="s">
-        <v>2250</v>
+        <v>2256</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>2251</v>
+        <v>2257</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>2252</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2" t="s">
-        <v>2253</v>
+        <v>2259</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>2254</v>
+        <v>2260</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>2255</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2" t="s">
-        <v>2256</v>
+        <v>2262</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>2257</v>
+        <v>2263</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>2258</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2" t="s">
-        <v>2259</v>
+        <v>2265</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>2260</v>
+        <v>2266</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>2261</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2" t="s">
-        <v>2262</v>
+        <v>2268</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>2263</v>
+        <v>2269</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>2264</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2" t="s">
-        <v>2265</v>
+        <v>2271</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>2266</v>
+        <v>2272</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>2267</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2" t="s">
-        <v>2268</v>
+        <v>2274</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>2269</v>
+        <v>2275</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>2270</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2" t="s">
-        <v>2271</v>
+        <v>2277</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>2272</v>
+        <v>2278</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>2273</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2" t="s">
-        <v>2274</v>
+        <v>2280</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>2275</v>
+        <v>2281</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>2276</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2" t="s">
-        <v>2277</v>
+        <v>2283</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>2278</v>
+        <v>2284</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>2279</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2" t="s">
-        <v>2280</v>
+        <v>2286</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>2281</v>
+        <v>2287</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>2282</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2" t="s">
-        <v>2283</v>
+        <v>2289</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>2285</v>
+        <v>2291</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2" t="s">
-        <v>2286</v>
+        <v>2292</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>2287</v>
+        <v>2293</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>2288</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2" t="s">
-        <v>2289</v>
+        <v>2295</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>2290</v>
+        <v>2296</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>2291</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2" t="s">
-        <v>2292</v>
+        <v>2298</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>2293</v>
+        <v>2299</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>2294</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2" t="s">
-        <v>2295</v>
+        <v>2301</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>2296</v>
+        <v>2302</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>2297</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2" t="s">
-        <v>2298</v>
+        <v>2304</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>2299</v>
+        <v>2305</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>2300</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2" t="s">
-        <v>2301</v>
+        <v>2307</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>2302</v>
+        <v>2308</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>2303</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2" t="s">
-        <v>2304</v>
+        <v>2310</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>2305</v>
+        <v>2311</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>2306</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2" t="s">
-        <v>2307</v>
+        <v>2313</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>2309</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2" t="s">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>2311</v>
+        <v>2317</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>2312</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2" t="s">
-        <v>2313</v>
+        <v>2319</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>2315</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2" t="s">
-        <v>2316</v>
+        <v>2322</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2" t="s">
-        <v>2318</v>
+        <v>2324</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2" t="s">
-        <v>2319</v>
+        <v>2325</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2" t="s">
-        <v>2321</v>
+        <v>2327</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>2320</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2" t="s">
-        <v>2322</v>
+        <v>2328</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>2323</v>
+        <v>2329</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>2324</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2" t="s">
-        <v>2325</v>
+        <v>2331</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>2323</v>
+        <v>2329</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>2324</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2" t="s">
-        <v>2326</v>
+        <v>2332</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>2327</v>
+        <v>2333</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>2328</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2" t="s">
-        <v>2329</v>
+        <v>2335</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>2079</v>
+        <v>2085</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>2079</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2" t="s">
-        <v>2330</v>
+        <v>2336</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>2314</v>
+        <v>2320</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>2315</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2" t="s">
-        <v>2331</v>
+        <v>2337</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>2332</v>
+        <v>2338</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>2333</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2" t="s">
-        <v>2334</v>
+        <v>2340</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>2335</v>
+        <v>2341</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>2336</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2" t="s">
-        <v>2337</v>
+        <v>2343</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>2338</v>
+        <v>2344</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>2339</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2" t="s">
-        <v>2340</v>
+        <v>2346</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>2341</v>
+        <v>2347</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>2342</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2" t="s">
-        <v>2343</v>
+        <v>2349</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>2344</v>
+        <v>2350</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>2345</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2" t="s">
-        <v>2346</v>
+        <v>2352</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>2347</v>
+        <v>2353</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>2348</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2" t="s">
-        <v>2349</v>
+        <v>2355</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>2317</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2" t="s">
-        <v>2350</v>
+        <v>2356</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>2351</v>
+        <v>2357</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>2352</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2" t="s">
-        <v>2353</v>
+        <v>2359</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>2354</v>
+        <v>2360</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>2355</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2" t="s">
-        <v>2356</v>
+        <v>2362</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>2357</v>
+        <v>2363</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>2358</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2" t="s">
-        <v>2359</v>
+        <v>2365</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>2360</v>
+        <v>2366</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>2361</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2" t="s">
-        <v>2362</v>
+        <v>2368</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>2363</v>
+        <v>2369</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>2364</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2" t="s">
-        <v>2365</v>
+        <v>2371</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>2366</v>
+        <v>2372</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>2367</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2" t="s">
-        <v>2368</v>
+        <v>2374</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>2369</v>
+        <v>2375</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>2370</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2" t="s">
-        <v>2371</v>
+        <v>2377</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>2372</v>
+        <v>2378</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>2373</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2" t="s">
-        <v>2374</v>
+        <v>2380</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>2375</v>
+        <v>2381</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>2376</v>
+        <v>2382</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2" t="s">
-        <v>2377</v>
+        <v>2383</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>2378</v>
+        <v>2384</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>2379</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2" t="s">
-        <v>2380</v>
+        <v>2386</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>2381</v>
+        <v>2387</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>2382</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2" t="s">
-        <v>2383</v>
+        <v>2389</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>2384</v>
+        <v>2390</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>2385</v>
+        <v>2391</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="2" t="s">
-        <v>2386</v>
+        <v>2392</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>2387</v>
+        <v>2393</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>2388</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="2" t="s">
-        <v>2389</v>
+        <v>2395</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>2390</v>
+        <v>2396</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>2391</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="2" t="s">
-        <v>2392</v>
+        <v>2398</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>2393</v>
+        <v>2399</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>268</v>
@@ -30646,318 +30692,318 @@
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="2" t="s">
-        <v>2394</v>
+        <v>2400</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>2395</v>
+        <v>2401</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>2396</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="2" t="s">
-        <v>2397</v>
+        <v>2403</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>2398</v>
+        <v>2404</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>2399</v>
+        <v>2405</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="2" t="s">
-        <v>2400</v>
+        <v>2406</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>2401</v>
+        <v>2407</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>2402</v>
+        <v>2408</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155" s="2" t="s">
-        <v>2403</v>
+        <v>2409</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>2404</v>
+        <v>2410</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>2405</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="2" t="s">
-        <v>2406</v>
+        <v>2412</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>2407</v>
+        <v>2413</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>2408</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157" s="2" t="s">
-        <v>2409</v>
+        <v>2415</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>2410</v>
+        <v>2416</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>2411</v>
+        <v>2417</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158" s="2" t="s">
-        <v>2412</v>
+        <v>2418</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>2413</v>
+        <v>2419</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>2414</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159" s="2" t="s">
-        <v>2415</v>
+        <v>2421</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>2416</v>
+        <v>2422</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>2417</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160" s="2" t="s">
-        <v>2418</v>
+        <v>2424</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>2419</v>
+        <v>2425</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>2420</v>
+        <v>2426</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161" s="2" t="s">
-        <v>2421</v>
+        <v>2427</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>2422</v>
+        <v>2428</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>2423</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="2" t="s">
-        <v>2424</v>
+        <v>2430</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>2425</v>
+        <v>2431</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>2426</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="2" t="s">
-        <v>2427</v>
+        <v>2433</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>2428</v>
+        <v>2434</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>2429</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="2" t="s">
-        <v>2430</v>
+        <v>2436</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>2431</v>
+        <v>2437</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>2432</v>
+        <v>2438</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="2" t="s">
-        <v>2433</v>
+        <v>2439</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>2434</v>
+        <v>2440</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>2435</v>
+        <v>2441</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="2" t="s">
-        <v>2436</v>
+        <v>2442</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>2437</v>
+        <v>2443</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>2438</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="2" t="s">
-        <v>2439</v>
+        <v>2445</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>2440</v>
+        <v>2446</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>2441</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="2" t="s">
-        <v>2442</v>
+        <v>2448</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>2443</v>
+        <v>2449</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>2444</v>
+        <v>2450</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="2" t="s">
-        <v>2445</v>
+        <v>2451</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>2446</v>
+        <v>2452</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>2447</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="2" t="s">
-        <v>2448</v>
+        <v>2454</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>2449</v>
+        <v>2455</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>2450</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="2" t="s">
-        <v>2451</v>
+        <v>2457</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>2452</v>
+        <v>2458</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>2453</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="2" t="s">
-        <v>2454</v>
+        <v>2460</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>2455</v>
+        <v>2461</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>2456</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="2" t="s">
-        <v>2457</v>
+        <v>2463</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>2458</v>
+        <v>2464</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>2459</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174" s="2" t="s">
-        <v>2460</v>
+        <v>2466</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>2461</v>
+        <v>2467</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>2462</v>
+        <v>2468</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175" s="2" t="s">
-        <v>2463</v>
+        <v>2469</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>2464</v>
+        <v>2470</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>2465</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176" s="2" t="s">
-        <v>2466</v>
+        <v>2472</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>2467</v>
+        <v>2473</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>2468</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="2" t="s">
-        <v>2469</v>
+        <v>2475</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>2470</v>
+        <v>2476</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>2471</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178" s="2" t="s">
-        <v>2472</v>
+        <v>2478</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>2473</v>
+        <v>2479</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>2474</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179" s="2" t="s">
-        <v>2475</v>
+        <v>2481</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>2476</v>
+        <v>2482</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>2477</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180" s="2" t="s">
-        <v>2478</v>
+        <v>2484</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>2479</v>
+        <v>2485</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>693</v>
@@ -30965,2746 +31011,2746 @@
     </row>
     <row r="181" spans="1:5">
       <c r="A181" s="2" t="s">
-        <v>2480</v>
+        <v>2486</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>2481</v>
+        <v>2487</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>2147</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182" s="2" t="s">
-        <v>2482</v>
+        <v>2488</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>2483</v>
+        <v>2489</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>2484</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="2" t="s">
-        <v>2485</v>
+        <v>2491</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>2486</v>
+        <v>2492</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>2487</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184" s="2" t="s">
-        <v>2488</v>
+        <v>2494</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>2489</v>
+        <v>2495</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>2490</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185" s="2" t="s">
-        <v>2491</v>
+        <v>2497</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>2492</v>
+        <v>2498</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>2493</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186" s="2" t="s">
-        <v>2494</v>
+        <v>2500</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>2495</v>
+        <v>2501</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>2496</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187" s="2" t="s">
-        <v>2497</v>
+        <v>2503</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>2498</v>
+        <v>2504</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>2499</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188" s="2" t="s">
-        <v>2500</v>
+        <v>2506</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>2501</v>
+        <v>2507</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>2502</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189" s="2" t="s">
-        <v>2503</v>
+        <v>2509</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>2504</v>
+        <v>2510</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>2505</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190" s="2" t="s">
-        <v>2506</v>
+        <v>2512</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>522</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>2507</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191" s="2" t="s">
-        <v>2508</v>
+        <v>2514</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>2509</v>
+        <v>2515</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>2510</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192" s="2" t="s">
-        <v>2511</v>
+        <v>2517</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>2512</v>
+        <v>2518</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>2513</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193" s="2" t="s">
-        <v>2514</v>
+        <v>2520</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>2515</v>
+        <v>2521</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>2516</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194" s="2" t="s">
-        <v>2517</v>
+        <v>2523</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>2518</v>
+        <v>2524</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>2519</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195" s="2" t="s">
-        <v>2520</v>
+        <v>2526</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>2522</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196" s="2" t="s">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>2524</v>
+        <v>2530</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>2525</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197" s="2" t="s">
-        <v>2526</v>
+        <v>2532</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>2527</v>
+        <v>2533</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>2528</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198" s="2" t="s">
-        <v>2529</v>
+        <v>2535</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>2530</v>
+        <v>2536</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>2531</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199" s="2" t="s">
-        <v>2532</v>
+        <v>2538</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>2533</v>
+        <v>2539</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>2534</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200" s="2" t="s">
-        <v>2535</v>
+        <v>2541</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>2536</v>
+        <v>2542</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>2537</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201" s="2" t="s">
-        <v>2538</v>
+        <v>2544</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>2539</v>
+        <v>2545</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>2540</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202" s="2" t="s">
-        <v>2541</v>
+        <v>2547</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>2542</v>
+        <v>2548</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>2543</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203" s="2" t="s">
-        <v>2544</v>
+        <v>2550</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>2545</v>
+        <v>2551</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>2546</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204" s="2" t="s">
-        <v>2547</v>
+        <v>2553</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>2548</v>
+        <v>2554</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>2549</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205" s="2" t="s">
-        <v>2550</v>
+        <v>2556</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>2551</v>
+        <v>2557</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>2552</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206" s="2" t="s">
-        <v>2553</v>
+        <v>2559</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>2554</v>
+        <v>2560</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>2555</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207" s="2" t="s">
-        <v>2556</v>
+        <v>2562</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>2557</v>
+        <v>2563</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>2558</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208" s="2" t="s">
-        <v>2559</v>
+        <v>2565</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>2560</v>
+        <v>2566</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>2561</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209" s="2" t="s">
-        <v>2562</v>
+        <v>2568</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>2563</v>
+        <v>2569</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>2564</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210" s="2" t="s">
-        <v>2565</v>
+        <v>2571</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>2566</v>
+        <v>2572</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>2567</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211" s="2" t="s">
-        <v>2568</v>
+        <v>2574</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>2569</v>
+        <v>2575</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>2570</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212" s="2" t="s">
-        <v>2571</v>
+        <v>2577</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>2572</v>
+        <v>2578</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>2573</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213" s="2" t="s">
-        <v>2574</v>
+        <v>2580</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>2575</v>
+        <v>2581</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>2576</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214" s="2" t="s">
-        <v>2577</v>
+        <v>2583</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>2578</v>
+        <v>2584</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>2579</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215" s="2" t="s">
-        <v>2580</v>
+        <v>2586</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>2581</v>
+        <v>2587</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>2582</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216" s="2" t="s">
-        <v>2583</v>
+        <v>2589</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>2584</v>
+        <v>2590</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>2585</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217" s="2" t="s">
-        <v>2586</v>
+        <v>2592</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>2587</v>
+        <v>2593</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>2588</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218" s="2" t="s">
-        <v>2589</v>
+        <v>2595</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>2590</v>
+        <v>2596</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>2591</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219" s="2" t="s">
-        <v>2592</v>
+        <v>2598</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>2593</v>
+        <v>2599</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>2594</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220" s="2" t="s">
-        <v>2595</v>
+        <v>2601</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>2596</v>
+        <v>2602</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>2597</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221" s="2" t="s">
-        <v>2598</v>
+        <v>2604</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>2599</v>
+        <v>2605</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>2600</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222" s="2" t="s">
-        <v>2601</v>
+        <v>2607</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>2602</v>
+        <v>2608</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>2603</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223" s="2" t="s">
-        <v>2604</v>
+        <v>2610</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>2605</v>
+        <v>2611</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>2606</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224" s="2" t="s">
-        <v>2607</v>
+        <v>2613</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>2608</v>
+        <v>2614</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>2609</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225" s="2" t="s">
-        <v>2610</v>
+        <v>2616</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>2611</v>
+        <v>2617</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>2612</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226" s="2" t="s">
-        <v>2613</v>
+        <v>2619</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>2614</v>
+        <v>2620</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>2615</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227" s="2" t="s">
-        <v>2616</v>
+        <v>2622</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>2617</v>
+        <v>2623</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>2618</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228" s="2" t="s">
-        <v>2619</v>
+        <v>2625</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>2620</v>
+        <v>2626</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>2621</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229" s="2" t="s">
-        <v>2622</v>
+        <v>2628</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>2623</v>
+        <v>2629</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>2624</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230" s="2" t="s">
-        <v>2625</v>
+        <v>2631</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>2626</v>
+        <v>2632</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>2627</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231" s="2" t="s">
-        <v>2628</v>
+        <v>2634</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>2629</v>
+        <v>2635</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>2630</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232" s="2" t="s">
-        <v>2631</v>
+        <v>2637</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>2632</v>
+        <v>2638</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>2633</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233" s="2" t="s">
-        <v>2634</v>
+        <v>2640</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>2635</v>
+        <v>2641</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>2636</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234" s="2" t="s">
-        <v>2637</v>
+        <v>2643</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>2638</v>
+        <v>2644</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>2639</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235" s="2" t="s">
-        <v>2640</v>
+        <v>2646</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>2641</v>
+        <v>2647</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>2642</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236" s="2" t="s">
-        <v>2643</v>
+        <v>2649</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>2644</v>
+        <v>2650</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>2645</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237" s="2" t="s">
-        <v>2646</v>
+        <v>2652</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2647</v>
+        <v>2653</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>2648</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238" s="2" t="s">
-        <v>2649</v>
+        <v>2655</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2650</v>
+        <v>2656</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>2651</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239" s="2" t="s">
-        <v>2652</v>
+        <v>2658</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2653</v>
+        <v>2659</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>2654</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240" s="2" t="s">
-        <v>2655</v>
+        <v>2661</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2656</v>
+        <v>2662</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>2657</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241" s="2" t="s">
-        <v>2658</v>
+        <v>2664</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2659</v>
+        <v>2665</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>2660</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242" s="2" t="s">
-        <v>2661</v>
+        <v>2667</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2662</v>
+        <v>2668</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>2663</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243" s="2" t="s">
-        <v>2664</v>
+        <v>2670</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2665</v>
+        <v>2671</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>2666</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244" s="2" t="s">
-        <v>2667</v>
+        <v>2673</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2668</v>
+        <v>2674</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>2669</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="2" t="s">
-        <v>2670</v>
+        <v>2676</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2671</v>
+        <v>2677</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>2672</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246" s="2" t="s">
-        <v>2673</v>
+        <v>2679</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2674</v>
+        <v>2680</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>2675</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247" s="2" t="s">
-        <v>2676</v>
+        <v>2682</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2677</v>
+        <v>2683</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>2678</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248" s="2" t="s">
-        <v>2679</v>
+        <v>2685</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2680</v>
+        <v>2686</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>2681</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249" s="2" t="s">
-        <v>2682</v>
+        <v>2688</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2683</v>
+        <v>2689</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>2684</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250" s="2" t="s">
-        <v>2685</v>
+        <v>2691</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2686</v>
+        <v>2692</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>2687</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251" s="2" t="s">
-        <v>2688</v>
+        <v>2694</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2689</v>
+        <v>2695</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>2690</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252" s="2" t="s">
-        <v>2691</v>
+        <v>2697</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2692</v>
+        <v>2698</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>2693</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253" s="2" t="s">
-        <v>2694</v>
+        <v>2700</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2695</v>
+        <v>2701</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>2696</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="2" t="s">
-        <v>2697</v>
+        <v>2703</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2698</v>
+        <v>2704</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>2699</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255" s="2" t="s">
-        <v>2700</v>
+        <v>2706</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2701</v>
+        <v>2707</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>2702</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256" s="2" t="s">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2704</v>
+        <v>2710</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>2705</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257" s="2" t="s">
-        <v>2706</v>
+        <v>2712</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>2707</v>
+        <v>2713</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>2708</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258" s="2" t="s">
-        <v>2709</v>
+        <v>2715</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>2710</v>
+        <v>2716</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>2711</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259" s="2" t="s">
-        <v>2712</v>
+        <v>2718</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>2713</v>
+        <v>2719</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>2714</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260" s="2" t="s">
-        <v>2715</v>
+        <v>2721</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>2716</v>
+        <v>2722</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>2717</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="2" t="s">
-        <v>2718</v>
+        <v>2724</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>2719</v>
+        <v>2725</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>2720</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262" s="2" t="s">
-        <v>2721</v>
+        <v>2727</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>2722</v>
+        <v>2728</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>2723</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263" s="2" t="s">
-        <v>2724</v>
+        <v>2730</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2725</v>
+        <v>2731</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>2726</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264" s="2" t="s">
-        <v>2727</v>
+        <v>2733</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>2728</v>
+        <v>2734</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>2729</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265" s="2" t="s">
-        <v>2730</v>
+        <v>2736</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>2731</v>
+        <v>2737</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>2732</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266" s="2" t="s">
-        <v>2733</v>
+        <v>2739</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>2734</v>
+        <v>2740</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>2735</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267" s="2" t="s">
-        <v>2736</v>
+        <v>2742</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>2737</v>
+        <v>2743</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>2738</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="268" spans="1:5">
       <c r="A268" s="2" t="s">
-        <v>2739</v>
+        <v>2745</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>2740</v>
+        <v>2746</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>2741</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="269" spans="1:5">
       <c r="A269" s="2" t="s">
-        <v>2742</v>
+        <v>2748</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>2743</v>
+        <v>2749</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>2744</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="270" spans="1:5">
       <c r="A270" s="2" t="s">
-        <v>2745</v>
+        <v>2751</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>2746</v>
+        <v>2752</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>2747</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="271" spans="1:5">
       <c r="A271" s="2" t="s">
-        <v>2748</v>
+        <v>2754</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2749</v>
+        <v>2755</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>2750</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="2" t="s">
-        <v>2751</v>
+        <v>2757</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>2752</v>
+        <v>2758</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>2753</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="273" spans="1:5">
       <c r="A273" s="2" t="s">
-        <v>2754</v>
+        <v>2760</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>2755</v>
+        <v>2761</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>2756</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="274" spans="1:5">
       <c r="A274" s="2" t="s">
-        <v>2757</v>
+        <v>2763</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>2758</v>
+        <v>2764</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>2759</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="275" spans="1:5">
       <c r="A275" s="2" t="s">
-        <v>2760</v>
+        <v>2766</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>2761</v>
+        <v>2767</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>2762</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="276" spans="1:5">
       <c r="A276" s="2" t="s">
-        <v>2763</v>
+        <v>2769</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>2764</v>
+        <v>2770</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>2765</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="277" spans="1:5">
       <c r="A277" s="2" t="s">
-        <v>2766</v>
+        <v>2772</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>2767</v>
+        <v>2773</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>2768</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="278" spans="1:5">
       <c r="A278" s="2" t="s">
-        <v>2769</v>
+        <v>2775</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>2770</v>
+        <v>2776</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>2771</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="279" spans="1:5">
       <c r="A279" s="2" t="s">
-        <v>2772</v>
+        <v>2778</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>2773</v>
+        <v>2779</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>2774</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="280" spans="1:5">
       <c r="A280" s="2" t="s">
-        <v>2775</v>
+        <v>2781</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>2776</v>
+        <v>2782</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>2777</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="281" spans="1:5">
       <c r="A281" s="2" t="s">
-        <v>2778</v>
+        <v>2784</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>2779</v>
+        <v>2785</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>2780</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="282" spans="1:5">
       <c r="A282" s="2" t="s">
-        <v>2781</v>
+        <v>2787</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>2782</v>
+        <v>2788</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>2783</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="283" spans="1:5">
       <c r="A283" s="2" t="s">
-        <v>2784</v>
+        <v>2790</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>2785</v>
+        <v>2791</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>2786</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="284" spans="1:5">
       <c r="A284" s="2" t="s">
-        <v>2787</v>
+        <v>2793</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>2788</v>
+        <v>2794</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>2789</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="285" spans="1:5">
       <c r="A285" s="2" t="s">
-        <v>2790</v>
+        <v>2796</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>2791</v>
+        <v>2797</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>2792</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="286" spans="1:5">
       <c r="A286" s="2" t="s">
-        <v>2793</v>
+        <v>2799</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>2794</v>
+        <v>2800</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>2795</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="287" spans="1:5">
       <c r="A287" s="2" t="s">
-        <v>2796</v>
+        <v>2802</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>2797</v>
+        <v>2803</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>2798</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="288" spans="1:5">
       <c r="A288" s="2" t="s">
-        <v>2799</v>
+        <v>2805</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>2800</v>
+        <v>2806</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>2801</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="289" spans="1:5">
       <c r="A289" s="2" t="s">
-        <v>2802</v>
+        <v>2808</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>2803</v>
+        <v>2809</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>2804</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="290" spans="1:5">
       <c r="A290" s="2" t="s">
-        <v>2805</v>
+        <v>2811</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>2806</v>
+        <v>2812</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>2807</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="291" spans="1:5">
       <c r="A291" s="2" t="s">
-        <v>2808</v>
+        <v>2814</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>2809</v>
+        <v>2815</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>2810</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="292" spans="1:5">
       <c r="A292" s="2" t="s">
-        <v>2811</v>
+        <v>2817</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>2812</v>
+        <v>2818</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>2813</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="293" spans="1:5">
       <c r="A293" s="2" t="s">
-        <v>2814</v>
+        <v>2820</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>2815</v>
+        <v>2821</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>2816</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="294" spans="1:5">
       <c r="A294" s="2" t="s">
-        <v>2817</v>
+        <v>2823</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>2818</v>
+        <v>2824</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>2819</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="295" spans="1:5">
       <c r="A295" s="2" t="s">
-        <v>2820</v>
+        <v>2826</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>2821</v>
+        <v>2827</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>2822</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="296" spans="1:5">
       <c r="A296" s="2" t="s">
-        <v>2823</v>
+        <v>2829</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>2824</v>
+        <v>2830</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>2825</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="297" spans="1:5">
       <c r="A297" s="2" t="s">
-        <v>2826</v>
+        <v>2832</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>2827</v>
+        <v>2833</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>2828</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="298" spans="1:5">
       <c r="A298" s="2" t="s">
-        <v>2829</v>
+        <v>2835</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>2830</v>
+        <v>2836</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>2831</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="299" spans="1:5">
       <c r="A299" s="2" t="s">
-        <v>2832</v>
+        <v>2838</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>2833</v>
+        <v>2839</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>2834</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="300" spans="1:5">
       <c r="A300" s="2" t="s">
-        <v>2835</v>
+        <v>2841</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>2836</v>
+        <v>2842</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>2837</v>
+        <v>2843</v>
       </c>
     </row>
     <row r="301" spans="1:5">
       <c r="A301" s="2" t="s">
-        <v>2838</v>
+        <v>2844</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>2839</v>
+        <v>2845</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>2840</v>
+        <v>2846</v>
       </c>
     </row>
     <row r="302" spans="1:5">
       <c r="A302" s="2" t="s">
-        <v>2841</v>
+        <v>2847</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>2842</v>
+        <v>2848</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>2843</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="303" spans="1:5">
       <c r="A303" s="2" t="s">
-        <v>2844</v>
+        <v>2850</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>2845</v>
+        <v>2851</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>2846</v>
+        <v>2852</v>
       </c>
     </row>
     <row r="304" spans="1:5">
       <c r="A304" s="2" t="s">
-        <v>2847</v>
+        <v>2853</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>2849</v>
+        <v>2855</v>
       </c>
     </row>
     <row r="305" spans="1:5">
       <c r="A305" s="2" t="s">
-        <v>2850</v>
+        <v>2856</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>2851</v>
+        <v>2857</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>2852</v>
+        <v>2858</v>
       </c>
     </row>
     <row r="306" spans="1:5">
       <c r="A306" s="2" t="s">
-        <v>2853</v>
+        <v>2859</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>2854</v>
+        <v>2860</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>2855</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="307" spans="1:5">
       <c r="A307" s="2" t="s">
-        <v>2856</v>
+        <v>2862</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>2857</v>
+        <v>2863</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>2858</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="308" spans="1:5">
       <c r="A308" s="2" t="s">
-        <v>2859</v>
+        <v>2865</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>2860</v>
+        <v>2866</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>2861</v>
+        <v>2867</v>
       </c>
     </row>
     <row r="309" spans="1:5">
       <c r="A309" s="2" t="s">
-        <v>2862</v>
+        <v>2868</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>2863</v>
+        <v>2869</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>2864</v>
+        <v>2870</v>
       </c>
     </row>
     <row r="310" spans="1:5">
       <c r="A310" s="2" t="s">
-        <v>2865</v>
+        <v>2871</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>2866</v>
+        <v>2872</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>2867</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="311" spans="1:5">
       <c r="A311" s="2" t="s">
-        <v>2868</v>
+        <v>2874</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>2869</v>
+        <v>2875</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>2870</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="312" spans="1:5">
       <c r="A312" s="2" t="s">
-        <v>2871</v>
+        <v>2877</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>2872</v>
+        <v>2878</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>2873</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="313" spans="1:5">
       <c r="A313" s="2" t="s">
-        <v>2874</v>
+        <v>2880</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>2875</v>
+        <v>2881</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>2876</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="314" spans="1:5">
       <c r="A314" s="2" t="s">
-        <v>2877</v>
+        <v>2883</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>2878</v>
+        <v>2884</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>2879</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="315" spans="1:5">
       <c r="A315" s="2" t="s">
-        <v>2880</v>
+        <v>2886</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>2881</v>
+        <v>2887</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>2882</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="316" spans="1:5">
       <c r="A316" s="2" t="s">
-        <v>2883</v>
+        <v>2889</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>2884</v>
+        <v>2890</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>2885</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="317" spans="1:5">
       <c r="A317" s="2" t="s">
-        <v>2886</v>
+        <v>2892</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>2887</v>
+        <v>2893</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>2888</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="318" spans="1:5">
       <c r="A318" s="2" t="s">
-        <v>2889</v>
+        <v>2895</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>2890</v>
+        <v>2896</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>2891</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="319" spans="1:5">
       <c r="A319" s="2" t="s">
-        <v>2892</v>
+        <v>2898</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>2893</v>
+        <v>2899</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>2894</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="320" spans="1:5">
       <c r="A320" s="2" t="s">
-        <v>2895</v>
+        <v>2901</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>2896</v>
+        <v>2902</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>2897</v>
+        <v>2903</v>
       </c>
     </row>
     <row r="321" spans="1:5">
       <c r="A321" s="2" t="s">
-        <v>2898</v>
+        <v>2904</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>2899</v>
+        <v>2905</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>2900</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="322" spans="1:5">
       <c r="A322" s="2" t="s">
-        <v>2901</v>
+        <v>2907</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>2902</v>
+        <v>2908</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>2903</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="323" spans="1:5">
       <c r="A323" s="2" t="s">
-        <v>2904</v>
+        <v>2910</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>2905</v>
+        <v>2911</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>2906</v>
+        <v>2912</v>
       </c>
     </row>
     <row r="324" spans="1:5">
       <c r="A324" s="2" t="s">
-        <v>2907</v>
+        <v>2913</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>2908</v>
+        <v>2914</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>2909</v>
+        <v>2915</v>
       </c>
     </row>
     <row r="325" spans="1:5">
       <c r="A325" s="2" t="s">
-        <v>2910</v>
+        <v>2916</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>2911</v>
+        <v>2917</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>2912</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="326" spans="1:5">
       <c r="A326" s="2" t="s">
-        <v>2913</v>
+        <v>2919</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>2914</v>
+        <v>2920</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>2915</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="327" spans="1:5">
       <c r="A327" s="2" t="s">
-        <v>2916</v>
+        <v>2922</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>2917</v>
+        <v>2923</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>2918</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="328" spans="1:5">
       <c r="A328" s="2" t="s">
-        <v>2919</v>
+        <v>2925</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>2920</v>
+        <v>2926</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>2921</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="329" spans="1:5">
       <c r="A329" s="2" t="s">
-        <v>2922</v>
+        <v>2928</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>2923</v>
+        <v>2929</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>2924</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="330" spans="1:5">
       <c r="A330" s="2" t="s">
-        <v>2925</v>
+        <v>2931</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>2926</v>
+        <v>2932</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>2927</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="331" spans="1:5">
       <c r="A331" s="2" t="s">
-        <v>2928</v>
+        <v>2934</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>2929</v>
+        <v>2935</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>2930</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="332" spans="1:5">
       <c r="A332" s="2" t="s">
-        <v>2931</v>
+        <v>2937</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>2932</v>
+        <v>2938</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>2933</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="333" spans="1:5">
       <c r="A333" s="2" t="s">
-        <v>2934</v>
+        <v>2940</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>2935</v>
+        <v>2941</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>2936</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="334" spans="1:5">
       <c r="A334" s="2" t="s">
-        <v>2937</v>
+        <v>2943</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>2938</v>
+        <v>2944</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>2939</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="335" spans="1:5">
       <c r="A335" s="2" t="s">
-        <v>2940</v>
+        <v>2946</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>2941</v>
+        <v>2947</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>2942</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="336" spans="1:5">
       <c r="A336" s="2" t="s">
-        <v>2943</v>
+        <v>2949</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>2944</v>
+        <v>2950</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>2945</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="337" spans="1:5">
       <c r="A337" s="2" t="s">
-        <v>2946</v>
+        <v>2952</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>2947</v>
+        <v>2953</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>2948</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="338" spans="1:5">
       <c r="A338" s="2" t="s">
-        <v>2949</v>
+        <v>2955</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>2950</v>
+        <v>2956</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>2951</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="339" spans="1:5">
       <c r="A339" s="2" t="s">
-        <v>2952</v>
+        <v>2958</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>2953</v>
+        <v>2959</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>2954</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="340" spans="1:5">
       <c r="A340" s="2" t="s">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>2956</v>
+        <v>2962</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>2957</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="341" spans="1:5">
       <c r="A341" s="2" t="s">
-        <v>2958</v>
+        <v>2964</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>2959</v>
+        <v>2965</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>2960</v>
+        <v>2966</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="2" t="s">
-        <v>2961</v>
+        <v>2967</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>2962</v>
+        <v>2968</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>2963</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="2" t="s">
-        <v>2964</v>
+        <v>2970</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>2965</v>
+        <v>2971</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>2966</v>
+        <v>2972</v>
       </c>
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="2" t="s">
-        <v>2967</v>
+        <v>2973</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>2956</v>
+        <v>2962</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>2957</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="2" t="s">
-        <v>2968</v>
+        <v>2974</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>2969</v>
+        <v>2975</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>2970</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="2" t="s">
-        <v>2971</v>
+        <v>2977</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>2962</v>
+        <v>2968</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>2963</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="2" t="s">
-        <v>2972</v>
+        <v>2978</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>2973</v>
+        <v>2979</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>2974</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="2" t="s">
-        <v>2975</v>
+        <v>2981</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>2976</v>
+        <v>2982</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>2977</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="2" t="s">
-        <v>2978</v>
+        <v>2984</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>2979</v>
+        <v>2985</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>2980</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="2" t="s">
-        <v>2981</v>
+        <v>2987</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>2982</v>
+        <v>2988</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>2983</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="2" t="s">
-        <v>2984</v>
+        <v>2990</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>2985</v>
+        <v>2991</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>2986</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="2" t="s">
-        <v>2987</v>
+        <v>2993</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>2988</v>
+        <v>2994</v>
       </c>
       <c r="E352" s="2" t="s">
-        <v>2989</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="2" t="s">
-        <v>2990</v>
+        <v>2996</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>2991</v>
+        <v>2997</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>2992</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="2" t="s">
-        <v>2993</v>
+        <v>2999</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>2994</v>
+        <v>3000</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>2995</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="2" t="s">
-        <v>2996</v>
+        <v>3002</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>2997</v>
+        <v>3003</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>2998</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="2" t="s">
-        <v>2999</v>
+        <v>3005</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>3000</v>
+        <v>3006</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>3001</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="2" t="s">
-        <v>3002</v>
+        <v>3008</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>3003</v>
+        <v>3009</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>3004</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="2" t="s">
-        <v>3005</v>
+        <v>3011</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>3006</v>
+        <v>3012</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>3007</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="2" t="s">
-        <v>3008</v>
+        <v>3014</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>3009</v>
+        <v>3015</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>3010</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="2" t="s">
-        <v>3011</v>
+        <v>3017</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>3012</v>
+        <v>3018</v>
       </c>
       <c r="E360" s="2" t="s">
-        <v>3013</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="2" t="s">
-        <v>3014</v>
+        <v>3020</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>3015</v>
+        <v>3021</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>3016</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="2" t="s">
-        <v>3017</v>
+        <v>3023</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>3018</v>
+        <v>3024</v>
       </c>
       <c r="E362" s="2" t="s">
-        <v>3019</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="2" t="s">
-        <v>3020</v>
+        <v>3026</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>3021</v>
+        <v>3027</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>3022</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="2" t="s">
-        <v>3023</v>
+        <v>3029</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>3024</v>
+        <v>3030</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>3025</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="2" t="s">
-        <v>3026</v>
+        <v>3032</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>3027</v>
+        <v>3033</v>
       </c>
       <c r="E365" s="2" t="s">
-        <v>3028</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="2" t="s">
-        <v>3029</v>
+        <v>3035</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>3030</v>
+        <v>3036</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>3031</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="2" t="s">
-        <v>3032</v>
+        <v>3038</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>3033</v>
+        <v>3039</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>3034</v>
+        <v>3040</v>
       </c>
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="2" t="s">
-        <v>3035</v>
+        <v>3041</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>3036</v>
+        <v>3042</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>3037</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="2" t="s">
-        <v>3038</v>
+        <v>3044</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>3039</v>
+        <v>3045</v>
       </c>
       <c r="E369" s="2" t="s">
-        <v>3040</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="2" t="s">
-        <v>3041</v>
+        <v>3047</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>3042</v>
+        <v>3048</v>
       </c>
       <c r="E370" s="2" t="s">
-        <v>3043</v>
+        <v>3049</v>
       </c>
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="2" t="s">
-        <v>3044</v>
+        <v>3050</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>3045</v>
+        <v>3051</v>
       </c>
       <c r="E371" s="2" t="s">
-        <v>3046</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="2" t="s">
-        <v>3047</v>
+        <v>3053</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>3048</v>
+        <v>3054</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>3049</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="2" t="s">
-        <v>3050</v>
+        <v>3056</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>3051</v>
+        <v>3057</v>
       </c>
       <c r="E373" s="2" t="s">
-        <v>3052</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="2" t="s">
-        <v>3053</v>
+        <v>3059</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>3054</v>
+        <v>3060</v>
       </c>
       <c r="E374" s="2" t="s">
-        <v>3055</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="2" t="s">
-        <v>3056</v>
+        <v>3062</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>3057</v>
+        <v>3063</v>
       </c>
       <c r="E375" s="2" t="s">
-        <v>3058</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="2" t="s">
-        <v>3059</v>
+        <v>3065</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>3060</v>
+        <v>3066</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>3061</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="2" t="s">
-        <v>3062</v>
+        <v>3068</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>3063</v>
+        <v>3069</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>3064</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="2" t="s">
-        <v>3065</v>
+        <v>3071</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>3066</v>
+        <v>3072</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>3067</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="2" t="s">
-        <v>3068</v>
+        <v>3074</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>3069</v>
+        <v>3075</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>3070</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="2" t="s">
-        <v>3071</v>
+        <v>3077</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>3072</v>
+        <v>3078</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>3073</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="2" t="s">
-        <v>3074</v>
+        <v>3080</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>3075</v>
+        <v>3081</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>3076</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="2" t="s">
-        <v>3077</v>
+        <v>3083</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>3078</v>
+        <v>3084</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>3079</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="2" t="s">
-        <v>3080</v>
+        <v>3086</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>3081</v>
+        <v>3087</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>3082</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="2" t="s">
-        <v>3083</v>
+        <v>3089</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>3084</v>
+        <v>3090</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>3085</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="2" t="s">
-        <v>3086</v>
+        <v>3092</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>3087</v>
+        <v>3093</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>3088</v>
+        <v>3094</v>
       </c>
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="2" t="s">
-        <v>3089</v>
+        <v>3095</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>3090</v>
+        <v>3096</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>3091</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="2" t="s">
-        <v>3092</v>
+        <v>3098</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>3093</v>
+        <v>3099</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>3094</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="2" t="s">
-        <v>3095</v>
+        <v>3101</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>3096</v>
+        <v>3102</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>3097</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="2" t="s">
-        <v>3098</v>
+        <v>3104</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>3099</v>
+        <v>3105</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>3100</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="2" t="s">
-        <v>3101</v>
+        <v>3107</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>3102</v>
+        <v>3108</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>3103</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="2" t="s">
-        <v>3104</v>
+        <v>3110</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>3105</v>
+        <v>3111</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>3106</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="2" t="s">
-        <v>3107</v>
+        <v>3113</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>3108</v>
+        <v>3114</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>3109</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="2" t="s">
-        <v>3110</v>
+        <v>3116</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>3111</v>
+        <v>3117</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>3112</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="2" t="s">
-        <v>3113</v>
+        <v>3119</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>3114</v>
+        <v>3120</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>3115</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="2" t="s">
-        <v>3116</v>
+        <v>3122</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>3117</v>
+        <v>3123</v>
       </c>
       <c r="E395" s="2" t="s">
-        <v>3118</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="2" t="s">
-        <v>3119</v>
+        <v>3125</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>3120</v>
+        <v>3126</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>3121</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="2" t="s">
-        <v>3122</v>
+        <v>3128</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>3123</v>
+        <v>3129</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>3124</v>
+        <v>3130</v>
       </c>
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="2" t="s">
-        <v>3125</v>
+        <v>3131</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>3126</v>
+        <v>3132</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>3127</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="2" t="s">
-        <v>3128</v>
+        <v>3134</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>3129</v>
+        <v>3135</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>3130</v>
+        <v>3136</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="2" t="s">
-        <v>3131</v>
+        <v>3137</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>3132</v>
+        <v>3138</v>
       </c>
       <c r="E400" s="2" t="s">
-        <v>3133</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="2" t="s">
-        <v>3134</v>
+        <v>3140</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>3135</v>
+        <v>3141</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>3136</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="402" ht="409.5" spans="1:5">
       <c r="A402" s="2" t="s">
-        <v>3137</v>
+        <v>3143</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>3138</v>
+        <v>3144</v>
       </c>
       <c r="E402" s="4" t="s">
-        <v>3139</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="2" t="s">
-        <v>3140</v>
+        <v>3146</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>3141</v>
+        <v>3147</v>
       </c>
       <c r="E403" s="2" t="s">
-        <v>3142</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="2" t="s">
-        <v>3143</v>
+        <v>3149</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>3144</v>
+        <v>3150</v>
       </c>
       <c r="E404" s="2" t="s">
-        <v>3145</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="2" t="s">
-        <v>3146</v>
+        <v>3152</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>3147</v>
+        <v>3153</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>3148</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="2" t="s">
-        <v>3149</v>
+        <v>3155</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>3150</v>
+        <v>3156</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>3151</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="2" t="s">
-        <v>3152</v>
+        <v>3158</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>3153</v>
+        <v>3159</v>
       </c>
       <c r="E407" s="2" t="s">
-        <v>3154</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="2" t="s">
-        <v>3155</v>
+        <v>3161</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>3156</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="2" t="s">
-        <v>3157</v>
+        <v>3163</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>3158</v>
+        <v>3164</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>3159</v>
+        <v>3165</v>
       </c>
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="2" t="s">
-        <v>3160</v>
+        <v>3166</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>3161</v>
+        <v>3167</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>3162</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="2" t="s">
-        <v>3163</v>
+        <v>3169</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>3164</v>
+        <v>3170</v>
       </c>
       <c r="E411" s="2" t="s">
-        <v>3165</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="2" t="s">
-        <v>3166</v>
+        <v>3172</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>3167</v>
+        <v>3173</v>
       </c>
       <c r="E412" s="2" t="s">
-        <v>3168</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="2" t="s">
-        <v>3169</v>
+        <v>3175</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>3170</v>
+        <v>3176</v>
       </c>
       <c r="E413" s="2" t="s">
-        <v>3171</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="2" t="s">
-        <v>3172</v>
+        <v>3178</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>3173</v>
+        <v>3179</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>3174</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="2" t="s">
-        <v>3175</v>
+        <v>3181</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>3176</v>
+        <v>3182</v>
       </c>
       <c r="E415" s="2" t="s">
-        <v>3177</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="2" t="s">
-        <v>3178</v>
+        <v>3184</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>3179</v>
+        <v>3185</v>
       </c>
       <c r="E416" s="2" t="s">
-        <v>3180</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="2" t="s">
-        <v>3181</v>
+        <v>3187</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E417" s="2" t="s">
-        <v>3182</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="2" t="s">
-        <v>3183</v>
+        <v>3189</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>3184</v>
+        <v>3190</v>
       </c>
       <c r="E418" s="2" t="s">
-        <v>3185</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="2" t="s">
-        <v>3186</v>
+        <v>3192</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>3187</v>
+        <v>3193</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>3188</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="2" t="s">
-        <v>3189</v>
+        <v>3195</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>3190</v>
+        <v>3196</v>
       </c>
       <c r="E420" s="2" t="s">
-        <v>3191</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="2" t="s">
-        <v>3192</v>
+        <v>3198</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>3193</v>
+        <v>3199</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>3194</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="2" t="s">
-        <v>3195</v>
+        <v>3201</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>3196</v>
+        <v>3202</v>
       </c>
       <c r="E422" s="2" t="s">
-        <v>3197</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="2" t="s">
-        <v>3198</v>
+        <v>3204</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>3199</v>
+        <v>3205</v>
       </c>
       <c r="E423" s="2" t="s">
-        <v>3200</v>
+        <v>3206</v>
       </c>
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="2" t="s">
-        <v>3201</v>
+        <v>3207</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>3202</v>
+        <v>3208</v>
       </c>
       <c r="E424" s="2" t="s">
-        <v>3203</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="2" t="s">
-        <v>3204</v>
+        <v>3210</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>3205</v>
+        <v>3211</v>
       </c>
       <c r="E425" s="2" t="s">
-        <v>3206</v>
+        <v>3212</v>
       </c>
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="2" t="s">
-        <v>3207</v>
+        <v>3213</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>3208</v>
+        <v>3214</v>
       </c>
       <c r="E426" s="2" t="s">
-        <v>3209</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="2" t="s">
-        <v>3210</v>
+        <v>3216</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>3211</v>
+        <v>3217</v>
       </c>
       <c r="E427" s="2" t="s">
-        <v>3212</v>
+        <v>3218</v>
       </c>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="2" t="s">
-        <v>3213</v>
+        <v>3219</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>3214</v>
+        <v>3220</v>
       </c>
       <c r="E428" s="2" t="s">
-        <v>3215</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="2" t="s">
-        <v>3216</v>
+        <v>3222</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>3217</v>
+        <v>3223</v>
       </c>
       <c r="E429" s="2" t="s">
-        <v>3218</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="2" t="s">
-        <v>3219</v>
+        <v>3225</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>1845</v>
@@ -33715,145 +33761,145 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="2" t="s">
-        <v>3220</v>
+        <v>3226</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>3221</v>
+        <v>3227</v>
       </c>
       <c r="E431" s="2" t="s">
-        <v>3222</v>
+        <v>3228</v>
       </c>
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="2" t="s">
-        <v>3223</v>
+        <v>3229</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>3224</v>
+        <v>3230</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>3225</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="2" t="s">
-        <v>3226</v>
+        <v>3232</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>3227</v>
+        <v>3233</v>
       </c>
       <c r="E433" s="2" t="s">
-        <v>3228</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="2" t="s">
-        <v>3229</v>
+        <v>3235</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>3217</v>
+        <v>3223</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>3218</v>
+        <v>3224</v>
       </c>
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="2" t="s">
-        <v>3230</v>
+        <v>3236</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>3231</v>
+        <v>3237</v>
       </c>
       <c r="E435" s="2" t="s">
-        <v>3232</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="2" t="s">
-        <v>3233</v>
+        <v>3239</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>3234</v>
+        <v>3240</v>
       </c>
       <c r="E436" s="2" t="s">
-        <v>3235</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="2" t="s">
-        <v>3236</v>
+        <v>3242</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>3237</v>
+        <v>3243</v>
       </c>
       <c r="E437" s="2" t="s">
-        <v>3238</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="2" t="s">
-        <v>3239</v>
+        <v>3245</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>3240</v>
+        <v>3246</v>
       </c>
       <c r="E438" s="2" t="s">
-        <v>3241</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="2" t="s">
-        <v>3242</v>
+        <v>3248</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>3243</v>
+        <v>3249</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>3244</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="2" t="s">
-        <v>3245</v>
+        <v>3251</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>3246</v>
+        <v>3252</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>3247</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="2" t="s">
-        <v>3248</v>
+        <v>3254</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>3249</v>
+        <v>3255</v>
       </c>
       <c r="E441" s="2" t="s">
-        <v>3250</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="2" t="s">
-        <v>3251</v>
+        <v>3257</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>3252</v>
+        <v>3258</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>3253</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="2" t="s">
-        <v>3254</v>
+        <v>3260</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>2659</v>
+        <v>2665</v>
       </c>
       <c r="E443" s="2" t="s">
-        <v>2660</v>
+        <v>2666</v>
       </c>
     </row>
   </sheetData>

--- a/nevergiveup/Excel/Language_多语言.xlsx
+++ b/nevergiveup/Excel/Language_多语言.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360" tabRatio="500"/>
+    <workbookView windowHeight="18375" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4536,19 +4536,19 @@
     <t>Task_taskName_55</t>
   </si>
   <si>
-    <t>Finish 5 game</t>
-  </si>
-  <si>
-    <t>完成5局游戏</t>
+    <t>Finish 10 game</t>
+  </si>
+  <si>
+    <t>完成10局游戏</t>
   </si>
   <si>
     <t>Task_taskName_56</t>
   </si>
   <si>
-    <t>Finish 10 game with Perfection</t>
-  </si>
-  <si>
-    <t>完成10局完美通关</t>
+    <t>Finish 2 game with Perfection</t>
+  </si>
+  <si>
+    <t>完成2局完美通关</t>
   </si>
   <si>
     <t>Task_taskName_57</t>
@@ -5190,10 +5190,10 @@
     <t>Task_taskinfo_73</t>
   </si>
   <si>
-    <t>Unlocked 2 Tower Today</t>
-  </si>
-  <si>
-    <t>今日解锁2个塔</t>
+    <t>Unlocked 1 Tower Today</t>
+  </si>
+  <si>
+    <t>今日解锁1个塔</t>
   </si>
   <si>
     <t>Return_text_1</t>
@@ -15958,9 +15958,9 @@
   <dimension ref="A1:L719"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A708" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A557" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C729" sqref="C729"/>
+      <selection pane="bottomLeft" activeCell="D622" sqref="D622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5"/>
